--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79935D75-EFB4-4920-905F-772D73D94A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283067D5-B4C9-40C7-9819-6EB1A1D56245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="1155" windowWidth="23670" windowHeight="14280" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="4635" yWindow="585" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
   <si>
     <t>SMCI</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>Core Rev</t>
-  </si>
-  <si>
-    <t>Datavolt Rev</t>
   </si>
   <si>
     <t>20b deal w/ datavolt</t>
@@ -1121,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5214CC-655A-4E11-87EC-D301395A4983}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1246,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>5</v>
@@ -1287,11 +1284,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3098DAD7-B3FD-4340-A438-67E4C3210CEC}">
   <dimension ref="A1:DR105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA54" sqref="AA54"/>
+      <selection pane="bottomRight" activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1496,7 +1493,7 @@
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="13"/>
       <c r="I6" s="13"/>
@@ -1519,7 +1516,7 @@
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="13"/>
       <c r="I7" s="13"/>
@@ -1545,7 +1542,7 @@
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="13"/>
       <c r="I8" s="13"/>
@@ -1573,7 +1570,7 @@
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="13"/>
       <c r="I9" s="13"/>
@@ -1610,7 +1607,7 @@
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="13"/>
       <c r="I11" s="13"/>
@@ -1631,7 +1628,7 @@
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="13"/>
       <c r="I12" s="13"/>
@@ -1656,7 +1653,7 @@
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="13"/>
       <c r="I13" s="13"/>
@@ -1683,7 +1680,7 @@
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="13"/>
       <c r="I14" s="13"/>
@@ -2134,71 +2131,59 @@
       </c>
     </row>
     <row r="31" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="V31" s="19">
-        <v>5000</v>
-      </c>
-      <c r="W31" s="19">
-        <v>5000</v>
-      </c>
-      <c r="X31" s="19">
-        <v>5000</v>
-      </c>
-      <c r="Y31" s="19">
-        <v>5000</v>
-      </c>
-      <c r="Z31" s="19">
-        <v>0</v>
-      </c>
+      <c r="B31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
     </row>
     <row r="32" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P32" s="2">
-        <f>SUM(P30:P31)</f>
+        <f t="shared" ref="P32:V32" si="12">SUM(P30:P31)</f>
         <v>3339.3</v>
       </c>
       <c r="Q32" s="2">
-        <f>SUM(Q30:Q31)</f>
+        <f t="shared" si="12"/>
         <v>3557.4</v>
       </c>
       <c r="R32" s="2">
-        <f>SUM(R30:R31)</f>
+        <f t="shared" si="12"/>
         <v>5196.1000000000004</v>
       </c>
       <c r="S32" s="2">
-        <f>SUM(S30:S31)</f>
+        <f t="shared" si="12"/>
         <v>7123.4</v>
       </c>
       <c r="T32" s="2">
-        <f>SUM(T30:T31)</f>
+        <f t="shared" si="12"/>
         <v>14989.2</v>
       </c>
       <c r="U32" s="2">
-        <f>SUM(U30:U31)</f>
+        <f t="shared" si="12"/>
         <v>22215</v>
       </c>
       <c r="V32" s="2">
-        <f>SUM(V30:V31)</f>
-        <v>35000</v>
+        <f t="shared" si="12"/>
+        <v>30000</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" ref="W32:Z32" si="12">SUM(W30:W31)</f>
-        <v>41000</v>
+        <f t="shared" ref="W32:Z32" si="13">SUM(W30:W31)</f>
+        <v>36000</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="12"/>
-        <v>48200</v>
+        <f t="shared" si="13"/>
+        <v>43200</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="12"/>
-        <v>56840</v>
+        <f t="shared" si="13"/>
+        <v>51840</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>62208</v>
       </c>
     </row>
@@ -2228,23 +2213,23 @@
         <v>4159</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" ref="J33:L33" si="13">J30*(1-J52)</f>
+        <f t="shared" ref="J33:L33" si="14">J30*(1-J52)</f>
         <v>5280</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6336</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6526.08</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" ref="M33:N33" si="14">M30*(1-M52)</f>
+        <f t="shared" ref="M33:N33" si="15">M30*(1-M52)</f>
         <v>6721.8624000000009</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9410.60736</v>
       </c>
       <c r="P33" s="8">
@@ -2268,23 +2253,23 @@
       </c>
       <c r="V33" s="8">
         <f>V32*(1-V52)</f>
-        <v>30800</v>
+        <v>26100</v>
       </c>
       <c r="W33" s="8">
-        <f t="shared" ref="W33:Z33" si="15">W32*(1-W52)</f>
-        <v>35981.599999999999</v>
+        <f t="shared" ref="W33:Z33" si="16">W32*(1-W52)</f>
+        <v>31226.399999999998</v>
       </c>
       <c r="X33" s="8">
-        <f t="shared" si="15"/>
-        <v>42182.326400000005</v>
+        <f t="shared" si="16"/>
+        <v>37357.113599999997</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" si="15"/>
-        <v>49601.712473599997</v>
+        <f t="shared" si="16"/>
+        <v>44688.307046400005</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" si="15"/>
-        <v>54127.687222886401</v>
+        <f t="shared" si="16"/>
+        <v>53454.327824793596</v>
       </c>
     </row>
     <row r="34" spans="2:92" x14ac:dyDescent="0.2">
@@ -2296,15 +2281,15 @@
         <v>1766</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" ref="D34:F34" si="16">D30-D33</f>
+        <f t="shared" ref="D34:F34" si="17">D30-D33</f>
         <v>564.30000000000018</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>597.30000000000018</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>596.30000000000018</v>
       </c>
       <c r="G34" s="8">
@@ -2316,72 +2301,72 @@
         <v>670.10000000000036</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" ref="I34:L34" si="17">I30-I33</f>
+        <f t="shared" ref="I34:L34" si="18">I30-I33</f>
         <v>441</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>720</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>864</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>889.92000000000007</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" ref="M34:N34" si="18">M30-M33</f>
+        <f t="shared" ref="M34:N34" si="19">M30-M33</f>
         <v>916.61759999999958</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1283.2646399999994</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" ref="P34:R34" si="19">P30-P33</f>
+        <f t="shared" ref="P34:R34" si="20">P30-P33</f>
         <v>526.20000000000027</v>
       </c>
       <c r="Q34" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>534.5</v>
       </c>
       <c r="R34" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>800</v>
       </c>
       <c r="S34" s="8">
-        <f t="shared" ref="S34:T34" si="20">S30-S33</f>
+        <f t="shared" ref="S34:T34" si="21">S30-S33</f>
         <v>1283</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2061.4000000000015</v>
       </c>
       <c r="U34" s="8">
-        <f t="shared" ref="U34" si="21">U30-U33</f>
+        <f t="shared" ref="U34" si="22">U30-U33</f>
         <v>2606.5</v>
       </c>
       <c r="V34" s="8">
         <f>V32-V33</f>
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="W34" s="8">
-        <f t="shared" ref="W34:Z34" si="22">W32-W33</f>
-        <v>5018.4000000000015</v>
+        <f t="shared" ref="W34:Z34" si="23">W32-W33</f>
+        <v>4773.6000000000022</v>
       </c>
       <c r="X34" s="8">
-        <f t="shared" si="22"/>
-        <v>6017.6735999999946</v>
+        <f t="shared" si="23"/>
+        <v>5842.8864000000031</v>
       </c>
       <c r="Y34" s="8">
-        <f t="shared" si="22"/>
-        <v>7238.2875264000031</v>
+        <f t="shared" si="23"/>
+        <v>7151.6929535999952</v>
       </c>
       <c r="Z34" s="8">
-        <f t="shared" si="22"/>
-        <v>8080.3127771135987</v>
+        <f t="shared" si="23"/>
+        <v>8753.6721752064041</v>
       </c>
     </row>
     <row r="35" spans="2:92" x14ac:dyDescent="0.2">
@@ -2414,19 +2399,19 @@
         <v>212.47826086956522</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" ref="K35:L35" si="23">J35*1.01</f>
+        <f t="shared" ref="K35:L35" si="24">J35*1.01</f>
         <v>214.60304347826087</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>216.74907391304347</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M35" si="24">L35*1.01</f>
+        <f t="shared" ref="M35" si="25">L35*1.01</f>
         <v>218.91656465217392</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" ref="N35" si="25">M35*1.01</f>
+        <f t="shared" ref="N35" si="26">M35*1.01</f>
         <v>221.10573029869565</v>
       </c>
       <c r="P35" s="8">
@@ -2449,24 +2434,24 @@
         <v>665.7782608695652</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" ref="V35:Z35" si="26">U35*(1+V48)</f>
-        <v>1048.9416669113114</v>
+        <f t="shared" ref="V35:Z35" si="27">U35*(1+V48)</f>
+        <v>899.09285735255264</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" si="26"/>
-        <v>1228.7602383818219</v>
+        <f t="shared" si="27"/>
+        <v>1078.911428823063</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" si="26"/>
-        <v>1444.5425241464345</v>
+        <f t="shared" si="27"/>
+        <v>1294.6937145876757</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" si="26"/>
-        <v>1703.4812670639697</v>
+        <f t="shared" si="27"/>
+        <v>1553.6324575052108</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" si="26"/>
-        <v>1864.3589490062532</v>
+        <f t="shared" si="27"/>
+        <v>1864.3589490062529</v>
       </c>
     </row>
     <row r="36" spans="2:92" x14ac:dyDescent="0.2">
@@ -2495,23 +2480,23 @@
         <v>60</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" ref="J36:L36" si="27">I36*(1+J49)</f>
+        <f t="shared" ref="J36:L36" si="28">I36*(1+J49)</f>
         <v>78.260869565217391</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>93.91304347826086</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>96.730434782608683</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" ref="M36" si="28">L36*(1+M49)</f>
+        <f t="shared" ref="M36" si="29">L36*(1+M49)</f>
         <v>99.632347826086942</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" ref="N36" si="29">M36*(1+N49)</f>
+        <f t="shared" ref="N36" si="30">M36*(1+N49)</f>
         <v>139.48528695652172</v>
       </c>
       <c r="P36" s="8">
@@ -2534,24 +2519,24 @@
         <v>286.56086956521739</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" ref="V36:Z36" si="30">U36*(1+V48)</f>
-        <v>451.4801005979117</v>
+        <f t="shared" ref="V36:Z36" si="31">U36*(1+V48)</f>
+        <v>386.98294336963863</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" si="30"/>
-        <v>528.8766892718395</v>
+        <f t="shared" si="31"/>
+        <v>464.37953204356631</v>
       </c>
       <c r="X36" s="8">
-        <f t="shared" si="30"/>
-        <v>621.75259568055276</v>
+        <f t="shared" si="31"/>
+        <v>557.25543845227958</v>
       </c>
       <c r="Y36" s="8">
-        <f t="shared" si="30"/>
-        <v>733.20368337100865</v>
+        <f t="shared" si="31"/>
+        <v>668.70652614273547</v>
       </c>
       <c r="Z36" s="8">
-        <f t="shared" si="30"/>
-        <v>802.44783137128275</v>
+        <f t="shared" si="31"/>
+        <v>802.44783137128252</v>
       </c>
     </row>
     <row r="37" spans="2:92" x14ac:dyDescent="0.2">
@@ -2580,23 +2565,23 @@
         <v>70.599999999999994</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" ref="J37:L37" si="31">I37*(1+J49)</f>
+        <f t="shared" ref="J37:L37" si="32">I37*(1+J49)</f>
         <v>92.086956521739125</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>110.50434782608694</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>113.81947826086956</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" ref="M37" si="32">L37*(1+M49)</f>
+        <f t="shared" ref="M37" si="33">L37*(1+M49)</f>
         <v>117.23406260869565</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" ref="N37" si="33">M37*(1+N49)</f>
+        <f t="shared" ref="N37" si="34">M37*(1+N49)</f>
         <v>164.1276876521739</v>
       </c>
       <c r="P37" s="8">
@@ -2619,24 +2604,24 @@
         <v>291.4869565217391</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" ref="V37:Z37" si="34">U37*(1+V48)</f>
-        <v>459.24120991496142</v>
+        <f t="shared" ref="V37:Z37" si="35">U37*(1+V48)</f>
+        <v>393.63532278425271</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" si="34"/>
-        <v>537.96827447181192</v>
+        <f t="shared" si="35"/>
+        <v>472.36238734110322</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" si="34"/>
-        <v>632.44075194003256</v>
+        <f t="shared" si="35"/>
+        <v>566.83486480932379</v>
       </c>
       <c r="Y37" s="8">
-        <f t="shared" si="34"/>
-        <v>745.80772490189736</v>
+        <f t="shared" si="35"/>
+        <v>680.20183777118848</v>
       </c>
       <c r="Z37" s="8">
-        <f t="shared" si="34"/>
-        <v>816.24220532542631</v>
+        <f t="shared" si="35"/>
+        <v>816.2422053254262</v>
       </c>
     </row>
     <row r="38" spans="2:92" x14ac:dyDescent="0.2">
@@ -2648,15 +2633,15 @@
         <v>182.1</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" ref="D38:F38" si="35">SUM(D35:D37)</f>
+        <f t="shared" ref="D38:F38" si="36">SUM(D35:D37)</f>
         <v>192.8</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>219</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>253.00000000000003</v>
       </c>
       <c r="G38" s="8">
@@ -2668,71 +2653,71 @@
         <v>301.3</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" ref="I38:L38" si="36">SUM(I35:I37)</f>
+        <f t="shared" ref="I38:L38" si="37">SUM(I35:I37)</f>
         <v>293.5</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>382.82608695652175</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>419.02043478260867</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>427.29898695652173</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" ref="M38:N38" si="37">SUM(M35:M37)</f>
+        <f t="shared" ref="M38:N38" si="38">SUM(M35:M37)</f>
         <v>435.78297508695647</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>524.71870490739127</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" ref="P38:R38" si="38">SUM(P35:P37)</f>
+        <f t="shared" ref="P38:R38" si="39">SUM(P35:P37)</f>
         <v>440.6</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>410.6</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>464.79999999999995</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" ref="S38:T38" si="39">SUM(S35:S37)</f>
+        <f t="shared" ref="S38:T38" si="40">SUM(S35:S37)</f>
         <v>521.76</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>850.5</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" ref="U38:Y38" si="40">SUM(U35:U37)</f>
+        <f t="shared" ref="U38:Y38" si="41">SUM(U35:U37)</f>
         <v>1243.8260869565217</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="40"/>
-        <v>1959.6629774241846</v>
+        <f t="shared" si="41"/>
+        <v>1679.711123506444</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" si="40"/>
-        <v>2295.6052021254732</v>
+        <f t="shared" si="41"/>
+        <v>2015.6533482077325</v>
       </c>
       <c r="X38" s="8">
-        <f t="shared" si="40"/>
-        <v>2698.7358717670199</v>
+        <f t="shared" si="41"/>
+        <v>2418.7840178492788</v>
       </c>
       <c r="Y38" s="8">
-        <f t="shared" si="40"/>
-        <v>3182.4926753368759</v>
+        <f t="shared" si="41"/>
+        <v>2902.5408214191348</v>
       </c>
       <c r="Z38" s="8">
-        <f t="shared" ref="Z38" si="41">SUM(Z35:Z37)</f>
+        <f t="shared" ref="Z38" si="42">SUM(Z35:Z37)</f>
         <v>3483.048985702962</v>
       </c>
     </row>
@@ -2745,15 +2730,15 @@
         <v>1583.9</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39:F39" si="42">D34-D38</f>
+        <f t="shared" ref="D39:F39" si="43">D34-D38</f>
         <v>371.50000000000017</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>378.30000000000018</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>343.30000000000018</v>
       </c>
       <c r="G39" s="2">
@@ -2765,72 +2750,72 @@
         <v>368.80000000000035</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" ref="I39:L39" si="43">I34-I38</f>
+        <f t="shared" ref="I39:L39" si="44">I34-I38</f>
         <v>147.5</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>337.17391304347825</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>444.97956521739133</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>462.62101304347834</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" ref="M39:N39" si="44">M34-M38</f>
+        <f t="shared" ref="M39:N39" si="45">M34-M38</f>
         <v>480.83462491304311</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>758.54593509260815</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" ref="P39:R39" si="45">P34-P38</f>
+        <f t="shared" ref="P39:R39" si="46">P34-P38</f>
         <v>85.60000000000025</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>123.89999999999998</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>335.20000000000005</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" ref="S39:T39" si="46">S34-S38</f>
+        <f t="shared" ref="S39:T39" si="47">S34-S38</f>
         <v>761.24</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1210.9000000000015</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" ref="U39:V39" si="47">U34-U38</f>
+        <f t="shared" ref="U39:V39" si="48">U34-U38</f>
         <v>1362.6739130434783</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="47"/>
-        <v>2240.3370225758154</v>
+        <f t="shared" si="48"/>
+        <v>2220.288876493556</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" ref="W39" si="48">W34-W38</f>
-        <v>2722.7947978745283</v>
+        <f t="shared" ref="W39" si="49">W34-W38</f>
+        <v>2757.9466517922697</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" ref="X39" si="49">X34-X38</f>
-        <v>3318.9377282329747</v>
+        <f t="shared" ref="X39" si="50">X34-X38</f>
+        <v>3424.1023821507242</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" ref="Y39:Z39" si="50">Y34-Y38</f>
-        <v>4055.7948510631272</v>
+        <f t="shared" ref="Y39:Z39" si="51">Y34-Y38</f>
+        <v>4249.1521321808605</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" si="50"/>
-        <v>4597.2637914106363</v>
+        <f t="shared" si="51"/>
+        <v>5270.6231895034416</v>
       </c>
     </row>
     <row r="40" spans="2:92" x14ac:dyDescent="0.2">
@@ -2942,19 +2927,19 @@
       </c>
       <c r="W41" s="8">
         <f>V56*$AC$48</f>
-        <v>121.83918941631504</v>
+        <v>120.86484951671724</v>
       </c>
       <c r="X41" s="8">
         <f>W56*$AC$48</f>
-        <v>261.47736795799602</v>
+        <v>262.1529477648246</v>
       </c>
       <c r="Y41" s="8">
         <f>X56*$AC$48</f>
-        <v>438.46638362759836</v>
+        <v>444.29350040323925</v>
       </c>
       <c r="Z41" s="8">
         <f>Y56*$AC$48</f>
-        <v>661.88599640692223</v>
+        <v>677.45990405142345</v>
       </c>
     </row>
     <row r="42" spans="2:92" x14ac:dyDescent="0.2">
@@ -2966,15 +2951,15 @@
         <v>1588.7</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" ref="D42:F42" si="51">D39+SUM(D40:D41)</f>
+        <f t="shared" ref="D42:F42" si="52">D39+SUM(D40:D41)</f>
         <v>355.50000000000017</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>382.00000000000017</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>354.20000000000016</v>
       </c>
       <c r="G42" s="8">
@@ -2986,72 +2971,72 @@
         <v>375.20000000000033</v>
       </c>
       <c r="I42" s="8">
-        <f t="shared" ref="I42:L42" si="52">I39+SUM(I40:I41)</f>
+        <f t="shared" ref="I42:L42" si="53">I39+SUM(I40:I41)</f>
         <v>115.8</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>335.94691304347828</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>448.03588835869567</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>471.38979376135603</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" ref="M42:N42" si="53">M39+SUM(M40:M41)</f>
+        <f t="shared" ref="M42:N42" si="54">M39+SUM(M40:M41)</f>
         <v>495.61362550137812</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>779.64400940608573</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" ref="P42:R42" si="54">P39+SUM(P40:P41)</f>
+        <f t="shared" ref="P42:R42" si="55">P39+SUM(P40:P41)</f>
         <v>84.800000000000253</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>118.59999999999998</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>336.90000000000003</v>
       </c>
       <c r="S42" s="8">
-        <f t="shared" ref="S42:T42" si="55">S39+SUM(S40:S41)</f>
+        <f t="shared" ref="S42:T42" si="56">S39+SUM(S40:S41)</f>
         <v>761.24</v>
       </c>
       <c r="T42" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1214.2500000000014</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" ref="U42:V42" si="56">U39+SUM(U40:U41)</f>
+        <f t="shared" ref="U42:V42" si="57">U39+SUM(U40:U41)</f>
         <v>1326.0469130434783</v>
       </c>
       <c r="V42" s="8">
-        <f t="shared" si="56"/>
-        <v>2252.5623151410327</v>
+        <f t="shared" si="57"/>
+        <v>2232.5141690587734</v>
       </c>
       <c r="W42" s="8">
-        <f t="shared" ref="W42" si="57">W39+SUM(W40:W41)</f>
-        <v>2844.6339872908434</v>
+        <f t="shared" ref="W42" si="58">W39+SUM(W40:W41)</f>
+        <v>2878.8115013089869</v>
       </c>
       <c r="X42" s="8">
-        <f t="shared" ref="X42" si="58">X39+SUM(X40:X41)</f>
-        <v>3580.4150961909709</v>
+        <f t="shared" ref="X42" si="59">X39+SUM(X40:X41)</f>
+        <v>3686.2553299155488</v>
       </c>
       <c r="Y42" s="8">
-        <f t="shared" ref="Y42:Z42" si="59">Y39+SUM(Y40:Y41)</f>
-        <v>4494.2612346907254</v>
+        <f t="shared" ref="Y42:Z42" si="60">Y39+SUM(Y40:Y41)</f>
+        <v>4693.4456325841002</v>
       </c>
       <c r="Z42" s="8">
-        <f t="shared" si="59"/>
-        <v>5259.1497878175587</v>
+        <f t="shared" si="60"/>
+        <v>5948.0830935548647</v>
       </c>
     </row>
     <row r="43" spans="2:92" x14ac:dyDescent="0.2">
@@ -3084,19 +3069,19 @@
         <v>50.392036956521743</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" ref="K43:N43" si="60">K42*K50</f>
+        <f t="shared" ref="K43:N43" si="61">K42*K50</f>
         <v>67.205383253804342</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>70.708469064203399</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>74.342043825206716</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>116.94660141091285</v>
       </c>
       <c r="P43" s="8">
@@ -3119,24 +3104,24 @@
         <v>187.79203695652174</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" ref="V43:Z43" si="61">V50*V39</f>
-        <v>425.66403428940492</v>
+        <f t="shared" ref="V43:Z43" si="62">V50*V39</f>
+        <v>421.85488653377564</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="61"/>
-        <v>517.33101159616035</v>
+        <f t="shared" si="62"/>
+        <v>524.00986384053124</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="61"/>
-        <v>630.59816836426523</v>
+        <f t="shared" si="62"/>
+        <v>650.57945260863767</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="61"/>
-        <v>770.60102170199423</v>
+        <f t="shared" si="62"/>
+        <v>807.33890511436346</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="61"/>
-        <v>873.48012036802095</v>
+        <f t="shared" si="62"/>
+        <v>1001.4184060056539</v>
       </c>
     </row>
     <row r="44" spans="2:92" ht="15" x14ac:dyDescent="0.25">
@@ -3148,15 +3133,15 @@
         <v>1568.5</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" ref="D44:F44" si="62">D42-D43</f>
+        <f t="shared" ref="D44:F44" si="63">D42-D43</f>
         <v>417.00000000000017</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>402.00000000000017</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>353.20000000000016</v>
       </c>
       <c r="G44" s="2">
@@ -3176,329 +3161,329 @@
         <v>285.55487608695654</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" ref="K44:L44" si="63">K42-K43</f>
+        <f t="shared" ref="K44:L44" si="64">K42-K43</f>
         <v>380.83050510489136</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>400.6813246971526</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" ref="M44:N44" si="64">M42-M43</f>
+        <f t="shared" ref="M44:N44" si="65">M42-M43</f>
         <v>421.27158167617142</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>662.69740799517285</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2">
-        <f t="shared" ref="P44:R44" si="65">P42-P43</f>
+        <f t="shared" ref="P44:R44" si="66">P42-P43</f>
         <v>81.900000000000247</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>111.69999999999997</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>284.00000000000006</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" ref="S44:Y44" si="66">S42-S43</f>
+        <f t="shared" ref="S44:Y44" si="67">S42-S43</f>
         <v>650.64</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1150.9500000000014</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1138.2548760869565</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="66"/>
-        <v>1826.8982808516278</v>
+        <f t="shared" si="67"/>
+        <v>1810.6592825249977</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="66"/>
-        <v>2327.302975694683</v>
+        <f t="shared" si="67"/>
+        <v>2354.8016374684557</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="66"/>
-        <v>2949.8169278267055</v>
+        <f t="shared" si="67"/>
+        <v>3035.6758773069114</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="66"/>
-        <v>3723.660212988731</v>
+        <f t="shared" si="67"/>
+        <v>3886.1067274697366</v>
       </c>
       <c r="Z44" s="2">
-        <f t="shared" ref="Z44" si="67">Z42-Z43</f>
-        <v>4385.6696674495379</v>
+        <f t="shared" ref="Z44" si="68">Z42-Z43</f>
+        <v>4946.6646875492106</v>
       </c>
       <c r="AA44" s="2">
-        <f t="shared" ref="AA44:BF44" si="68">Z44*(1+$AC$49)</f>
-        <v>4429.5263641240335</v>
+        <f t="shared" ref="AA44:BF44" si="69">Z44*(1+$AC$49)</f>
+        <v>4996.1313344247028</v>
       </c>
       <c r="AB44" s="2">
-        <f t="shared" si="68"/>
-        <v>4473.8216277652737</v>
+        <f t="shared" si="69"/>
+        <v>5046.09264776895</v>
       </c>
       <c r="AC44" s="2">
-        <f t="shared" si="68"/>
-        <v>4518.5598440429267</v>
+        <f t="shared" si="69"/>
+        <v>5096.5535742466391</v>
       </c>
       <c r="AD44" s="2">
-        <f t="shared" si="68"/>
-        <v>4563.7454424833559</v>
+        <f t="shared" si="69"/>
+        <v>5147.5191099891053</v>
       </c>
       <c r="AE44" s="2">
-        <f t="shared" si="68"/>
-        <v>4609.3828969081897</v>
+        <f t="shared" si="69"/>
+        <v>5198.9943010889965</v>
       </c>
       <c r="AF44" s="2">
-        <f t="shared" si="68"/>
-        <v>4655.4767258772717</v>
+        <f t="shared" si="69"/>
+        <v>5250.9842440998864</v>
       </c>
       <c r="AG44" s="2">
-        <f t="shared" si="68"/>
-        <v>4702.0314931360444</v>
+        <f t="shared" si="69"/>
+        <v>5303.4940865408853</v>
       </c>
       <c r="AH44" s="2">
-        <f t="shared" si="68"/>
-        <v>4749.0518080674046</v>
+        <f t="shared" si="69"/>
+        <v>5356.5290274062945</v>
       </c>
       <c r="AI44" s="2">
-        <f t="shared" si="68"/>
-        <v>4796.5423261480792</v>
+        <f t="shared" si="69"/>
+        <v>5410.0943176803576</v>
       </c>
       <c r="AJ44" s="2">
-        <f t="shared" si="68"/>
-        <v>4844.5077494095603</v>
+        <f t="shared" si="69"/>
+        <v>5464.195260857161</v>
       </c>
       <c r="AK44" s="2">
-        <f t="shared" si="68"/>
-        <v>4892.9528269036564</v>
+        <f t="shared" si="69"/>
+        <v>5518.8372134657329</v>
       </c>
       <c r="AL44" s="2">
-        <f t="shared" si="68"/>
-        <v>4941.8823551726928</v>
+        <f t="shared" si="69"/>
+        <v>5574.0255856003905</v>
       </c>
       <c r="AM44" s="2">
-        <f t="shared" si="68"/>
-        <v>4991.3011787244195</v>
+        <f t="shared" si="69"/>
+        <v>5629.7658414563948</v>
       </c>
       <c r="AN44" s="2">
-        <f t="shared" si="68"/>
-        <v>5041.2141905116641</v>
+        <f t="shared" si="69"/>
+        <v>5686.0634998709584</v>
       </c>
       <c r="AO44" s="2">
-        <f t="shared" si="68"/>
-        <v>5091.6263324167812</v>
+        <f t="shared" si="69"/>
+        <v>5742.9241348696678</v>
       </c>
       <c r="AP44" s="2">
-        <f t="shared" si="68"/>
-        <v>5142.5425957409489</v>
+        <f t="shared" si="69"/>
+        <v>5800.3533762183642</v>
       </c>
       <c r="AQ44" s="2">
-        <f t="shared" si="68"/>
-        <v>5193.9680216983588</v>
+        <f t="shared" si="69"/>
+        <v>5858.3569099805482</v>
       </c>
       <c r="AR44" s="2">
-        <f t="shared" si="68"/>
-        <v>5245.9077019153428</v>
+        <f t="shared" si="69"/>
+        <v>5916.9404790803537</v>
       </c>
       <c r="AS44" s="2">
-        <f t="shared" si="68"/>
-        <v>5298.3667789344963</v>
+        <f t="shared" si="69"/>
+        <v>5976.1098838711578</v>
       </c>
       <c r="AT44" s="2">
-        <f t="shared" si="68"/>
-        <v>5351.3504467238417</v>
+        <f t="shared" si="69"/>
+        <v>6035.8709827098692</v>
       </c>
       <c r="AU44" s="2">
-        <f t="shared" si="68"/>
-        <v>5404.8639511910806</v>
+        <f t="shared" si="69"/>
+        <v>6096.2296925369683</v>
       </c>
       <c r="AV44" s="2">
-        <f t="shared" si="68"/>
-        <v>5458.9125907029911</v>
+        <f t="shared" si="69"/>
+        <v>6157.1919894623379</v>
       </c>
       <c r="AW44" s="2">
-        <f t="shared" si="68"/>
-        <v>5513.5017166100215</v>
+        <f t="shared" si="69"/>
+        <v>6218.7639093569614</v>
       </c>
       <c r="AX44" s="2">
-        <f t="shared" si="68"/>
-        <v>5568.6367337761221</v>
+        <f t="shared" si="69"/>
+        <v>6280.9515484505309</v>
       </c>
       <c r="AY44" s="2">
-        <f t="shared" si="68"/>
-        <v>5624.3231011138832</v>
+        <f t="shared" si="69"/>
+        <v>6343.761063935036</v>
       </c>
       <c r="AZ44" s="2">
-        <f t="shared" si="68"/>
-        <v>5680.5663321250222</v>
+        <f t="shared" si="69"/>
+        <v>6407.1986745743861</v>
       </c>
       <c r="BA44" s="2">
-        <f t="shared" si="68"/>
-        <v>5737.3719954462722</v>
+        <f t="shared" si="69"/>
+        <v>6471.2706613201299</v>
       </c>
       <c r="BB44" s="2">
-        <f t="shared" si="68"/>
-        <v>5794.7457154007352</v>
+        <f t="shared" si="69"/>
+        <v>6535.9833679333315</v>
       </c>
       <c r="BC44" s="2">
-        <f t="shared" si="68"/>
-        <v>5852.6931725547429</v>
+        <f t="shared" si="69"/>
+        <v>6601.3432016126644</v>
       </c>
       <c r="BD44" s="2">
-        <f t="shared" si="68"/>
-        <v>5911.2201042802908</v>
+        <f t="shared" si="69"/>
+        <v>6667.3566336287913</v>
       </c>
       <c r="BE44" s="2">
-        <f t="shared" si="68"/>
-        <v>5970.3323053230934</v>
+        <f t="shared" si="69"/>
+        <v>6734.0301999650792</v>
       </c>
       <c r="BF44" s="2">
-        <f t="shared" si="68"/>
-        <v>6030.035628376324</v>
+        <f t="shared" si="69"/>
+        <v>6801.3705019647305</v>
       </c>
       <c r="BG44" s="2">
-        <f t="shared" ref="BG44:CN44" si="69">BF44*(1+$AC$49)</f>
-        <v>6090.335984660087</v>
+        <f t="shared" ref="BG44:CN44" si="70">BF44*(1+$AC$49)</f>
+        <v>6869.3842069843777</v>
       </c>
       <c r="BH44" s="2">
-        <f t="shared" si="69"/>
-        <v>6151.2393445066882</v>
+        <f t="shared" si="70"/>
+        <v>6938.0780490542211</v>
       </c>
       <c r="BI44" s="2">
-        <f t="shared" si="69"/>
-        <v>6212.7517379517549</v>
+        <f t="shared" si="70"/>
+        <v>7007.4588295447629</v>
       </c>
       <c r="BJ44" s="2">
-        <f t="shared" si="69"/>
-        <v>6274.8792553312724</v>
+        <f t="shared" si="70"/>
+        <v>7077.5334178402109</v>
       </c>
       <c r="BK44" s="2">
-        <f t="shared" si="69"/>
-        <v>6337.6280478845847</v>
+        <f t="shared" si="70"/>
+        <v>7148.3087520186127</v>
       </c>
       <c r="BL44" s="2">
-        <f t="shared" si="69"/>
-        <v>6401.0043283634304</v>
+        <f t="shared" si="70"/>
+        <v>7219.7918395387987</v>
       </c>
       <c r="BM44" s="2">
-        <f t="shared" si="69"/>
-        <v>6465.0143716470648</v>
+        <f t="shared" si="70"/>
+        <v>7291.9897579341869</v>
       </c>
       <c r="BN44" s="2">
-        <f t="shared" si="69"/>
-        <v>6529.6645153635354</v>
+        <f t="shared" si="70"/>
+        <v>7364.9096555135284</v>
       </c>
       <c r="BO44" s="2">
-        <f t="shared" si="69"/>
-        <v>6594.9611605171713</v>
+        <f t="shared" si="70"/>
+        <v>7438.558752068664</v>
       </c>
       <c r="BP44" s="2">
-        <f t="shared" si="69"/>
-        <v>6660.9107721223427</v>
+        <f t="shared" si="70"/>
+        <v>7512.9443395893504</v>
       </c>
       <c r="BQ44" s="2">
-        <f t="shared" si="69"/>
-        <v>6727.5198798435658</v>
+        <f t="shared" si="70"/>
+        <v>7588.0737829852442</v>
       </c>
       <c r="BR44" s="2">
-        <f t="shared" si="69"/>
-        <v>6794.7950786420015</v>
+        <f t="shared" si="70"/>
+        <v>7663.9545208150967</v>
       </c>
       <c r="BS44" s="2">
-        <f t="shared" si="69"/>
-        <v>6862.7430294284213</v>
+        <f t="shared" si="70"/>
+        <v>7740.5940660232473</v>
       </c>
       <c r="BT44" s="2">
-        <f t="shared" si="69"/>
-        <v>6931.3704597227052</v>
+        <f t="shared" si="70"/>
+        <v>7818.00000668348</v>
       </c>
       <c r="BU44" s="2">
-        <f t="shared" si="69"/>
-        <v>7000.6841643199323</v>
+        <f t="shared" si="70"/>
+        <v>7896.1800067503145</v>
       </c>
       <c r="BV44" s="2">
-        <f t="shared" si="69"/>
-        <v>7070.6910059631318</v>
+        <f t="shared" si="70"/>
+        <v>7975.1418068178182</v>
       </c>
       <c r="BW44" s="2">
-        <f t="shared" si="69"/>
-        <v>7141.3979160227636</v>
+        <f t="shared" si="70"/>
+        <v>8054.8932248859965</v>
       </c>
       <c r="BX44" s="2">
-        <f t="shared" si="69"/>
-        <v>7212.8118951829911</v>
+        <f t="shared" si="70"/>
+        <v>8135.4421571348566</v>
       </c>
       <c r="BY44" s="2">
-        <f t="shared" si="69"/>
-        <v>7284.9400141348215</v>
+        <f t="shared" si="70"/>
+        <v>8216.7965787062058</v>
       </c>
       <c r="BZ44" s="2">
-        <f t="shared" si="69"/>
-        <v>7357.7894142761697</v>
+        <f t="shared" si="70"/>
+        <v>8298.9645444932685</v>
       </c>
       <c r="CA44" s="2">
-        <f t="shared" si="69"/>
-        <v>7431.3673084189313</v>
+        <f t="shared" si="70"/>
+        <v>8381.954189938202</v>
       </c>
       <c r="CB44" s="2">
-        <f t="shared" si="69"/>
-        <v>7505.6809815031211</v>
+        <f t="shared" si="70"/>
+        <v>8465.7737318375839</v>
       </c>
       <c r="CC44" s="2">
-        <f t="shared" si="69"/>
-        <v>7580.7377913181526</v>
+        <f t="shared" si="70"/>
+        <v>8550.4314691559593</v>
       </c>
       <c r="CD44" s="2">
-        <f t="shared" si="69"/>
-        <v>7656.5451692313345</v>
+        <f t="shared" si="70"/>
+        <v>8635.9357838475189</v>
       </c>
       <c r="CE44" s="2">
-        <f t="shared" si="69"/>
-        <v>7733.1106209236477</v>
+        <f t="shared" si="70"/>
+        <v>8722.2951416859942</v>
       </c>
       <c r="CF44" s="2">
-        <f t="shared" si="69"/>
-        <v>7810.4417271328839</v>
+        <f t="shared" si="70"/>
+        <v>8809.5180931028535</v>
       </c>
       <c r="CG44" s="2">
-        <f t="shared" si="69"/>
-        <v>7888.546144404213</v>
+        <f t="shared" si="70"/>
+        <v>8897.6132740338817</v>
       </c>
       <c r="CH44" s="2">
-        <f t="shared" si="69"/>
-        <v>7967.4316058482555</v>
+        <f t="shared" si="70"/>
+        <v>8986.5894067742211</v>
       </c>
       <c r="CI44" s="2">
-        <f t="shared" si="69"/>
-        <v>8047.1059219067383</v>
+        <f t="shared" si="70"/>
+        <v>9076.4553008419625</v>
       </c>
       <c r="CJ44" s="2">
-        <f t="shared" si="69"/>
-        <v>8127.576981125806</v>
+        <f t="shared" si="70"/>
+        <v>9167.2198538503817</v>
       </c>
       <c r="CK44" s="2">
-        <f t="shared" si="69"/>
-        <v>8208.8527509370633</v>
+        <f t="shared" si="70"/>
+        <v>9258.8920523888864</v>
       </c>
       <c r="CL44" s="2">
-        <f t="shared" si="69"/>
-        <v>8290.9412784464348</v>
+        <f t="shared" si="70"/>
+        <v>9351.4809729127755</v>
       </c>
       <c r="CM44" s="2">
-        <f t="shared" si="69"/>
-        <v>8373.8506912308985</v>
+        <f t="shared" si="70"/>
+        <v>9444.9957826419031</v>
       </c>
       <c r="CN44" s="2">
-        <f t="shared" si="69"/>
-        <v>8457.5891981432069</v>
+        <f t="shared" si="70"/>
+        <v>9539.4457404683217</v>
       </c>
     </row>
     <row r="45" spans="2:92" x14ac:dyDescent="0.2">
@@ -3582,15 +3567,15 @@
         <v>2.9538606403013183</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" ref="D46:F46" si="70">D44/D45</f>
+        <f t="shared" ref="D46:F46" si="71">D44/D45</f>
         <v>0.77079482439926095</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.71276595744680882</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.60170357751277714</v>
       </c>
       <c r="G46" s="11">
@@ -3602,73 +3587,73 @@
         <v>0.53632719497338643</v>
       </c>
       <c r="I46" s="11">
-        <f t="shared" ref="I46:L46" si="71">I44/I45</f>
+        <f t="shared" ref="I46:L46" si="72">I44/I45</f>
         <v>0.18534712989969351</v>
       </c>
       <c r="J46" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.4547052166989754</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.6064180017593811</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.63802758709737672</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" ref="M46:N46" si="72">M44/M45</f>
+        <f t="shared" ref="M46:N46" si="73">M44/M45</f>
         <v>0.67081462050345764</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1.0552506496738421</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11">
-        <f t="shared" ref="P46:S46" si="73">P44/P45</f>
+        <f t="shared" ref="P46:S46" si="74">P44/P45</f>
         <v>0.16058823529411814</v>
       </c>
       <c r="Q46" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.21859099804305279</v>
       </c>
       <c r="R46" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.55252918287937758</v>
       </c>
       <c r="S46" s="11" t="e">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T46" s="11">
-        <f t="shared" ref="T46:Y46" si="74">T44/T45</f>
+        <f t="shared" ref="T46:Y46" si="75">T44/T45</f>
         <v>1.939320719618659</v>
       </c>
       <c r="U46" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.8125077644696761</v>
       </c>
       <c r="V46" s="11">
-        <f t="shared" si="74"/>
-        <v>2.909073695623611</v>
+        <f t="shared" si="75"/>
+        <v>2.8832154180334357</v>
       </c>
       <c r="W46" s="11">
-        <f t="shared" si="74"/>
-        <v>3.7058964581125524</v>
+        <f t="shared" si="75"/>
+        <v>3.7496841360962669</v>
       </c>
       <c r="X46" s="11">
-        <f t="shared" si="74"/>
-        <v>4.6971607130998496</v>
+        <f t="shared" si="75"/>
+        <v>4.8338787855205592</v>
       </c>
       <c r="Y46" s="11">
-        <f t="shared" si="74"/>
-        <v>5.9293952436126292</v>
+        <f t="shared" si="75"/>
+        <v>6.1880680373721919</v>
       </c>
       <c r="Z46" s="11">
-        <f t="shared" ref="Z46" si="75">Z44/Z45</f>
-        <v>6.9835504258750607</v>
+        <f t="shared" ref="Z46" si="76">Z44/Z45</f>
+        <v>7.8768545980082969</v>
       </c>
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
@@ -3690,78 +3675,78 @@
         <v>23</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" ref="G48:L48" si="76">G30/C30-1</f>
+        <f t="shared" ref="G48:L48" si="77">G30/C30-1</f>
         <v>1.8010001887148519</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.54929193156702771</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.19480519480519476</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.13032666440601348</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.21273370389085389</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.30609369496301508</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" ref="M48" si="77">M30/I30-1</f>
+        <f t="shared" ref="M48" si="78">M30/I30-1</f>
         <v>0.66053913043478274</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" ref="N48" si="78">N30/J30-1</f>
+        <f t="shared" ref="N48" si="79">N30/J30-1</f>
         <v>0.7823119999999999</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="3">
-        <f t="shared" ref="Q48" si="79">Q30/P30-1</f>
+        <f t="shared" ref="Q48" si="80">Q30/P30-1</f>
         <v>6.5313089569670302E-2</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" ref="R48" si="80">R30/Q30-1</f>
+        <f t="shared" ref="R48" si="81">R30/Q30-1</f>
         <v>0.46064541519086988</v>
       </c>
       <c r="S48" s="3">
-        <f t="shared" ref="S48" si="81">S30/R30-1</f>
+        <f t="shared" ref="S48" si="82">S30/R30-1</f>
         <v>0.37091279998460358</v>
       </c>
       <c r="T48" s="3">
-        <f t="shared" ref="T48:U48" si="82">T30/S30-1</f>
+        <f t="shared" ref="T48:U48" si="83">T30/S30-1</f>
         <v>1.1042198949939639</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.48206708830357847</v>
       </c>
       <c r="V48" s="3">
         <f>V32/U30-1</f>
-        <v>0.57551204141345935</v>
+        <v>0.35043889264010808</v>
       </c>
       <c r="W48" s="3">
         <f>W32/V32-1</f>
-        <v>0.17142857142857149</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="X48" s="3">
-        <f t="shared" ref="X48:Z48" si="83">X32/W32-1</f>
-        <v>0.17560975609756091</v>
+        <f t="shared" ref="X48:Z48" si="84">X32/W32-1</f>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Y48" s="3">
-        <f t="shared" si="83"/>
-        <v>0.17925311203319505</v>
+        <f t="shared" si="84"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Z48" s="3">
-        <f t="shared" si="83"/>
-        <v>9.4440534834623557E-2</v>
+        <f t="shared" si="84"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="8" t="s">
@@ -3778,47 +3763,47 @@
         <v>38</v>
       </c>
       <c r="D49" s="13">
-        <f t="shared" ref="D49:J49" si="84">D30/C30-1</f>
+        <f t="shared" ref="D49:J49" si="85">D30/C30-1</f>
         <v>0.72905265144366882</v>
       </c>
       <c r="E49" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>5.0506152964610251E-2</v>
       </c>
       <c r="F49" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.37875324675324662</v>
       </c>
       <c r="G49" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.11845823442975023</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-4.362472629274039E-2</v>
       </c>
       <c r="I49" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-0.18985558295174354</v>
       </c>
       <c r="J49" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="K49" s="13">
-        <f t="shared" ref="K49:L49" si="85">K30/J30-1</f>
+        <f t="shared" ref="K49:L49" si="86">K30/J30-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="L49" s="13">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="M49" s="13">
-        <f t="shared" ref="M49" si="86">M30/L30-1</f>
+        <f t="shared" ref="M49" si="87">M30/L30-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="N49" s="13">
-        <f t="shared" ref="N49" si="87">N30/M30-1</f>
+        <f t="shared" ref="N49" si="88">N30/M30-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="O49" s="13"/>
@@ -3836,31 +3821,31 @@
         <v>37</v>
       </c>
       <c r="C50" s="13">
-        <f t="shared" ref="C50:I50" si="88">C43/C39</f>
+        <f t="shared" ref="C50:I50" si="89">C43/C39</f>
         <v>1.2753330387019382E-2</v>
       </c>
       <c r="D50" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-0.16554508748317623</v>
       </c>
       <c r="E50" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-5.2868094105207479E-2</v>
       </c>
       <c r="F50" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2.9129041654529552E-3</v>
       </c>
       <c r="G50" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.14670070699135909</v>
       </c>
       <c r="H50" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0.15428416485900201</v>
       </c>
       <c r="I50" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.9322033898305082E-2</v>
       </c>
       <c r="J50" s="13">
@@ -3880,27 +3865,27 @@
       </c>
       <c r="O50" s="13"/>
       <c r="P50" s="13">
-        <f t="shared" ref="P50:U50" si="89">P43/P39</f>
+        <f t="shared" ref="P50:U50" si="90">P43/P39</f>
         <v>3.3878504672897096E-2</v>
       </c>
       <c r="Q50" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>5.5690072639225194E-2</v>
       </c>
       <c r="R50" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.15781622911694509</v>
       </c>
       <c r="S50" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.14528926488361094</v>
       </c>
       <c r="T50" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>5.2275167230985152E-2</v>
       </c>
       <c r="U50" s="13">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0.13781142734074631</v>
       </c>
       <c r="V50" s="13">
@@ -3959,7 +3944,7 @@
       </c>
       <c r="AC51" s="2">
         <f>NPV(AC50,V44:CN44)+main!F16-main!F17</f>
-        <v>53688.050401819353</v>
+        <v>59708.721590779045</v>
       </c>
       <c r="AD51" s="13"/>
       <c r="AE51" s="13"/>
@@ -3969,31 +3954,31 @@
         <v>9</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52:I52" si="90">C34/C30</f>
+        <f t="shared" ref="C52:I52" si="91">C34/C30</f>
         <v>0.83317607095678436</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.15397418756309864</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.15514285714285719</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.11233563166421766</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.13060468249957885</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.11801690736174716</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>9.5869565217391303E-2</v>
       </c>
       <c r="J52" s="3">
@@ -4013,47 +3998,47 @@
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="17">
-        <f t="shared" ref="P52" si="91">P34/P30</f>
+        <f t="shared" ref="P52" si="92">P34/P30</f>
         <v>0.1575779354954632</v>
       </c>
       <c r="Q52" s="17">
-        <f t="shared" ref="Q52:U52" si="92">Q34/Q30</f>
+        <f t="shared" ref="Q52:U52" si="93">Q34/Q30</f>
         <v>0.15025018271771517</v>
       </c>
       <c r="R52" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.15396162506495256</v>
       </c>
       <c r="S52" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.18011062133250977</v>
       </c>
       <c r="T52" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.13752568515998195</v>
       </c>
       <c r="U52" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.11733063245554805</v>
       </c>
       <c r="V52" s="17">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="W52" s="17">
         <f>V52*1.02</f>
-        <v>0.12239999999999999</v>
+        <v>0.1326</v>
       </c>
       <c r="X52" s="17">
-        <f t="shared" ref="X52:Z52" si="93">W52*1.02</f>
-        <v>0.124848</v>
+        <f t="shared" ref="X52:Z52" si="94">W52*1.02</f>
+        <v>0.13525200000000001</v>
       </c>
       <c r="Y52" s="17">
-        <f t="shared" si="93"/>
-        <v>0.12734496000000001</v>
+        <f t="shared" si="94"/>
+        <v>0.13795704</v>
       </c>
       <c r="Z52" s="17">
-        <f t="shared" si="93"/>
-        <v>0.12989185920000001</v>
+        <f t="shared" si="94"/>
+        <v>0.14071618080000001</v>
       </c>
       <c r="AA52" s="17"/>
       <c r="AB52" s="8" t="s">
@@ -4061,7 +4046,7 @@
       </c>
       <c r="AC52" s="15">
         <f>AC51/main!F14</f>
-        <v>89.956855336314717</v>
+        <v>100.0447732830318</v>
       </c>
       <c r="AD52" s="17"/>
       <c r="AE52" s="17"/>
@@ -4119,44 +4104,44 @@
         <v>0</v>
       </c>
       <c r="Q53" s="13">
-        <f t="shared" ref="Q53:Z53" si="94">Q105/Q32</f>
+        <f t="shared" ref="Q53:Z53" si="95">Q105/Q32</f>
         <v>0</v>
       </c>
       <c r="R53" s="13">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>-9.3493196820692417E-2</v>
       </c>
       <c r="S53" s="13">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>8.7977651121655398E-2</v>
       </c>
       <c r="T53" s="13">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>-0.17412937314866705</v>
       </c>
       <c r="U53" s="13">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>5.8183526896241282E-2</v>
       </c>
       <c r="V53" s="13">
-        <f t="shared" si="94"/>
-        <v>0.12124895981869646</v>
+        <f t="shared" si="95"/>
+        <v>0.13035955644995942</v>
       </c>
       <c r="W53" s="13">
-        <f t="shared" si="94"/>
-        <v>0.12099937198702455</v>
+        <f t="shared" si="95"/>
+        <v>0.12875419743244382</v>
       </c>
       <c r="X53" s="13">
-        <f t="shared" si="94"/>
-        <v>0.12066538644135544</v>
+        <f t="shared" si="95"/>
+        <v>0.12750721009375965</v>
       </c>
       <c r="Y53" s="13">
-        <f t="shared" si="94"/>
-        <v>0.12031328137091478</v>
+        <f t="shared" si="95"/>
+        <v>0.1266031501552552</v>
       </c>
       <c r="Z53" s="13">
-        <f t="shared" si="94"/>
-        <v>0.12563093154307092</v>
+        <f t="shared" si="95"/>
+        <v>0.12602699047290988</v>
       </c>
       <c r="AA53" s="13"/>
       <c r="AB53" s="8" t="s">
@@ -4164,7 +4149,7 @@
       </c>
       <c r="AC53" s="13">
         <f>AC52/main!F13-1</f>
-        <v>0.9990412296958826</v>
+        <v>1.2232171840673733</v>
       </c>
       <c r="AD53" s="13"/>
       <c r="AE53" s="13"/>
@@ -4178,92 +4163,92 @@
         <v>8.5912436308737503E-2</v>
       </c>
       <c r="D54" s="13">
-        <f t="shared" ref="D54:N54" si="95">D38/D30</f>
+        <f t="shared" ref="D54:N54" si="96">D38/D30</f>
         <v>5.2607165270539442E-2</v>
       </c>
       <c r="E54" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>5.6883116883116883E-2</v>
       </c>
       <c r="F54" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>4.7662107682453568E-2</v>
       </c>
       <c r="G54" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>4.4837459996631295E-2</v>
       </c>
       <c r="H54" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>5.3064459316660796E-2</v>
       </c>
       <c r="I54" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>6.380434782608696E-2</v>
       </c>
       <c r="J54" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>6.380434782608696E-2</v>
       </c>
       <c r="K54" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>5.8197282608695652E-2</v>
       </c>
       <c r="L54" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>5.7618525749261289E-2</v>
       </c>
       <c r="M54" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>5.7051006887097494E-2</v>
       </c>
       <c r="N54" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>4.9067232608300461E-2</v>
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="14">
-        <f t="shared" ref="P54:U54" si="96">P38/P30</f>
+        <f t="shared" ref="P54:U54" si="97">P38/P30</f>
         <v>0.13194382056119547</v>
       </c>
       <c r="Q54" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0.11542137516163491</v>
       </c>
       <c r="R54" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>8.9451704162737428E-2</v>
       </c>
       <c r="S54" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>7.3245921891231719E-2</v>
       </c>
       <c r="T54" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5.6740853414458406E-2</v>
       </c>
       <c r="U54" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>5.5990370783548134E-2</v>
       </c>
       <c r="V54" s="14">
-        <f t="shared" ref="V54:Z54" si="97">V38/V30</f>
-        <v>6.5322099247472828E-2</v>
+        <f t="shared" ref="V54:Z54" si="98">V38/V30</f>
+        <v>5.5990370783548134E-2</v>
       </c>
       <c r="W54" s="14">
-        <f t="shared" si="97"/>
-        <v>6.3766811170152038E-2</v>
+        <f t="shared" si="98"/>
+        <v>5.5990370783548127E-2</v>
       </c>
       <c r="X54" s="14">
-        <f t="shared" si="97"/>
-        <v>6.2470737772384724E-2</v>
+        <f t="shared" si="98"/>
+        <v>5.599037078354812E-2</v>
       </c>
       <c r="Y54" s="14">
-        <f t="shared" si="97"/>
-        <v>6.1390676607578624E-2</v>
+        <f t="shared" si="98"/>
+        <v>5.5990370783548127E-2</v>
       </c>
       <c r="Z54" s="14">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>5.5990370783548127E-2</v>
       </c>
       <c r="AA54" s="14"/>
@@ -4321,19 +4306,19 @@
         <v>203.75487608695636</v>
       </c>
       <c r="K56" s="8">
-        <f t="shared" ref="K56:N56" si="98">J56+K44</f>
+        <f t="shared" ref="K56:N56" si="99">J56+K44</f>
         <v>584.58538119184777</v>
       </c>
       <c r="L56" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>985.26670588900038</v>
       </c>
       <c r="M56" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1406.5382875651717</v>
       </c>
       <c r="N56" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2069.2356955603445</v>
       </c>
       <c r="R56" s="13"/>
@@ -4347,23 +4332,23 @@
       </c>
       <c r="V56" s="8">
         <f>U56+V44</f>
-        <v>2030.6531569385841</v>
+        <v>2014.414158611954</v>
       </c>
       <c r="W56" s="8">
         <f>V56+W44</f>
-        <v>4357.9561326332669</v>
+        <v>4369.2157960804097</v>
       </c>
       <c r="X56" s="8">
         <f>W56+X44</f>
-        <v>7307.7730604599728</v>
+        <v>7404.8916733873211</v>
       </c>
       <c r="Y56" s="8">
         <f>X56+Y44</f>
-        <v>11031.433273448703</v>
+        <v>11290.998400857057</v>
       </c>
       <c r="Z56" s="8">
         <f>Y56+Z44</f>
-        <v>15417.102940898241</v>
+        <v>16237.663088406269</v>
       </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.2">
@@ -4448,7 +4433,7 @@
         <v>2737.3</v>
       </c>
       <c r="U61" s="8">
-        <f t="shared" ref="U61:U66" si="99">J61</f>
+        <f t="shared" ref="U61:U66" si="100">J61</f>
         <v>0</v>
       </c>
     </row>
@@ -4466,7 +4451,7 @@
         <v>4333</v>
       </c>
       <c r="U62" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
     </row>
@@ -4484,7 +4469,7 @@
         <v>191.8</v>
       </c>
       <c r="U63" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
     </row>
@@ -4502,7 +4487,7 @@
         <v>414.1</v>
       </c>
       <c r="U64" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
     </row>
@@ -4520,7 +4505,7 @@
         <v>365.2</v>
       </c>
       <c r="U65" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
     </row>
@@ -4538,7 +4523,7 @@
         <v>114.95</v>
       </c>
       <c r="U66" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
     </row>
@@ -4551,91 +4536,91 @@
         <v>0</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" ref="D67:P67" si="100">SUM(D60:D66)</f>
+        <f t="shared" ref="D67:P67" si="101">SUM(D60:D66)</f>
         <v>0</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="F67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="H67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="I67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>10738.500000000002</v>
       </c>
       <c r="J67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="K67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="L67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="N67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="P67" s="8">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="Q67" s="8">
-        <f t="shared" ref="Q67" si="101">SUM(Q60:Q66)</f>
+        <f t="shared" ref="Q67" si="102">SUM(Q60:Q66)</f>
         <v>0</v>
       </c>
       <c r="R67" s="8">
-        <f t="shared" ref="R67" si="102">SUM(R60:R66)</f>
+        <f t="shared" ref="R67" si="103">SUM(R60:R66)</f>
         <v>0</v>
       </c>
       <c r="S67" s="8">
-        <f t="shared" ref="S67" si="103">SUM(S60:S66)</f>
+        <f t="shared" ref="S67" si="104">SUM(S60:S66)</f>
         <v>3674.6589999999997</v>
       </c>
       <c r="T67" s="8">
-        <f t="shared" ref="T67" si="104">SUM(T60:T66)</f>
+        <f t="shared" ref="T67" si="105">SUM(T60:T66)</f>
         <v>9826.1500000000015</v>
       </c>
       <c r="U67" s="8">
-        <f t="shared" ref="U67" si="105">SUM(U60:U66)</f>
+        <f t="shared" ref="U67" si="106">SUM(U60:U66)</f>
         <v>0</v>
       </c>
       <c r="V67" s="8">
-        <f t="shared" ref="V67" si="106">SUM(V60:V66)</f>
+        <f t="shared" ref="V67" si="107">SUM(V60:V66)</f>
         <v>0</v>
       </c>
       <c r="W67" s="8">
-        <f t="shared" ref="W67" si="107">SUM(W60:W66)</f>
+        <f t="shared" ref="W67" si="108">SUM(W60:W66)</f>
         <v>0</v>
       </c>
       <c r="X67" s="8">
-        <f t="shared" ref="X67" si="108">SUM(X60:X66)</f>
+        <f t="shared" ref="X67" si="109">SUM(X60:X66)</f>
         <v>0</v>
       </c>
       <c r="Y67" s="8">
-        <f t="shared" ref="Y67" si="109">SUM(Y60:Y66)</f>
+        <f t="shared" ref="Y67" si="110">SUM(Y60:Y66)</f>
         <v>0</v>
       </c>
       <c r="Z67" s="8">
-        <f t="shared" ref="Z67" si="110">SUM(Z60:Z66)</f>
+        <f t="shared" ref="Z67" si="111">SUM(Z60:Z66)</f>
         <v>0</v>
       </c>
     </row>
@@ -4653,7 +4638,7 @@
         <v>1472.4</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" ref="U69:U77" si="111">J69</f>
+        <f t="shared" ref="U69:U77" si="112">J69</f>
         <v>0</v>
       </c>
     </row>
@@ -4671,7 +4656,7 @@
         <v>259.7</v>
       </c>
       <c r="U70" s="8">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
     </row>
@@ -4689,7 +4674,7 @@
         <v>18.3</v>
       </c>
       <c r="U71" s="8">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
     </row>
@@ -4707,7 +4692,7 @@
         <v>402.4</v>
       </c>
       <c r="U72" s="8">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
     </row>
@@ -4725,7 +4710,7 @@
         <v>193.1</v>
       </c>
       <c r="U73" s="8">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
     </row>
@@ -4743,7 +4728,7 @@
         <v>223.3</v>
       </c>
       <c r="U74" s="8">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
     </row>
@@ -4761,7 +4746,7 @@
         <v>74</v>
       </c>
       <c r="U75" s="8">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
     </row>
@@ -4779,7 +4764,7 @@
         <v>1700</v>
       </c>
       <c r="U76" s="8">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
     </row>
@@ -4797,7 +4782,7 @@
         <v>68</v>
       </c>
       <c r="U77" s="8">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
     </row>
@@ -4806,95 +4791,95 @@
         <v>68</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" ref="C78:N78" si="112">SUM(C69:C77)</f>
+        <f t="shared" ref="C78:N78" si="113">SUM(C69:C77)</f>
         <v>0</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="E78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="F78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="G78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="H78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="I78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>4359.0600000000004</v>
       </c>
       <c r="J78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="K78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="L78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="M78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="N78" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="P78" s="8">
-        <f t="shared" ref="P78:Z78" si="113">SUM(P69:P77)</f>
+        <f t="shared" ref="P78:Z78" si="114">SUM(P69:P77)</f>
         <v>0</v>
       </c>
       <c r="Q78" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="R78" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="S78" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1702.78</v>
       </c>
       <c r="T78" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>4411.2000000000007</v>
       </c>
       <c r="U78" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="V78" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="W78" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X78" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="Y78" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="Z78" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -4903,95 +4888,95 @@
         <v>69</v>
       </c>
       <c r="C79" s="8">
-        <f t="shared" ref="C79:N79" si="114">C67-C78</f>
+        <f t="shared" ref="C79:N79" si="115">C67-C78</f>
         <v>0</v>
       </c>
       <c r="D79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="E79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="F79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="G79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="H79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="I79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>6379.4400000000014</v>
       </c>
       <c r="J79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="K79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="M79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="N79" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="P79" s="8">
-        <f t="shared" ref="P79:Z79" si="115">P67-P78</f>
+        <f t="shared" ref="P79:Z79" si="116">P67-P78</f>
         <v>0</v>
       </c>
       <c r="Q79" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="R79" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="S79" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>1971.8789999999997</v>
       </c>
       <c r="T79" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>5414.9500000000007</v>
       </c>
       <c r="U79" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="V79" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="W79" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="X79" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="Y79" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="Z79" s="8">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -5004,91 +4989,91 @@
         <v>0</v>
       </c>
       <c r="D80" s="8">
-        <f t="shared" ref="D80:P80" si="116">D78+D79</f>
+        <f t="shared" ref="D80:P80" si="117">D78+D79</f>
         <v>0</v>
       </c>
       <c r="E80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="F80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="G80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="I80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>10738.500000000002</v>
       </c>
       <c r="J80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="K80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="L80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="N80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P80" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q80" s="8">
-        <f t="shared" ref="Q80" si="117">Q78+Q79</f>
+        <f t="shared" ref="Q80" si="118">Q78+Q79</f>
         <v>0</v>
       </c>
       <c r="R80" s="8">
-        <f t="shared" ref="R80" si="118">R78+R79</f>
+        <f t="shared" ref="R80" si="119">R78+R79</f>
         <v>0</v>
       </c>
       <c r="S80" s="8">
-        <f t="shared" ref="S80" si="119">S78+S79</f>
+        <f t="shared" ref="S80" si="120">S78+S79</f>
         <v>3674.6589999999997</v>
       </c>
       <c r="T80" s="8">
-        <f t="shared" ref="T80" si="120">T78+T79</f>
+        <f t="shared" ref="T80" si="121">T78+T79</f>
         <v>9826.1500000000015</v>
       </c>
       <c r="U80" s="8">
-        <f t="shared" ref="U80" si="121">U78+U79</f>
+        <f t="shared" ref="U80" si="122">U78+U79</f>
         <v>0</v>
       </c>
       <c r="V80" s="8">
-        <f t="shared" ref="V80" si="122">V78+V79</f>
+        <f t="shared" ref="V80" si="123">V78+V79</f>
         <v>0</v>
       </c>
       <c r="W80" s="8">
-        <f t="shared" ref="W80" si="123">W78+W79</f>
+        <f t="shared" ref="W80" si="124">W78+W79</f>
         <v>0</v>
       </c>
       <c r="X80" s="8">
-        <f t="shared" ref="X80" si="124">X78+X79</f>
+        <f t="shared" ref="X80" si="125">X78+X79</f>
         <v>0</v>
       </c>
       <c r="Y80" s="8">
-        <f t="shared" ref="Y80" si="125">Y78+Y79</f>
+        <f t="shared" ref="Y80" si="126">Y78+Y79</f>
         <v>0</v>
       </c>
       <c r="Z80" s="8">
-        <f t="shared" ref="Z80" si="126">Z78+Z79</f>
+        <f t="shared" ref="Z80" si="127">Z78+Z79</f>
         <v>0</v>
       </c>
     </row>
@@ -5101,47 +5086,47 @@
         <v>0</v>
       </c>
       <c r="D82" s="8">
-        <f t="shared" ref="D82:N82" si="127">D61/D30*90</f>
+        <f t="shared" ref="D82:N82" si="128">D61/D30*90</f>
         <v>0</v>
       </c>
       <c r="E82" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="F82" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="G82" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="I82" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>51.701086956521735</v>
       </c>
       <c r="J82" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="K82" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="L82" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M82" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="N82" s="8">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="P82" s="8">
@@ -5149,11 +5134,11 @@
         <v>0</v>
       </c>
       <c r="Q82" s="8">
-        <f t="shared" ref="Q82:R82" si="128">Q61/Q30*360</f>
+        <f t="shared" ref="Q82:R82" si="129">Q61/Q30*360</f>
         <v>0</v>
       </c>
       <c r="R82" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="S82" s="8">
@@ -5165,27 +5150,27 @@
         <v>65.742534624929945</v>
       </c>
       <c r="U82" s="8">
-        <f t="shared" ref="U82:Z82" si="129">U61/U30*360</f>
+        <f t="shared" ref="U82:Z82" si="130">U61/U30*360</f>
         <v>0</v>
       </c>
       <c r="V82" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="W82" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="X82" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Y82" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Z82" s="8">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -5198,47 +5183,47 @@
         <v>1568.5</v>
       </c>
       <c r="D84" s="8">
-        <f t="shared" ref="D84:N84" si="130">D44</f>
+        <f t="shared" ref="D84:N84" si="131">D44</f>
         <v>417.00000000000017</v>
       </c>
       <c r="E84" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>402.00000000000017</v>
       </c>
       <c r="F84" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>353.20000000000016</v>
       </c>
       <c r="G84" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>424.39999999999964</v>
       </c>
       <c r="H84" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>318.30000000000035</v>
       </c>
       <c r="I84" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>110</v>
       </c>
       <c r="J84" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>285.55487608695654</v>
       </c>
       <c r="K84" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>380.83050510489136</v>
       </c>
       <c r="L84" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>400.6813246971526</v>
       </c>
       <c r="M84" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>421.27158167617142</v>
       </c>
       <c r="N84" s="8">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>662.69740799517285</v>
       </c>
       <c r="R84" s="8">
@@ -5246,36 +5231,36 @@
         <v>284.00000000000006</v>
       </c>
       <c r="S84" s="8">
-        <f t="shared" ref="S84:Z84" si="131">S44</f>
+        <f t="shared" ref="S84:Z84" si="132">S44</f>
         <v>650.64</v>
       </c>
       <c r="T84" s="8">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1150.9500000000014</v>
       </c>
       <c r="U84" s="8">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1138.2548760869565</v>
       </c>
       <c r="V84" s="8">
-        <f t="shared" si="131"/>
-        <v>1826.8982808516278</v>
+        <f t="shared" si="132"/>
+        <v>1810.6592825249977</v>
       </c>
       <c r="W84" s="8">
-        <f t="shared" si="131"/>
-        <v>2327.302975694683</v>
+        <f t="shared" si="132"/>
+        <v>2354.8016374684557</v>
       </c>
       <c r="X84" s="8">
-        <f t="shared" si="131"/>
-        <v>2949.8169278267055</v>
+        <f t="shared" si="132"/>
+        <v>3035.6758773069114</v>
       </c>
       <c r="Y84" s="8">
-        <f t="shared" si="131"/>
-        <v>3723.660212988731</v>
+        <f t="shared" si="132"/>
+        <v>3886.1067274697366</v>
       </c>
       <c r="Z84" s="8">
-        <f t="shared" si="131"/>
-        <v>4385.6696674495379</v>
+        <f t="shared" si="132"/>
+        <v>4946.6646875492106</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.2">
@@ -5337,23 +5322,23 @@
       </c>
       <c r="V86" s="8">
         <f>U86*(1+V48)</f>
-        <v>212.03652056483577</v>
+        <v>181.74558905557353</v>
       </c>
       <c r="W86" s="8">
-        <f t="shared" ref="W86:W92" si="132">V86*1.1</f>
-        <v>233.24017262131937</v>
+        <f t="shared" ref="W86:W92" si="133">V86*1.1</f>
+        <v>199.92014796113091</v>
       </c>
       <c r="X86" s="8">
-        <f t="shared" ref="X86:Z86" si="133">W86*1.1</f>
-        <v>256.56418988345132</v>
+        <f t="shared" ref="X86:Z86" si="134">W86*1.1</f>
+        <v>219.912162757244</v>
       </c>
       <c r="Y86" s="8">
-        <f t="shared" si="133"/>
-        <v>282.22060887179646</v>
+        <f t="shared" si="134"/>
+        <v>241.90337903296842</v>
       </c>
       <c r="Z86" s="8">
-        <f t="shared" si="133"/>
-        <v>310.44266975897614</v>
+        <f t="shared" si="134"/>
+        <v>266.09371693626525</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.2">
@@ -5383,28 +5368,28 @@
         <v>231.5</v>
       </c>
       <c r="U87" s="8">
-        <f t="shared" ref="U87:U103" si="134">SUM(G87:J87)</f>
+        <f t="shared" ref="U87:U103" si="135">SUM(G87:J87)</f>
         <v>741.93565217391301</v>
       </c>
       <c r="V87" s="8">
         <f>U87*(1+V48)</f>
-        <v>1168.928553953948</v>
+        <v>1001.9387605319555</v>
       </c>
       <c r="W87" s="8">
-        <f t="shared" si="132"/>
-        <v>1285.821409349343</v>
+        <f t="shared" si="133"/>
+        <v>1102.1326365851512</v>
       </c>
       <c r="X87" s="8">
-        <f t="shared" ref="X87:Z87" si="135">W87*1.1</f>
-        <v>1414.4035502842773</v>
+        <f t="shared" ref="X87:Z87" si="136">W87*1.1</f>
+        <v>1212.3459002436664</v>
       </c>
       <c r="Y87" s="8">
-        <f t="shared" si="135"/>
-        <v>1555.8439053127051</v>
+        <f t="shared" si="136"/>
+        <v>1333.5804902680331</v>
       </c>
       <c r="Z87" s="8">
-        <f t="shared" si="135"/>
-        <v>1711.4282958439758</v>
+        <f t="shared" si="136"/>
+        <v>1466.9385392948366</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.2">
@@ -5434,28 +5419,28 @@
         <v>-1.8</v>
       </c>
       <c r="U88" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>-7.1086956521739131</v>
       </c>
       <c r="V88" s="8">
         <f>U88*(1+V48)</f>
-        <v>-11.199835598743505</v>
+        <v>-9.5998590846372895</v>
       </c>
       <c r="W88" s="8">
-        <f t="shared" si="132"/>
-        <v>-12.319819158617856</v>
+        <f t="shared" si="133"/>
+        <v>-10.55984499310102</v>
       </c>
       <c r="X88" s="8">
-        <f t="shared" ref="X88:Z88" si="136">W88*1.1</f>
-        <v>-13.551801074479643</v>
+        <f t="shared" ref="X88:Z88" si="137">W88*1.1</f>
+        <v>-11.615829492411123</v>
       </c>
       <c r="Y88" s="8">
-        <f t="shared" si="136"/>
-        <v>-14.906981181927609</v>
+        <f t="shared" si="137"/>
+        <v>-12.777412441652237</v>
       </c>
       <c r="Z88" s="8">
-        <f t="shared" si="136"/>
-        <v>-16.39767930012037</v>
+        <f t="shared" si="137"/>
+        <v>-14.055153685817462</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.2">
@@ -5485,28 +5470,28 @@
         <v>-0.5</v>
       </c>
       <c r="U89" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>6.9217391304347835</v>
       </c>
       <c r="V89" s="8">
         <f>U89*(1+V48)</f>
-        <v>10.90528334752273</v>
+        <v>9.3473857264480529</v>
       </c>
       <c r="W89" s="8">
-        <f t="shared" si="132"/>
-        <v>11.995811682275004</v>
+        <f t="shared" si="133"/>
+        <v>10.282124299092859</v>
       </c>
       <c r="X89" s="8">
-        <f t="shared" ref="X89:Z89" si="137">W89*1.1</f>
-        <v>13.195392850502506</v>
+        <f t="shared" ref="X89:Z89" si="138">W89*1.1</f>
+        <v>11.310336729002145</v>
       </c>
       <c r="Y89" s="8">
-        <f t="shared" si="137"/>
-        <v>14.514932135552758</v>
+        <f t="shared" si="138"/>
+        <v>12.441370401902361</v>
       </c>
       <c r="Z89" s="8">
-        <f t="shared" si="137"/>
-        <v>15.966425349108036</v>
+        <f t="shared" si="138"/>
+        <v>13.685507442092598</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.2">
@@ -5536,28 +5521,28 @@
         <v>-168.5</v>
       </c>
       <c r="U90" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>-432.20434782608697</v>
       </c>
       <c r="V90" s="8">
         <f>U90*(1+V48)</f>
-        <v>-680.94315435125111</v>
+        <v>-583.66556087250103</v>
       </c>
       <c r="W90" s="8">
-        <f t="shared" si="132"/>
-        <v>-749.03746978637628</v>
+        <f t="shared" si="133"/>
+        <v>-642.03211695975119</v>
       </c>
       <c r="X90" s="8">
-        <f t="shared" ref="X90:Z90" si="138">W90*1.1</f>
-        <v>-823.94121676501402</v>
+        <f t="shared" ref="X90:Z90" si="139">W90*1.1</f>
+        <v>-706.23532865572633</v>
       </c>
       <c r="Y90" s="8">
-        <f t="shared" si="138"/>
-        <v>-906.33533844151555</v>
+        <f t="shared" si="139"/>
+        <v>-776.85886152129899</v>
       </c>
       <c r="Z90" s="8">
-        <f t="shared" si="138"/>
-        <v>-996.9688722856672</v>
+        <f t="shared" si="139"/>
+        <v>-854.54474767342901</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.2">
@@ -5587,28 +5572,28 @@
         <v>12.3</v>
       </c>
       <c r="U91" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>5.6043478260869559</v>
       </c>
       <c r="V91" s="8">
         <f>U91*(1+V48)</f>
-        <v>8.8297174842693433</v>
+        <v>7.5683292722308657</v>
       </c>
       <c r="W91" s="8">
-        <f t="shared" si="132"/>
-        <v>9.7126892326962793</v>
+        <f t="shared" si="133"/>
+        <v>8.3251621994539526</v>
       </c>
       <c r="X91" s="8">
-        <f t="shared" ref="X91:Z91" si="139">W91*1.1</f>
-        <v>10.683958155965907</v>
+        <f t="shared" ref="X91:Z91" si="140">W91*1.1</f>
+        <v>9.1576784193993479</v>
       </c>
       <c r="Y91" s="8">
-        <f t="shared" si="139"/>
-        <v>11.752353971562499</v>
+        <f t="shared" si="140"/>
+        <v>10.073446261339283</v>
       </c>
       <c r="Z91" s="8">
-        <f t="shared" si="139"/>
-        <v>12.927589368718751</v>
+        <f t="shared" si="140"/>
+        <v>11.080790887473212</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.2">
@@ -5638,26 +5623,26 @@
         <v>-1589</v>
       </c>
       <c r="U92" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>-86.247826086956508</v>
       </c>
       <c r="V92" s="8">
         <v>0</v>
       </c>
       <c r="W92" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="X92" s="8">
-        <f t="shared" ref="X92:Z92" si="140">W92*1.1</f>
+        <f t="shared" ref="X92:Z92" si="141">W92*1.1</f>
         <v>0</v>
       </c>
       <c r="Y92" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="Z92" s="8">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
     </row>
@@ -5688,26 +5673,26 @@
         <v>-2900</v>
       </c>
       <c r="U93" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1188.7608695652175</v>
       </c>
       <c r="V93" s="8">
         <v>0</v>
       </c>
       <c r="W93" s="8">
-        <f t="shared" ref="W93:Z99" si="141">V93*1.1</f>
+        <f t="shared" ref="W93:Z99" si="142">V93*1.1</f>
         <v>0</v>
       </c>
       <c r="X93" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Y93" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Z93" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -5738,26 +5723,26 @@
         <v>-44.7</v>
       </c>
       <c r="U94" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>-968.1260869565217</v>
       </c>
       <c r="V94" s="8">
         <v>200</v>
       </c>
       <c r="W94" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>220.00000000000003</v>
       </c>
       <c r="X94" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>242.00000000000006</v>
       </c>
       <c r="Y94" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>266.2000000000001</v>
       </c>
       <c r="Z94" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>292.82000000000016</v>
       </c>
     </row>
@@ -5788,26 +5773,26 @@
         <v>679.2</v>
       </c>
       <c r="U95" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>-2557.4391304347828</v>
       </c>
       <c r="V95" s="8">
         <v>0</v>
       </c>
       <c r="W95" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="X95" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Y95" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="Z95" s="8">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -5838,28 +5823,28 @@
         <v>93</v>
       </c>
       <c r="U96" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>87.439130434782612</v>
       </c>
       <c r="V96" s="8">
         <f>U96*(1+V48)</f>
-        <v>137.76140289072211</v>
+        <v>118.08120247776181</v>
       </c>
       <c r="W96" s="8">
-        <f t="shared" si="141"/>
-        <v>151.53754317979434</v>
+        <f t="shared" si="142"/>
+        <v>129.88932272553799</v>
       </c>
       <c r="X96" s="8">
-        <f t="shared" si="141"/>
-        <v>166.69129749777377</v>
+        <f t="shared" si="142"/>
+        <v>142.87825499809182</v>
       </c>
       <c r="Y96" s="8">
-        <f t="shared" si="141"/>
-        <v>183.36042724755117</v>
+        <f t="shared" si="142"/>
+        <v>157.16608049790102</v>
       </c>
       <c r="Z96" s="8">
-        <f t="shared" si="141"/>
-        <v>201.69646997230632</v>
+        <f t="shared" si="142"/>
+        <v>172.88268854769115</v>
       </c>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.2">
@@ -5889,28 +5874,28 @@
         <v>-111</v>
       </c>
       <c r="U97" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>171.44347826086957</v>
       </c>
       <c r="V97" s="8">
         <f>U97*(1+V48)</f>
-        <v>270.11126442180665</v>
+        <v>231.52394093297715</v>
       </c>
       <c r="W97" s="8">
-        <f t="shared" si="141"/>
-        <v>297.12239086398733</v>
+        <f t="shared" si="142"/>
+        <v>254.6763350262749</v>
       </c>
       <c r="X97" s="8">
-        <f t="shared" si="141"/>
-        <v>326.8346299503861</v>
+        <f t="shared" si="142"/>
+        <v>280.14396852890241</v>
       </c>
       <c r="Y97" s="8">
-        <f t="shared" si="141"/>
-        <v>359.51809294542477</v>
+        <f t="shared" si="142"/>
+        <v>308.15836538179269</v>
       </c>
       <c r="Z97" s="8">
-        <f t="shared" si="141"/>
-        <v>395.46990223996727</v>
+        <f t="shared" si="142"/>
+        <v>338.97420191997196</v>
       </c>
     </row>
     <row r="98" spans="1:122" x14ac:dyDescent="0.2">
@@ -5940,28 +5925,28 @@
         <v>112</v>
       </c>
       <c r="U98" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>901.08695652173913</v>
       </c>
       <c r="V98" s="8">
         <f>U98*(1+V48)</f>
-        <v>1419.6733503606063</v>
+        <v>1216.8628717376625</v>
       </c>
       <c r="W98" s="8">
-        <f t="shared" si="141"/>
-        <v>1561.6406853966671</v>
+        <f t="shared" si="142"/>
+        <v>1338.549158911429</v>
       </c>
       <c r="X98" s="8">
-        <f t="shared" si="141"/>
-        <v>1717.804753936334</v>
+        <f t="shared" si="142"/>
+        <v>1472.404074802572</v>
       </c>
       <c r="Y98" s="8">
-        <f t="shared" si="141"/>
-        <v>1889.5852293299677</v>
+        <f t="shared" si="142"/>
+        <v>1619.6444822828294</v>
       </c>
       <c r="Z98" s="8">
-        <f t="shared" si="141"/>
-        <v>2078.5437522629645</v>
+        <f t="shared" si="142"/>
+        <v>1781.6089305111125</v>
       </c>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.2">
@@ -5991,28 +5976,28 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="U99" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>17.943478260869565</v>
       </c>
       <c r="V99" s="8">
         <f>U99*(1+V48)</f>
-        <v>28.270166064840637</v>
+        <v>24.231570912720546</v>
       </c>
       <c r="W99" s="8">
-        <f t="shared" si="141"/>
-        <v>31.097182671324703</v>
+        <f t="shared" si="142"/>
+        <v>26.654728003992602</v>
       </c>
       <c r="X99" s="8">
-        <f t="shared" si="141"/>
-        <v>34.206900938457174</v>
+        <f t="shared" si="142"/>
+        <v>29.320200804391863</v>
       </c>
       <c r="Y99" s="8">
-        <f t="shared" si="141"/>
-        <v>37.627591032302895</v>
+        <f t="shared" si="142"/>
+        <v>32.252220884831054</v>
       </c>
       <c r="Z99" s="8">
-        <f t="shared" si="141"/>
-        <v>41.39035013553319</v>
+        <f t="shared" si="142"/>
+        <v>35.477442973314162</v>
       </c>
     </row>
     <row r="100" spans="1:122" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6025,15 +6010,15 @@
         <v>0</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" ref="D100:H100" si="142">SUM(D85:D99)</f>
+        <f t="shared" ref="D100:H100" si="143">SUM(D85:D99)</f>
         <v>0</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="G100" s="2">
@@ -6041,7 +6026,7 @@
         <v>407.40000000000003</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>167.80000000000018</v>
       </c>
       <c r="I100" s="2">
@@ -6053,19 +6038,19 @@
         <v>171.6070499999999</v>
       </c>
       <c r="K100" s="2">
-        <f t="shared" ref="K100:N100" si="143">SUM(K86:K99,K84)</f>
+        <f t="shared" ref="K100:N100" si="144">SUM(K86:K99,K84)</f>
         <v>380.83050510489136</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>400.6813246971526</v>
       </c>
       <c r="M100" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>421.27158167617142</v>
       </c>
       <c r="N100" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>662.69740799517285</v>
       </c>
       <c r="R100" s="2">
@@ -6085,24 +6070,24 @@
         <v>1513.14705</v>
       </c>
       <c r="V100" s="2">
-        <f t="shared" ref="U100:Z100" si="144">SUM(V86:V99,V84)</f>
-        <v>4591.2715499901851</v>
+        <f t="shared" ref="V100:Z100" si="145">SUM(V86:V99,V84)</f>
+        <v>4208.6935132151903</v>
       </c>
       <c r="W100" s="2">
-        <f t="shared" si="144"/>
-        <v>5368.113571747097</v>
+        <f t="shared" si="145"/>
+        <v>4992.6392912276669</v>
       </c>
       <c r="X100" s="2">
-        <f t="shared" si="144"/>
-        <v>6294.7085834843601</v>
+        <f t="shared" si="145"/>
+        <v>5937.2972964420442</v>
       </c>
       <c r="Y100" s="2">
-        <f t="shared" si="144"/>
-        <v>7403.0410342121504</v>
+        <f t="shared" si="145"/>
+        <v>7077.8902885183825</v>
       </c>
       <c r="Z100" s="2">
-        <f t="shared" si="144"/>
-        <v>8432.9885707952999</v>
+        <f t="shared" si="145"/>
+        <v>8457.626604702722</v>
       </c>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.2">
@@ -6128,28 +6113,28 @@
         <v>-124.3</v>
       </c>
       <c r="U101" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>-220.6</v>
       </c>
       <c r="V101" s="8">
-        <f t="shared" ref="V101:Z101" si="145">U101*(1+V48)</f>
-        <v>-347.55795633580914</v>
+        <f t="shared" ref="V101:Z101" si="146">U101*(1+V48)</f>
+        <v>-297.90681971640782</v>
       </c>
       <c r="W101" s="8">
-        <f t="shared" si="145"/>
-        <v>-407.13932027909073</v>
+        <f t="shared" si="146"/>
+        <v>-357.48818365968935</v>
       </c>
       <c r="X101" s="8">
-        <f t="shared" si="145"/>
-        <v>-478.63695701102858</v>
+        <f t="shared" si="146"/>
+        <v>-428.98582039162721</v>
       </c>
       <c r="Y101" s="8">
-        <f t="shared" si="145"/>
-        <v>-564.43412108935411</v>
+        <f t="shared" si="146"/>
+        <v>-514.78298446995268</v>
       </c>
       <c r="Z101" s="8">
-        <f t="shared" si="145"/>
-        <v>-617.73958136394333</v>
+        <f t="shared" si="146"/>
+        <v>-617.73958136394322</v>
       </c>
     </row>
     <row r="102" spans="1:122" x14ac:dyDescent="0.2">
@@ -6169,7 +6154,7 @@
         <v>-69.7</v>
       </c>
       <c r="U102" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -6190,7 +6175,7 @@
         <v>-0.3</v>
       </c>
       <c r="U103" s="8">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -6206,42 +6191,42 @@
         <v>-17.350000000000001</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" ref="D104:N104" si="146">E101</f>
+        <f t="shared" ref="E104:N104" si="147">E101</f>
         <v>0</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>-44.3</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>-71.8</v>
       </c>
       <c r="I104" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>-104.5</v>
       </c>
       <c r="J104" s="2">
         <v>-50</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="L104" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="M104" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="N104" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="R104" s="2">
@@ -6249,36 +6234,36 @@
         <v>-45.2</v>
       </c>
       <c r="S104" s="2">
-        <f t="shared" ref="S104:Z104" si="147">S101</f>
+        <f t="shared" ref="S104:Z104" si="148">S101</f>
         <v>-36.799999999999997</v>
       </c>
       <c r="T104" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>-124.3</v>
       </c>
       <c r="U104" s="2">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>-220.6</v>
       </c>
       <c r="V104" s="2">
-        <f t="shared" si="147"/>
-        <v>-347.55795633580914</v>
+        <f t="shared" si="148"/>
+        <v>-297.90681971640782</v>
       </c>
       <c r="W104" s="2">
-        <f t="shared" si="147"/>
-        <v>-407.13932027909073</v>
+        <f t="shared" si="148"/>
+        <v>-357.48818365968935</v>
       </c>
       <c r="X104" s="2">
-        <f t="shared" si="147"/>
-        <v>-478.63695701102858</v>
+        <f t="shared" si="148"/>
+        <v>-428.98582039162721</v>
       </c>
       <c r="Y104" s="2">
-        <f t="shared" si="147"/>
-        <v>-564.43412108935411</v>
+        <f t="shared" si="148"/>
+        <v>-514.78298446995268</v>
       </c>
       <c r="Z104" s="2">
-        <f t="shared" si="147"/>
-        <v>-617.73958136394333</v>
+        <f t="shared" si="148"/>
+        <v>-617.73958136394322</v>
       </c>
     </row>
     <row r="105" spans="1:122" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6291,47 +6276,47 @@
         <v>-2.63</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" ref="D105:N105" si="148">D100+D104</f>
+        <f t="shared" ref="D105:N105" si="149">D100+D104</f>
         <v>-17.350000000000001</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>363.1</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>96.000000000000185</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>661.84</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>121.6070499999999</v>
       </c>
       <c r="K105" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>380.83050510489136</v>
       </c>
       <c r="L105" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>400.6813246971526</v>
       </c>
       <c r="M105" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>421.27158167617142</v>
       </c>
       <c r="N105" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>662.69740799517285</v>
       </c>
       <c r="R105" s="2">
@@ -6339,420 +6324,420 @@
         <v>-485.7999999999999</v>
       </c>
       <c r="S105" s="2">
-        <f t="shared" ref="S105:T105" si="149">S100+S104</f>
+        <f t="shared" ref="S105:T105" si="150">S100+S104</f>
         <v>626.70000000000005</v>
       </c>
       <c r="T105" s="2">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>-2610.0600000000004</v>
       </c>
       <c r="U105" s="2">
-        <f t="shared" ref="U105" si="150">U100+U104</f>
+        <f t="shared" ref="U105" si="151">U100+U104</f>
         <v>1292.5470500000001</v>
       </c>
       <c r="V105" s="2">
-        <f t="shared" ref="V105" si="151">V100+V104</f>
-        <v>4243.7135936543764</v>
+        <f t="shared" ref="V105" si="152">V100+V104</f>
+        <v>3910.7866934987824</v>
       </c>
       <c r="W105" s="2">
-        <f t="shared" ref="W105" si="152">W100+W104</f>
-        <v>4960.9742514680065</v>
+        <f t="shared" ref="W105" si="153">W100+W104</f>
+        <v>4635.1511075679773</v>
       </c>
       <c r="X105" s="2">
-        <f t="shared" ref="X105" si="153">X100+X104</f>
-        <v>5816.0716264733319</v>
+        <f t="shared" ref="X105" si="154">X100+X104</f>
+        <v>5508.3114760504168</v>
       </c>
       <c r="Y105" s="2">
-        <f t="shared" ref="Y105" si="154">Y100+Y104</f>
-        <v>6838.606913122796</v>
+        <f t="shared" ref="Y105" si="155">Y100+Y104</f>
+        <v>6563.1073040484298</v>
       </c>
       <c r="Z105" s="2">
-        <f t="shared" ref="Z105" si="155">Z100+Z104</f>
-        <v>7815.2489894313567</v>
+        <f t="shared" ref="Z105" si="156">Z100+Z104</f>
+        <v>7839.8870233387788</v>
       </c>
       <c r="AA105" s="2">
-        <f t="shared" ref="AA105:BF105" si="156">Z105*(1+$AC$49)</f>
-        <v>7893.4014793256702</v>
+        <f t="shared" ref="AA105:BF105" si="157">Z105*(1+$AC$49)</f>
+        <v>7918.285893572167</v>
       </c>
       <c r="AB105" s="2">
-        <f t="shared" si="156"/>
-        <v>7972.3354941189273</v>
+        <f t="shared" si="157"/>
+        <v>7997.4687525078889</v>
       </c>
       <c r="AC105" s="2">
-        <f t="shared" si="156"/>
-        <v>8052.0588490601167</v>
+        <f t="shared" si="157"/>
+        <v>8077.4434400329683</v>
       </c>
       <c r="AD105" s="2">
-        <f t="shared" si="156"/>
-        <v>8132.5794375507176</v>
+        <f t="shared" si="157"/>
+        <v>8158.2178744332978</v>
       </c>
       <c r="AE105" s="2">
-        <f t="shared" si="156"/>
-        <v>8213.9052319262246</v>
+        <f t="shared" si="157"/>
+        <v>8239.8000531776306</v>
       </c>
       <c r="AF105" s="2">
-        <f t="shared" si="156"/>
-        <v>8296.0442842454868</v>
+        <f t="shared" si="157"/>
+        <v>8322.1980537094078</v>
       </c>
       <c r="AG105" s="2">
-        <f t="shared" si="156"/>
-        <v>8379.0047270879422</v>
+        <f t="shared" si="157"/>
+        <v>8405.420034246501</v>
       </c>
       <c r="AH105" s="2">
-        <f t="shared" si="156"/>
-        <v>8462.7947743588211</v>
+        <f t="shared" si="157"/>
+        <v>8489.4742345889663</v>
       </c>
       <c r="AI105" s="2">
-        <f t="shared" si="156"/>
-        <v>8547.4227221024103</v>
+        <f t="shared" si="157"/>
+        <v>8574.3689769348566</v>
       </c>
       <c r="AJ105" s="2">
-        <f t="shared" si="156"/>
-        <v>8632.8969493234345</v>
+        <f t="shared" si="157"/>
+        <v>8660.1126667042045</v>
       </c>
       <c r="AK105" s="2">
-        <f t="shared" si="156"/>
-        <v>8719.2259188166681</v>
+        <f t="shared" si="157"/>
+        <v>8746.7137933712474</v>
       </c>
       <c r="AL105" s="2">
-        <f t="shared" si="156"/>
-        <v>8806.4181780048348</v>
+        <f t="shared" si="157"/>
+        <v>8834.1809313049598</v>
       </c>
       <c r="AM105" s="2">
-        <f t="shared" si="156"/>
-        <v>8894.4823597848826</v>
+        <f t="shared" si="157"/>
+        <v>8922.5227406180093</v>
       </c>
       <c r="AN105" s="2">
-        <f t="shared" si="156"/>
-        <v>8983.4271833827315</v>
+        <f t="shared" si="157"/>
+        <v>9011.7479680241886</v>
       </c>
       <c r="AO105" s="2">
-        <f t="shared" si="156"/>
-        <v>9073.2614552165596</v>
+        <f t="shared" si="157"/>
+        <v>9101.8654477044311</v>
       </c>
       <c r="AP105" s="2">
-        <f t="shared" si="156"/>
-        <v>9163.9940697687252</v>
+        <f t="shared" si="157"/>
+        <v>9192.8841021814751</v>
       </c>
       <c r="AQ105" s="2">
-        <f t="shared" si="156"/>
-        <v>9255.6340104664123</v>
+        <f t="shared" si="157"/>
+        <v>9284.8129432032893</v>
       </c>
       <c r="AR105" s="2">
-        <f t="shared" si="156"/>
-        <v>9348.1903505710761</v>
+        <f t="shared" si="157"/>
+        <v>9377.6610726353229</v>
       </c>
       <c r="AS105" s="2">
-        <f t="shared" si="156"/>
-        <v>9441.6722540767878</v>
+        <f t="shared" si="157"/>
+        <v>9471.437683361677</v>
       </c>
       <c r="AT105" s="2">
-        <f t="shared" si="156"/>
-        <v>9536.0889766175551</v>
+        <f t="shared" si="157"/>
+        <v>9566.1520601952943</v>
       </c>
       <c r="AU105" s="2">
-        <f t="shared" si="156"/>
-        <v>9631.4498663837312</v>
+        <f t="shared" si="157"/>
+        <v>9661.8135807972467</v>
       </c>
       <c r="AV105" s="2">
-        <f t="shared" si="156"/>
-        <v>9727.7643650475693</v>
+        <f t="shared" si="157"/>
+        <v>9758.4317166052188</v>
       </c>
       <c r="AW105" s="2">
-        <f t="shared" si="156"/>
-        <v>9825.0420086980448</v>
+        <f t="shared" si="157"/>
+        <v>9856.0160337712714</v>
       </c>
       <c r="AX105" s="2">
-        <f t="shared" si="156"/>
-        <v>9923.2924287850255</v>
+        <f t="shared" si="157"/>
+        <v>9954.5761941089841</v>
       </c>
       <c r="AY105" s="2">
-        <f t="shared" si="156"/>
-        <v>10022.525353072875</v>
+        <f t="shared" si="157"/>
+        <v>10054.121956050074</v>
       </c>
       <c r="AZ105" s="2">
-        <f t="shared" si="156"/>
-        <v>10122.750606603604</v>
+        <f t="shared" si="157"/>
+        <v>10154.663175610574</v>
       </c>
       <c r="BA105" s="2">
-        <f t="shared" si="156"/>
-        <v>10223.97811266964</v>
+        <f t="shared" si="157"/>
+        <v>10256.20980736668</v>
       </c>
       <c r="BB105" s="2">
-        <f t="shared" si="156"/>
-        <v>10326.217893796336</v>
+        <f t="shared" si="157"/>
+        <v>10358.771905440348</v>
       </c>
       <c r="BC105" s="2">
-        <f t="shared" si="156"/>
-        <v>10429.480072734299</v>
+        <f t="shared" si="157"/>
+        <v>10462.359624494751</v>
       </c>
       <c r="BD105" s="2">
-        <f t="shared" si="156"/>
-        <v>10533.774873461642</v>
+        <f t="shared" si="157"/>
+        <v>10566.983220739699</v>
       </c>
       <c r="BE105" s="2">
-        <f t="shared" si="156"/>
-        <v>10639.112622196259</v>
+        <f t="shared" si="157"/>
+        <v>10672.653052947097</v>
       </c>
       <c r="BF105" s="2">
-        <f t="shared" si="156"/>
-        <v>10745.503748418221</v>
+        <f t="shared" si="157"/>
+        <v>10779.379583476568</v>
       </c>
       <c r="BG105" s="2">
-        <f t="shared" ref="BG105:CL105" si="157">BF105*(1+$AC$49)</f>
-        <v>10852.958785902403</v>
+        <f t="shared" ref="BG105:CL105" si="158">BF105*(1+$AC$49)</f>
+        <v>10887.173379311334</v>
       </c>
       <c r="BH105" s="2">
-        <f t="shared" si="157"/>
-        <v>10961.488373761427</v>
+        <f t="shared" si="158"/>
+        <v>10996.045113104448</v>
       </c>
       <c r="BI105" s="2">
-        <f t="shared" si="157"/>
-        <v>11071.103257499042</v>
+        <f t="shared" si="158"/>
+        <v>11106.005564235493</v>
       </c>
       <c r="BJ105" s="2">
-        <f t="shared" si="157"/>
-        <v>11181.814290074033</v>
+        <f t="shared" si="158"/>
+        <v>11217.065619877847</v>
       </c>
       <c r="BK105" s="2">
-        <f t="shared" si="157"/>
-        <v>11293.632432974773</v>
+        <f t="shared" si="158"/>
+        <v>11329.236276076626</v>
       </c>
       <c r="BL105" s="2">
-        <f t="shared" si="157"/>
-        <v>11406.568757304522</v>
+        <f t="shared" si="158"/>
+        <v>11442.528638837393</v>
       </c>
       <c r="BM105" s="2">
-        <f t="shared" si="157"/>
-        <v>11520.634444877567</v>
+        <f t="shared" si="158"/>
+        <v>11556.953925225767</v>
       </c>
       <c r="BN105" s="2">
-        <f t="shared" si="157"/>
-        <v>11635.840789326343</v>
+        <f t="shared" si="158"/>
+        <v>11672.523464478025</v>
       </c>
       <c r="BO105" s="2">
-        <f t="shared" si="157"/>
-        <v>11752.199197219607</v>
+        <f t="shared" si="158"/>
+        <v>11789.248699122805</v>
       </c>
       <c r="BP105" s="2">
-        <f t="shared" si="157"/>
-        <v>11869.721189191803</v>
+        <f t="shared" si="158"/>
+        <v>11907.141186114033</v>
       </c>
       <c r="BQ105" s="2">
-        <f t="shared" si="157"/>
-        <v>11988.418401083722</v>
+        <f t="shared" si="158"/>
+        <v>12026.212597975175</v>
       </c>
       <c r="BR105" s="2">
-        <f t="shared" si="157"/>
-        <v>12108.30258509456</v>
+        <f t="shared" si="158"/>
+        <v>12146.474723954927</v>
       </c>
       <c r="BS105" s="2">
-        <f t="shared" si="157"/>
-        <v>12229.385610945505</v>
+        <f t="shared" si="158"/>
+        <v>12267.939471194477</v>
       </c>
       <c r="BT105" s="2">
-        <f t="shared" si="157"/>
-        <v>12351.679467054959</v>
+        <f t="shared" si="158"/>
+        <v>12390.618865906421</v>
       </c>
       <c r="BU105" s="2">
-        <f t="shared" si="157"/>
-        <v>12475.196261725509</v>
+        <f t="shared" si="158"/>
+        <v>12514.525054565485</v>
       </c>
       <c r="BV105" s="2">
-        <f t="shared" si="157"/>
-        <v>12599.948224342763</v>
+        <f t="shared" si="158"/>
+        <v>12639.67030511114</v>
       </c>
       <c r="BW105" s="2">
-        <f t="shared" si="157"/>
-        <v>12725.94770658619</v>
+        <f t="shared" si="158"/>
+        <v>12766.067008162252</v>
       </c>
       <c r="BX105" s="2">
-        <f t="shared" si="157"/>
-        <v>12853.207183652052</v>
+        <f t="shared" si="158"/>
+        <v>12893.727678243875</v>
       </c>
       <c r="BY105" s="2">
-        <f t="shared" si="157"/>
-        <v>12981.739255488572</v>
+        <f t="shared" si="158"/>
+        <v>13022.664955026314</v>
       </c>
       <c r="BZ105" s="2">
-        <f t="shared" si="157"/>
-        <v>13111.556648043457</v>
+        <f t="shared" si="158"/>
+        <v>13152.891604576576</v>
       </c>
       <c r="CA105" s="2">
-        <f t="shared" si="157"/>
-        <v>13242.672214523893</v>
+        <f t="shared" si="158"/>
+        <v>13284.420520622341</v>
       </c>
       <c r="CB105" s="2">
-        <f t="shared" si="157"/>
-        <v>13375.098936669132</v>
+        <f t="shared" si="158"/>
+        <v>13417.264725828565</v>
       </c>
       <c r="CC105" s="2">
-        <f t="shared" si="157"/>
-        <v>13508.849926035824</v>
+        <f t="shared" si="158"/>
+        <v>13551.43737308685</v>
       </c>
       <c r="CD105" s="2">
-        <f t="shared" si="157"/>
-        <v>13643.938425296183</v>
+        <f t="shared" si="158"/>
+        <v>13686.951746817718</v>
       </c>
       <c r="CE105" s="2">
-        <f t="shared" si="157"/>
-        <v>13780.377809549145</v>
+        <f t="shared" si="158"/>
+        <v>13823.821264285896</v>
       </c>
       <c r="CF105" s="2">
-        <f t="shared" si="157"/>
-        <v>13918.181587644636</v>
+        <f t="shared" si="158"/>
+        <v>13962.059476928755</v>
       </c>
       <c r="CG105" s="2">
-        <f t="shared" si="157"/>
-        <v>14057.363403521083</v>
+        <f t="shared" si="158"/>
+        <v>14101.680071698042</v>
       </c>
       <c r="CH105" s="2">
-        <f t="shared" si="157"/>
-        <v>14197.937037556294</v>
+        <f t="shared" si="158"/>
+        <v>14242.696872415023</v>
       </c>
       <c r="CI105" s="2">
-        <f t="shared" si="157"/>
-        <v>14339.916407931856</v>
+        <f t="shared" si="158"/>
+        <v>14385.123841139173</v>
       </c>
       <c r="CJ105" s="2">
-        <f t="shared" si="157"/>
-        <v>14483.315572011175</v>
+        <f t="shared" si="158"/>
+        <v>14528.975079550564</v>
       </c>
       <c r="CK105" s="2">
-        <f t="shared" si="157"/>
-        <v>14628.148727731288</v>
+        <f t="shared" si="158"/>
+        <v>14674.26483034607</v>
       </c>
       <c r="CL105" s="2">
-        <f t="shared" si="157"/>
-        <v>14774.4302150086</v>
+        <f t="shared" si="158"/>
+        <v>14821.007478649532</v>
       </c>
       <c r="CM105" s="2">
-        <f t="shared" ref="CM105:DR105" si="158">CL105*(1+$AC$49)</f>
-        <v>14922.174517158686</v>
+        <f t="shared" ref="CM105:DR105" si="159">CL105*(1+$AC$49)</f>
+        <v>14969.217553436027</v>
       </c>
       <c r="CN105" s="2">
-        <f t="shared" si="158"/>
-        <v>15071.396262330274</v>
+        <f t="shared" si="159"/>
+        <v>15118.909728970388</v>
       </c>
       <c r="CO105" s="2">
-        <f t="shared" si="158"/>
-        <v>15222.110224953576</v>
+        <f t="shared" si="159"/>
+        <v>15270.098826260091</v>
       </c>
       <c r="CP105" s="2">
-        <f t="shared" si="158"/>
-        <v>15374.331327203112</v>
+        <f t="shared" si="159"/>
+        <v>15422.799814522692</v>
       </c>
       <c r="CQ105" s="2">
-        <f t="shared" si="158"/>
-        <v>15528.074640475143</v>
+        <f t="shared" si="159"/>
+        <v>15577.027812667919</v>
       </c>
       <c r="CR105" s="2">
-        <f t="shared" si="158"/>
-        <v>15683.355386879894</v>
+        <f t="shared" si="159"/>
+        <v>15732.798090794598</v>
       </c>
       <c r="CS105" s="2">
-        <f t="shared" si="158"/>
-        <v>15840.188940748692</v>
+        <f t="shared" si="159"/>
+        <v>15890.126071702545</v>
       </c>
       <c r="CT105" s="2">
-        <f t="shared" si="158"/>
-        <v>15998.590830156179</v>
+        <f t="shared" si="159"/>
+        <v>16049.027332419571</v>
       </c>
       <c r="CU105" s="2">
-        <f t="shared" si="158"/>
-        <v>16158.576738457741</v>
+        <f t="shared" si="159"/>
+        <v>16209.517605743767</v>
       </c>
       <c r="CV105" s="2">
-        <f t="shared" si="158"/>
-        <v>16320.162505842318</v>
+        <f t="shared" si="159"/>
+        <v>16371.612781801205</v>
       </c>
       <c r="CW105" s="2">
-        <f t="shared" si="158"/>
-        <v>16483.36413090074</v>
+        <f t="shared" si="159"/>
+        <v>16535.328909619217</v>
       </c>
       <c r="CX105" s="2">
-        <f t="shared" si="158"/>
-        <v>16648.197772209747</v>
+        <f t="shared" si="159"/>
+        <v>16700.682198715407</v>
       </c>
       <c r="CY105" s="2">
-        <f t="shared" si="158"/>
-        <v>16814.679749931845</v>
+        <f t="shared" si="159"/>
+        <v>16867.689020702561</v>
       </c>
       <c r="CZ105" s="2">
-        <f t="shared" si="158"/>
-        <v>16982.826547431163</v>
+        <f t="shared" si="159"/>
+        <v>17036.365910909586</v>
       </c>
       <c r="DA105" s="2">
-        <f t="shared" si="158"/>
-        <v>17152.654812905475</v>
+        <f t="shared" si="159"/>
+        <v>17206.729570018681</v>
       </c>
       <c r="DB105" s="2">
-        <f t="shared" si="158"/>
-        <v>17324.181361034531</v>
+        <f t="shared" si="159"/>
+        <v>17378.796865718869</v>
       </c>
       <c r="DC105" s="2">
-        <f t="shared" si="158"/>
-        <v>17497.423174644875</v>
+        <f t="shared" si="159"/>
+        <v>17552.584834376059</v>
       </c>
       <c r="DD105" s="2">
-        <f t="shared" si="158"/>
-        <v>17672.397406391323</v>
+        <f t="shared" si="159"/>
+        <v>17728.11068271982</v>
       </c>
       <c r="DE105" s="2">
-        <f t="shared" si="158"/>
-        <v>17849.121380455235</v>
+        <f t="shared" si="159"/>
+        <v>17905.391789547019</v>
       </c>
       <c r="DF105" s="2">
-        <f t="shared" si="158"/>
-        <v>18027.612594259786</v>
+        <f t="shared" si="159"/>
+        <v>18084.44570744249</v>
       </c>
       <c r="DG105" s="2">
-        <f t="shared" si="158"/>
-        <v>18207.888720202383</v>
+        <f t="shared" si="159"/>
+        <v>18265.290164516915</v>
       </c>
       <c r="DH105" s="2">
-        <f t="shared" si="158"/>
-        <v>18389.967607404407</v>
+        <f t="shared" si="159"/>
+        <v>18447.943066162083</v>
       </c>
       <c r="DI105" s="2">
-        <f t="shared" si="158"/>
-        <v>18573.867283478452</v>
+        <f t="shared" si="159"/>
+        <v>18632.422496823703</v>
       </c>
       <c r="DJ105" s="2">
-        <f t="shared" si="158"/>
-        <v>18759.605956313237</v>
+        <f t="shared" si="159"/>
+        <v>18818.74672179194</v>
       </c>
       <c r="DK105" s="2">
-        <f t="shared" si="158"/>
-        <v>18947.20201587637</v>
+        <f t="shared" si="159"/>
+        <v>19006.934189009859</v>
       </c>
       <c r="DL105" s="2">
-        <f t="shared" si="158"/>
-        <v>19136.674036035132</v>
+        <f t="shared" si="159"/>
+        <v>19197.003530899958</v>
       </c>
       <c r="DM105" s="2">
-        <f t="shared" si="158"/>
-        <v>19328.040776395483</v>
+        <f t="shared" si="159"/>
+        <v>19388.973566208959</v>
       </c>
       <c r="DN105" s="2">
-        <f t="shared" si="158"/>
-        <v>19521.321184159438</v>
+        <f t="shared" si="159"/>
+        <v>19582.86330187105</v>
       </c>
       <c r="DO105" s="2">
-        <f t="shared" si="158"/>
-        <v>19716.534396001032</v>
+        <f t="shared" si="159"/>
+        <v>19778.691934889761</v>
       </c>
       <c r="DP105" s="2">
-        <f t="shared" si="158"/>
-        <v>19913.699739961045</v>
+        <f t="shared" si="159"/>
+        <v>19976.47885423866</v>
       </c>
       <c r="DQ105" s="2">
-        <f t="shared" si="158"/>
-        <v>20112.836737360656</v>
+        <f t="shared" si="159"/>
+        <v>20176.243642781046</v>
       </c>
       <c r="DR105" s="2">
-        <f t="shared" si="158"/>
-        <v>20313.965104734263</v>
+        <f t="shared" si="159"/>
+        <v>20378.006079208855</v>
       </c>
     </row>
   </sheetData>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9398923-C775-476D-A0D0-2219B5C1590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0310F55B-873B-4B7D-831B-61678067FB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="300" windowWidth="23340" windowHeight="14895" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="2100" yWindow="825" windowWidth="23340" windowHeight="14640" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="143">
   <si>
     <t>SMCI</t>
   </si>
@@ -558,6 +558,27 @@
   </si>
   <si>
     <t>Air-Cooled ASP</t>
+  </si>
+  <si>
+    <t>"grow 65% AT LEAST fy26, very conservative"</t>
+  </si>
+  <si>
+    <t>"production capacity USA only 55% taiwan only 60%, malaysia 1%"</t>
+  </si>
+  <si>
+    <t>"large backlog and increasing GB200, B200 Blackwell"</t>
+  </si>
+  <si>
+    <t>"what will the competition deliver is a big indicator of the margins"</t>
+  </si>
+  <si>
+    <t>H100</t>
+  </si>
+  <si>
+    <t>(2023 margins was because H100 SMCI was ahead and this year is the same opportunity but add with liquid cooling)</t>
+  </si>
+  <si>
+    <t>SMCI 2024 shipped 60% of DLC worldwide, competitors are not ready, not many are able to provide on-site services</t>
   </si>
 </sst>
 </file>
@@ -569,13 +590,19 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -682,40 +709,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1208,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5214CC-655A-4E11-87EC-D301395A4983}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1295,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1321,7 +1349,7 @@
       </c>
       <c r="F15" s="4">
         <f>F14*F13</f>
-        <v>26856.9</v>
+        <v>23275.980000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1338,7 +1366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
         <v>102</v>
       </c>
@@ -1353,7 +1381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
         <v>112</v>
       </c>
@@ -1362,30 +1390,35 @@
       </c>
       <c r="F18" s="4">
         <f>F15+F17-F16</f>
-        <v>27468.9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+        <v>23887.980000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="28">
         <v>2020</v>
       </c>
@@ -1393,15 +1426,22 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
       <c r="B26" s="7">
         <v>2022</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
         <v>2025</v>
       </c>
@@ -1409,7 +1449,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
         <v>2025.5</v>
       </c>
@@ -1417,7 +1457,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
         <v>2026</v>
       </c>
@@ -1425,7 +1465,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
         <v>2027</v>
       </c>
@@ -1433,12 +1473,32 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <v>2028</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="31" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1453,10 +1513,10 @@
   <dimension ref="A1:DR108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA59" sqref="AA59"/>
+      <selection pane="bottomRight" activeCell="AA47" sqref="AA47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2068,23 +2128,23 @@
       </c>
       <c r="V22" s="13">
         <f t="shared" si="12"/>
-        <v>0.10714285714285714</v>
+        <v>0.11011904761904762</v>
       </c>
       <c r="W22" s="13">
         <f t="shared" si="12"/>
-        <v>0.11224489795918367</v>
+        <v>0.11536281179138322</v>
       </c>
       <c r="X22" s="13">
         <f t="shared" si="12"/>
-        <v>0.11758989310009718</v>
+        <v>0.12085627901954432</v>
       </c>
       <c r="Y22" s="13">
         <f t="shared" si="12"/>
-        <v>0.12318941181914944</v>
+        <v>0.12661133992523693</v>
       </c>
       <c r="Z22" s="13">
         <f t="shared" si="12"/>
-        <v>0.12905557428672801</v>
+        <v>0.13264045135024824</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -2117,23 +2177,23 @@
       </c>
       <c r="V24" s="13">
         <f t="shared" si="13"/>
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="W24" s="13">
         <f t="shared" si="13"/>
-        <v>0.14887218045112782</v>
+        <v>0.15300751879699248</v>
       </c>
       <c r="X24" s="13">
         <f t="shared" si="13"/>
-        <v>0.12305084745762712</v>
+        <v>0.12646892655367231</v>
       </c>
       <c r="Y24" s="13">
         <f t="shared" si="13"/>
-        <v>0.10194893617021278</v>
+        <v>0.1047808510638298</v>
       </c>
       <c r="Z24" s="13">
         <f t="shared" si="13"/>
-        <v>8.4332160000000017E-2</v>
+        <v>8.6674720000000025E-2</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -2273,7 +2333,7 @@
       </c>
       <c r="V32" s="30">
         <f>V37/V31</f>
-        <v>0.42857142857142855</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="W32" s="30"/>
       <c r="X32" s="30"/>
@@ -2358,7 +2418,7 @@
       </c>
       <c r="V37" s="19">
         <f>V39-V36</f>
-        <v>9000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="38" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2437,23 +2497,23 @@
         <v>22215</v>
       </c>
       <c r="V39" s="19">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="W39" s="19">
         <f>V39*1.1</f>
-        <v>39600</v>
+        <v>40700</v>
       </c>
       <c r="X39" s="19">
         <f t="shared" ref="X39:Z39" si="14">W39*1.1</f>
-        <v>43560</v>
+        <v>44770</v>
       </c>
       <c r="Y39" s="19">
         <f t="shared" si="14"/>
-        <v>47916.000000000007</v>
+        <v>49247.000000000007</v>
       </c>
       <c r="Z39" s="19">
         <f t="shared" si="14"/>
-        <v>52707.600000000013</v>
+        <v>54171.700000000012</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
@@ -2522,23 +2582,23 @@
       </c>
       <c r="V40" s="8">
         <f>V39*(1-V59)</f>
-        <v>31680</v>
+        <v>32560</v>
       </c>
       <c r="W40" s="8">
         <f t="shared" ref="W40:Z40" si="15">W39*(1-W59)</f>
-        <v>34452</v>
+        <v>35409</v>
       </c>
       <c r="X40" s="8">
         <f t="shared" si="15"/>
-        <v>37461.599999999999</v>
+        <v>38502.199999999997</v>
       </c>
       <c r="Y40" s="8">
         <f t="shared" si="15"/>
-        <v>41073.595200000003</v>
+        <v>42352.420000000006</v>
       </c>
       <c r="Z40" s="8">
         <f t="shared" si="15"/>
-        <v>45030.421814400011</v>
+        <v>46587.662000000011</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -2619,23 +2679,23 @@
       </c>
       <c r="V41" s="8">
         <f t="shared" si="17"/>
-        <v>4320</v>
+        <v>4440</v>
       </c>
       <c r="W41" s="8">
         <f t="shared" ref="W41:Z41" si="18">W39-W40</f>
-        <v>5148</v>
+        <v>5291</v>
       </c>
       <c r="X41" s="8">
         <f t="shared" si="18"/>
-        <v>6098.4000000000015</v>
+        <v>6267.8000000000029</v>
       </c>
       <c r="Y41" s="8">
         <f t="shared" si="18"/>
-        <v>6842.4048000000039</v>
+        <v>6894.5800000000017</v>
       </c>
       <c r="Z41" s="8">
         <f t="shared" si="18"/>
-        <v>7677.1781856000016</v>
+        <v>7584.0380000000005</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
@@ -2704,23 +2764,23 @@
       </c>
       <c r="V42" s="8">
         <f t="shared" ref="V42:Z42" si="22">U42*(1+V55)</f>
-        <v>1078.911428823063</v>
+        <v>1108.8811907348149</v>
       </c>
       <c r="W42" s="8">
         <f t="shared" si="22"/>
-        <v>1186.8025717053695</v>
+        <v>1219.7693098082966</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" si="22"/>
-        <v>1305.4828288759065</v>
+        <v>1341.7462407891264</v>
       </c>
       <c r="Y42" s="8">
         <f t="shared" si="22"/>
-        <v>1436.0311117634974</v>
+        <v>1475.9208648680392</v>
       </c>
       <c r="Z42" s="8">
         <f t="shared" si="22"/>
-        <v>1579.6342229398472</v>
+        <v>1623.5129513548432</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -2789,23 +2849,23 @@
       </c>
       <c r="V43" s="8">
         <f t="shared" ref="V43:Z43" si="26">U43*(1+V55)</f>
-        <v>464.37953204356631</v>
+        <v>477.27896348922098</v>
       </c>
       <c r="W43" s="8">
         <f t="shared" si="26"/>
-        <v>510.817485247923</v>
+        <v>525.0068598381431</v>
       </c>
       <c r="X43" s="8">
         <f t="shared" si="26"/>
-        <v>561.89923377271532</v>
+        <v>577.50754582195748</v>
       </c>
       <c r="Y43" s="8">
         <f t="shared" si="26"/>
-        <v>618.08915714998693</v>
+        <v>635.25830040415326</v>
       </c>
       <c r="Z43" s="8">
         <f t="shared" si="26"/>
-        <v>679.89807286498569</v>
+        <v>698.78413044456863</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
@@ -2874,23 +2934,23 @@
       </c>
       <c r="V44" s="8">
         <f t="shared" ref="V44:Z44" si="30">U44*(1+V55)</f>
-        <v>472.36238734110322</v>
+        <v>485.48356476724496</v>
       </c>
       <c r="W44" s="8">
         <f t="shared" si="30"/>
-        <v>519.59862607521359</v>
+        <v>534.03192124396946</v>
       </c>
       <c r="X44" s="8">
         <f t="shared" si="30"/>
-        <v>571.55848868273495</v>
+        <v>587.4351133683665</v>
       </c>
       <c r="Y44" s="8">
         <f t="shared" si="30"/>
-        <v>628.7143375510085</v>
+        <v>646.17862470520322</v>
       </c>
       <c r="Z44" s="8">
         <f t="shared" si="30"/>
-        <v>691.58577130610945</v>
+        <v>710.79648717572366</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
@@ -2966,28 +3026,28 @@
         <v>850.5</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" ref="U45:Y45" si="36">SUM(U42:U44)</f>
+        <f t="shared" ref="U45:Z45" si="36">SUM(U42:U44)</f>
         <v>1243.8260869565217</v>
       </c>
       <c r="V45" s="8">
         <f t="shared" si="36"/>
-        <v>2015.6533482077325</v>
+        <v>2071.6437189912808</v>
       </c>
       <c r="W45" s="8">
         <f t="shared" si="36"/>
-        <v>2217.2186830285063</v>
+        <v>2278.8080908904094</v>
       </c>
       <c r="X45" s="8">
         <f t="shared" si="36"/>
-        <v>2438.9405513313568</v>
+        <v>2506.6888999794501</v>
       </c>
       <c r="Y45" s="8">
         <f t="shared" si="36"/>
-        <v>2682.8346064644929</v>
+        <v>2757.3577899773954</v>
       </c>
       <c r="Z45" s="8">
-        <f t="shared" ref="Z45" si="37">SUM(Z42:Z44)</f>
-        <v>2951.1180671109423</v>
+        <f t="shared" si="36"/>
+        <v>3033.0935689751354</v>
       </c>
     </row>
     <row r="46" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2999,15 +3059,15 @@
         <v>1583.9</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" ref="D46:F46" si="38">D41-D45</f>
+        <f t="shared" ref="D46:F46" si="37">D41-D45</f>
         <v>371.50000000000017</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>378.30000000000018</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>343.30000000000018</v>
       </c>
       <c r="G46" s="2">
@@ -3019,72 +3079,72 @@
         <v>368.80000000000035</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" ref="I46:L46" si="39">I41-I45</f>
+        <f t="shared" ref="I46:L46" si="38">I41-I45</f>
         <v>147.5</v>
       </c>
       <c r="J46" s="2">
+        <f t="shared" si="38"/>
+        <v>337.17391304347825</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="38"/>
+        <v>444.97956521739133</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="38"/>
+        <v>462.62101304347834</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" ref="M46:N46" si="39">M41-M45</f>
+        <v>480.83462491304311</v>
+      </c>
+      <c r="N46" s="2">
         <f t="shared" si="39"/>
-        <v>337.17391304347825</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" si="39"/>
-        <v>444.97956521739133</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" si="39"/>
-        <v>462.62101304347834</v>
-      </c>
-      <c r="M46" s="2">
-        <f t="shared" ref="M46:N46" si="40">M41-M45</f>
-        <v>480.83462491304311</v>
-      </c>
-      <c r="N46" s="2">
+        <v>758.54593509260815</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" ref="P46:R46" si="40">P41-P45</f>
+        <v>85.60000000000025</v>
+      </c>
+      <c r="Q46" s="2">
         <f t="shared" si="40"/>
-        <v>758.54593509260815</v>
-      </c>
-      <c r="P46" s="2">
-        <f t="shared" ref="P46:R46" si="41">P41-P45</f>
-        <v>85.60000000000025</v>
-      </c>
-      <c r="Q46" s="2">
+        <v>123.89999999999998</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="40"/>
+        <v>335.20000000000005</v>
+      </c>
+      <c r="S46" s="2">
+        <f t="shared" ref="S46:T46" si="41">S41-S45</f>
+        <v>761.24</v>
+      </c>
+      <c r="T46" s="2">
         <f t="shared" si="41"/>
-        <v>123.89999999999998</v>
-      </c>
-      <c r="R46" s="2">
-        <f t="shared" si="41"/>
-        <v>335.20000000000005</v>
-      </c>
-      <c r="S46" s="2">
-        <f t="shared" ref="S46:T46" si="42">S41-S45</f>
-        <v>761.24</v>
-      </c>
-      <c r="T46" s="2">
+        <v>1210.9000000000015</v>
+      </c>
+      <c r="U46" s="2">
+        <f t="shared" ref="U46:V46" si="42">U41-U45</f>
+        <v>1362.6739130434783</v>
+      </c>
+      <c r="V46" s="2">
         <f t="shared" si="42"/>
-        <v>1210.9000000000015</v>
-      </c>
-      <c r="U46" s="2">
-        <f t="shared" ref="U46:V46" si="43">U41-U45</f>
-        <v>1362.6739130434783</v>
-      </c>
-      <c r="V46" s="2">
-        <f t="shared" si="43"/>
-        <v>2304.3466517922675</v>
+        <v>2368.3562810087192</v>
       </c>
       <c r="W46" s="2">
-        <f t="shared" ref="W46" si="44">W41-W45</f>
-        <v>2930.7813169714937</v>
+        <f t="shared" ref="W46" si="43">W41-W45</f>
+        <v>3012.1919091095906</v>
       </c>
       <c r="X46" s="2">
-        <f t="shared" ref="X46" si="45">X41-X45</f>
-        <v>3659.4594486686447</v>
+        <f t="shared" ref="X46" si="44">X41-X45</f>
+        <v>3761.1111000205528</v>
       </c>
       <c r="Y46" s="2">
-        <f t="shared" ref="Y46:Z46" si="46">Y41-Y45</f>
-        <v>4159.570193535511</v>
+        <f t="shared" ref="Y46:Z46" si="45">Y41-Y45</f>
+        <v>4137.2222100226063</v>
       </c>
       <c r="Z46" s="2">
-        <f t="shared" si="46"/>
-        <v>4726.0601184890593</v>
+        <f t="shared" si="45"/>
+        <v>4550.9444310248655</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -3196,19 +3256,19 @@
       </c>
       <c r="W48" s="8">
         <f>V63*$AC$55</f>
-        <v>124.95005739623461</v>
+        <v>128.06092537615416</v>
       </c>
       <c r="X48" s="8">
         <f>W63*$AC$55</f>
-        <v>274.88303284482328</v>
+        <v>282.13710768144949</v>
       </c>
       <c r="Y48" s="8">
         <f>X63*$AC$55</f>
-        <v>469.2257440208088</v>
+        <v>481.85533360333534</v>
       </c>
       <c r="Z48" s="8">
         <f>Y63*$AC$55</f>
-        <v>699.53440006788321</v>
+        <v>711.83565302663419</v>
       </c>
     </row>
     <row r="49" spans="2:92" x14ac:dyDescent="0.2">
@@ -3220,15 +3280,15 @@
         <v>1588.7</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" ref="D49:F49" si="47">D46+SUM(D47:D48)</f>
+        <f t="shared" ref="D49:F49" si="46">D46+SUM(D47:D48)</f>
         <v>355.50000000000017</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>382.00000000000017</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>354.20000000000016</v>
       </c>
       <c r="G49" s="8">
@@ -3240,72 +3300,72 @@
         <v>375.20000000000033</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" ref="I49:L49" si="48">I46+SUM(I47:I48)</f>
+        <f t="shared" ref="I49:L49" si="47">I46+SUM(I47:I48)</f>
         <v>115.8</v>
       </c>
       <c r="J49" s="8">
+        <f t="shared" si="47"/>
+        <v>335.94691304347828</v>
+      </c>
+      <c r="K49" s="8">
+        <f t="shared" si="47"/>
+        <v>448.03588835869567</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="47"/>
+        <v>471.38979376135603</v>
+      </c>
+      <c r="M49" s="8">
+        <f t="shared" ref="M49:N49" si="48">M46+SUM(M47:M48)</f>
+        <v>495.61362550137812</v>
+      </c>
+      <c r="N49" s="8">
         <f t="shared" si="48"/>
-        <v>335.94691304347828</v>
-      </c>
-      <c r="K49" s="8">
-        <f t="shared" si="48"/>
-        <v>448.03588835869567</v>
-      </c>
-      <c r="L49" s="8">
-        <f t="shared" si="48"/>
-        <v>471.38979376135603</v>
-      </c>
-      <c r="M49" s="8">
-        <f t="shared" ref="M49:N49" si="49">M46+SUM(M47:M48)</f>
-        <v>495.61362550137812</v>
-      </c>
-      <c r="N49" s="8">
+        <v>779.64400940608573</v>
+      </c>
+      <c r="P49" s="8">
+        <f t="shared" ref="P49:R49" si="49">P46+SUM(P47:P48)</f>
+        <v>84.800000000000253</v>
+      </c>
+      <c r="Q49" s="8">
         <f t="shared" si="49"/>
-        <v>779.64400940608573</v>
-      </c>
-      <c r="P49" s="8">
-        <f t="shared" ref="P49:R49" si="50">P46+SUM(P47:P48)</f>
-        <v>84.800000000000253</v>
-      </c>
-      <c r="Q49" s="8">
+        <v>118.59999999999998</v>
+      </c>
+      <c r="R49" s="8">
+        <f t="shared" si="49"/>
+        <v>336.90000000000003</v>
+      </c>
+      <c r="S49" s="8">
+        <f t="shared" ref="S49:T49" si="50">S46+SUM(S47:S48)</f>
+        <v>761.24</v>
+      </c>
+      <c r="T49" s="8">
         <f t="shared" si="50"/>
-        <v>118.59999999999998</v>
-      </c>
-      <c r="R49" s="8">
-        <f t="shared" si="50"/>
-        <v>336.90000000000003</v>
-      </c>
-      <c r="S49" s="8">
-        <f t="shared" ref="S49:T49" si="51">S46+SUM(S47:S48)</f>
-        <v>761.24</v>
-      </c>
-      <c r="T49" s="8">
+        <v>1214.2500000000014</v>
+      </c>
+      <c r="U49" s="8">
+        <f t="shared" ref="U49:V49" si="51">U46+SUM(U47:U48)</f>
+        <v>1326.0469130434783</v>
+      </c>
+      <c r="V49" s="8">
         <f t="shared" si="51"/>
-        <v>1214.2500000000014</v>
-      </c>
-      <c r="U49" s="8">
-        <f t="shared" ref="U49:V49" si="52">U46+SUM(U47:U48)</f>
-        <v>1326.0469130434783</v>
-      </c>
-      <c r="V49" s="8">
-        <f t="shared" si="52"/>
-        <v>2316.5719443574849</v>
+        <v>2380.5815735739366</v>
       </c>
       <c r="W49" s="8">
-        <f t="shared" ref="W49" si="53">W46+SUM(W47:W48)</f>
-        <v>3055.7313743677282</v>
+        <f t="shared" ref="W49" si="52">W46+SUM(W47:W48)</f>
+        <v>3140.2528344857446</v>
       </c>
       <c r="X49" s="8">
-        <f t="shared" ref="X49" si="54">X46+SUM(X47:X48)</f>
-        <v>3934.3424815134681</v>
+        <f t="shared" ref="X49" si="53">X46+SUM(X47:X48)</f>
+        <v>4043.2482077020022</v>
       </c>
       <c r="Y49" s="8">
-        <f t="shared" ref="Y49:Z49" si="55">Y46+SUM(Y47:Y48)</f>
-        <v>4628.7959375563196</v>
+        <f t="shared" ref="Y49:Z49" si="54">Y46+SUM(Y47:Y48)</f>
+        <v>4619.0775436259419</v>
       </c>
       <c r="Z49" s="8">
-        <f t="shared" si="55"/>
-        <v>5425.5945185569426</v>
+        <f t="shared" si="54"/>
+        <v>5262.7800840514992</v>
       </c>
     </row>
     <row r="50" spans="2:92" x14ac:dyDescent="0.2">
@@ -3338,19 +3398,19 @@
         <v>50.392036956521743</v>
       </c>
       <c r="K50" s="8">
-        <f t="shared" ref="K50:N50" si="56">K49*K57</f>
+        <f t="shared" ref="K50:N50" si="55">K49*K57</f>
         <v>67.205383253804342</v>
       </c>
       <c r="L50" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>70.708469064203399</v>
       </c>
       <c r="M50" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>74.342043825206716</v>
       </c>
       <c r="N50" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>116.94660141091285</v>
       </c>
       <c r="P50" s="8">
@@ -3373,24 +3433,24 @@
         <v>187.79203695652174</v>
       </c>
       <c r="V50" s="8">
-        <f t="shared" ref="V50:Z50" si="57">V57*V46</f>
-        <v>437.82586384053081</v>
+        <f t="shared" ref="V50:Z50" si="56">V57*V46</f>
+        <v>449.98769339165665</v>
       </c>
       <c r="W50" s="8">
-        <f t="shared" si="57"/>
-        <v>556.84845022458376</v>
+        <f t="shared" si="56"/>
+        <v>572.3164627308222</v>
       </c>
       <c r="X50" s="8">
-        <f t="shared" si="57"/>
-        <v>695.29729524704248</v>
+        <f t="shared" si="56"/>
+        <v>714.61110900390509</v>
       </c>
       <c r="Y50" s="8">
-        <f t="shared" si="57"/>
-        <v>790.31833677174711</v>
+        <f t="shared" si="56"/>
+        <v>786.07221990429525</v>
       </c>
       <c r="Z50" s="8">
-        <f t="shared" si="57"/>
-        <v>897.95142251292123</v>
+        <f t="shared" si="56"/>
+        <v>864.6794418947245</v>
       </c>
     </row>
     <row r="51" spans="2:92" ht="15" x14ac:dyDescent="0.25">
@@ -3402,15 +3462,15 @@
         <v>1568.5</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" ref="D51:F51" si="58">D49-D50</f>
+        <f t="shared" ref="D51:F51" si="57">D49-D50</f>
         <v>417.00000000000017</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>402.00000000000017</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>353.20000000000016</v>
       </c>
       <c r="G51" s="2">
@@ -3430,329 +3490,329 @@
         <v>285.55487608695654</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" ref="K51:L51" si="59">K49-K50</f>
+        <f t="shared" ref="K51:L51" si="58">K49-K50</f>
         <v>380.83050510489136</v>
       </c>
       <c r="L51" s="2">
+        <f t="shared" si="58"/>
+        <v>400.6813246971526</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" ref="M51:N51" si="59">M49-M50</f>
+        <v>421.27158167617142</v>
+      </c>
+      <c r="N51" s="2">
         <f t="shared" si="59"/>
-        <v>400.6813246971526</v>
-      </c>
-      <c r="M51" s="2">
-        <f t="shared" ref="M51:N51" si="60">M49-M50</f>
-        <v>421.27158167617142</v>
-      </c>
-      <c r="N51" s="2">
-        <f t="shared" si="60"/>
         <v>662.69740799517285</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2">
-        <f t="shared" ref="P51:R51" si="61">P49-P50</f>
+        <f t="shared" ref="P51:R51" si="60">P49-P50</f>
         <v>81.900000000000247</v>
       </c>
       <c r="Q51" s="2">
+        <f t="shared" si="60"/>
+        <v>111.69999999999997</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="60"/>
+        <v>284.00000000000006</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" ref="S51:Y51" si="61">S49-S50</f>
+        <v>650.64</v>
+      </c>
+      <c r="T51" s="2">
         <f t="shared" si="61"/>
-        <v>111.69999999999997</v>
-      </c>
-      <c r="R51" s="2">
+        <v>1150.9500000000014</v>
+      </c>
+      <c r="U51" s="2">
         <f t="shared" si="61"/>
-        <v>284.00000000000006</v>
-      </c>
-      <c r="S51" s="2">
-        <f t="shared" ref="S51:Y51" si="62">S49-S50</f>
-        <v>650.64</v>
-      </c>
-      <c r="T51" s="2">
-        <f t="shared" si="62"/>
-        <v>1150.9500000000014</v>
-      </c>
-      <c r="U51" s="2">
-        <f t="shared" si="62"/>
         <v>1138.2548760869565</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" si="62"/>
-        <v>1878.746080516954</v>
+        <f t="shared" si="61"/>
+        <v>1930.5938801822799</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" si="62"/>
-        <v>2498.8829241431445</v>
+        <f t="shared" si="61"/>
+        <v>2567.9363717549222</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="62"/>
-        <v>3239.0451862664258</v>
+        <f t="shared" si="61"/>
+        <v>3328.6370986980974</v>
       </c>
       <c r="Y51" s="2">
-        <f t="shared" si="62"/>
-        <v>3838.4776007845726</v>
+        <f t="shared" si="61"/>
+        <v>3833.0053237216466</v>
       </c>
       <c r="Z51" s="2">
-        <f t="shared" ref="Z51" si="63">Z49-Z50</f>
-        <v>4527.6430960440211</v>
+        <f t="shared" ref="Z51" si="62">Z49-Z50</f>
+        <v>4398.1006421567745</v>
       </c>
       <c r="AA51" s="2">
-        <f t="shared" ref="AA51:BF51" si="64">Z51*(1+$AC$56)</f>
-        <v>4618.1959579649019</v>
+        <f t="shared" ref="AA51:BF51" si="63">Z51*(1+$AC$56)</f>
+        <v>4486.0626549999097</v>
       </c>
       <c r="AB51" s="2">
+        <f t="shared" si="63"/>
+        <v>4575.7839080999083</v>
+      </c>
+      <c r="AC51" s="2">
+        <f t="shared" si="63"/>
+        <v>4667.2995862619064</v>
+      </c>
+      <c r="AD51" s="2">
+        <f t="shared" si="63"/>
+        <v>4760.6455779871449</v>
+      </c>
+      <c r="AE51" s="2">
+        <f t="shared" si="63"/>
+        <v>4855.8584895468875</v>
+      </c>
+      <c r="AF51" s="2">
+        <f t="shared" si="63"/>
+        <v>4952.9756593378252</v>
+      </c>
+      <c r="AG51" s="2">
+        <f t="shared" si="63"/>
+        <v>5052.0351725245819</v>
+      </c>
+      <c r="AH51" s="2">
+        <f t="shared" si="63"/>
+        <v>5153.0758759750734</v>
+      </c>
+      <c r="AI51" s="2">
+        <f t="shared" si="63"/>
+        <v>5256.137393494575</v>
+      </c>
+      <c r="AJ51" s="2">
+        <f t="shared" si="63"/>
+        <v>5361.260141364467</v>
+      </c>
+      <c r="AK51" s="2">
+        <f t="shared" si="63"/>
+        <v>5468.4853441917567</v>
+      </c>
+      <c r="AL51" s="2">
+        <f t="shared" si="63"/>
+        <v>5577.8550510755922</v>
+      </c>
+      <c r="AM51" s="2">
+        <f t="shared" si="63"/>
+        <v>5689.4121520971039</v>
+      </c>
+      <c r="AN51" s="2">
+        <f t="shared" si="63"/>
+        <v>5803.2003951390461</v>
+      </c>
+      <c r="AO51" s="2">
+        <f t="shared" si="63"/>
+        <v>5919.2644030418269</v>
+      </c>
+      <c r="AP51" s="2">
+        <f t="shared" si="63"/>
+        <v>6037.6496911026634</v>
+      </c>
+      <c r="AQ51" s="2">
+        <f t="shared" si="63"/>
+        <v>6158.4026849247166</v>
+      </c>
+      <c r="AR51" s="2">
+        <f t="shared" si="63"/>
+        <v>6281.5707386232107</v>
+      </c>
+      <c r="AS51" s="2">
+        <f t="shared" si="63"/>
+        <v>6407.2021533956749</v>
+      </c>
+      <c r="AT51" s="2">
+        <f t="shared" si="63"/>
+        <v>6535.346196463589</v>
+      </c>
+      <c r="AU51" s="2">
+        <f t="shared" si="63"/>
+        <v>6666.0531203928613</v>
+      </c>
+      <c r="AV51" s="2">
+        <f t="shared" si="63"/>
+        <v>6799.3741828007187</v>
+      </c>
+      <c r="AW51" s="2">
+        <f t="shared" si="63"/>
+        <v>6935.3616664567335</v>
+      </c>
+      <c r="AX51" s="2">
+        <f t="shared" si="63"/>
+        <v>7074.0688997858679</v>
+      </c>
+      <c r="AY51" s="2">
+        <f t="shared" si="63"/>
+        <v>7215.5502777815855</v>
+      </c>
+      <c r="AZ51" s="2">
+        <f t="shared" si="63"/>
+        <v>7359.8612833372172</v>
+      </c>
+      <c r="BA51" s="2">
+        <f t="shared" si="63"/>
+        <v>7507.0585090039613</v>
+      </c>
+      <c r="BB51" s="2">
+        <f t="shared" si="63"/>
+        <v>7657.1996791840402</v>
+      </c>
+      <c r="BC51" s="2">
+        <f t="shared" si="63"/>
+        <v>7810.3436727677208</v>
+      </c>
+      <c r="BD51" s="2">
+        <f t="shared" si="63"/>
+        <v>7966.5505462230758</v>
+      </c>
+      <c r="BE51" s="2">
+        <f t="shared" si="63"/>
+        <v>8125.881557147537</v>
+      </c>
+      <c r="BF51" s="2">
+        <f t="shared" si="63"/>
+        <v>8288.3991882904884</v>
+      </c>
+      <c r="BG51" s="2">
+        <f t="shared" ref="BG51:CN51" si="64">BF51*(1+$AC$56)</f>
+        <v>8454.167172056299</v>
+      </c>
+      <c r="BH51" s="2">
         <f t="shared" si="64"/>
-        <v>4710.5598771242003</v>
-      </c>
-      <c r="AC51" s="2">
+        <v>8623.250515497426</v>
+      </c>
+      <c r="BI51" s="2">
         <f t="shared" si="64"/>
-        <v>4804.7710746666844</v>
-      </c>
-      <c r="AD51" s="2">
+        <v>8795.7155258073744</v>
+      </c>
+      <c r="BJ51" s="2">
         <f t="shared" si="64"/>
-        <v>4900.866496160018</v>
-      </c>
-      <c r="AE51" s="2">
+        <v>8971.6298363235219</v>
+      </c>
+      <c r="BK51" s="2">
         <f t="shared" si="64"/>
-        <v>4998.8838260832181</v>
-      </c>
-      <c r="AF51" s="2">
+        <v>9151.0624330499923</v>
+      </c>
+      <c r="BL51" s="2">
         <f t="shared" si="64"/>
-        <v>5098.8615026048828</v>
-      </c>
-      <c r="AG51" s="2">
+        <v>9334.0836817109921</v>
+      </c>
+      <c r="BM51" s="2">
         <f t="shared" si="64"/>
-        <v>5200.8387326569809</v>
-      </c>
-      <c r="AH51" s="2">
+        <v>9520.7653553452128</v>
+      </c>
+      <c r="BN51" s="2">
         <f t="shared" si="64"/>
-        <v>5304.8555073101206</v>
-      </c>
-      <c r="AI51" s="2">
+        <v>9711.1806624521178</v>
+      </c>
+      <c r="BO51" s="2">
         <f t="shared" si="64"/>
-        <v>5410.9526174563234</v>
-      </c>
-      <c r="AJ51" s="2">
+        <v>9905.4042757011612</v>
+      </c>
+      <c r="BP51" s="2">
         <f t="shared" si="64"/>
-        <v>5519.1716698054497</v>
-      </c>
-      <c r="AK51" s="2">
+        <v>10103.512361215184</v>
+      </c>
+      <c r="BQ51" s="2">
         <f t="shared" si="64"/>
-        <v>5629.5551032015592</v>
-      </c>
-      <c r="AL51" s="2">
+        <v>10305.582608439488</v>
+      </c>
+      <c r="BR51" s="2">
         <f t="shared" si="64"/>
-        <v>5742.1462052655907</v>
-      </c>
-      <c r="AM51" s="2">
+        <v>10511.694260608278</v>
+      </c>
+      <c r="BS51" s="2">
         <f t="shared" si="64"/>
-        <v>5856.9891293709024</v>
-      </c>
-      <c r="AN51" s="2">
+        <v>10721.928145820444</v>
+      </c>
+      <c r="BT51" s="2">
         <f t="shared" si="64"/>
-        <v>5974.1289119583207</v>
-      </c>
-      <c r="AO51" s="2">
+        <v>10936.366708736854</v>
+      </c>
+      <c r="BU51" s="2">
         <f t="shared" si="64"/>
-        <v>6093.611490197487</v>
-      </c>
-      <c r="AP51" s="2">
+        <v>11155.094042911591</v>
+      </c>
+      <c r="BV51" s="2">
         <f t="shared" si="64"/>
-        <v>6215.4837200014372</v>
-      </c>
-      <c r="AQ51" s="2">
+        <v>11378.195923769823</v>
+      </c>
+      <c r="BW51" s="2">
         <f t="shared" si="64"/>
-        <v>6339.7933944014658</v>
-      </c>
-      <c r="AR51" s="2">
+        <v>11605.759842245219</v>
+      </c>
+      <c r="BX51" s="2">
         <f t="shared" si="64"/>
-        <v>6466.5892622894953</v>
-      </c>
-      <c r="AS51" s="2">
+        <v>11837.875039090124</v>
+      </c>
+      <c r="BY51" s="2">
         <f t="shared" si="64"/>
-        <v>6595.9210475352857</v>
-      </c>
-      <c r="AT51" s="2">
+        <v>12074.632539871927</v>
+      </c>
+      <c r="BZ51" s="2">
         <f t="shared" si="64"/>
-        <v>6727.8394684859913</v>
-      </c>
-      <c r="AU51" s="2">
+        <v>12316.125190669367</v>
+      </c>
+      <c r="CA51" s="2">
         <f t="shared" si="64"/>
-        <v>6862.3962578557112</v>
-      </c>
-      <c r="AV51" s="2">
+        <v>12562.447694482755</v>
+      </c>
+      <c r="CB51" s="2">
         <f t="shared" si="64"/>
-        <v>6999.6441830128251</v>
-      </c>
-      <c r="AW51" s="2">
+        <v>12813.69664837241</v>
+      </c>
+      <c r="CC51" s="2">
         <f t="shared" si="64"/>
-        <v>7139.6370666730818</v>
-      </c>
-      <c r="AX51" s="2">
+        <v>13069.970581339858</v>
+      </c>
+      <c r="CD51" s="2">
         <f t="shared" si="64"/>
-        <v>7282.4298080065437</v>
-      </c>
-      <c r="AY51" s="2">
+        <v>13331.369992966655</v>
+      </c>
+      <c r="CE51" s="2">
         <f t="shared" si="64"/>
-        <v>7428.0784041666748</v>
-      </c>
-      <c r="AZ51" s="2">
+        <v>13597.997392825988</v>
+      </c>
+      <c r="CF51" s="2">
         <f t="shared" si="64"/>
-        <v>7576.6399722500082</v>
-      </c>
-      <c r="BA51" s="2">
+        <v>13869.957340682507</v>
+      </c>
+      <c r="CG51" s="2">
         <f t="shared" si="64"/>
-        <v>7728.1727716950081</v>
-      </c>
-      <c r="BB51" s="2">
+        <v>14147.356487496158</v>
+      </c>
+      <c r="CH51" s="2">
         <f t="shared" si="64"/>
-        <v>7882.7362271289085</v>
-      </c>
-      <c r="BC51" s="2">
+        <v>14430.303617246082</v>
+      </c>
+      <c r="CI51" s="2">
         <f t="shared" si="64"/>
-        <v>8040.3909516714866</v>
-      </c>
-      <c r="BD51" s="2">
+        <v>14718.909689591004</v>
+      </c>
+      <c r="CJ51" s="2">
         <f t="shared" si="64"/>
-        <v>8201.1987707049157</v>
-      </c>
-      <c r="BE51" s="2">
+        <v>15013.287883382825</v>
+      </c>
+      <c r="CK51" s="2">
         <f t="shared" si="64"/>
-        <v>8365.2227461190141</v>
-      </c>
-      <c r="BF51" s="2">
+        <v>15313.553641050483</v>
+      </c>
+      <c r="CL51" s="2">
         <f t="shared" si="64"/>
-        <v>8532.5272010413937</v>
-      </c>
-      <c r="BG51" s="2">
-        <f t="shared" ref="BG51:CN51" si="65">BF51*(1+$AC$56)</f>
-        <v>8703.1777450622212</v>
-      </c>
-      <c r="BH51" s="2">
-        <f t="shared" si="65"/>
-        <v>8877.2412999634653</v>
-      </c>
-      <c r="BI51" s="2">
-        <f t="shared" si="65"/>
-        <v>9054.7861259627352</v>
-      </c>
-      <c r="BJ51" s="2">
-        <f t="shared" si="65"/>
-        <v>9235.8818484819894</v>
-      </c>
-      <c r="BK51" s="2">
-        <f t="shared" si="65"/>
-        <v>9420.5994854516302</v>
-      </c>
-      <c r="BL51" s="2">
-        <f t="shared" si="65"/>
-        <v>9609.0114751606634</v>
-      </c>
-      <c r="BM51" s="2">
-        <f t="shared" si="65"/>
-        <v>9801.1917046638773</v>
-      </c>
-      <c r="BN51" s="2">
-        <f t="shared" si="65"/>
-        <v>9997.2155387571547</v>
-      </c>
-      <c r="BO51" s="2">
-        <f t="shared" si="65"/>
-        <v>10197.159849532298</v>
-      </c>
-      <c r="BP51" s="2">
-        <f t="shared" si="65"/>
-        <v>10401.103046522943</v>
-      </c>
-      <c r="BQ51" s="2">
-        <f t="shared" si="65"/>
-        <v>10609.125107453403</v>
-      </c>
-      <c r="BR51" s="2">
-        <f t="shared" si="65"/>
-        <v>10821.307609602471</v>
-      </c>
-      <c r="BS51" s="2">
-        <f t="shared" si="65"/>
-        <v>11037.73376179452</v>
-      </c>
-      <c r="BT51" s="2">
-        <f t="shared" si="65"/>
-        <v>11258.48843703041</v>
-      </c>
-      <c r="BU51" s="2">
-        <f t="shared" si="65"/>
-        <v>11483.658205771018</v>
-      </c>
-      <c r="BV51" s="2">
-        <f t="shared" si="65"/>
-        <v>11713.331369886439</v>
-      </c>
-      <c r="BW51" s="2">
-        <f t="shared" si="65"/>
-        <v>11947.597997284167</v>
-      </c>
-      <c r="BX51" s="2">
-        <f t="shared" si="65"/>
-        <v>12186.54995722985</v>
-      </c>
-      <c r="BY51" s="2">
-        <f t="shared" si="65"/>
-        <v>12430.280956374447</v>
-      </c>
-      <c r="BZ51" s="2">
-        <f t="shared" si="65"/>
-        <v>12678.886575501936</v>
-      </c>
-      <c r="CA51" s="2">
-        <f t="shared" si="65"/>
-        <v>12932.464307011975</v>
-      </c>
-      <c r="CB51" s="2">
-        <f t="shared" si="65"/>
-        <v>13191.113593152215</v>
-      </c>
-      <c r="CC51" s="2">
-        <f t="shared" si="65"/>
-        <v>13454.935865015259</v>
-      </c>
-      <c r="CD51" s="2">
-        <f t="shared" si="65"/>
-        <v>13724.034582315564</v>
-      </c>
-      <c r="CE51" s="2">
-        <f t="shared" si="65"/>
-        <v>13998.515273961875</v>
-      </c>
-      <c r="CF51" s="2">
-        <f t="shared" si="65"/>
-        <v>14278.485579441112</v>
-      </c>
-      <c r="CG51" s="2">
-        <f t="shared" si="65"/>
-        <v>14564.055291029936</v>
-      </c>
-      <c r="CH51" s="2">
-        <f t="shared" si="65"/>
-        <v>14855.336396850535</v>
-      </c>
-      <c r="CI51" s="2">
-        <f t="shared" si="65"/>
-        <v>15152.443124787545</v>
-      </c>
-      <c r="CJ51" s="2">
-        <f t="shared" si="65"/>
-        <v>15455.491987283296</v>
-      </c>
-      <c r="CK51" s="2">
-        <f t="shared" si="65"/>
-        <v>15764.601827028962</v>
-      </c>
-      <c r="CL51" s="2">
-        <f t="shared" si="65"/>
-        <v>16079.893863569541</v>
+        <v>15619.824713871492</v>
       </c>
       <c r="CM51" s="2">
-        <f t="shared" si="65"/>
-        <v>16401.491740840931</v>
+        <f t="shared" si="64"/>
+        <v>15932.221208148923</v>
       </c>
       <c r="CN51" s="2">
-        <f t="shared" si="65"/>
-        <v>16729.521575657749</v>
+        <f t="shared" si="64"/>
+        <v>16250.865632311901</v>
       </c>
     </row>
     <row r="52" spans="2:92" x14ac:dyDescent="0.2">
@@ -3760,97 +3820,97 @@
         <v>31</v>
       </c>
       <c r="C52" s="11">
-        <f t="shared" ref="C52:N52" si="66">C51/C53</f>
+        <f t="shared" ref="C52:N52" si="65">C51/C53</f>
         <v>2.9538606403013183</v>
       </c>
       <c r="D52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.77079482439926095</v>
       </c>
       <c r="E52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.71276595744680882</v>
       </c>
       <c r="F52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.60170357751277714</v>
       </c>
       <c r="G52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.71510292663118047</v>
       </c>
       <c r="H52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.53632719497338643</v>
       </c>
       <c r="I52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.18534712989969351</v>
       </c>
       <c r="J52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.4547052166989754</v>
       </c>
       <c r="K52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.6064180017593811</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.63802758709737672</v>
       </c>
       <c r="M52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.67081462050345764</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1.0552506496738421</v>
       </c>
       <c r="O52" s="11"/>
       <c r="P52" s="11">
-        <f t="shared" ref="P52:Z52" si="67">P51/P53</f>
+        <f t="shared" ref="P52:Z52" si="66">P51/P53</f>
         <v>0.16058823529411814</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.21859099804305279</v>
       </c>
       <c r="R52" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.55252918287937758</v>
       </c>
       <c r="S52" s="11" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T52" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1.939320719618659</v>
       </c>
       <c r="U52" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1.8125077644696761</v>
       </c>
       <c r="V52" s="11">
-        <f t="shared" si="67"/>
-        <v>2.9916338861734935</v>
+        <f t="shared" si="66"/>
+        <v>3.0741940767233755</v>
       </c>
       <c r="W52" s="11">
-        <f t="shared" si="67"/>
-        <v>3.9791129365336695</v>
+        <f t="shared" si="66"/>
+        <v>4.0890706556607039</v>
       </c>
       <c r="X52" s="11">
-        <f t="shared" si="67"/>
-        <v>5.1577152647554554</v>
+        <f t="shared" si="66"/>
+        <v>5.3003775456976072</v>
       </c>
       <c r="Y52" s="11">
-        <f t="shared" si="67"/>
-        <v>6.1122254789563257</v>
+        <f t="shared" si="66"/>
+        <v>6.1035116619771443</v>
       </c>
       <c r="Z52" s="11">
-        <f t="shared" si="67"/>
-        <v>7.209622764401308</v>
+        <f t="shared" si="66"/>
+        <v>7.0033449715872207</v>
       </c>
     </row>
     <row r="53" spans="2:92" x14ac:dyDescent="0.2">
@@ -3935,77 +3995,77 @@
         <v>23</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" ref="G55:N55" si="68">G39/C39-1</f>
+        <f t="shared" ref="G55:N55" si="67">G39/C39-1</f>
         <v>1.8010001887148519</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.54929193156702771</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.19480519480519476</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.13032666440601348</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.21273370389085389</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.30609369496301508</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.66053913043478274</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.7823119999999999</v>
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="3">
-        <f t="shared" ref="Q55:V55" si="69">Q39/P39-1</f>
+        <f t="shared" ref="Q55:V55" si="68">Q39/P39-1</f>
         <v>6.5313089569670302E-2</v>
       </c>
       <c r="R55" s="3">
+        <f t="shared" si="68"/>
+        <v>0.46064541519086988</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" si="68"/>
+        <v>0.37091279998460358</v>
+      </c>
+      <c r="T55" s="3">
+        <f t="shared" si="68"/>
+        <v>1.1042198949939639</v>
+      </c>
+      <c r="U55" s="3">
+        <f t="shared" si="68"/>
+        <v>0.48206708830357847</v>
+      </c>
+      <c r="V55" s="3">
+        <f t="shared" si="68"/>
+        <v>0.66554130092279995</v>
+      </c>
+      <c r="W55" s="3">
+        <f t="shared" ref="W55:Z55" si="69">W39/V39-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="X55" s="3">
         <f t="shared" si="69"/>
-        <v>0.46064541519086988</v>
-      </c>
-      <c r="S55" s="3">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Y55" s="3">
         <f t="shared" si="69"/>
-        <v>0.37091279998460358</v>
-      </c>
-      <c r="T55" s="3">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Z55" s="3">
         <f t="shared" si="69"/>
-        <v>1.1042198949939639</v>
-      </c>
-      <c r="U55" s="3">
-        <f t="shared" si="69"/>
-        <v>0.48206708830357847</v>
-      </c>
-      <c r="V55" s="3">
-        <f t="shared" si="69"/>
-        <v>0.62052667116812965</v>
-      </c>
-      <c r="W55" s="3">
-        <f t="shared" ref="W55:Z55" si="70">W39/V39-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="X55" s="3">
-        <f t="shared" si="70"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Y55" s="3">
-        <f t="shared" si="70"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Z55" s="3">
-        <f t="shared" si="70"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AA55" s="3"/>
@@ -4023,47 +4083,47 @@
         <v>38</v>
       </c>
       <c r="D56" s="13">
-        <f t="shared" ref="D56:N56" si="71">D39/C39-1</f>
+        <f t="shared" ref="D56:N56" si="70">D39/C39-1</f>
         <v>0.72905265144366882</v>
       </c>
       <c r="E56" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>5.0506152964610251E-2</v>
       </c>
       <c r="F56" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.37875324675324662</v>
       </c>
       <c r="G56" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.11845823442975023</v>
       </c>
       <c r="H56" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>-4.362472629274039E-2</v>
       </c>
       <c r="I56" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>-0.18985558295174354</v>
       </c>
       <c r="J56" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="K56" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L56" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="M56" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="N56" s="13">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="O56" s="13"/>
@@ -4081,31 +4141,31 @@
         <v>37</v>
       </c>
       <c r="C57" s="13">
-        <f t="shared" ref="C57:I57" si="72">C50/C46</f>
+        <f t="shared" ref="C57:I57" si="71">C50/C46</f>
         <v>1.2753330387019382E-2</v>
       </c>
       <c r="D57" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-0.16554508748317623</v>
       </c>
       <c r="E57" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-5.2868094105207479E-2</v>
       </c>
       <c r="F57" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>2.9129041654529552E-3</v>
       </c>
       <c r="G57" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0.14670070699135909</v>
       </c>
       <c r="H57" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0.15428416485900201</v>
       </c>
       <c r="I57" s="13">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>3.9322033898305082E-2</v>
       </c>
       <c r="J57" s="13">
@@ -4125,27 +4185,27 @@
       </c>
       <c r="O57" s="13"/>
       <c r="P57" s="13">
-        <f t="shared" ref="P57:U57" si="73">P50/P46</f>
+        <f t="shared" ref="P57:U57" si="72">P50/P46</f>
         <v>3.3878504672897096E-2</v>
       </c>
       <c r="Q57" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>5.5690072639225194E-2</v>
       </c>
       <c r="R57" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>0.15781622911694509</v>
       </c>
       <c r="S57" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>0.14528926488361094</v>
       </c>
       <c r="T57" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>5.2275167230985152E-2</v>
       </c>
       <c r="U57" s="13">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>0.13781142734074631</v>
       </c>
       <c r="V57" s="13">
@@ -4204,7 +4264,7 @@
       </c>
       <c r="AC58" s="2">
         <f>NPV(AC57,V51:CN51)+main!F16-main!F17</f>
-        <v>49953.725677257084</v>
+        <v>48932.034804332849</v>
       </c>
       <c r="AD58" s="13"/>
       <c r="AE58" s="13"/>
@@ -4214,31 +4274,31 @@
         <v>9</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" ref="C59:I59" si="74">C41/C39</f>
+        <f t="shared" ref="C59:I59" si="73">C41/C39</f>
         <v>0.83317607095678436</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.15397418756309864</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.15514285714285719</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.11233563166421766</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.13060468249957885</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>0.11801690736174716</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>9.5869565217391303E-2</v>
       </c>
       <c r="J59" s="3">
@@ -4258,27 +4318,27 @@
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="17">
-        <f t="shared" ref="P59:U59" si="75">P41/P39</f>
+        <f t="shared" ref="P59:U59" si="74">P41/P39</f>
         <v>0.1575779354954632</v>
       </c>
       <c r="Q59" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.15025018271771517</v>
       </c>
       <c r="R59" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.15396162506495256</v>
       </c>
       <c r="S59" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.18011062133250977</v>
       </c>
       <c r="T59" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.13752568515998195</v>
       </c>
       <c r="U59" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.11733063245554805</v>
       </c>
       <c r="V59" s="17">
@@ -4291,12 +4351,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="Y59" s="17">
-        <f>X59*1.02</f>
-        <v>0.14280000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Z59" s="17">
-        <f>Y59*1.02</f>
-        <v>0.14565600000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA59" s="17"/>
       <c r="AB59" s="8" t="s">
@@ -4304,7 +4362,7 @@
       </c>
       <c r="AC59" s="15">
         <f>AC58/main!F14</f>
-        <v>83.699818500145909</v>
+        <v>81.987927355539099</v>
       </c>
       <c r="AD59" s="17"/>
       <c r="AE59" s="17"/>
@@ -4362,44 +4420,44 @@
         <v>0</v>
       </c>
       <c r="Q60" s="13">
-        <f t="shared" ref="Q60:Z60" si="76">Q108/Q39</f>
+        <f t="shared" ref="Q60:Z60" si="75">Q108/Q39</f>
         <v>0</v>
       </c>
       <c r="R60" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-9.3493196820692417E-2</v>
       </c>
       <c r="S60" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>8.7977651121655398E-2</v>
       </c>
       <c r="T60" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-0.17412937314866705</v>
       </c>
       <c r="U60" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>5.8183526896241282E-2</v>
       </c>
       <c r="V60" s="13">
-        <f t="shared" si="76"/>
-        <v>7.002318884668686E-2</v>
+        <f t="shared" si="75"/>
+        <v>6.9938935624040299E-2</v>
       </c>
       <c r="W60" s="13">
-        <f t="shared" si="76"/>
-        <v>8.093890186624482E-2</v>
+        <f t="shared" si="75"/>
+        <v>8.0854982394419031E-2</v>
       </c>
       <c r="X60" s="13">
-        <f t="shared" si="76"/>
-        <v>9.2194043503273454E-2</v>
+        <f t="shared" si="75"/>
+        <v>9.2110445645875005E-2</v>
       </c>
       <c r="Y60" s="13">
-        <f t="shared" si="76"/>
-        <v>9.7944270898955549E-2</v>
+        <f t="shared" si="75"/>
+        <v>9.5592982960914244E-2</v>
       </c>
       <c r="Z60" s="13">
-        <f t="shared" si="76"/>
-        <v>0.10373694093479462</v>
+        <f t="shared" si="75"/>
+        <v>9.8948882555406625E-2</v>
       </c>
       <c r="AA60" s="13"/>
       <c r="AB60" s="8" t="s">
@@ -4407,7 +4465,7 @@
       </c>
       <c r="AC60" s="13">
         <f>AC59/main!F13-1</f>
-        <v>0.85999596666990907</v>
+        <v>1.1022545475779255</v>
       </c>
       <c r="AD60" s="13"/>
       <c r="AE60" s="13"/>
@@ -4417,97 +4475,97 @@
         <v>49</v>
       </c>
       <c r="C61" s="13">
-        <f t="shared" ref="C61:N61" si="77">C45/C39</f>
+        <f t="shared" ref="C61:N61" si="76">C45/C39</f>
         <v>8.5912436308737503E-2</v>
       </c>
       <c r="D61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>5.2607165270539442E-2</v>
       </c>
       <c r="E61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>5.6883116883116883E-2</v>
       </c>
       <c r="F61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>4.7662107682453568E-2</v>
       </c>
       <c r="G61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>4.4837459996631295E-2</v>
       </c>
       <c r="H61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>5.3064459316660796E-2</v>
       </c>
       <c r="I61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>6.380434782608696E-2</v>
       </c>
       <c r="J61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>6.380434782608696E-2</v>
       </c>
       <c r="K61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>5.8197282608695652E-2</v>
       </c>
       <c r="L61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>5.7618525749261289E-2</v>
       </c>
       <c r="M61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>5.7051006887097494E-2</v>
       </c>
       <c r="N61" s="13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>4.9067232608300461E-2</v>
       </c>
       <c r="O61" s="13"/>
       <c r="P61" s="14">
-        <f t="shared" ref="P61:Z61" si="78">P45/P39</f>
+        <f t="shared" ref="P61:Z61" si="77">P45/P39</f>
         <v>0.13194382056119547</v>
       </c>
       <c r="Q61" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0.11542137516163491</v>
       </c>
       <c r="R61" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>8.9451704162737428E-2</v>
       </c>
       <c r="S61" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>7.3245921891231719E-2</v>
       </c>
       <c r="T61" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>5.6740853414458406E-2</v>
       </c>
       <c r="U61" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>5.5990370783548134E-2</v>
       </c>
       <c r="V61" s="14">
-        <f t="shared" si="78"/>
-        <v>5.5990370783548127E-2</v>
+        <f t="shared" si="77"/>
+        <v>5.5990370783548134E-2</v>
       </c>
       <c r="W61" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>5.5990370783548141E-2</v>
       </c>
       <c r="X61" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>5.5990370783548134E-2</v>
       </c>
       <c r="Y61" s="14">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>5.5990370783548134E-2</v>
       </c>
       <c r="Z61" s="14">
-        <f t="shared" si="78"/>
-        <v>5.5990370783548134E-2</v>
+        <f t="shared" si="77"/>
+        <v>5.5990370783548141E-2</v>
       </c>
       <c r="AA61" s="14"/>
       <c r="AB61" s="14"/>
@@ -4560,19 +4618,19 @@
         <v>203.75487608695636</v>
       </c>
       <c r="K63" s="8">
-        <f t="shared" ref="K63:N63" si="79">J63+K51</f>
+        <f t="shared" ref="K63:N63" si="78">J63+K51</f>
         <v>584.58538119184777</v>
       </c>
       <c r="L63" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>985.26670588900038</v>
       </c>
       <c r="M63" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>1406.5382875651717</v>
       </c>
       <c r="N63" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>2069.2356955603445</v>
       </c>
       <c r="R63" s="13"/>
@@ -4590,23 +4648,23 @@
       </c>
       <c r="V63" s="8">
         <f>U63+V51</f>
-        <v>2082.5009566039103</v>
+        <v>2134.3487562692362</v>
       </c>
       <c r="W63" s="8">
         <f>V63+W51</f>
-        <v>4581.3838807470547</v>
+        <v>4702.2851280241584</v>
       </c>
       <c r="X63" s="8">
         <f>W63+X51</f>
-        <v>7820.4290670134806</v>
+        <v>8030.9222267222558</v>
       </c>
       <c r="Y63" s="8">
         <f>X63+Y51</f>
-        <v>11658.906667798054</v>
+        <v>11863.927550443903</v>
       </c>
       <c r="Z63" s="8">
         <f>Y63+Z51</f>
-        <v>16186.549763842075</v>
+        <v>16262.028192600677</v>
       </c>
     </row>
     <row r="64" spans="2:92" x14ac:dyDescent="0.2">
@@ -4641,7 +4699,7 @@
         <v>2737.3</v>
       </c>
       <c r="U65" s="8">
-        <f t="shared" ref="U65:U70" si="80">J65</f>
+        <f t="shared" ref="U65:U70" si="79">J65</f>
         <v>0</v>
       </c>
     </row>
@@ -4659,7 +4717,7 @@
         <v>4333</v>
       </c>
       <c r="U66" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -4677,7 +4735,7 @@
         <v>191.8</v>
       </c>
       <c r="U67" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -4695,7 +4753,7 @@
         <v>414.1</v>
       </c>
       <c r="U68" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -4713,7 +4771,7 @@
         <v>365.2</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -4731,7 +4789,7 @@
         <v>114.95</v>
       </c>
       <c r="U70" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -4744,91 +4802,91 @@
         <v>0</v>
       </c>
       <c r="D71" s="8">
-        <f t="shared" ref="D71:P71" si="81">SUM(D64:D70)</f>
+        <f t="shared" ref="D71:P71" si="80">SUM(D64:D70)</f>
         <v>0</v>
       </c>
       <c r="E71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="F71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="G71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>10738.500000000002</v>
       </c>
       <c r="J71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="K71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="L71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="M71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="P71" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="Q71" s="8">
-        <f t="shared" ref="Q71" si="82">SUM(Q64:Q70)</f>
+        <f t="shared" ref="Q71" si="81">SUM(Q64:Q70)</f>
         <v>0</v>
       </c>
       <c r="R71" s="8">
-        <f t="shared" ref="R71" si="83">SUM(R64:R70)</f>
+        <f t="shared" ref="R71" si="82">SUM(R64:R70)</f>
         <v>0</v>
       </c>
       <c r="S71" s="8">
-        <f t="shared" ref="S71" si="84">SUM(S64:S70)</f>
+        <f t="shared" ref="S71" si="83">SUM(S64:S70)</f>
         <v>3674.6589999999997</v>
       </c>
       <c r="T71" s="8">
-        <f t="shared" ref="T71" si="85">SUM(T64:T70)</f>
+        <f t="shared" ref="T71" si="84">SUM(T64:T70)</f>
         <v>9826.1500000000015</v>
       </c>
       <c r="U71" s="8">
-        <f t="shared" ref="U71" si="86">SUM(U64:U70)</f>
+        <f t="shared" ref="U71" si="85">SUM(U64:U70)</f>
         <v>0</v>
       </c>
       <c r="V71" s="8">
-        <f t="shared" ref="V71" si="87">SUM(V64:V70)</f>
+        <f t="shared" ref="V71" si="86">SUM(V64:V70)</f>
         <v>0</v>
       </c>
       <c r="W71" s="8">
-        <f t="shared" ref="W71" si="88">SUM(W64:W70)</f>
+        <f t="shared" ref="W71" si="87">SUM(W64:W70)</f>
         <v>0</v>
       </c>
       <c r="X71" s="8">
-        <f t="shared" ref="X71" si="89">SUM(X64:X70)</f>
+        <f t="shared" ref="X71" si="88">SUM(X64:X70)</f>
         <v>0</v>
       </c>
       <c r="Y71" s="8">
-        <f t="shared" ref="Y71" si="90">SUM(Y64:Y70)</f>
+        <f t="shared" ref="Y71" si="89">SUM(Y64:Y70)</f>
         <v>0</v>
       </c>
       <c r="Z71" s="8">
-        <f t="shared" ref="Z71" si="91">SUM(Z64:Z70)</f>
+        <f t="shared" ref="Z71" si="90">SUM(Z64:Z70)</f>
         <v>0</v>
       </c>
     </row>
@@ -4846,7 +4904,7 @@
         <v>1472.4</v>
       </c>
       <c r="U73" s="8">
-        <f t="shared" ref="U73:U80" si="92">J73</f>
+        <f t="shared" ref="U73:U80" si="91">J73</f>
         <v>0</v>
       </c>
     </row>
@@ -4864,7 +4922,7 @@
         <v>259.7</v>
       </c>
       <c r="U74" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -4882,7 +4940,7 @@
         <v>18.3</v>
       </c>
       <c r="U75" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -4900,7 +4958,7 @@
         <v>402.4</v>
       </c>
       <c r="U76" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -4920,7 +4978,7 @@
         <v>416</v>
       </c>
       <c r="U77" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -4938,7 +4996,7 @@
         <v>74</v>
       </c>
       <c r="U78" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -4956,7 +5014,7 @@
         <v>1700</v>
       </c>
       <c r="U79" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -4974,7 +5032,7 @@
         <v>68</v>
       </c>
       <c r="U80" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -4983,95 +5041,95 @@
         <v>60</v>
       </c>
       <c r="C81" s="8">
-        <f t="shared" ref="C81:N81" si="93">SUM(C73:C80)</f>
+        <f t="shared" ref="C81:N81" si="92">SUM(C73:C80)</f>
         <v>0</v>
       </c>
       <c r="D81" s="8">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="8">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="8">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="8">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="8">
+        <f t="shared" si="92"/>
+        <v>4046.07</v>
+      </c>
+      <c r="J81" s="8">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="8">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="8">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="8">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="8">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="8">
+        <f t="shared" ref="P81:Z81" si="93">SUM(P73:P80)</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="8">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="E81" s="8">
+      <c r="R81" s="8">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="F81" s="8">
+      <c r="S81" s="8">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="8">
+        <v>1703.32</v>
+      </c>
+      <c r="T81" s="8">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="8">
+        <v>4410.8</v>
+      </c>
+      <c r="U81" s="8">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="I81" s="8">
+      <c r="V81" s="8">
         <f t="shared" si="93"/>
-        <v>4046.07</v>
-      </c>
-      <c r="J81" s="8">
+        <v>0</v>
+      </c>
+      <c r="W81" s="8">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="K81" s="8">
+      <c r="X81" s="8">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="L81" s="8">
+      <c r="Y81" s="8">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="M81" s="8">
+      <c r="Z81" s="8">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="N81" s="8">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="P81" s="8">
-        <f t="shared" ref="P81:Z81" si="94">SUM(P73:P80)</f>
-        <v>0</v>
-      </c>
-      <c r="Q81" s="8">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="R81" s="8">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="S81" s="8">
-        <f t="shared" si="94"/>
-        <v>1703.32</v>
-      </c>
-      <c r="T81" s="8">
-        <f t="shared" si="94"/>
-        <v>4410.8</v>
-      </c>
-      <c r="U81" s="8">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="V81" s="8">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="W81" s="8">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="X81" s="8">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="Y81" s="8">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="Z81" s="8">
-        <f t="shared" si="94"/>
         <v>0</v>
       </c>
     </row>
@@ -5080,95 +5138,95 @@
         <v>61</v>
       </c>
       <c r="C82" s="8">
-        <f t="shared" ref="C82:N82" si="95">C71-C81</f>
+        <f t="shared" ref="C82:N82" si="94">C71-C81</f>
         <v>0</v>
       </c>
       <c r="D82" s="8">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="8">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="8">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="8">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="8">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="8">
+        <f t="shared" si="94"/>
+        <v>6692.4300000000021</v>
+      </c>
+      <c r="J82" s="8">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="8">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="8">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="8">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="8">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="8">
+        <f t="shared" ref="P82:Z82" si="95">P71-P81</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="8">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="E82" s="8">
+      <c r="R82" s="8">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="F82" s="8">
+      <c r="S82" s="8">
         <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="8">
+        <v>1971.3389999999997</v>
+      </c>
+      <c r="T82" s="8">
         <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="8">
+        <v>5415.3500000000013</v>
+      </c>
+      <c r="U82" s="8">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="I82" s="8">
+      <c r="V82" s="8">
         <f t="shared" si="95"/>
-        <v>6692.4300000000021</v>
-      </c>
-      <c r="J82" s="8">
+        <v>0</v>
+      </c>
+      <c r="W82" s="8">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="K82" s="8">
+      <c r="X82" s="8">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="L82" s="8">
+      <c r="Y82" s="8">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="M82" s="8">
+      <c r="Z82" s="8">
         <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="8">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="P82" s="8">
-        <f t="shared" ref="P82:Z82" si="96">P71-P81</f>
-        <v>0</v>
-      </c>
-      <c r="Q82" s="8">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="R82" s="8">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="S82" s="8">
-        <f t="shared" si="96"/>
-        <v>1971.3389999999997</v>
-      </c>
-      <c r="T82" s="8">
-        <f t="shared" si="96"/>
-        <v>5415.3500000000013</v>
-      </c>
-      <c r="U82" s="8">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="V82" s="8">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="W82" s="8">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="X82" s="8">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Y82" s="8">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Z82" s="8">
-        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -5181,91 +5239,91 @@
         <v>0</v>
       </c>
       <c r="D83" s="8">
-        <f t="shared" ref="D83:P83" si="97">D81+D82</f>
+        <f t="shared" ref="D83:P83" si="96">D81+D82</f>
         <v>0</v>
       </c>
       <c r="E83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="F83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="G83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>10738.500000000002</v>
       </c>
       <c r="J83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="K83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="L83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P83" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q83" s="8">
-        <f t="shared" ref="Q83" si="98">Q81+Q82</f>
+        <f t="shared" ref="Q83" si="97">Q81+Q82</f>
         <v>0</v>
       </c>
       <c r="R83" s="8">
-        <f t="shared" ref="R83" si="99">R81+R82</f>
+        <f t="shared" ref="R83" si="98">R81+R82</f>
         <v>0</v>
       </c>
       <c r="S83" s="8">
-        <f t="shared" ref="S83" si="100">S81+S82</f>
+        <f t="shared" ref="S83" si="99">S81+S82</f>
         <v>3674.6589999999997</v>
       </c>
       <c r="T83" s="8">
-        <f t="shared" ref="T83" si="101">T81+T82</f>
+        <f t="shared" ref="T83" si="100">T81+T82</f>
         <v>9826.1500000000015</v>
       </c>
       <c r="U83" s="8">
-        <f t="shared" ref="U83" si="102">U81+U82</f>
+        <f t="shared" ref="U83" si="101">U81+U82</f>
         <v>0</v>
       </c>
       <c r="V83" s="8">
-        <f t="shared" ref="V83" si="103">V81+V82</f>
+        <f t="shared" ref="V83" si="102">V81+V82</f>
         <v>0</v>
       </c>
       <c r="W83" s="8">
-        <f t="shared" ref="W83" si="104">W81+W82</f>
+        <f t="shared" ref="W83" si="103">W81+W82</f>
         <v>0</v>
       </c>
       <c r="X83" s="8">
-        <f t="shared" ref="X83" si="105">X81+X82</f>
+        <f t="shared" ref="X83" si="104">X81+X82</f>
         <v>0</v>
       </c>
       <c r="Y83" s="8">
-        <f t="shared" ref="Y83" si="106">Y81+Y82</f>
+        <f t="shared" ref="Y83" si="105">Y81+Y82</f>
         <v>0</v>
       </c>
       <c r="Z83" s="8">
-        <f t="shared" ref="Z83" si="107">Z81+Z82</f>
+        <f t="shared" ref="Z83" si="106">Z81+Z82</f>
         <v>0</v>
       </c>
     </row>
@@ -5274,95 +5332,95 @@
         <v>63</v>
       </c>
       <c r="C85" s="8">
-        <f t="shared" ref="C85:N85" si="108">C65/C39*90</f>
+        <f t="shared" ref="C85:N85" si="107">C65/C39*90</f>
         <v>0</v>
       </c>
       <c r="D85" s="8">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="8">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="8">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="8">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="8">
+        <f t="shared" si="107"/>
+        <v>51.701086956521735</v>
+      </c>
+      <c r="J85" s="8">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="8">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="8">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="8">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="8">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="8">
+        <f t="shared" ref="P85:Z85" si="108">P65/P39*360</f>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="8">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="E85" s="8">
+      <c r="R85" s="8">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="F85" s="8">
+      <c r="S85" s="8">
         <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="8">
+        <v>58.032400258303625</v>
+      </c>
+      <c r="T85" s="8">
         <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="8">
+        <v>65.742534624929945</v>
+      </c>
+      <c r="U85" s="8">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="I85" s="8">
+      <c r="V85" s="8">
         <f t="shared" si="108"/>
-        <v>51.701086956521735</v>
-      </c>
-      <c r="J85" s="8">
+        <v>0</v>
+      </c>
+      <c r="W85" s="8">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="K85" s="8">
+      <c r="X85" s="8">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="L85" s="8">
+      <c r="Y85" s="8">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="M85" s="8">
+      <c r="Z85" s="8">
         <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="N85" s="8">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="P85" s="8">
-        <f t="shared" ref="P85:Z85" si="109">P65/P39*360</f>
-        <v>0</v>
-      </c>
-      <c r="Q85" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="R85" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="S85" s="8">
-        <f t="shared" si="109"/>
-        <v>58.032400258303625</v>
-      </c>
-      <c r="T85" s="8">
-        <f t="shared" si="109"/>
-        <v>65.742534624929945</v>
-      </c>
-      <c r="U85" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="V85" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="W85" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="X85" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="Y85" s="8">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="Z85" s="8">
-        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -5371,88 +5429,88 @@
         <v>64</v>
       </c>
       <c r="C87" s="8">
-        <f t="shared" ref="C87:N87" si="110">C51</f>
+        <f t="shared" ref="C87:N87" si="109">C51</f>
         <v>1568.5</v>
       </c>
       <c r="D87" s="8">
+        <f t="shared" si="109"/>
+        <v>417.00000000000017</v>
+      </c>
+      <c r="E87" s="8">
+        <f t="shared" si="109"/>
+        <v>402.00000000000017</v>
+      </c>
+      <c r="F87" s="8">
+        <f t="shared" si="109"/>
+        <v>353.20000000000016</v>
+      </c>
+      <c r="G87" s="8">
+        <f t="shared" si="109"/>
+        <v>424.39999999999964</v>
+      </c>
+      <c r="H87" s="8">
+        <f t="shared" si="109"/>
+        <v>318.30000000000035</v>
+      </c>
+      <c r="I87" s="8">
+        <f t="shared" si="109"/>
+        <v>110</v>
+      </c>
+      <c r="J87" s="8">
+        <f t="shared" si="109"/>
+        <v>285.55487608695654</v>
+      </c>
+      <c r="K87" s="8">
+        <f t="shared" si="109"/>
+        <v>380.83050510489136</v>
+      </c>
+      <c r="L87" s="8">
+        <f t="shared" si="109"/>
+        <v>400.6813246971526</v>
+      </c>
+      <c r="M87" s="8">
+        <f t="shared" si="109"/>
+        <v>421.27158167617142</v>
+      </c>
+      <c r="N87" s="8">
+        <f t="shared" si="109"/>
+        <v>662.69740799517285</v>
+      </c>
+      <c r="R87" s="8">
+        <f t="shared" ref="R87:Z87" si="110">R51</f>
+        <v>284.00000000000006</v>
+      </c>
+      <c r="S87" s="8">
         <f t="shared" si="110"/>
-        <v>417.00000000000017</v>
-      </c>
-      <c r="E87" s="8">
+        <v>650.64</v>
+      </c>
+      <c r="T87" s="8">
         <f t="shared" si="110"/>
-        <v>402.00000000000017</v>
-      </c>
-      <c r="F87" s="8">
+        <v>1150.9500000000014</v>
+      </c>
+      <c r="U87" s="8">
         <f t="shared" si="110"/>
-        <v>353.20000000000016</v>
-      </c>
-      <c r="G87" s="8">
+        <v>1138.2548760869565</v>
+      </c>
+      <c r="V87" s="8">
         <f t="shared" si="110"/>
-        <v>424.39999999999964</v>
-      </c>
-      <c r="H87" s="8">
+        <v>1930.5938801822799</v>
+      </c>
+      <c r="W87" s="8">
         <f t="shared" si="110"/>
-        <v>318.30000000000035</v>
-      </c>
-      <c r="I87" s="8">
+        <v>2567.9363717549222</v>
+      </c>
+      <c r="X87" s="8">
         <f t="shared" si="110"/>
-        <v>110</v>
-      </c>
-      <c r="J87" s="8">
+        <v>3328.6370986980974</v>
+      </c>
+      <c r="Y87" s="8">
         <f t="shared" si="110"/>
-        <v>285.55487608695654</v>
-      </c>
-      <c r="K87" s="8">
+        <v>3833.0053237216466</v>
+      </c>
+      <c r="Z87" s="8">
         <f t="shared" si="110"/>
-        <v>380.83050510489136</v>
-      </c>
-      <c r="L87" s="8">
-        <f t="shared" si="110"/>
-        <v>400.6813246971526</v>
-      </c>
-      <c r="M87" s="8">
-        <f t="shared" si="110"/>
-        <v>421.27158167617142</v>
-      </c>
-      <c r="N87" s="8">
-        <f t="shared" si="110"/>
-        <v>662.69740799517285</v>
-      </c>
-      <c r="R87" s="8">
-        <f t="shared" ref="R87:Z87" si="111">R51</f>
-        <v>284.00000000000006</v>
-      </c>
-      <c r="S87" s="8">
-        <f t="shared" si="111"/>
-        <v>650.64</v>
-      </c>
-      <c r="T87" s="8">
-        <f t="shared" si="111"/>
-        <v>1150.9500000000014</v>
-      </c>
-      <c r="U87" s="8">
-        <f t="shared" si="111"/>
-        <v>1138.2548760869565</v>
-      </c>
-      <c r="V87" s="8">
-        <f t="shared" si="111"/>
-        <v>1878.746080516954</v>
-      </c>
-      <c r="W87" s="8">
-        <f t="shared" si="111"/>
-        <v>2498.8829241431445</v>
-      </c>
-      <c r="X87" s="8">
-        <f t="shared" si="111"/>
-        <v>3239.0451862664258</v>
-      </c>
-      <c r="Y87" s="8">
-        <f t="shared" si="111"/>
-        <v>3838.4776007845726</v>
-      </c>
-      <c r="Z87" s="8">
-        <f t="shared" si="111"/>
-        <v>4527.6430960440211</v>
+        <v>4398.1006421567745</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.2">
@@ -5514,23 +5572,23 @@
       </c>
       <c r="V89" s="8">
         <f>U89*(1+V55)</f>
-        <v>218.09470686668823</v>
+        <v>224.15289316854069</v>
       </c>
       <c r="W89" s="8">
-        <f t="shared" ref="W89:W95" si="112">V89*1.1</f>
-        <v>239.90417755335707</v>
+        <f t="shared" ref="W89:W95" si="111">V89*1.1</f>
+        <v>246.56818248539477</v>
       </c>
       <c r="X89" s="8">
-        <f t="shared" ref="X89:Z89" si="113">W89*1.1</f>
-        <v>263.89459530869283</v>
+        <f t="shared" ref="X89:Z89" si="112">W89*1.1</f>
+        <v>271.22500073393428</v>
       </c>
       <c r="Y89" s="8">
-        <f t="shared" si="113"/>
-        <v>290.28405483956215</v>
+        <f t="shared" si="112"/>
+        <v>298.34750080732772</v>
       </c>
       <c r="Z89" s="8">
-        <f t="shared" si="113"/>
-        <v>319.31246032351839</v>
+        <f t="shared" si="112"/>
+        <v>328.18225088806054</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.2">
@@ -5560,28 +5618,28 @@
         <v>231.5</v>
       </c>
       <c r="U90" s="8">
-        <f t="shared" ref="U90:U106" si="114">SUM(G90:J90)</f>
+        <f t="shared" ref="U90:U106" si="113">SUM(G90:J90)</f>
         <v>741.93565217391301</v>
       </c>
       <c r="V90" s="8">
         <f>U90*(1+V55)</f>
-        <v>1202.3265126383465</v>
+        <v>1235.7244713227451</v>
       </c>
       <c r="W90" s="8">
-        <f t="shared" si="112"/>
-        <v>1322.5591639021811</v>
+        <f t="shared" si="111"/>
+        <v>1359.2969184550197</v>
       </c>
       <c r="X90" s="8">
-        <f t="shared" ref="X90:Z90" si="115">W90*1.1</f>
-        <v>1454.8150802923994</v>
+        <f t="shared" ref="X90:Z90" si="114">W90*1.1</f>
+        <v>1495.2266103005218</v>
       </c>
       <c r="Y90" s="8">
-        <f t="shared" si="115"/>
-        <v>1600.2965883216395</v>
+        <f t="shared" si="114"/>
+        <v>1644.7492713305742</v>
       </c>
       <c r="Z90" s="8">
-        <f t="shared" si="115"/>
-        <v>1760.3262471538037</v>
+        <f t="shared" si="114"/>
+        <v>1809.2241984636316</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.2">
@@ -5611,28 +5669,28 @@
         <v>-1.8</v>
       </c>
       <c r="U91" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>-7.1086956521739131</v>
       </c>
       <c r="V91" s="8">
         <f>U91*(1+V55)</f>
-        <v>-11.519830901564747</v>
+        <v>-11.839826204385991</v>
       </c>
       <c r="W91" s="8">
-        <f t="shared" si="112"/>
-        <v>-12.671813991721223</v>
+        <f t="shared" si="111"/>
+        <v>-13.023808824824592</v>
       </c>
       <c r="X91" s="8">
-        <f t="shared" ref="X91:Z91" si="116">W91*1.1</f>
-        <v>-13.938995390893346</v>
+        <f t="shared" ref="X91:Z91" si="115">W91*1.1</f>
+        <v>-14.326189707307051</v>
       </c>
       <c r="Y91" s="8">
-        <f t="shared" si="116"/>
-        <v>-15.332894929982682</v>
+        <f t="shared" si="115"/>
+        <v>-15.758808678037758</v>
       </c>
       <c r="Z91" s="8">
-        <f t="shared" si="116"/>
-        <v>-16.86618442298095</v>
+        <f t="shared" si="115"/>
+        <v>-17.334689545841535</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.2">
@@ -5662,28 +5720,28 @@
         <v>-0.5</v>
       </c>
       <c r="U92" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>6.9217391304347835</v>
       </c>
       <c r="V92" s="8">
         <f>U92*(1+V55)</f>
-        <v>11.216862871737664</v>
+        <v>11.528442395952599</v>
       </c>
       <c r="W92" s="8">
-        <f t="shared" si="112"/>
-        <v>12.338549158911432</v>
+        <f t="shared" si="111"/>
+        <v>12.68128663554786</v>
       </c>
       <c r="X92" s="8">
-        <f t="shared" ref="X92:Z92" si="117">W92*1.1</f>
-        <v>13.572404074802577</v>
+        <f t="shared" ref="X92:Z92" si="116">W92*1.1</f>
+        <v>13.949415299102647</v>
       </c>
       <c r="Y92" s="8">
-        <f t="shared" si="117"/>
-        <v>14.929644482282836</v>
+        <f t="shared" si="116"/>
+        <v>15.344356829012913</v>
       </c>
       <c r="Z92" s="8">
-        <f t="shared" si="117"/>
-        <v>16.422608930511121</v>
+        <f t="shared" si="116"/>
+        <v>16.878792511914206</v>
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.2">
@@ -5713,28 +5771,28 @@
         <v>-168.5</v>
       </c>
       <c r="U93" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>-432.20434782608697</v>
       </c>
       <c r="V93" s="8">
         <f>U93*(1+V55)</f>
-        <v>-700.39867304700113</v>
+        <v>-719.85419174275125</v>
       </c>
       <c r="W93" s="8">
-        <f t="shared" si="112"/>
-        <v>-770.43854035170125</v>
+        <f t="shared" si="111"/>
+        <v>-791.83961091702645</v>
       </c>
       <c r="X93" s="8">
-        <f t="shared" ref="X93:Z93" si="118">W93*1.1</f>
-        <v>-847.48239438687142</v>
+        <f t="shared" ref="X93:Z93" si="117">W93*1.1</f>
+        <v>-871.02357200872916</v>
       </c>
       <c r="Y93" s="8">
-        <f t="shared" si="118"/>
-        <v>-932.23063382555858</v>
+        <f t="shared" si="117"/>
+        <v>-958.12592920960219</v>
       </c>
       <c r="Z93" s="8">
-        <f t="shared" si="118"/>
-        <v>-1025.4536972081146</v>
+        <f t="shared" si="117"/>
+        <v>-1053.9385221305624</v>
       </c>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.2">
@@ -5764,28 +5822,28 @@
         <v>12.3</v>
       </c>
       <c r="U94" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>5.6043478260869559</v>
       </c>
       <c r="V94" s="8">
         <f>U94*(1+V55)</f>
-        <v>9.0819951266770396</v>
+        <v>9.334272769084734</v>
       </c>
       <c r="W94" s="8">
-        <f t="shared" si="112"/>
-        <v>9.9901946393447449</v>
+        <f t="shared" si="111"/>
+        <v>10.267700045993209</v>
       </c>
       <c r="X94" s="8">
-        <f t="shared" ref="X94:Z94" si="119">W94*1.1</f>
-        <v>10.98921410327922</v>
+        <f t="shared" ref="X94:Z94" si="118">W94*1.1</f>
+        <v>11.294470050592532</v>
       </c>
       <c r="Y94" s="8">
-        <f t="shared" si="119"/>
-        <v>12.088135513607144</v>
+        <f t="shared" si="118"/>
+        <v>12.423917055651785</v>
       </c>
       <c r="Z94" s="8">
-        <f t="shared" si="119"/>
-        <v>13.29694906496786</v>
+        <f t="shared" si="118"/>
+        <v>13.666308761216964</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.2">
@@ -5815,26 +5873,26 @@
         <v>-1589</v>
       </c>
       <c r="U95" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>-86.247826086956508</v>
       </c>
       <c r="V95" s="8">
         <v>0</v>
       </c>
       <c r="W95" s="8">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X95" s="8">
-        <f t="shared" ref="X95:Z95" si="120">W95*1.1</f>
+        <f t="shared" ref="X95:Z95" si="119">W95*1.1</f>
         <v>0</v>
       </c>
       <c r="Y95" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Z95" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -5865,26 +5923,26 @@
         <v>-2900</v>
       </c>
       <c r="U96" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>1188.7608695652175</v>
       </c>
       <c r="V96" s="8">
         <v>-500</v>
       </c>
       <c r="W96" s="8">
-        <f t="shared" ref="W96:Z102" si="121">V96*1.1</f>
+        <f t="shared" ref="W96:Z102" si="120">V96*1.1</f>
         <v>-550</v>
       </c>
       <c r="X96" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>-605</v>
       </c>
       <c r="Y96" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>-665.5</v>
       </c>
       <c r="Z96" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>-732.05000000000007</v>
       </c>
     </row>
@@ -5915,26 +5973,26 @@
         <v>-44.7</v>
       </c>
       <c r="U97" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>-968.1260869565217</v>
       </c>
       <c r="V97" s="8">
         <v>100</v>
       </c>
       <c r="W97" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>110.00000000000001</v>
       </c>
       <c r="X97" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>121.00000000000003</v>
       </c>
       <c r="Y97" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>133.10000000000005</v>
       </c>
       <c r="Z97" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>146.41000000000008</v>
       </c>
     </row>
@@ -5965,26 +6023,26 @@
         <v>679.2</v>
       </c>
       <c r="U98" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>-2557.4391304347828</v>
       </c>
       <c r="V98" s="8">
         <v>0</v>
       </c>
       <c r="W98" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="X98" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Y98" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Z98" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -6015,28 +6073,28 @@
         <v>93</v>
       </c>
       <c r="U99" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>87.439130434782612</v>
       </c>
       <c r="V99" s="8">
         <f>U99*(1+V55)</f>
-        <v>141.69744297331417</v>
+        <v>145.63348305590623</v>
       </c>
       <c r="W99" s="8">
-        <f t="shared" si="121"/>
-        <v>155.86718727064559</v>
+        <f t="shared" si="120"/>
+        <v>160.19683136149686</v>
       </c>
       <c r="X99" s="8">
-        <f t="shared" si="121"/>
-        <v>171.45390599771017</v>
+        <f t="shared" si="120"/>
+        <v>176.21651449764656</v>
       </c>
       <c r="Y99" s="8">
-        <f t="shared" si="121"/>
-        <v>188.59929659748119</v>
+        <f t="shared" si="120"/>
+        <v>193.83816594741123</v>
       </c>
       <c r="Z99" s="8">
-        <f t="shared" si="121"/>
-        <v>207.45922625722932</v>
+        <f t="shared" si="120"/>
+        <v>213.22198254215238</v>
       </c>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.2">
@@ -6066,26 +6124,26 @@
         <v>-111</v>
       </c>
       <c r="U100" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>171.44347826086957</v>
       </c>
       <c r="V100" s="8">
         <v>100</v>
       </c>
       <c r="W100" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>110.00000000000001</v>
       </c>
       <c r="X100" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>121.00000000000003</v>
       </c>
       <c r="Y100" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>133.10000000000005</v>
       </c>
       <c r="Z100" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>146.41000000000008</v>
       </c>
     </row>
@@ -6116,26 +6174,26 @@
         <v>112</v>
       </c>
       <c r="U101" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>901.08695652173913</v>
       </c>
       <c r="V101" s="8">
         <v>400</v>
       </c>
       <c r="W101" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>440.00000000000006</v>
       </c>
       <c r="X101" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>484.00000000000011</v>
       </c>
       <c r="Y101" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>532.4000000000002</v>
       </c>
       <c r="Z101" s="8">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>585.64000000000033</v>
       </c>
     </row>
@@ -6166,28 +6224,28 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="U102" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>17.943478260869565</v>
       </c>
       <c r="V102" s="8">
         <f>U102*(1+V55)</f>
-        <v>29.077885095264655</v>
+        <v>29.885604125688676</v>
       </c>
       <c r="W102" s="8">
-        <f t="shared" si="121"/>
-        <v>31.985673604791124</v>
+        <f t="shared" si="120"/>
+        <v>32.874164538257546</v>
       </c>
       <c r="X102" s="8">
-        <f t="shared" si="121"/>
-        <v>35.184240965270241</v>
+        <f t="shared" si="120"/>
+        <v>36.161580992083302</v>
       </c>
       <c r="Y102" s="8">
-        <f t="shared" si="121"/>
-        <v>38.702665061797269</v>
+        <f t="shared" si="120"/>
+        <v>39.777739091291636</v>
       </c>
       <c r="Z102" s="8">
-        <f t="shared" si="121"/>
-        <v>42.572931567977001</v>
+        <f t="shared" si="120"/>
+        <v>43.755513000420805</v>
       </c>
     </row>
     <row r="103" spans="1:122" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6200,15 +6258,15 @@
         <v>0</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" ref="D103:H103" si="122">SUM(D88:D102)</f>
+        <f t="shared" ref="D103:H103" si="121">SUM(D88:D102)</f>
         <v>0</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="G103" s="2">
@@ -6216,7 +6274,7 @@
         <v>407.40000000000003</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>167.80000000000018</v>
       </c>
       <c r="I103" s="2">
@@ -6228,19 +6286,19 @@
         <v>171.6070499999999</v>
       </c>
       <c r="K103" s="2">
-        <f t="shared" ref="K103:N103" si="123">SUM(K89:K102,K87)</f>
+        <f t="shared" ref="K103:N103" si="122">SUM(K89:K102,K87)</f>
         <v>380.83050510489136</v>
       </c>
       <c r="L103" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>400.6813246971526</v>
       </c>
       <c r="M103" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>421.27158167617142</v>
       </c>
       <c r="N103" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>662.69740799517285</v>
       </c>
       <c r="R103" s="2">
@@ -6260,24 +6318,24 @@
         <v>1513.14705</v>
       </c>
       <c r="V103" s="2">
-        <f t="shared" ref="V103:Z103" si="124">SUM(V89:V102,V87)</f>
-        <v>2878.3229821404166</v>
+        <f t="shared" ref="V103:Z103" si="123">SUM(V89:V102,V87)</f>
+        <v>2955.1590290730605</v>
       </c>
       <c r="W103" s="2">
-        <f t="shared" si="124"/>
-        <v>3598.4175159289534</v>
+        <f t="shared" si="123"/>
+        <v>3694.9580355347812</v>
       </c>
       <c r="X103" s="2">
-        <f t="shared" si="124"/>
-        <v>4448.5332372308158</v>
+        <f t="shared" si="123"/>
+        <v>4568.3609288559428</v>
       </c>
       <c r="Y103" s="2">
-        <f t="shared" si="124"/>
-        <v>5168.9144568454012</v>
+        <f t="shared" si="123"/>
+        <v>5196.7015368952761</v>
       </c>
       <c r="Z103" s="2">
-        <f t="shared" si="124"/>
-        <v>5991.1236377109335</v>
+        <f t="shared" si="123"/>
+        <v>5898.166476647767</v>
       </c>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.2">
@@ -6303,28 +6361,28 @@
         <v>-124.3</v>
       </c>
       <c r="U104" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>-220.6</v>
       </c>
       <c r="V104" s="8">
         <f>U104*(1+V55)</f>
-        <v>-357.48818365968941</v>
+        <v>-367.41841098356969</v>
       </c>
       <c r="W104" s="8">
         <f>V104*(1+W55)</f>
-        <v>-393.2370020256584</v>
+        <v>-404.16025208192667</v>
       </c>
       <c r="X104" s="8">
         <f>W104*(1+X55)</f>
-        <v>-432.56070222822427</v>
+        <v>-444.57627729011938</v>
       </c>
       <c r="Y104" s="8">
         <f>X104*(1+Y55)</f>
-        <v>-475.81677245104675</v>
+        <v>-489.03390501913134</v>
       </c>
       <c r="Z104" s="8">
         <f>Y104*(1+Z55)</f>
-        <v>-523.39844969615149</v>
+        <v>-537.93729552104446</v>
       </c>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.2">
@@ -6344,7 +6402,7 @@
         <v>-69.7</v>
       </c>
       <c r="U105" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
     </row>
@@ -6365,7 +6423,7 @@
         <v>-0.3</v>
       </c>
       <c r="U106" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
     </row>
@@ -6381,42 +6439,42 @@
         <v>-17.350000000000001</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" ref="E107:N107" si="125">E104</f>
+        <f t="shared" ref="E107:N107" si="124">E104</f>
         <v>0</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>-44.3</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>-71.8</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>-104.5</v>
       </c>
       <c r="J107" s="2">
         <v>-50</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="M107" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="N107" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="R107" s="2">
@@ -6424,36 +6482,36 @@
         <v>-45.2</v>
       </c>
       <c r="S107" s="2">
-        <f t="shared" ref="S107:Z107" si="126">S104</f>
+        <f t="shared" ref="S107:Z107" si="125">S104</f>
         <v>-36.799999999999997</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>-124.3</v>
       </c>
       <c r="U107" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>-220.6</v>
       </c>
       <c r="V107" s="2">
-        <f t="shared" si="126"/>
-        <v>-357.48818365968941</v>
+        <f t="shared" si="125"/>
+        <v>-367.41841098356969</v>
       </c>
       <c r="W107" s="2">
-        <f t="shared" si="126"/>
-        <v>-393.2370020256584</v>
+        <f t="shared" si="125"/>
+        <v>-404.16025208192667</v>
       </c>
       <c r="X107" s="2">
-        <f t="shared" si="126"/>
-        <v>-432.56070222822427</v>
+        <f t="shared" si="125"/>
+        <v>-444.57627729011938</v>
       </c>
       <c r="Y107" s="2">
-        <f t="shared" si="126"/>
-        <v>-475.81677245104675</v>
+        <f t="shared" si="125"/>
+        <v>-489.03390501913134</v>
       </c>
       <c r="Z107" s="2">
-        <f t="shared" si="126"/>
-        <v>-523.39844969615149</v>
+        <f t="shared" si="125"/>
+        <v>-537.93729552104446</v>
       </c>
     </row>
     <row r="108" spans="1:122" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6466,47 +6524,47 @@
         <v>-2.63</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" ref="D108:N108" si="127">D103+D107</f>
+        <f t="shared" ref="D108:N108" si="126">D103+D107</f>
         <v>-17.350000000000001</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>363.1</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>96.000000000000185</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>661.84</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>121.6070499999999</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>380.83050510489136</v>
       </c>
       <c r="L108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>400.6813246971526</v>
       </c>
       <c r="M108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>421.27158167617142</v>
       </c>
       <c r="N108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>662.69740799517285</v>
       </c>
       <c r="R108" s="2">
@@ -6514,420 +6572,420 @@
         <v>-485.7999999999999</v>
       </c>
       <c r="S108" s="2">
-        <f t="shared" ref="S108:T108" si="128">S103+S107</f>
+        <f t="shared" ref="S108:T108" si="127">S103+S107</f>
         <v>626.70000000000005</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>-2610.0600000000004</v>
       </c>
       <c r="U108" s="2">
-        <f t="shared" ref="U108" si="129">U103+U107</f>
+        <f t="shared" ref="U108" si="128">U103+U107</f>
         <v>1292.5470500000001</v>
       </c>
       <c r="V108" s="2">
-        <f t="shared" ref="V108" si="130">V103+V107</f>
-        <v>2520.8347984807269</v>
+        <f t="shared" ref="V108" si="129">V103+V107</f>
+        <v>2587.7406180894909</v>
       </c>
       <c r="W108" s="2">
-        <f t="shared" ref="W108" si="131">W103+W107</f>
-        <v>3205.1805139032949</v>
+        <f t="shared" ref="W108" si="130">W103+W107</f>
+        <v>3290.7977834528547</v>
       </c>
       <c r="X108" s="2">
-        <f t="shared" ref="X108" si="132">X103+X107</f>
-        <v>4015.9725350025915</v>
+        <f t="shared" ref="X108" si="131">X103+X107</f>
+        <v>4123.7846515658239</v>
       </c>
       <c r="Y108" s="2">
-        <f t="shared" ref="Y108" si="133">Y103+Y107</f>
-        <v>4693.0976843943545</v>
+        <f t="shared" ref="Y108" si="132">Y103+Y107</f>
+        <v>4707.6676318761447</v>
       </c>
       <c r="Z108" s="2">
-        <f t="shared" ref="Z108" si="134">Z103+Z107</f>
-        <v>5467.7251880147824</v>
+        <f t="shared" ref="Z108" si="133">Z103+Z107</f>
+        <v>5360.2291811267223</v>
       </c>
       <c r="AA108" s="2">
-        <f t="shared" ref="AA108:BF108" si="135">Z108*(1+$AC$56)</f>
-        <v>5577.0796917750777</v>
+        <f t="shared" ref="AA108:BF108" si="134">Z108*(1+$AC$56)</f>
+        <v>5467.4337647492566</v>
       </c>
       <c r="AB108" s="2">
+        <f t="shared" si="134"/>
+        <v>5576.7824400442414</v>
+      </c>
+      <c r="AC108" s="2">
+        <f t="shared" si="134"/>
+        <v>5688.3180888451261</v>
+      </c>
+      <c r="AD108" s="2">
+        <f t="shared" si="134"/>
+        <v>5802.0844506220292</v>
+      </c>
+      <c r="AE108" s="2">
+        <f t="shared" si="134"/>
+        <v>5918.1261396344698</v>
+      </c>
+      <c r="AF108" s="2">
+        <f t="shared" si="134"/>
+        <v>6036.4886624271594</v>
+      </c>
+      <c r="AG108" s="2">
+        <f t="shared" si="134"/>
+        <v>6157.2184356757025</v>
+      </c>
+      <c r="AH108" s="2">
+        <f t="shared" si="134"/>
+        <v>6280.3628043892168</v>
+      </c>
+      <c r="AI108" s="2">
+        <f t="shared" si="134"/>
+        <v>6405.9700604770014</v>
+      </c>
+      <c r="AJ108" s="2">
+        <f t="shared" si="134"/>
+        <v>6534.0894616865417</v>
+      </c>
+      <c r="AK108" s="2">
+        <f t="shared" si="134"/>
+        <v>6664.7712509202729</v>
+      </c>
+      <c r="AL108" s="2">
+        <f t="shared" si="134"/>
+        <v>6798.0666759386786</v>
+      </c>
+      <c r="AM108" s="2">
+        <f t="shared" si="134"/>
+        <v>6934.0280094574518</v>
+      </c>
+      <c r="AN108" s="2">
+        <f t="shared" si="134"/>
+        <v>7072.7085696466011</v>
+      </c>
+      <c r="AO108" s="2">
+        <f t="shared" si="134"/>
+        <v>7214.1627410395331</v>
+      </c>
+      <c r="AP108" s="2">
+        <f t="shared" si="134"/>
+        <v>7358.4459958603238</v>
+      </c>
+      <c r="AQ108" s="2">
+        <f t="shared" si="134"/>
+        <v>7505.6149157775308</v>
+      </c>
+      <c r="AR108" s="2">
+        <f t="shared" si="134"/>
+        <v>7655.7272140930818</v>
+      </c>
+      <c r="AS108" s="2">
+        <f t="shared" si="134"/>
+        <v>7808.8417583749433</v>
+      </c>
+      <c r="AT108" s="2">
+        <f t="shared" si="134"/>
+        <v>7965.0185935424424</v>
+      </c>
+      <c r="AU108" s="2">
+        <f t="shared" si="134"/>
+        <v>8124.3189654132912</v>
+      </c>
+      <c r="AV108" s="2">
+        <f t="shared" si="134"/>
+        <v>8286.805344721557</v>
+      </c>
+      <c r="AW108" s="2">
+        <f t="shared" si="134"/>
+        <v>8452.541451615989</v>
+      </c>
+      <c r="AX108" s="2">
+        <f t="shared" si="134"/>
+        <v>8621.5922806483086</v>
+      </c>
+      <c r="AY108" s="2">
+        <f t="shared" si="134"/>
+        <v>8794.0241262612744</v>
+      </c>
+      <c r="AZ108" s="2">
+        <f t="shared" si="134"/>
+        <v>8969.9046087865008</v>
+      </c>
+      <c r="BA108" s="2">
+        <f t="shared" si="134"/>
+        <v>9149.302700962231</v>
+      </c>
+      <c r="BB108" s="2">
+        <f t="shared" si="134"/>
+        <v>9332.288754981475</v>
+      </c>
+      <c r="BC108" s="2">
+        <f t="shared" si="134"/>
+        <v>9518.9345300811055</v>
+      </c>
+      <c r="BD108" s="2">
+        <f t="shared" si="134"/>
+        <v>9709.3132206827286</v>
+      </c>
+      <c r="BE108" s="2">
+        <f t="shared" si="134"/>
+        <v>9903.4994850963831</v>
+      </c>
+      <c r="BF108" s="2">
+        <f t="shared" si="134"/>
+        <v>10101.569474798311</v>
+      </c>
+      <c r="BG108" s="2">
+        <f t="shared" ref="BG108:CL108" si="135">BF108*(1+$AC$56)</f>
+        <v>10303.600864294278</v>
+      </c>
+      <c r="BH108" s="2">
         <f t="shared" si="135"/>
-        <v>5688.6212856105794</v>
-      </c>
-      <c r="AC108" s="2">
+        <v>10509.672881580163</v>
+      </c>
+      <c r="BI108" s="2">
         <f t="shared" si="135"/>
-        <v>5802.3937113227912</v>
-      </c>
-      <c r="AD108" s="2">
+        <v>10719.866339211767</v>
+      </c>
+      <c r="BJ108" s="2">
         <f t="shared" si="135"/>
-        <v>5918.4415855492471</v>
-      </c>
-      <c r="AE108" s="2">
+        <v>10934.263665996003</v>
+      </c>
+      <c r="BK108" s="2">
         <f t="shared" si="135"/>
-        <v>6036.8104172602325</v>
-      </c>
-      <c r="AF108" s="2">
+        <v>11152.948939315922</v>
+      </c>
+      <c r="BL108" s="2">
         <f t="shared" si="135"/>
-        <v>6157.5466256054369</v>
-      </c>
-      <c r="AG108" s="2">
+        <v>11376.007918102241</v>
+      </c>
+      <c r="BM108" s="2">
         <f t="shared" si="135"/>
-        <v>6280.6975581175457</v>
-      </c>
-      <c r="AH108" s="2">
+        <v>11603.528076464287</v>
+      </c>
+      <c r="BN108" s="2">
         <f t="shared" si="135"/>
-        <v>6406.3115092798971</v>
-      </c>
-      <c r="AI108" s="2">
+        <v>11835.598637993573</v>
+      </c>
+      <c r="BO108" s="2">
         <f t="shared" si="135"/>
-        <v>6534.4377394654948</v>
-      </c>
-      <c r="AJ108" s="2">
+        <v>12072.310610753444</v>
+      </c>
+      <c r="BP108" s="2">
         <f t="shared" si="135"/>
-        <v>6665.126494254805</v>
-      </c>
-      <c r="AK108" s="2">
+        <v>12313.756822968513</v>
+      </c>
+      <c r="BQ108" s="2">
         <f t="shared" si="135"/>
-        <v>6798.4290241399012</v>
-      </c>
-      <c r="AL108" s="2">
+        <v>12560.031959427883</v>
+      </c>
+      <c r="BR108" s="2">
         <f t="shared" si="135"/>
-        <v>6934.397604622699</v>
-      </c>
-      <c r="AM108" s="2">
+        <v>12811.23259861644</v>
+      </c>
+      <c r="BS108" s="2">
         <f t="shared" si="135"/>
-        <v>7073.085556715153</v>
-      </c>
-      <c r="AN108" s="2">
+        <v>13067.457250588768</v>
+      </c>
+      <c r="BT108" s="2">
         <f t="shared" si="135"/>
-        <v>7214.5472678494561</v>
-      </c>
-      <c r="AO108" s="2">
+        <v>13328.806395600544</v>
+      </c>
+      <c r="BU108" s="2">
         <f t="shared" si="135"/>
-        <v>7358.8382132064453</v>
-      </c>
-      <c r="AP108" s="2">
+        <v>13595.382523512555</v>
+      </c>
+      <c r="BV108" s="2">
         <f t="shared" si="135"/>
-        <v>7506.0149774705742</v>
-      </c>
-      <c r="AQ108" s="2">
+        <v>13867.290173982807</v>
+      </c>
+      <c r="BW108" s="2">
         <f t="shared" si="135"/>
-        <v>7656.1352770199856</v>
-      </c>
-      <c r="AR108" s="2">
+        <v>14144.635977462463</v>
+      </c>
+      <c r="BX108" s="2">
         <f t="shared" si="135"/>
-        <v>7809.2579825603852</v>
-      </c>
-      <c r="AS108" s="2">
+        <v>14427.528697011712</v>
+      </c>
+      <c r="BY108" s="2">
         <f t="shared" si="135"/>
-        <v>7965.4431422115931</v>
-      </c>
-      <c r="AT108" s="2">
+        <v>14716.079270951946</v>
+      </c>
+      <c r="BZ108" s="2">
         <f t="shared" si="135"/>
-        <v>8124.7520050558251</v>
-      </c>
-      <c r="AU108" s="2">
+        <v>15010.400856370985</v>
+      </c>
+      <c r="CA108" s="2">
         <f t="shared" si="135"/>
-        <v>8287.2470451569425</v>
-      </c>
-      <c r="AV108" s="2">
+        <v>15310.608873498404</v>
+      </c>
+      <c r="CB108" s="2">
         <f t="shared" si="135"/>
-        <v>8452.9919860600821</v>
-      </c>
-      <c r="AW108" s="2">
+        <v>15616.821050968372</v>
+      </c>
+      <c r="CC108" s="2">
         <f t="shared" si="135"/>
-        <v>8622.0518257812837</v>
-      </c>
-      <c r="AX108" s="2">
+        <v>15929.157471987741</v>
+      </c>
+      <c r="CD108" s="2">
         <f t="shared" si="135"/>
-        <v>8794.4928622969092</v>
-      </c>
-      <c r="AY108" s="2">
+        <v>16247.740621427496</v>
+      </c>
+      <c r="CE108" s="2">
         <f t="shared" si="135"/>
-        <v>8970.3827195428476</v>
-      </c>
-      <c r="AZ108" s="2">
+        <v>16572.695433856046</v>
+      </c>
+      <c r="CF108" s="2">
         <f t="shared" si="135"/>
-        <v>9149.7903739337053</v>
-      </c>
-      <c r="BA108" s="2">
+        <v>16904.149342533168</v>
+      </c>
+      <c r="CG108" s="2">
         <f t="shared" si="135"/>
-        <v>9332.7861814123789</v>
-      </c>
-      <c r="BB108" s="2">
+        <v>17242.232329383831</v>
+      </c>
+      <c r="CH108" s="2">
         <f t="shared" si="135"/>
-        <v>9519.4419050406268</v>
-      </c>
-      <c r="BC108" s="2">
+        <v>17587.076975971508</v>
+      </c>
+      <c r="CI108" s="2">
         <f t="shared" si="135"/>
-        <v>9709.8307431414396</v>
-      </c>
-      <c r="BD108" s="2">
+        <v>17938.818515490937</v>
+      </c>
+      <c r="CJ108" s="2">
         <f t="shared" si="135"/>
-        <v>9904.0273580042685</v>
-      </c>
-      <c r="BE108" s="2">
+        <v>18297.594885800758</v>
+      </c>
+      <c r="CK108" s="2">
         <f t="shared" si="135"/>
-        <v>10102.107905164354</v>
-      </c>
-      <c r="BF108" s="2">
+        <v>18663.546783516773</v>
+      </c>
+      <c r="CL108" s="2">
         <f t="shared" si="135"/>
-        <v>10304.150063267642</v>
-      </c>
-      <c r="BG108" s="2">
-        <f t="shared" ref="BG108:CL108" si="136">BF108*(1+$AC$56)</f>
-        <v>10510.233064532995</v>
-      </c>
-      <c r="BH108" s="2">
+        <v>19036.817719187107</v>
+      </c>
+      <c r="CM108" s="2">
+        <f t="shared" ref="CM108:DR108" si="136">CL108*(1+$AC$56)</f>
+        <v>19417.554073570849</v>
+      </c>
+      <c r="CN108" s="2">
         <f t="shared" si="136"/>
-        <v>10720.437725823655</v>
-      </c>
-      <c r="BI108" s="2">
+        <v>19805.905155042266</v>
+      </c>
+      <c r="CO108" s="2">
         <f t="shared" si="136"/>
-        <v>10934.846480340128</v>
-      </c>
-      <c r="BJ108" s="2">
+        <v>20202.023258143112</v>
+      </c>
+      <c r="CP108" s="2">
         <f t="shared" si="136"/>
-        <v>11153.543409946929</v>
-      </c>
-      <c r="BK108" s="2">
+        <v>20606.063723305975</v>
+      </c>
+      <c r="CQ108" s="2">
         <f t="shared" si="136"/>
-        <v>11376.614278145868</v>
-      </c>
-      <c r="BL108" s="2">
+        <v>21018.184997772096</v>
+      </c>
+      <c r="CR108" s="2">
         <f t="shared" si="136"/>
-        <v>11604.146563708786</v>
-      </c>
-      <c r="BM108" s="2">
+        <v>21438.54869772754</v>
+      </c>
+      <c r="CS108" s="2">
         <f t="shared" si="136"/>
-        <v>11836.229494982961</v>
-      </c>
-      <c r="BN108" s="2">
+        <v>21867.319671682089</v>
+      </c>
+      <c r="CT108" s="2">
         <f t="shared" si="136"/>
-        <v>12072.95408488262</v>
-      </c>
-      <c r="BO108" s="2">
+        <v>22304.666065115733</v>
+      </c>
+      <c r="CU108" s="2">
         <f t="shared" si="136"/>
-        <v>12314.413166580272</v>
-      </c>
-      <c r="BP108" s="2">
+        <v>22750.759386418049</v>
+      </c>
+      <c r="CV108" s="2">
         <f t="shared" si="136"/>
-        <v>12560.701429911878</v>
-      </c>
-      <c r="BQ108" s="2">
+        <v>23205.77457414641</v>
+      </c>
+      <c r="CW108" s="2">
         <f t="shared" si="136"/>
-        <v>12811.915458510117</v>
-      </c>
-      <c r="BR108" s="2">
+        <v>23669.890065629337</v>
+      </c>
+      <c r="CX108" s="2">
         <f t="shared" si="136"/>
-        <v>13068.15376768032</v>
-      </c>
-      <c r="BS108" s="2">
+        <v>24143.287866941926</v>
+      </c>
+      <c r="CY108" s="2">
         <f t="shared" si="136"/>
-        <v>13329.516843033927</v>
-      </c>
-      <c r="BT108" s="2">
+        <v>24626.153624280763</v>
+      </c>
+      <c r="CZ108" s="2">
         <f t="shared" si="136"/>
-        <v>13596.107179894607</v>
-      </c>
-      <c r="BU108" s="2">
+        <v>25118.676696766379</v>
+      </c>
+      <c r="DA108" s="2">
         <f t="shared" si="136"/>
-        <v>13868.029323492499</v>
-      </c>
-      <c r="BV108" s="2">
+        <v>25621.050230701709</v>
+      </c>
+      <c r="DB108" s="2">
         <f t="shared" si="136"/>
-        <v>14145.38990996235</v>
-      </c>
-      <c r="BW108" s="2">
+        <v>26133.471235315745</v>
+      </c>
+      <c r="DC108" s="2">
         <f t="shared" si="136"/>
-        <v>14428.297708161597</v>
-      </c>
-      <c r="BX108" s="2">
+        <v>26656.140660022062</v>
+      </c>
+      <c r="DD108" s="2">
         <f t="shared" si="136"/>
-        <v>14716.863662324829</v>
-      </c>
-      <c r="BY108" s="2">
+        <v>27189.263473222505</v>
+      </c>
+      <c r="DE108" s="2">
         <f t="shared" si="136"/>
-        <v>15011.200935571327</v>
-      </c>
-      <c r="BZ108" s="2">
+        <v>27733.048742686955</v>
+      </c>
+      <c r="DF108" s="2">
         <f t="shared" si="136"/>
-        <v>15311.424954282755</v>
-      </c>
-      <c r="CA108" s="2">
+        <v>28287.709717540696</v>
+      </c>
+      <c r="DG108" s="2">
         <f t="shared" si="136"/>
-        <v>15617.65345336841</v>
-      </c>
-      <c r="CB108" s="2">
+        <v>28853.463911891511</v>
+      </c>
+      <c r="DH108" s="2">
         <f t="shared" si="136"/>
-        <v>15930.006522435779</v>
-      </c>
-      <c r="CC108" s="2">
+        <v>29430.533190129343</v>
+      </c>
+      <c r="DI108" s="2">
         <f t="shared" si="136"/>
-        <v>16248.606652884495</v>
-      </c>
-      <c r="CD108" s="2">
+        <v>30019.143853931932</v>
+      </c>
+      <c r="DJ108" s="2">
         <f t="shared" si="136"/>
-        <v>16573.578785942183</v>
-      </c>
-      <c r="CE108" s="2">
+        <v>30619.52673101057</v>
+      </c>
+      <c r="DK108" s="2">
         <f t="shared" si="136"/>
-        <v>16905.050361661026</v>
-      </c>
-      <c r="CF108" s="2">
+        <v>31231.917265630782</v>
+      </c>
+      <c r="DL108" s="2">
         <f t="shared" si="136"/>
-        <v>17243.151368894247</v>
-      </c>
-      <c r="CG108" s="2">
+        <v>31856.555610943396</v>
+      </c>
+      <c r="DM108" s="2">
         <f t="shared" si="136"/>
-        <v>17588.01439627213</v>
-      </c>
-      <c r="CH108" s="2">
+        <v>32493.686723162264</v>
+      </c>
+      <c r="DN108" s="2">
         <f t="shared" si="136"/>
-        <v>17939.774684197575</v>
-      </c>
-      <c r="CI108" s="2">
+        <v>33143.560457625506</v>
+      </c>
+      <c r="DO108" s="2">
         <f t="shared" si="136"/>
-        <v>18298.570177881527</v>
-      </c>
-      <c r="CJ108" s="2">
+        <v>33806.431666778015</v>
+      </c>
+      <c r="DP108" s="2">
         <f t="shared" si="136"/>
-        <v>18664.54158143916</v>
-      </c>
-      <c r="CK108" s="2">
+        <v>34482.560300113575</v>
+      </c>
+      <c r="DQ108" s="2">
         <f t="shared" si="136"/>
-        <v>19037.832413067943</v>
-      </c>
-      <c r="CL108" s="2">
+        <v>35172.211506115847</v>
+      </c>
+      <c r="DR108" s="2">
         <f t="shared" si="136"/>
-        <v>19418.589061329301</v>
-      </c>
-      <c r="CM108" s="2">
-        <f t="shared" ref="CM108:DR108" si="137">CL108*(1+$AC$56)</f>
-        <v>19806.960842555887</v>
-      </c>
-      <c r="CN108" s="2">
-        <f t="shared" si="137"/>
-        <v>20203.100059407006</v>
-      </c>
-      <c r="CO108" s="2">
-        <f t="shared" si="137"/>
-        <v>20607.162060595147</v>
-      </c>
-      <c r="CP108" s="2">
-        <f t="shared" si="137"/>
-        <v>21019.30530180705</v>
-      </c>
-      <c r="CQ108" s="2">
-        <f t="shared" si="137"/>
-        <v>21439.691407843191</v>
-      </c>
-      <c r="CR108" s="2">
-        <f t="shared" si="137"/>
-        <v>21868.485236000055</v>
-      </c>
-      <c r="CS108" s="2">
-        <f t="shared" si="137"/>
-        <v>22305.854940720055</v>
-      </c>
-      <c r="CT108" s="2">
-        <f t="shared" si="137"/>
-        <v>22751.972039534456</v>
-      </c>
-      <c r="CU108" s="2">
-        <f t="shared" si="137"/>
-        <v>23207.011480325145</v>
-      </c>
-      <c r="CV108" s="2">
-        <f t="shared" si="137"/>
-        <v>23671.151709931648</v>
-      </c>
-      <c r="CW108" s="2">
-        <f t="shared" si="137"/>
-        <v>24144.574744130281</v>
-      </c>
-      <c r="CX108" s="2">
-        <f t="shared" si="137"/>
-        <v>24627.466239012887</v>
-      </c>
-      <c r="CY108" s="2">
-        <f t="shared" si="137"/>
-        <v>25120.015563793146</v>
-      </c>
-      <c r="CZ108" s="2">
-        <f t="shared" si="137"/>
-        <v>25622.415875069008</v>
-      </c>
-      <c r="DA108" s="2">
-        <f t="shared" si="137"/>
-        <v>26134.864192570389</v>
-      </c>
-      <c r="DB108" s="2">
-        <f t="shared" si="137"/>
-        <v>26657.561476421797</v>
-      </c>
-      <c r="DC108" s="2">
-        <f t="shared" si="137"/>
-        <v>27190.712705950235</v>
-      </c>
-      <c r="DD108" s="2">
-        <f t="shared" si="137"/>
-        <v>27734.526960069241</v>
-      </c>
-      <c r="DE108" s="2">
-        <f t="shared" si="137"/>
-        <v>28289.217499270628</v>
-      </c>
-      <c r="DF108" s="2">
-        <f t="shared" si="137"/>
-        <v>28855.001849256041</v>
-      </c>
-      <c r="DG108" s="2">
-        <f t="shared" si="137"/>
-        <v>29432.101886241162</v>
-      </c>
-      <c r="DH108" s="2">
-        <f t="shared" si="137"/>
-        <v>30020.743923965987</v>
-      </c>
-      <c r="DI108" s="2">
-        <f t="shared" si="137"/>
-        <v>30621.158802445309</v>
-      </c>
-      <c r="DJ108" s="2">
-        <f t="shared" si="137"/>
-        <v>31233.581978494214</v>
-      </c>
-      <c r="DK108" s="2">
-        <f t="shared" si="137"/>
-        <v>31858.2536180641</v>
-      </c>
-      <c r="DL108" s="2">
-        <f t="shared" si="137"/>
-        <v>32495.418690425384</v>
-      </c>
-      <c r="DM108" s="2">
-        <f t="shared" si="137"/>
-        <v>33145.32706423389</v>
-      </c>
-      <c r="DN108" s="2">
-        <f t="shared" si="137"/>
-        <v>33808.233605518566</v>
-      </c>
-      <c r="DO108" s="2">
-        <f t="shared" si="137"/>
-        <v>34484.398277628941</v>
-      </c>
-      <c r="DP108" s="2">
-        <f t="shared" si="137"/>
-        <v>35174.086243181519</v>
-      </c>
-      <c r="DQ108" s="2">
-        <f t="shared" si="137"/>
-        <v>35877.56796804515</v>
-      </c>
-      <c r="DR108" s="2">
-        <f t="shared" si="137"/>
-        <v>36595.119327406057</v>
+        <v>35875.655736238165</v>
       </c>
     </row>
   </sheetData>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0310F55B-873B-4B7D-831B-61678067FB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A2A36-21AD-466F-8A37-BBA16152DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="825" windowWidth="23340" windowHeight="14640" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1513,10 +1513,10 @@
   <dimension ref="A1:DR108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA47" sqref="AA47"/>
+      <selection pane="bottomRight" activeCell="AC56" sqref="AC56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2128,23 +2128,23 @@
       </c>
       <c r="V22" s="13">
         <f t="shared" si="12"/>
-        <v>0.11011904761904762</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="W22" s="13">
         <f t="shared" si="12"/>
-        <v>0.11536281179138322</v>
+        <v>0.12471655328798185</v>
       </c>
       <c r="X22" s="13">
         <f t="shared" si="12"/>
-        <v>0.12085627901954432</v>
+        <v>0.13065543677788577</v>
       </c>
       <c r="Y22" s="13">
         <f t="shared" si="12"/>
-        <v>0.12661133992523693</v>
+        <v>0.1368771242434994</v>
       </c>
       <c r="Z22" s="13">
         <f t="shared" si="12"/>
-        <v>0.13264045135024824</v>
+        <v>0.14339508254080893</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -2177,23 +2177,23 @@
       </c>
       <c r="V24" s="13">
         <f t="shared" si="13"/>
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="W24" s="13">
         <f t="shared" si="13"/>
-        <v>0.15300751879699248</v>
+        <v>0.16541353383458646</v>
       </c>
       <c r="X24" s="13">
         <f t="shared" si="13"/>
-        <v>0.12646892655367231</v>
+        <v>0.13672316384180794</v>
       </c>
       <c r="Y24" s="13">
         <f t="shared" si="13"/>
-        <v>0.1047808510638298</v>
+        <v>0.11327659574468088</v>
       </c>
       <c r="Z24" s="13">
         <f t="shared" si="13"/>
-        <v>8.6674720000000025E-2</v>
+        <v>9.3702400000000033E-2</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="V32" s="30">
         <f>V37/V31</f>
-        <v>0.47619047619047616</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="W32" s="30"/>
       <c r="X32" s="30"/>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="V37" s="19">
         <f>V39-V36</f>
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="38" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2497,23 +2497,23 @@
         <v>22215</v>
       </c>
       <c r="V39" s="19">
-        <v>37000</v>
+        <v>40000</v>
       </c>
       <c r="W39" s="19">
         <f>V39*1.1</f>
-        <v>40700</v>
+        <v>44000</v>
       </c>
       <c r="X39" s="19">
         <f t="shared" ref="X39:Z39" si="14">W39*1.1</f>
-        <v>44770</v>
+        <v>48400.000000000007</v>
       </c>
       <c r="Y39" s="19">
         <f t="shared" si="14"/>
-        <v>49247.000000000007</v>
+        <v>53240.000000000015</v>
       </c>
       <c r="Z39" s="19">
         <f t="shared" si="14"/>
-        <v>54171.700000000012</v>
+        <v>58564.000000000022</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
@@ -2582,23 +2582,23 @@
       </c>
       <c r="V40" s="8">
         <f>V39*(1-V59)</f>
-        <v>32560</v>
+        <v>35000</v>
       </c>
       <c r="W40" s="8">
         <f t="shared" ref="W40:Z40" si="15">W39*(1-W59)</f>
-        <v>35409</v>
+        <v>38390</v>
       </c>
       <c r="X40" s="8">
         <f t="shared" si="15"/>
-        <v>38502.199999999997</v>
+        <v>42105.580000000009</v>
       </c>
       <c r="Y40" s="8">
         <f t="shared" si="15"/>
-        <v>42352.420000000006</v>
+        <v>46318.80000000001</v>
       </c>
       <c r="Z40" s="8">
         <f t="shared" si="15"/>
-        <v>46587.662000000011</v>
+        <v>50950.680000000022</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -2679,23 +2679,23 @@
       </c>
       <c r="V41" s="8">
         <f t="shared" si="17"/>
-        <v>4440</v>
+        <v>5000</v>
       </c>
       <c r="W41" s="8">
         <f t="shared" ref="W41:Z41" si="18">W39-W40</f>
-        <v>5291</v>
+        <v>5610</v>
       </c>
       <c r="X41" s="8">
         <f t="shared" si="18"/>
-        <v>6267.8000000000029</v>
+        <v>6294.4199999999983</v>
       </c>
       <c r="Y41" s="8">
         <f t="shared" si="18"/>
-        <v>6894.5800000000017</v>
+        <v>6921.2000000000044</v>
       </c>
       <c r="Z41" s="8">
         <f t="shared" si="18"/>
-        <v>7584.0380000000005</v>
+        <v>7613.32</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
@@ -2764,23 +2764,23 @@
       </c>
       <c r="V42" s="8">
         <f t="shared" ref="V42:Z42" si="22">U42*(1+V55)</f>
-        <v>1108.8811907348149</v>
+        <v>1198.7904764700702</v>
       </c>
       <c r="W42" s="8">
         <f t="shared" si="22"/>
-        <v>1219.7693098082966</v>
+        <v>1318.6695241170773</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" si="22"/>
-        <v>1341.7462407891264</v>
+        <v>1450.5364765287852</v>
       </c>
       <c r="Y42" s="8">
         <f t="shared" si="22"/>
-        <v>1475.9208648680392</v>
+        <v>1595.5901241816639</v>
       </c>
       <c r="Z42" s="8">
         <f t="shared" si="22"/>
-        <v>1623.5129513548432</v>
+        <v>1755.1491365998304</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -2849,23 +2849,23 @@
       </c>
       <c r="V43" s="8">
         <f t="shared" ref="V43:Z43" si="26">U43*(1+V55)</f>
-        <v>477.27896348922098</v>
+        <v>515.97725782618477</v>
       </c>
       <c r="W43" s="8">
         <f t="shared" si="26"/>
-        <v>525.0068598381431</v>
+        <v>567.57498360880334</v>
       </c>
       <c r="X43" s="8">
         <f t="shared" si="26"/>
-        <v>577.50754582195748</v>
+        <v>624.33248196968373</v>
       </c>
       <c r="Y43" s="8">
         <f t="shared" si="26"/>
-        <v>635.25830040415326</v>
+        <v>686.76573016665213</v>
       </c>
       <c r="Z43" s="8">
         <f t="shared" si="26"/>
-        <v>698.78413044456863</v>
+        <v>755.44230318331745</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
@@ -2934,23 +2934,23 @@
       </c>
       <c r="V44" s="8">
         <f t="shared" ref="V44:Z44" si="30">U44*(1+V55)</f>
-        <v>485.48356476724496</v>
+        <v>524.84709704567024</v>
       </c>
       <c r="W44" s="8">
         <f t="shared" si="30"/>
-        <v>534.03192124396946</v>
+        <v>577.33180675023732</v>
       </c>
       <c r="X44" s="8">
         <f t="shared" si="30"/>
-        <v>587.4351133683665</v>
+        <v>635.06498742526105</v>
       </c>
       <c r="Y44" s="8">
         <f t="shared" si="30"/>
-        <v>646.17862470520322</v>
+        <v>698.57148616778716</v>
       </c>
       <c r="Z44" s="8">
         <f t="shared" si="30"/>
-        <v>710.79648717572366</v>
+        <v>768.42863478456593</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
@@ -3031,23 +3031,23 @@
       </c>
       <c r="V45" s="8">
         <f t="shared" si="36"/>
-        <v>2071.6437189912808</v>
+        <v>2239.6148313419253</v>
       </c>
       <c r="W45" s="8">
         <f t="shared" si="36"/>
-        <v>2278.8080908904094</v>
+        <v>2463.5763144761181</v>
       </c>
       <c r="X45" s="8">
         <f t="shared" si="36"/>
-        <v>2506.6888999794501</v>
+        <v>2709.9339459237299</v>
       </c>
       <c r="Y45" s="8">
         <f t="shared" si="36"/>
-        <v>2757.3577899773954</v>
+        <v>2980.927340516103</v>
       </c>
       <c r="Z45" s="8">
         <f t="shared" si="36"/>
-        <v>3033.0935689751354</v>
+        <v>3279.0200745677139</v>
       </c>
     </row>
     <row r="46" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3128,23 +3128,23 @@
       </c>
       <c r="V46" s="2">
         <f t="shared" si="42"/>
-        <v>2368.3562810087192</v>
+        <v>2760.3851686580747</v>
       </c>
       <c r="W46" s="2">
         <f t="shared" ref="W46" si="43">W41-W45</f>
-        <v>3012.1919091095906</v>
+        <v>3146.4236855238819</v>
       </c>
       <c r="X46" s="2">
         <f t="shared" ref="X46" si="44">X41-X45</f>
-        <v>3761.1111000205528</v>
+        <v>3584.4860540762684</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" ref="Y46:Z46" si="45">Y41-Y45</f>
-        <v>4137.2222100226063</v>
+        <v>3940.2726594839014</v>
       </c>
       <c r="Z46" s="2">
         <f t="shared" si="45"/>
-        <v>4550.9444310248655</v>
+        <v>4334.2999254322858</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -3256,19 +3256,19 @@
       </c>
       <c r="W48" s="8">
         <f>V63*$AC$55</f>
-        <v>128.06092537615416</v>
+        <v>147.11352931591284</v>
       </c>
       <c r="X48" s="8">
         <f>W63*$AC$55</f>
-        <v>282.13710768144949</v>
+        <v>308.85653219132826</v>
       </c>
       <c r="Y48" s="8">
         <f>X63*$AC$55</f>
-        <v>481.85533360333534</v>
+        <v>501.59394635091462</v>
       </c>
       <c r="Z48" s="8">
         <f>Y63*$AC$55</f>
-        <v>711.83565302663419</v>
+        <v>723.18683438288713</v>
       </c>
     </row>
     <row r="49" spans="2:92" x14ac:dyDescent="0.2">
@@ -3349,23 +3349,23 @@
       </c>
       <c r="V49" s="8">
         <f t="shared" si="51"/>
-        <v>2380.5815735739366</v>
+        <v>2772.6104612232921</v>
       </c>
       <c r="W49" s="8">
         <f t="shared" ref="W49" si="52">W46+SUM(W47:W48)</f>
-        <v>3140.2528344857446</v>
+        <v>3293.5372148397946</v>
       </c>
       <c r="X49" s="8">
         <f t="shared" ref="X49" si="53">X46+SUM(X47:X48)</f>
-        <v>4043.2482077020022</v>
+        <v>3893.3425862675967</v>
       </c>
       <c r="Y49" s="8">
         <f t="shared" ref="Y49:Z49" si="54">Y46+SUM(Y47:Y48)</f>
-        <v>4619.0775436259419</v>
+        <v>4441.8666058348163</v>
       </c>
       <c r="Z49" s="8">
         <f t="shared" si="54"/>
-        <v>5262.7800840514992</v>
+        <v>5057.4867598151732</v>
       </c>
     </row>
     <row r="50" spans="2:92" x14ac:dyDescent="0.2">
@@ -3434,23 +3434,23 @@
       </c>
       <c r="V50" s="8">
         <f t="shared" ref="V50:Z50" si="56">V57*V46</f>
-        <v>449.98769339165665</v>
+        <v>524.47318204503415</v>
       </c>
       <c r="W50" s="8">
         <f t="shared" si="56"/>
-        <v>572.3164627308222</v>
+        <v>597.82050024953753</v>
       </c>
       <c r="X50" s="8">
         <f t="shared" si="56"/>
-        <v>714.61110900390509</v>
+        <v>681.052350274491</v>
       </c>
       <c r="Y50" s="8">
         <f t="shared" si="56"/>
-        <v>786.07221990429525</v>
+        <v>748.65180530194129</v>
       </c>
       <c r="Z50" s="8">
         <f t="shared" si="56"/>
-        <v>864.6794418947245</v>
+        <v>823.51698583213431</v>
       </c>
     </row>
     <row r="51" spans="2:92" ht="15" x14ac:dyDescent="0.25">
@@ -3532,287 +3532,287 @@
       </c>
       <c r="V51" s="2">
         <f t="shared" si="61"/>
-        <v>1930.5938801822799</v>
+        <v>2248.1372791782578</v>
       </c>
       <c r="W51" s="2">
         <f t="shared" si="61"/>
-        <v>2567.9363717549222</v>
+        <v>2695.7167145902572</v>
       </c>
       <c r="X51" s="2">
         <f t="shared" si="61"/>
-        <v>3328.6370986980974</v>
+        <v>3212.2902359931059</v>
       </c>
       <c r="Y51" s="2">
         <f t="shared" si="61"/>
-        <v>3833.0053237216466</v>
+        <v>3693.214800532875</v>
       </c>
       <c r="Z51" s="2">
         <f t="shared" ref="Z51" si="62">Z49-Z50</f>
-        <v>4398.1006421567745</v>
+        <v>4233.969773983039</v>
       </c>
       <c r="AA51" s="2">
         <f t="shared" ref="AA51:BF51" si="63">Z51*(1+$AC$56)</f>
-        <v>4486.0626549999097</v>
+        <v>4318.6491694627002</v>
       </c>
       <c r="AB51" s="2">
         <f t="shared" si="63"/>
-        <v>4575.7839080999083</v>
+        <v>4405.0221528519542</v>
       </c>
       <c r="AC51" s="2">
         <f t="shared" si="63"/>
-        <v>4667.2995862619064</v>
+        <v>4493.1225959089934</v>
       </c>
       <c r="AD51" s="2">
         <f t="shared" si="63"/>
-        <v>4760.6455779871449</v>
+        <v>4582.9850478271737</v>
       </c>
       <c r="AE51" s="2">
         <f t="shared" si="63"/>
-        <v>4855.8584895468875</v>
+        <v>4674.6447487837177</v>
       </c>
       <c r="AF51" s="2">
         <f t="shared" si="63"/>
-        <v>4952.9756593378252</v>
+        <v>4768.1376437593917</v>
       </c>
       <c r="AG51" s="2">
         <f t="shared" si="63"/>
-        <v>5052.0351725245819</v>
+        <v>4863.5003966345794</v>
       </c>
       <c r="AH51" s="2">
         <f t="shared" si="63"/>
-        <v>5153.0758759750734</v>
+        <v>4960.7704045672708</v>
       </c>
       <c r="AI51" s="2">
         <f t="shared" si="63"/>
-        <v>5256.137393494575</v>
+        <v>5059.9858126586159</v>
       </c>
       <c r="AJ51" s="2">
         <f t="shared" si="63"/>
-        <v>5361.260141364467</v>
+        <v>5161.1855289117884</v>
       </c>
       <c r="AK51" s="2">
         <f t="shared" si="63"/>
-        <v>5468.4853441917567</v>
+        <v>5264.4092394900244</v>
       </c>
       <c r="AL51" s="2">
         <f t="shared" si="63"/>
-        <v>5577.8550510755922</v>
+        <v>5369.6974242798251</v>
       </c>
       <c r="AM51" s="2">
         <f t="shared" si="63"/>
-        <v>5689.4121520971039</v>
+        <v>5477.0913727654215</v>
       </c>
       <c r="AN51" s="2">
         <f t="shared" si="63"/>
-        <v>5803.2003951390461</v>
+        <v>5586.63320022073</v>
       </c>
       <c r="AO51" s="2">
         <f t="shared" si="63"/>
-        <v>5919.2644030418269</v>
+        <v>5698.3658642251448</v>
       </c>
       <c r="AP51" s="2">
         <f t="shared" si="63"/>
-        <v>6037.6496911026634</v>
+        <v>5812.3331815096481</v>
       </c>
       <c r="AQ51" s="2">
         <f t="shared" si="63"/>
-        <v>6158.4026849247166</v>
+        <v>5928.5798451398414</v>
       </c>
       <c r="AR51" s="2">
         <f t="shared" si="63"/>
-        <v>6281.5707386232107</v>
+        <v>6047.1514420426383</v>
       </c>
       <c r="AS51" s="2">
         <f t="shared" si="63"/>
-        <v>6407.2021533956749</v>
+        <v>6168.0944708834913</v>
       </c>
       <c r="AT51" s="2">
         <f t="shared" si="63"/>
-        <v>6535.346196463589</v>
+        <v>6291.4563603011611</v>
       </c>
       <c r="AU51" s="2">
         <f t="shared" si="63"/>
-        <v>6666.0531203928613</v>
+        <v>6417.2854875071844</v>
       </c>
       <c r="AV51" s="2">
         <f t="shared" si="63"/>
-        <v>6799.3741828007187</v>
+        <v>6545.6311972573285</v>
       </c>
       <c r="AW51" s="2">
         <f t="shared" si="63"/>
-        <v>6935.3616664567335</v>
+        <v>6676.5438212024756</v>
       </c>
       <c r="AX51" s="2">
         <f t="shared" si="63"/>
-        <v>7074.0688997858679</v>
+        <v>6810.0746976265254</v>
       </c>
       <c r="AY51" s="2">
         <f t="shared" si="63"/>
-        <v>7215.5502777815855</v>
+        <v>6946.2761915790561</v>
       </c>
       <c r="AZ51" s="2">
         <f t="shared" si="63"/>
-        <v>7359.8612833372172</v>
+        <v>7085.201715410637</v>
       </c>
       <c r="BA51" s="2">
         <f t="shared" si="63"/>
-        <v>7507.0585090039613</v>
+        <v>7226.9057497188496</v>
       </c>
       <c r="BB51" s="2">
         <f t="shared" si="63"/>
-        <v>7657.1996791840402</v>
+        <v>7371.4438647132265</v>
       </c>
       <c r="BC51" s="2">
         <f t="shared" si="63"/>
-        <v>7810.3436727677208</v>
+        <v>7518.8727420074911</v>
       </c>
       <c r="BD51" s="2">
         <f t="shared" si="63"/>
-        <v>7966.5505462230758</v>
+        <v>7669.2501968476408</v>
       </c>
       <c r="BE51" s="2">
         <f t="shared" si="63"/>
-        <v>8125.881557147537</v>
+        <v>7822.6352007845935</v>
       </c>
       <c r="BF51" s="2">
         <f t="shared" si="63"/>
-        <v>8288.3991882904884</v>
+        <v>7979.0879048002853</v>
       </c>
       <c r="BG51" s="2">
         <f t="shared" ref="BG51:CN51" si="64">BF51*(1+$AC$56)</f>
-        <v>8454.167172056299</v>
+        <v>8138.6696628962909</v>
       </c>
       <c r="BH51" s="2">
         <f t="shared" si="64"/>
-        <v>8623.250515497426</v>
+        <v>8301.4430561542176</v>
       </c>
       <c r="BI51" s="2">
         <f t="shared" si="64"/>
-        <v>8795.7155258073744</v>
+        <v>8467.4719172773021</v>
       </c>
       <c r="BJ51" s="2">
         <f t="shared" si="64"/>
-        <v>8971.6298363235219</v>
+        <v>8636.8213556228475</v>
       </c>
       <c r="BK51" s="2">
         <f t="shared" si="64"/>
-        <v>9151.0624330499923</v>
+        <v>8809.5577827353045</v>
       </c>
       <c r="BL51" s="2">
         <f t="shared" si="64"/>
-        <v>9334.0836817109921</v>
+        <v>8985.7489383900102</v>
       </c>
       <c r="BM51" s="2">
         <f t="shared" si="64"/>
-        <v>9520.7653553452128</v>
+        <v>9165.463917157811</v>
       </c>
       <c r="BN51" s="2">
         <f t="shared" si="64"/>
-        <v>9711.1806624521178</v>
+        <v>9348.7731955009676</v>
       </c>
       <c r="BO51" s="2">
         <f t="shared" si="64"/>
-        <v>9905.4042757011612</v>
+        <v>9535.7486594109869</v>
       </c>
       <c r="BP51" s="2">
         <f t="shared" si="64"/>
-        <v>10103.512361215184</v>
+        <v>9726.4636325992069</v>
       </c>
       <c r="BQ51" s="2">
         <f t="shared" si="64"/>
-        <v>10305.582608439488</v>
+        <v>9920.9929052511907</v>
       </c>
       <c r="BR51" s="2">
         <f t="shared" si="64"/>
-        <v>10511.694260608278</v>
+        <v>10119.412763356215</v>
       </c>
       <c r="BS51" s="2">
         <f t="shared" si="64"/>
-        <v>10721.928145820444</v>
+        <v>10321.801018623339</v>
       </c>
       <c r="BT51" s="2">
         <f t="shared" si="64"/>
-        <v>10936.366708736854</v>
+        <v>10528.237038995805</v>
       </c>
       <c r="BU51" s="2">
         <f t="shared" si="64"/>
-        <v>11155.094042911591</v>
+        <v>10738.801779775722</v>
       </c>
       <c r="BV51" s="2">
         <f t="shared" si="64"/>
-        <v>11378.195923769823</v>
+        <v>10953.577815371236</v>
       </c>
       <c r="BW51" s="2">
         <f t="shared" si="64"/>
-        <v>11605.759842245219</v>
+        <v>11172.649371678661</v>
       </c>
       <c r="BX51" s="2">
         <f t="shared" si="64"/>
-        <v>11837.875039090124</v>
+        <v>11396.102359112234</v>
       </c>
       <c r="BY51" s="2">
         <f t="shared" si="64"/>
-        <v>12074.632539871927</v>
+        <v>11624.024406294478</v>
       </c>
       <c r="BZ51" s="2">
         <f t="shared" si="64"/>
-        <v>12316.125190669367</v>
+        <v>11856.504894420368</v>
       </c>
       <c r="CA51" s="2">
         <f t="shared" si="64"/>
-        <v>12562.447694482755</v>
+        <v>12093.634992308776</v>
       </c>
       <c r="CB51" s="2">
         <f t="shared" si="64"/>
-        <v>12813.69664837241</v>
+        <v>12335.507692154952</v>
       </c>
       <c r="CC51" s="2">
         <f t="shared" si="64"/>
-        <v>13069.970581339858</v>
+        <v>12582.217845998051</v>
       </c>
       <c r="CD51" s="2">
         <f t="shared" si="64"/>
-        <v>13331.369992966655</v>
+        <v>12833.862202918013</v>
       </c>
       <c r="CE51" s="2">
         <f t="shared" si="64"/>
-        <v>13597.997392825988</v>
+        <v>13090.539446976374</v>
       </c>
       <c r="CF51" s="2">
         <f t="shared" si="64"/>
-        <v>13869.957340682507</v>
+        <v>13352.350235915901</v>
       </c>
       <c r="CG51" s="2">
         <f t="shared" si="64"/>
-        <v>14147.356487496158</v>
+        <v>13619.39724063422</v>
       </c>
       <c r="CH51" s="2">
         <f t="shared" si="64"/>
-        <v>14430.303617246082</v>
+        <v>13891.785185446905</v>
       </c>
       <c r="CI51" s="2">
         <f t="shared" si="64"/>
-        <v>14718.909689591004</v>
+        <v>14169.620889155844</v>
       </c>
       <c r="CJ51" s="2">
         <f t="shared" si="64"/>
-        <v>15013.287883382825</v>
+        <v>14453.013306938961</v>
       </c>
       <c r="CK51" s="2">
         <f t="shared" si="64"/>
-        <v>15313.553641050483</v>
+        <v>14742.073573077741</v>
       </c>
       <c r="CL51" s="2">
         <f t="shared" si="64"/>
-        <v>15619.824713871492</v>
+        <v>15036.915044539297</v>
       </c>
       <c r="CM51" s="2">
         <f t="shared" si="64"/>
-        <v>15932.221208148923</v>
+        <v>15337.653345430082</v>
       </c>
       <c r="CN51" s="2">
         <f t="shared" si="64"/>
-        <v>16250.865632311901</v>
+        <v>15644.406412338685</v>
       </c>
     </row>
     <row r="52" spans="2:92" x14ac:dyDescent="0.2">
@@ -3894,23 +3894,23 @@
       </c>
       <c r="V52" s="11">
         <f t="shared" si="66"/>
-        <v>3.0741940767233755</v>
+        <v>3.5798364318125127</v>
       </c>
       <c r="W52" s="11">
         <f t="shared" si="66"/>
-        <v>4.0890706556607039</v>
+        <v>4.2925425391564609</v>
       </c>
       <c r="X52" s="11">
         <f t="shared" si="66"/>
-        <v>5.3003775456976072</v>
+        <v>5.1151118407533529</v>
       </c>
       <c r="Y52" s="11">
         <f t="shared" si="66"/>
-        <v>6.1035116619771443</v>
+        <v>5.8809152874727308</v>
       </c>
       <c r="Z52" s="11">
         <f t="shared" si="66"/>
-        <v>7.0033449715872207</v>
+        <v>6.7419900859602535</v>
       </c>
     </row>
     <row r="53" spans="2:92" x14ac:dyDescent="0.2">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="V55" s="3">
         <f t="shared" si="68"/>
-        <v>0.66554130092279995</v>
+        <v>0.80058519018681062</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55:Z55" si="69">W39/V39-1</f>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="AC58" s="2">
         <f>NPV(AC57,V51:CN51)+main!F16-main!F17</f>
-        <v>48932.034804332849</v>
+        <v>47633.665544611489</v>
       </c>
       <c r="AD58" s="13"/>
       <c r="AE58" s="13"/>
@@ -4342,19 +4342,21 @@
         <v>0.11733063245554805</v>
       </c>
       <c r="V59" s="17">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="W59" s="17">
+        <f>V59*1.02</f>
+        <v>0.1275</v>
+      </c>
+      <c r="X59" s="17">
+        <f t="shared" ref="X59:Z59" si="75">W59*1.02</f>
+        <v>0.13005</v>
+      </c>
+      <c r="Y59" s="17">
         <v>0.13</v>
       </c>
-      <c r="X59" s="17">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y59" s="17">
-        <v>0.14000000000000001</v>
-      </c>
       <c r="Z59" s="17">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AA59" s="17"/>
       <c r="AB59" s="8" t="s">
@@ -4362,7 +4364,7 @@
       </c>
       <c r="AC59" s="15">
         <f>AC58/main!F14</f>
-        <v>81.987927355539099</v>
+        <v>79.812448551676354</v>
       </c>
       <c r="AD59" s="17"/>
       <c r="AE59" s="17"/>
@@ -4420,44 +4422,44 @@
         <v>0</v>
       </c>
       <c r="Q60" s="13">
-        <f t="shared" ref="Q60:Z60" si="75">Q108/Q39</f>
+        <f t="shared" ref="Q60:Z60" si="76">Q108/Q39</f>
         <v>0</v>
       </c>
       <c r="R60" s="13">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>-9.3493196820692417E-2</v>
       </c>
       <c r="S60" s="13">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.7977651121655398E-2</v>
       </c>
       <c r="T60" s="13">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>-0.17412937314866705</v>
       </c>
       <c r="U60" s="13">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>5.8183526896241282E-2</v>
       </c>
       <c r="V60" s="13">
-        <f t="shared" si="75"/>
-        <v>6.9938935624040299E-2</v>
+        <f t="shared" si="76"/>
+        <v>7.37614519228946E-2</v>
       </c>
       <c r="W60" s="13">
-        <f t="shared" si="75"/>
-        <v>8.0854982394419031E-2</v>
+        <f t="shared" si="76"/>
+        <v>7.8824308911398522E-2</v>
       </c>
       <c r="X60" s="13">
-        <f t="shared" si="75"/>
-        <v>9.2110445645875005E-2</v>
+        <f t="shared" si="76"/>
+        <v>8.3927652918502307E-2</v>
       </c>
       <c r="Y60" s="13">
-        <f t="shared" si="75"/>
-        <v>9.5592982960914244E-2</v>
+        <f t="shared" si="76"/>
+        <v>8.6927193507166045E-2</v>
       </c>
       <c r="Z60" s="13">
-        <f t="shared" si="75"/>
-        <v>9.8948882555406625E-2</v>
+        <f t="shared" si="76"/>
+        <v>8.9854478074423677E-2</v>
       </c>
       <c r="AA60" s="13"/>
       <c r="AB60" s="8" t="s">
@@ -4465,7 +4467,7 @@
       </c>
       <c r="AC60" s="13">
         <f>AC59/main!F13-1</f>
-        <v>1.1022545475779255</v>
+        <v>1.0464730397865734</v>
       </c>
       <c r="AD60" s="13"/>
       <c r="AE60" s="13"/>
@@ -4475,97 +4477,97 @@
         <v>49</v>
       </c>
       <c r="C61" s="13">
-        <f t="shared" ref="C61:N61" si="76">C45/C39</f>
+        <f t="shared" ref="C61:N61" si="77">C45/C39</f>
         <v>8.5912436308737503E-2</v>
       </c>
       <c r="D61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5.2607165270539442E-2</v>
       </c>
       <c r="E61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5.6883116883116883E-2</v>
       </c>
       <c r="F61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4.7662107682453568E-2</v>
       </c>
       <c r="G61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4.4837459996631295E-2</v>
       </c>
       <c r="H61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5.3064459316660796E-2</v>
       </c>
       <c r="I61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>6.380434782608696E-2</v>
       </c>
       <c r="J61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>6.380434782608696E-2</v>
       </c>
       <c r="K61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5.8197282608695652E-2</v>
       </c>
       <c r="L61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5.7618525749261289E-2</v>
       </c>
       <c r="M61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5.7051006887097494E-2</v>
       </c>
       <c r="N61" s="13">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4.9067232608300461E-2</v>
       </c>
       <c r="O61" s="13"/>
       <c r="P61" s="14">
-        <f t="shared" ref="P61:Z61" si="77">P45/P39</f>
+        <f t="shared" ref="P61:Z61" si="78">P45/P39</f>
         <v>0.13194382056119547</v>
       </c>
       <c r="Q61" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.11542137516163491</v>
       </c>
       <c r="R61" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>8.9451704162737428E-2</v>
       </c>
       <c r="S61" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>7.3245921891231719E-2</v>
       </c>
       <c r="T61" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5.6740853414458406E-2</v>
       </c>
       <c r="U61" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5.5990370783548134E-2</v>
       </c>
       <c r="V61" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5.5990370783548134E-2</v>
       </c>
       <c r="W61" s="14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>5.5990370783548141E-2</v>
       </c>
       <c r="X61" s="14">
-        <f t="shared" si="77"/>
-        <v>5.5990370783548134E-2</v>
+        <f t="shared" si="78"/>
+        <v>5.5990370783548127E-2</v>
       </c>
       <c r="Y61" s="14">
-        <f t="shared" si="77"/>
-        <v>5.5990370783548134E-2</v>
+        <f t="shared" si="78"/>
+        <v>5.5990370783548127E-2</v>
       </c>
       <c r="Z61" s="14">
-        <f t="shared" si="77"/>
-        <v>5.5990370783548141E-2</v>
+        <f t="shared" si="78"/>
+        <v>5.5990370783548127E-2</v>
       </c>
       <c r="AA61" s="14"/>
       <c r="AB61" s="14"/>
@@ -4618,19 +4620,19 @@
         <v>203.75487608695636</v>
       </c>
       <c r="K63" s="8">
-        <f t="shared" ref="K63:N63" si="78">J63+K51</f>
+        <f t="shared" ref="K63:N63" si="79">J63+K51</f>
         <v>584.58538119184777</v>
       </c>
       <c r="L63" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>985.26670588900038</v>
       </c>
       <c r="M63" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1406.5382875651717</v>
       </c>
       <c r="N63" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2069.2356955603445</v>
       </c>
       <c r="R63" s="13"/>
@@ -4648,23 +4650,23 @@
       </c>
       <c r="V63" s="8">
         <f>U63+V51</f>
-        <v>2134.3487562692362</v>
+        <v>2451.8921552652141</v>
       </c>
       <c r="W63" s="8">
         <f>V63+W51</f>
-        <v>4702.2851280241584</v>
+        <v>5147.6088698554713</v>
       </c>
       <c r="X63" s="8">
         <f>W63+X51</f>
-        <v>8030.9222267222558</v>
+        <v>8359.8991058485772</v>
       </c>
       <c r="Y63" s="8">
         <f>X63+Y51</f>
-        <v>11863.927550443903</v>
+        <v>12053.113906381452</v>
       </c>
       <c r="Z63" s="8">
         <f>Y63+Z51</f>
-        <v>16262.028192600677</v>
+        <v>16287.083680364491</v>
       </c>
     </row>
     <row r="64" spans="2:92" x14ac:dyDescent="0.2">
@@ -4699,7 +4701,7 @@
         <v>2737.3</v>
       </c>
       <c r="U65" s="8">
-        <f t="shared" ref="U65:U70" si="79">J65</f>
+        <f t="shared" ref="U65:U70" si="80">J65</f>
         <v>0</v>
       </c>
     </row>
@@ -4717,7 +4719,7 @@
         <v>4333</v>
       </c>
       <c r="U66" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
@@ -4735,7 +4737,7 @@
         <v>191.8</v>
       </c>
       <c r="U67" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
@@ -4753,7 +4755,7 @@
         <v>414.1</v>
       </c>
       <c r="U68" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
@@ -4771,7 +4773,7 @@
         <v>365.2</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
@@ -4789,7 +4791,7 @@
         <v>114.95</v>
       </c>
       <c r="U70" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
@@ -4802,91 +4804,91 @@
         <v>0</v>
       </c>
       <c r="D71" s="8">
-        <f t="shared" ref="D71:P71" si="80">SUM(D64:D70)</f>
+        <f t="shared" ref="D71:P71" si="81">SUM(D64:D70)</f>
         <v>0</v>
       </c>
       <c r="E71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="F71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="G71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="I71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>10738.500000000002</v>
       </c>
       <c r="J71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="K71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="L71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="M71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="N71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="P71" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="Q71" s="8">
-        <f t="shared" ref="Q71" si="81">SUM(Q64:Q70)</f>
+        <f t="shared" ref="Q71" si="82">SUM(Q64:Q70)</f>
         <v>0</v>
       </c>
       <c r="R71" s="8">
-        <f t="shared" ref="R71" si="82">SUM(R64:R70)</f>
+        <f t="shared" ref="R71" si="83">SUM(R64:R70)</f>
         <v>0</v>
       </c>
       <c r="S71" s="8">
-        <f t="shared" ref="S71" si="83">SUM(S64:S70)</f>
+        <f t="shared" ref="S71" si="84">SUM(S64:S70)</f>
         <v>3674.6589999999997</v>
       </c>
       <c r="T71" s="8">
-        <f t="shared" ref="T71" si="84">SUM(T64:T70)</f>
+        <f t="shared" ref="T71" si="85">SUM(T64:T70)</f>
         <v>9826.1500000000015</v>
       </c>
       <c r="U71" s="8">
-        <f t="shared" ref="U71" si="85">SUM(U64:U70)</f>
+        <f t="shared" ref="U71" si="86">SUM(U64:U70)</f>
         <v>0</v>
       </c>
       <c r="V71" s="8">
-        <f t="shared" ref="V71" si="86">SUM(V64:V70)</f>
+        <f t="shared" ref="V71" si="87">SUM(V64:V70)</f>
         <v>0</v>
       </c>
       <c r="W71" s="8">
-        <f t="shared" ref="W71" si="87">SUM(W64:W70)</f>
+        <f t="shared" ref="W71" si="88">SUM(W64:W70)</f>
         <v>0</v>
       </c>
       <c r="X71" s="8">
-        <f t="shared" ref="X71" si="88">SUM(X64:X70)</f>
+        <f t="shared" ref="X71" si="89">SUM(X64:X70)</f>
         <v>0</v>
       </c>
       <c r="Y71" s="8">
-        <f t="shared" ref="Y71" si="89">SUM(Y64:Y70)</f>
+        <f t="shared" ref="Y71" si="90">SUM(Y64:Y70)</f>
         <v>0</v>
       </c>
       <c r="Z71" s="8">
-        <f t="shared" ref="Z71" si="90">SUM(Z64:Z70)</f>
+        <f t="shared" ref="Z71" si="91">SUM(Z64:Z70)</f>
         <v>0</v>
       </c>
     </row>
@@ -4904,7 +4906,7 @@
         <v>1472.4</v>
       </c>
       <c r="U73" s="8">
-        <f t="shared" ref="U73:U80" si="91">J73</f>
+        <f t="shared" ref="U73:U80" si="92">J73</f>
         <v>0</v>
       </c>
     </row>
@@ -4922,7 +4924,7 @@
         <v>259.7</v>
       </c>
       <c r="U74" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -4940,7 +4942,7 @@
         <v>18.3</v>
       </c>
       <c r="U75" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -4958,7 +4960,7 @@
         <v>402.4</v>
       </c>
       <c r="U76" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -4978,7 +4980,7 @@
         <v>416</v>
       </c>
       <c r="U77" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -4996,7 +4998,7 @@
         <v>74</v>
       </c>
       <c r="U78" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -5014,7 +5016,7 @@
         <v>1700</v>
       </c>
       <c r="U79" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -5032,7 +5034,7 @@
         <v>68</v>
       </c>
       <c r="U80" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -5041,95 +5043,95 @@
         <v>60</v>
       </c>
       <c r="C81" s="8">
-        <f t="shared" ref="C81:N81" si="92">SUM(C73:C80)</f>
+        <f t="shared" ref="C81:N81" si="93">SUM(C73:C80)</f>
         <v>0</v>
       </c>
       <c r="D81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="E81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="F81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="G81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4046.07</v>
       </c>
       <c r="J81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="K81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N81" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="P81" s="8">
-        <f t="shared" ref="P81:Z81" si="93">SUM(P73:P80)</f>
+        <f t="shared" ref="P81:Z81" si="94">SUM(P73:P80)</f>
         <v>0</v>
       </c>
       <c r="Q81" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="R81" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="S81" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1703.32</v>
       </c>
       <c r="T81" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>4410.8</v>
       </c>
       <c r="U81" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="V81" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="W81" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="X81" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Y81" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Z81" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
     </row>
@@ -5138,95 +5140,95 @@
         <v>61</v>
       </c>
       <c r="C82" s="8">
-        <f t="shared" ref="C82:N82" si="94">C71-C81</f>
+        <f t="shared" ref="C82:N82" si="95">C71-C81</f>
         <v>0</v>
       </c>
       <c r="D82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="E82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="F82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="I82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>6692.4300000000021</v>
       </c>
       <c r="J82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="K82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="L82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="M82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="N82" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="P82" s="8">
-        <f t="shared" ref="P82:Z82" si="95">P71-P81</f>
+        <f t="shared" ref="P82:Z82" si="96">P71-P81</f>
         <v>0</v>
       </c>
       <c r="Q82" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R82" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S82" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1971.3389999999997</v>
       </c>
       <c r="T82" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>5415.3500000000013</v>
       </c>
       <c r="U82" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="V82" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="W82" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="X82" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y82" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Z82" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
@@ -5239,91 +5241,91 @@
         <v>0</v>
       </c>
       <c r="D83" s="8">
-        <f t="shared" ref="D83:P83" si="96">D81+D82</f>
+        <f t="shared" ref="D83:P83" si="97">D81+D82</f>
         <v>0</v>
       </c>
       <c r="E83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="F83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="G83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="H83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="I83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>10738.500000000002</v>
       </c>
       <c r="J83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="K83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="L83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="M83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="N83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="P83" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="Q83" s="8">
-        <f t="shared" ref="Q83" si="97">Q81+Q82</f>
+        <f t="shared" ref="Q83" si="98">Q81+Q82</f>
         <v>0</v>
       </c>
       <c r="R83" s="8">
-        <f t="shared" ref="R83" si="98">R81+R82</f>
+        <f t="shared" ref="R83" si="99">R81+R82</f>
         <v>0</v>
       </c>
       <c r="S83" s="8">
-        <f t="shared" ref="S83" si="99">S81+S82</f>
+        <f t="shared" ref="S83" si="100">S81+S82</f>
         <v>3674.6589999999997</v>
       </c>
       <c r="T83" s="8">
-        <f t="shared" ref="T83" si="100">T81+T82</f>
+        <f t="shared" ref="T83" si="101">T81+T82</f>
         <v>9826.1500000000015</v>
       </c>
       <c r="U83" s="8">
-        <f t="shared" ref="U83" si="101">U81+U82</f>
+        <f t="shared" ref="U83" si="102">U81+U82</f>
         <v>0</v>
       </c>
       <c r="V83" s="8">
-        <f t="shared" ref="V83" si="102">V81+V82</f>
+        <f t="shared" ref="V83" si="103">V81+V82</f>
         <v>0</v>
       </c>
       <c r="W83" s="8">
-        <f t="shared" ref="W83" si="103">W81+W82</f>
+        <f t="shared" ref="W83" si="104">W81+W82</f>
         <v>0</v>
       </c>
       <c r="X83" s="8">
-        <f t="shared" ref="X83" si="104">X81+X82</f>
+        <f t="shared" ref="X83" si="105">X81+X82</f>
         <v>0</v>
       </c>
       <c r="Y83" s="8">
-        <f t="shared" ref="Y83" si="105">Y81+Y82</f>
+        <f t="shared" ref="Y83" si="106">Y81+Y82</f>
         <v>0</v>
       </c>
       <c r="Z83" s="8">
-        <f t="shared" ref="Z83" si="106">Z81+Z82</f>
+        <f t="shared" ref="Z83" si="107">Z81+Z82</f>
         <v>0</v>
       </c>
     </row>
@@ -5332,95 +5334,95 @@
         <v>63</v>
       </c>
       <c r="C85" s="8">
-        <f t="shared" ref="C85:N85" si="107">C65/C39*90</f>
+        <f t="shared" ref="C85:N85" si="108">C65/C39*90</f>
         <v>0</v>
       </c>
       <c r="D85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="E85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="F85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="G85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="H85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="I85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>51.701086956521735</v>
       </c>
       <c r="J85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="K85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="M85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N85" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="P85" s="8">
-        <f t="shared" ref="P85:Z85" si="108">P65/P39*360</f>
+        <f t="shared" ref="P85:Z85" si="109">P65/P39*360</f>
         <v>0</v>
       </c>
       <c r="Q85" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="R85" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="S85" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>58.032400258303625</v>
       </c>
       <c r="T85" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>65.742534624929945</v>
       </c>
       <c r="U85" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="V85" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="W85" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="X85" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="Y85" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="Z85" s="8">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -5429,88 +5431,88 @@
         <v>64</v>
       </c>
       <c r="C87" s="8">
-        <f t="shared" ref="C87:N87" si="109">C51</f>
+        <f t="shared" ref="C87:N87" si="110">C51</f>
         <v>1568.5</v>
       </c>
       <c r="D87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>417.00000000000017</v>
       </c>
       <c r="E87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>402.00000000000017</v>
       </c>
       <c r="F87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>353.20000000000016</v>
       </c>
       <c r="G87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>424.39999999999964</v>
       </c>
       <c r="H87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>318.30000000000035</v>
       </c>
       <c r="I87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>110</v>
       </c>
       <c r="J87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>285.55487608695654</v>
       </c>
       <c r="K87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>380.83050510489136</v>
       </c>
       <c r="L87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>400.6813246971526</v>
       </c>
       <c r="M87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>421.27158167617142</v>
       </c>
       <c r="N87" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>662.69740799517285</v>
       </c>
       <c r="R87" s="8">
-        <f t="shared" ref="R87:Z87" si="110">R51</f>
+        <f t="shared" ref="R87:Z87" si="111">R51</f>
         <v>284.00000000000006</v>
       </c>
       <c r="S87" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>650.64</v>
       </c>
       <c r="T87" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1150.9500000000014</v>
       </c>
       <c r="U87" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1138.2548760869565</v>
       </c>
       <c r="V87" s="8">
-        <f t="shared" si="110"/>
-        <v>1930.5938801822799</v>
+        <f t="shared" si="111"/>
+        <v>2248.1372791782578</v>
       </c>
       <c r="W87" s="8">
-        <f t="shared" si="110"/>
-        <v>2567.9363717549222</v>
+        <f t="shared" si="111"/>
+        <v>2695.7167145902572</v>
       </c>
       <c r="X87" s="8">
-        <f t="shared" si="110"/>
-        <v>3328.6370986980974</v>
+        <f t="shared" si="111"/>
+        <v>3212.2902359931059</v>
       </c>
       <c r="Y87" s="8">
-        <f t="shared" si="110"/>
-        <v>3833.0053237216466</v>
+        <f t="shared" si="111"/>
+        <v>3693.214800532875</v>
       </c>
       <c r="Z87" s="8">
-        <f t="shared" si="110"/>
-        <v>4398.1006421567745</v>
+        <f t="shared" si="111"/>
+        <v>4233.969773983039</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.2">
@@ -5572,23 +5574,23 @@
       </c>
       <c r="V89" s="8">
         <f>U89*(1+V55)</f>
-        <v>224.15289316854069</v>
+        <v>242.32745207409803</v>
       </c>
       <c r="W89" s="8">
-        <f t="shared" ref="W89:W95" si="111">V89*1.1</f>
-        <v>246.56818248539477</v>
+        <f t="shared" ref="W89:W95" si="112">V89*1.1</f>
+        <v>266.56019728150784</v>
       </c>
       <c r="X89" s="8">
-        <f t="shared" ref="X89:Z89" si="112">W89*1.1</f>
-        <v>271.22500073393428</v>
+        <f t="shared" ref="X89:Z89" si="113">W89*1.1</f>
+        <v>293.21621700965864</v>
       </c>
       <c r="Y89" s="8">
-        <f t="shared" si="112"/>
-        <v>298.34750080732772</v>
+        <f t="shared" si="113"/>
+        <v>322.5378387106245</v>
       </c>
       <c r="Z89" s="8">
-        <f t="shared" si="112"/>
-        <v>328.18225088806054</v>
+        <f t="shared" si="113"/>
+        <v>354.79162258168697</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.2">
@@ -5618,28 +5620,28 @@
         <v>231.5</v>
       </c>
       <c r="U90" s="8">
-        <f t="shared" ref="U90:U106" si="113">SUM(G90:J90)</f>
+        <f t="shared" ref="U90:U106" si="114">SUM(G90:J90)</f>
         <v>741.93565217391301</v>
       </c>
       <c r="V90" s="8">
         <f>U90*(1+V55)</f>
-        <v>1235.7244713227451</v>
+        <v>1335.9183473759406</v>
       </c>
       <c r="W90" s="8">
-        <f t="shared" si="111"/>
-        <v>1359.2969184550197</v>
+        <f t="shared" si="112"/>
+        <v>1469.5101821135347</v>
       </c>
       <c r="X90" s="8">
-        <f t="shared" ref="X90:Z90" si="114">W90*1.1</f>
-        <v>1495.2266103005218</v>
+        <f t="shared" ref="X90:Z90" si="115">W90*1.1</f>
+        <v>1616.4612003248883</v>
       </c>
       <c r="Y90" s="8">
-        <f t="shared" si="114"/>
-        <v>1644.7492713305742</v>
+        <f t="shared" si="115"/>
+        <v>1778.1073203573774</v>
       </c>
       <c r="Z90" s="8">
-        <f t="shared" si="114"/>
-        <v>1809.2241984636316</v>
+        <f t="shared" si="115"/>
+        <v>1955.9180523931152</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.2">
@@ -5669,28 +5671,28 @@
         <v>-1.8</v>
       </c>
       <c r="U91" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>-7.1086956521739131</v>
       </c>
       <c r="V91" s="8">
         <f>U91*(1+V55)</f>
-        <v>-11.839826204385991</v>
+        <v>-12.799812112849718</v>
       </c>
       <c r="W91" s="8">
-        <f t="shared" si="111"/>
-        <v>-13.023808824824592</v>
+        <f t="shared" si="112"/>
+        <v>-14.079793324134691</v>
       </c>
       <c r="X91" s="8">
-        <f t="shared" ref="X91:Z91" si="115">W91*1.1</f>
-        <v>-14.326189707307051</v>
+        <f t="shared" ref="X91:Z91" si="116">W91*1.1</f>
+        <v>-15.487772656548161</v>
       </c>
       <c r="Y91" s="8">
-        <f t="shared" si="115"/>
-        <v>-15.758808678037758</v>
+        <f t="shared" si="116"/>
+        <v>-17.03654992220298</v>
       </c>
       <c r="Z91" s="8">
-        <f t="shared" si="115"/>
-        <v>-17.334689545841535</v>
+        <f t="shared" si="116"/>
+        <v>-18.740204914423281</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.2">
@@ -5720,28 +5722,28 @@
         <v>-0.5</v>
       </c>
       <c r="U92" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>6.9217391304347835</v>
       </c>
       <c r="V92" s="8">
         <f>U92*(1+V55)</f>
-        <v>11.528442395952599</v>
+        <v>12.463180968597404</v>
       </c>
       <c r="W92" s="8">
-        <f t="shared" si="111"/>
-        <v>12.68128663554786</v>
+        <f t="shared" si="112"/>
+        <v>13.709499065457146</v>
       </c>
       <c r="X92" s="8">
-        <f t="shared" ref="X92:Z92" si="116">W92*1.1</f>
-        <v>13.949415299102647</v>
+        <f t="shared" ref="X92:Z92" si="117">W92*1.1</f>
+        <v>15.080448972002863</v>
       </c>
       <c r="Y92" s="8">
-        <f t="shared" si="116"/>
-        <v>15.344356829012913</v>
+        <f t="shared" si="117"/>
+        <v>16.588493869203152</v>
       </c>
       <c r="Z92" s="8">
-        <f t="shared" si="116"/>
-        <v>16.878792511914206</v>
+        <f t="shared" si="117"/>
+        <v>18.247343256123468</v>
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.2">
@@ -5771,28 +5773,28 @@
         <v>-168.5</v>
       </c>
       <c r="U93" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>-432.20434782608697</v>
       </c>
       <c r="V93" s="8">
         <f>U93*(1+V55)</f>
-        <v>-719.85419174275125</v>
+        <v>-778.2207478300013</v>
       </c>
       <c r="W93" s="8">
-        <f t="shared" si="111"/>
-        <v>-791.83961091702645</v>
+        <f t="shared" si="112"/>
+        <v>-856.04282261300148</v>
       </c>
       <c r="X93" s="8">
-        <f t="shared" ref="X93:Z93" si="117">W93*1.1</f>
-        <v>-871.02357200872916</v>
+        <f t="shared" ref="X93:Z93" si="118">W93*1.1</f>
+        <v>-941.6471048743017</v>
       </c>
       <c r="Y93" s="8">
-        <f t="shared" si="117"/>
-        <v>-958.12592920960219</v>
+        <f t="shared" si="118"/>
+        <v>-1035.811815361732</v>
       </c>
       <c r="Z93" s="8">
-        <f t="shared" si="117"/>
-        <v>-1053.9385221305624</v>
+        <f t="shared" si="118"/>
+        <v>-1139.3929968979053</v>
       </c>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.2">
@@ -5822,28 +5824,28 @@
         <v>12.3</v>
       </c>
       <c r="U94" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>5.6043478260869559</v>
       </c>
       <c r="V94" s="8">
         <f>U94*(1+V55)</f>
-        <v>9.334272769084734</v>
+        <v>10.091105696307821</v>
       </c>
       <c r="W94" s="8">
-        <f t="shared" si="111"/>
-        <v>10.267700045993209</v>
+        <f t="shared" si="112"/>
+        <v>11.100216265938604</v>
       </c>
       <c r="X94" s="8">
-        <f t="shared" ref="X94:Z94" si="118">W94*1.1</f>
-        <v>11.294470050592532</v>
+        <f t="shared" ref="X94:Z94" si="119">W94*1.1</f>
+        <v>12.210237892532465</v>
       </c>
       <c r="Y94" s="8">
-        <f t="shared" si="118"/>
-        <v>12.423917055651785</v>
+        <f t="shared" si="119"/>
+        <v>13.431261681785713</v>
       </c>
       <c r="Z94" s="8">
-        <f t="shared" si="118"/>
-        <v>13.666308761216964</v>
+        <f t="shared" si="119"/>
+        <v>14.774387849964286</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.2">
@@ -5873,26 +5875,26 @@
         <v>-1589</v>
       </c>
       <c r="U95" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>-86.247826086956508</v>
       </c>
       <c r="V95" s="8">
         <v>0</v>
       </c>
       <c r="W95" s="8">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="X95" s="8">
-        <f t="shared" ref="X95:Z95" si="119">W95*1.1</f>
+        <f t="shared" ref="X95:Z95" si="120">W95*1.1</f>
         <v>0</v>
       </c>
       <c r="Y95" s="8">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Z95" s="8">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -5923,26 +5925,26 @@
         <v>-2900</v>
       </c>
       <c r="U96" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1188.7608695652175</v>
       </c>
       <c r="V96" s="8">
         <v>-500</v>
       </c>
       <c r="W96" s="8">
-        <f t="shared" ref="W96:Z102" si="120">V96*1.1</f>
+        <f t="shared" ref="W96:Z102" si="121">V96*1.1</f>
         <v>-550</v>
       </c>
       <c r="X96" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>-605</v>
       </c>
       <c r="Y96" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>-665.5</v>
       </c>
       <c r="Z96" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>-732.05000000000007</v>
       </c>
     </row>
@@ -5973,26 +5975,26 @@
         <v>-44.7</v>
       </c>
       <c r="U97" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>-968.1260869565217</v>
       </c>
       <c r="V97" s="8">
         <v>100</v>
       </c>
       <c r="W97" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>110.00000000000001</v>
       </c>
       <c r="X97" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>121.00000000000003</v>
       </c>
       <c r="Y97" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>133.10000000000005</v>
       </c>
       <c r="Z97" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>146.41000000000008</v>
       </c>
     </row>
@@ -6023,26 +6025,26 @@
         <v>679.2</v>
       </c>
       <c r="U98" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>-2557.4391304347828</v>
       </c>
       <c r="V98" s="8">
         <v>0</v>
       </c>
       <c r="W98" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="X98" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="Y98" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="Z98" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -6073,28 +6075,28 @@
         <v>93</v>
       </c>
       <c r="U99" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>87.439130434782612</v>
       </c>
       <c r="V99" s="8">
         <f>U99*(1+V55)</f>
-        <v>145.63348305590623</v>
+        <v>157.4416033036824</v>
       </c>
       <c r="W99" s="8">
-        <f t="shared" si="120"/>
-        <v>160.19683136149686</v>
+        <f t="shared" si="121"/>
+        <v>173.18576363405066</v>
       </c>
       <c r="X99" s="8">
-        <f t="shared" si="120"/>
-        <v>176.21651449764656</v>
+        <f t="shared" si="121"/>
+        <v>190.50433999745573</v>
       </c>
       <c r="Y99" s="8">
-        <f t="shared" si="120"/>
-        <v>193.83816594741123</v>
+        <f t="shared" si="121"/>
+        <v>209.55477399720132</v>
       </c>
       <c r="Z99" s="8">
-        <f t="shared" si="120"/>
-        <v>213.22198254215238</v>
+        <f t="shared" si="121"/>
+        <v>230.51025139692146</v>
       </c>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.2">
@@ -6124,26 +6126,26 @@
         <v>-111</v>
       </c>
       <c r="U100" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>171.44347826086957</v>
       </c>
       <c r="V100" s="8">
         <v>100</v>
       </c>
       <c r="W100" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>110.00000000000001</v>
       </c>
       <c r="X100" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>121.00000000000003</v>
       </c>
       <c r="Y100" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>133.10000000000005</v>
       </c>
       <c r="Z100" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>146.41000000000008</v>
       </c>
     </row>
@@ -6174,26 +6176,26 @@
         <v>112</v>
       </c>
       <c r="U101" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>901.08695652173913</v>
       </c>
       <c r="V101" s="8">
         <v>400</v>
       </c>
       <c r="W101" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>440.00000000000006</v>
       </c>
       <c r="X101" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>484.00000000000011</v>
       </c>
       <c r="Y101" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>532.4000000000002</v>
       </c>
       <c r="Z101" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>585.64000000000033</v>
       </c>
     </row>
@@ -6224,28 +6226,28 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="U102" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>17.943478260869565</v>
       </c>
       <c r="V102" s="8">
         <f>U102*(1+V55)</f>
-        <v>29.885604125688676</v>
+        <v>32.308761216960725</v>
       </c>
       <c r="W102" s="8">
-        <f t="shared" si="120"/>
-        <v>32.874164538257546</v>
+        <f t="shared" si="121"/>
+        <v>35.539637338656803</v>
       </c>
       <c r="X102" s="8">
-        <f t="shared" si="120"/>
-        <v>36.161580992083302</v>
+        <f t="shared" si="121"/>
+        <v>39.093601072522489</v>
       </c>
       <c r="Y102" s="8">
-        <f t="shared" si="120"/>
-        <v>39.777739091291636</v>
+        <f t="shared" si="121"/>
+        <v>43.002961179774744</v>
       </c>
       <c r="Z102" s="8">
-        <f t="shared" si="120"/>
-        <v>43.755513000420805</v>
+        <f t="shared" si="121"/>
+        <v>47.303257297752225</v>
       </c>
     </row>
     <row r="103" spans="1:122" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6258,15 +6260,15 @@
         <v>0</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" ref="D103:H103" si="121">SUM(D88:D102)</f>
+        <f t="shared" ref="D103:H103" si="122">SUM(D88:D102)</f>
         <v>0</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="G103" s="2">
@@ -6274,7 +6276,7 @@
         <v>407.40000000000003</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>167.80000000000018</v>
       </c>
       <c r="I103" s="2">
@@ -6286,19 +6288,19 @@
         <v>171.6070499999999</v>
       </c>
       <c r="K103" s="2">
-        <f t="shared" ref="K103:N103" si="122">SUM(K89:K102,K87)</f>
+        <f t="shared" ref="K103:N103" si="123">SUM(K89:K102,K87)</f>
         <v>380.83050510489136</v>
       </c>
       <c r="L103" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>400.6813246971526</v>
       </c>
       <c r="M103" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>421.27158167617142</v>
       </c>
       <c r="N103" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>662.69740799517285</v>
       </c>
       <c r="R103" s="2">
@@ -6318,24 +6320,24 @@
         <v>1513.14705</v>
       </c>
       <c r="V103" s="2">
-        <f t="shared" ref="V103:Z103" si="123">SUM(V89:V102,V87)</f>
-        <v>2955.1590290730605</v>
+        <f t="shared" ref="V103:Z103" si="124">SUM(V89:V102,V87)</f>
+        <v>3347.6671698709943</v>
       </c>
       <c r="W103" s="2">
-        <f t="shared" si="123"/>
-        <v>3694.9580355347812</v>
+        <f t="shared" si="124"/>
+        <v>3905.1995943522666</v>
       </c>
       <c r="X103" s="2">
-        <f t="shared" si="123"/>
-        <v>4568.3609288559428</v>
+        <f t="shared" si="124"/>
+        <v>4542.721403731317</v>
       </c>
       <c r="Y103" s="2">
-        <f t="shared" si="123"/>
-        <v>5196.7015368952761</v>
+        <f t="shared" si="124"/>
+        <v>5156.6890850449072</v>
       </c>
       <c r="Z103" s="2">
-        <f t="shared" si="123"/>
-        <v>5898.166476647767</v>
+        <f t="shared" si="124"/>
+        <v>5843.7914869462738</v>
       </c>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.2">
@@ -6361,28 +6363,28 @@
         <v>-124.3</v>
       </c>
       <c r="U104" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>-220.6</v>
       </c>
       <c r="V104" s="8">
         <f>U104*(1+V55)</f>
-        <v>-367.41841098356969</v>
+        <v>-397.20909295521039</v>
       </c>
       <c r="W104" s="8">
         <f>V104*(1+W55)</f>
-        <v>-404.16025208192667</v>
+        <v>-436.93000225073149</v>
       </c>
       <c r="X104" s="8">
         <f>W104*(1+X55)</f>
-        <v>-444.57627729011938</v>
+        <v>-480.6230024758047</v>
       </c>
       <c r="Y104" s="8">
         <f>X104*(1+Y55)</f>
-        <v>-489.03390501913134</v>
+        <v>-528.68530272338523</v>
       </c>
       <c r="Z104" s="8">
         <f>Y104*(1+Z55)</f>
-        <v>-537.93729552104446</v>
+        <v>-581.55383299572384</v>
       </c>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.2">
@@ -6402,7 +6404,7 @@
         <v>-69.7</v>
       </c>
       <c r="U105" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -6423,7 +6425,7 @@
         <v>-0.3</v>
       </c>
       <c r="U106" s="8">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -6439,42 +6441,42 @@
         <v>-17.350000000000001</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" ref="E107:N107" si="124">E104</f>
+        <f t="shared" ref="E107:N107" si="125">E104</f>
         <v>0</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>-44.3</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>-71.8</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>-104.5</v>
       </c>
       <c r="J107" s="2">
         <v>-50</v>
       </c>
       <c r="K107" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="M107" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="N107" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="R107" s="2">
@@ -6482,36 +6484,36 @@
         <v>-45.2</v>
       </c>
       <c r="S107" s="2">
-        <f t="shared" ref="S107:Z107" si="125">S104</f>
+        <f t="shared" ref="S107:Z107" si="126">S104</f>
         <v>-36.799999999999997</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>-124.3</v>
       </c>
       <c r="U107" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>-220.6</v>
       </c>
       <c r="V107" s="2">
-        <f t="shared" si="125"/>
-        <v>-367.41841098356969</v>
+        <f t="shared" si="126"/>
+        <v>-397.20909295521039</v>
       </c>
       <c r="W107" s="2">
-        <f t="shared" si="125"/>
-        <v>-404.16025208192667</v>
+        <f t="shared" si="126"/>
+        <v>-436.93000225073149</v>
       </c>
       <c r="X107" s="2">
-        <f t="shared" si="125"/>
-        <v>-444.57627729011938</v>
+        <f t="shared" si="126"/>
+        <v>-480.6230024758047</v>
       </c>
       <c r="Y107" s="2">
-        <f t="shared" si="125"/>
-        <v>-489.03390501913134</v>
+        <f t="shared" si="126"/>
+        <v>-528.68530272338523</v>
       </c>
       <c r="Z107" s="2">
-        <f t="shared" si="125"/>
-        <v>-537.93729552104446</v>
+        <f t="shared" si="126"/>
+        <v>-581.55383299572384</v>
       </c>
     </row>
     <row r="108" spans="1:122" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -6524,47 +6526,47 @@
         <v>-2.63</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" ref="D108:N108" si="126">D103+D107</f>
+        <f t="shared" ref="D108:N108" si="127">D103+D107</f>
         <v>-17.350000000000001</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>363.1</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>96.000000000000185</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>661.84</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>121.6070499999999</v>
       </c>
       <c r="K108" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>380.83050510489136</v>
       </c>
       <c r="L108" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>400.6813246971526</v>
       </c>
       <c r="M108" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>421.27158167617142</v>
       </c>
       <c r="N108" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>662.69740799517285</v>
       </c>
       <c r="R108" s="2">
@@ -6572,420 +6574,420 @@
         <v>-485.7999999999999</v>
       </c>
       <c r="S108" s="2">
-        <f t="shared" ref="S108:T108" si="127">S103+S107</f>
+        <f t="shared" ref="S108:T108" si="128">S103+S107</f>
         <v>626.70000000000005</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>-2610.0600000000004</v>
       </c>
       <c r="U108" s="2">
-        <f t="shared" ref="U108" si="128">U103+U107</f>
+        <f t="shared" ref="U108" si="129">U103+U107</f>
         <v>1292.5470500000001</v>
       </c>
       <c r="V108" s="2">
-        <f t="shared" ref="V108" si="129">V103+V107</f>
-        <v>2587.7406180894909</v>
+        <f t="shared" ref="V108" si="130">V103+V107</f>
+        <v>2950.4580769157837</v>
       </c>
       <c r="W108" s="2">
-        <f t="shared" ref="W108" si="130">W103+W107</f>
-        <v>3290.7977834528547</v>
+        <f t="shared" ref="W108" si="131">W103+W107</f>
+        <v>3468.2695921015352</v>
       </c>
       <c r="X108" s="2">
-        <f t="shared" ref="X108" si="131">X103+X107</f>
-        <v>4123.7846515658239</v>
+        <f t="shared" ref="X108" si="132">X103+X107</f>
+        <v>4062.0984012555123</v>
       </c>
       <c r="Y108" s="2">
-        <f t="shared" ref="Y108" si="132">Y103+Y107</f>
-        <v>4707.6676318761447</v>
+        <f t="shared" ref="Y108" si="133">Y103+Y107</f>
+        <v>4628.0037823215216</v>
       </c>
       <c r="Z108" s="2">
-        <f t="shared" ref="Z108" si="133">Z103+Z107</f>
-        <v>5360.2291811267223</v>
+        <f t="shared" ref="Z108" si="134">Z103+Z107</f>
+        <v>5262.2376539505503</v>
       </c>
       <c r="AA108" s="2">
-        <f t="shared" ref="AA108:BF108" si="134">Z108*(1+$AC$56)</f>
-        <v>5467.4337647492566</v>
+        <f t="shared" ref="AA108:BF108" si="135">Z108*(1+$AC$56)</f>
+        <v>5367.4824070295617</v>
       </c>
       <c r="AB108" s="2">
-        <f t="shared" si="134"/>
-        <v>5576.7824400442414</v>
+        <f t="shared" si="135"/>
+        <v>5474.8320551701527</v>
       </c>
       <c r="AC108" s="2">
-        <f t="shared" si="134"/>
-        <v>5688.3180888451261</v>
+        <f t="shared" si="135"/>
+        <v>5584.3286962735556</v>
       </c>
       <c r="AD108" s="2">
-        <f t="shared" si="134"/>
-        <v>5802.0844506220292</v>
+        <f t="shared" si="135"/>
+        <v>5696.0152701990264</v>
       </c>
       <c r="AE108" s="2">
-        <f t="shared" si="134"/>
-        <v>5918.1261396344698</v>
+        <f t="shared" si="135"/>
+        <v>5809.9355756030072</v>
       </c>
       <c r="AF108" s="2">
-        <f t="shared" si="134"/>
-        <v>6036.4886624271594</v>
+        <f t="shared" si="135"/>
+        <v>5926.1342871150673</v>
       </c>
       <c r="AG108" s="2">
-        <f t="shared" si="134"/>
-        <v>6157.2184356757025</v>
+        <f t="shared" si="135"/>
+        <v>6044.6569728573686</v>
       </c>
       <c r="AH108" s="2">
-        <f t="shared" si="134"/>
-        <v>6280.3628043892168</v>
+        <f t="shared" si="135"/>
+        <v>6165.5501123145159</v>
       </c>
       <c r="AI108" s="2">
-        <f t="shared" si="134"/>
-        <v>6405.9700604770014</v>
+        <f t="shared" si="135"/>
+        <v>6288.8611145608065</v>
       </c>
       <c r="AJ108" s="2">
-        <f t="shared" si="134"/>
-        <v>6534.0894616865417</v>
+        <f t="shared" si="135"/>
+        <v>6414.6383368520228</v>
       </c>
       <c r="AK108" s="2">
-        <f t="shared" si="134"/>
-        <v>6664.7712509202729</v>
+        <f t="shared" si="135"/>
+        <v>6542.9311035890632</v>
       </c>
       <c r="AL108" s="2">
-        <f t="shared" si="134"/>
-        <v>6798.0666759386786</v>
+        <f t="shared" si="135"/>
+        <v>6673.7897256608449</v>
       </c>
       <c r="AM108" s="2">
-        <f t="shared" si="134"/>
-        <v>6934.0280094574518</v>
+        <f t="shared" si="135"/>
+        <v>6807.2655201740617</v>
       </c>
       <c r="AN108" s="2">
-        <f t="shared" si="134"/>
-        <v>7072.7085696466011</v>
+        <f t="shared" si="135"/>
+        <v>6943.4108305775435</v>
       </c>
       <c r="AO108" s="2">
-        <f t="shared" si="134"/>
-        <v>7214.1627410395331</v>
+        <f t="shared" si="135"/>
+        <v>7082.2790471890949</v>
       </c>
       <c r="AP108" s="2">
-        <f t="shared" si="134"/>
-        <v>7358.4459958603238</v>
+        <f t="shared" si="135"/>
+        <v>7223.9246281328769</v>
       </c>
       <c r="AQ108" s="2">
-        <f t="shared" si="134"/>
-        <v>7505.6149157775308</v>
+        <f t="shared" si="135"/>
+        <v>7368.4031206955342</v>
       </c>
       <c r="AR108" s="2">
-        <f t="shared" si="134"/>
-        <v>7655.7272140930818</v>
+        <f t="shared" si="135"/>
+        <v>7515.7711831094448</v>
       </c>
       <c r="AS108" s="2">
-        <f t="shared" si="134"/>
-        <v>7808.8417583749433</v>
+        <f t="shared" si="135"/>
+        <v>7666.0866067716343</v>
       </c>
       <c r="AT108" s="2">
-        <f t="shared" si="134"/>
-        <v>7965.0185935424424</v>
+        <f t="shared" si="135"/>
+        <v>7819.4083389070674</v>
       </c>
       <c r="AU108" s="2">
-        <f t="shared" si="134"/>
-        <v>8124.3189654132912</v>
+        <f t="shared" si="135"/>
+        <v>7975.796505685209</v>
       </c>
       <c r="AV108" s="2">
-        <f t="shared" si="134"/>
-        <v>8286.805344721557</v>
+        <f t="shared" si="135"/>
+        <v>8135.3124357989136</v>
       </c>
       <c r="AW108" s="2">
-        <f t="shared" si="134"/>
-        <v>8452.541451615989</v>
+        <f t="shared" si="135"/>
+        <v>8298.0186845148928</v>
       </c>
       <c r="AX108" s="2">
-        <f t="shared" si="134"/>
-        <v>8621.5922806483086</v>
+        <f t="shared" si="135"/>
+        <v>8463.9790582051901</v>
       </c>
       <c r="AY108" s="2">
-        <f t="shared" si="134"/>
-        <v>8794.0241262612744</v>
+        <f t="shared" si="135"/>
+        <v>8633.2586393692945</v>
       </c>
       <c r="AZ108" s="2">
-        <f t="shared" si="134"/>
-        <v>8969.9046087865008</v>
+        <f t="shared" si="135"/>
+        <v>8805.9238121566814</v>
       </c>
       <c r="BA108" s="2">
-        <f t="shared" si="134"/>
-        <v>9149.302700962231</v>
+        <f t="shared" si="135"/>
+        <v>8982.0422883998144</v>
       </c>
       <c r="BB108" s="2">
-        <f t="shared" si="134"/>
-        <v>9332.288754981475</v>
+        <f t="shared" si="135"/>
+        <v>9161.6831341678117</v>
       </c>
       <c r="BC108" s="2">
-        <f t="shared" si="134"/>
-        <v>9518.9345300811055</v>
+        <f t="shared" si="135"/>
+        <v>9344.9167968511683</v>
       </c>
       <c r="BD108" s="2">
-        <f t="shared" si="134"/>
-        <v>9709.3132206827286</v>
+        <f t="shared" si="135"/>
+        <v>9531.8151327881915</v>
       </c>
       <c r="BE108" s="2">
-        <f t="shared" si="134"/>
-        <v>9903.4994850963831</v>
+        <f t="shared" si="135"/>
+        <v>9722.4514354439561</v>
       </c>
       <c r="BF108" s="2">
-        <f t="shared" si="134"/>
-        <v>10101.569474798311</v>
+        <f t="shared" si="135"/>
+        <v>9916.9004641528354</v>
       </c>
       <c r="BG108" s="2">
-        <f t="shared" ref="BG108:CL108" si="135">BF108*(1+$AC$56)</f>
-        <v>10303.600864294278</v>
+        <f t="shared" ref="BG108:CL108" si="136">BF108*(1+$AC$56)</f>
+        <v>10115.238473435893</v>
       </c>
       <c r="BH108" s="2">
-        <f t="shared" si="135"/>
-        <v>10509.672881580163</v>
+        <f t="shared" si="136"/>
+        <v>10317.54324290461</v>
       </c>
       <c r="BI108" s="2">
-        <f t="shared" si="135"/>
-        <v>10719.866339211767</v>
+        <f t="shared" si="136"/>
+        <v>10523.894107762702</v>
       </c>
       <c r="BJ108" s="2">
-        <f t="shared" si="135"/>
-        <v>10934.263665996003</v>
+        <f t="shared" si="136"/>
+        <v>10734.371989917956</v>
       </c>
       <c r="BK108" s="2">
-        <f t="shared" si="135"/>
-        <v>11152.948939315922</v>
+        <f t="shared" si="136"/>
+        <v>10949.059429716315</v>
       </c>
       <c r="BL108" s="2">
-        <f t="shared" si="135"/>
-        <v>11376.007918102241</v>
+        <f t="shared" si="136"/>
+        <v>11168.040618310642</v>
       </c>
       <c r="BM108" s="2">
-        <f t="shared" si="135"/>
-        <v>11603.528076464287</v>
+        <f t="shared" si="136"/>
+        <v>11391.401430676855</v>
       </c>
       <c r="BN108" s="2">
-        <f t="shared" si="135"/>
-        <v>11835.598637993573</v>
+        <f t="shared" si="136"/>
+        <v>11619.229459290393</v>
       </c>
       <c r="BO108" s="2">
-        <f t="shared" si="135"/>
-        <v>12072.310610753444</v>
+        <f t="shared" si="136"/>
+        <v>11851.6140484762</v>
       </c>
       <c r="BP108" s="2">
-        <f t="shared" si="135"/>
-        <v>12313.756822968513</v>
+        <f t="shared" si="136"/>
+        <v>12088.646329445724</v>
       </c>
       <c r="BQ108" s="2">
-        <f t="shared" si="135"/>
-        <v>12560.031959427883</v>
+        <f t="shared" si="136"/>
+        <v>12330.419256034638</v>
       </c>
       <c r="BR108" s="2">
-        <f t="shared" si="135"/>
-        <v>12811.23259861644</v>
+        <f t="shared" si="136"/>
+        <v>12577.027641155331</v>
       </c>
       <c r="BS108" s="2">
-        <f t="shared" si="135"/>
-        <v>13067.457250588768</v>
+        <f t="shared" si="136"/>
+        <v>12828.568193978439</v>
       </c>
       <c r="BT108" s="2">
-        <f t="shared" si="135"/>
-        <v>13328.806395600544</v>
+        <f t="shared" si="136"/>
+        <v>13085.139557858009</v>
       </c>
       <c r="BU108" s="2">
-        <f t="shared" si="135"/>
-        <v>13595.382523512555</v>
+        <f t="shared" si="136"/>
+        <v>13346.842349015169</v>
       </c>
       <c r="BV108" s="2">
-        <f t="shared" si="135"/>
-        <v>13867.290173982807</v>
+        <f t="shared" si="136"/>
+        <v>13613.779195995472</v>
       </c>
       <c r="BW108" s="2">
-        <f t="shared" si="135"/>
-        <v>14144.635977462463</v>
+        <f t="shared" si="136"/>
+        <v>13886.054779915381</v>
       </c>
       <c r="BX108" s="2">
-        <f t="shared" si="135"/>
-        <v>14427.528697011712</v>
+        <f t="shared" si="136"/>
+        <v>14163.775875513689</v>
       </c>
       <c r="BY108" s="2">
-        <f t="shared" si="135"/>
-        <v>14716.079270951946</v>
+        <f t="shared" si="136"/>
+        <v>14447.051393023963</v>
       </c>
       <c r="BZ108" s="2">
-        <f t="shared" si="135"/>
-        <v>15010.400856370985</v>
+        <f t="shared" si="136"/>
+        <v>14735.992420884442</v>
       </c>
       <c r="CA108" s="2">
-        <f t="shared" si="135"/>
-        <v>15310.608873498404</v>
+        <f t="shared" si="136"/>
+        <v>15030.712269302132</v>
       </c>
       <c r="CB108" s="2">
-        <f t="shared" si="135"/>
-        <v>15616.821050968372</v>
+        <f t="shared" si="136"/>
+        <v>15331.326514688175</v>
       </c>
       <c r="CC108" s="2">
-        <f t="shared" si="135"/>
-        <v>15929.157471987741</v>
+        <f t="shared" si="136"/>
+        <v>15637.953044981939</v>
       </c>
       <c r="CD108" s="2">
-        <f t="shared" si="135"/>
-        <v>16247.740621427496</v>
+        <f t="shared" si="136"/>
+        <v>15950.712105881579</v>
       </c>
       <c r="CE108" s="2">
-        <f t="shared" si="135"/>
-        <v>16572.695433856046</v>
+        <f t="shared" si="136"/>
+        <v>16269.726347999211</v>
       </c>
       <c r="CF108" s="2">
-        <f t="shared" si="135"/>
-        <v>16904.149342533168</v>
+        <f t="shared" si="136"/>
+        <v>16595.120874959197</v>
       </c>
       <c r="CG108" s="2">
-        <f t="shared" si="135"/>
-        <v>17242.232329383831</v>
+        <f t="shared" si="136"/>
+        <v>16927.02329245838</v>
       </c>
       <c r="CH108" s="2">
-        <f t="shared" si="135"/>
-        <v>17587.076975971508</v>
+        <f t="shared" si="136"/>
+        <v>17265.563758307548</v>
       </c>
       <c r="CI108" s="2">
-        <f t="shared" si="135"/>
-        <v>17938.818515490937</v>
+        <f t="shared" si="136"/>
+        <v>17610.875033473698</v>
       </c>
       <c r="CJ108" s="2">
-        <f t="shared" si="135"/>
-        <v>18297.594885800758</v>
+        <f t="shared" si="136"/>
+        <v>17963.092534143172</v>
       </c>
       <c r="CK108" s="2">
-        <f t="shared" si="135"/>
-        <v>18663.546783516773</v>
+        <f t="shared" si="136"/>
+        <v>18322.354384826034</v>
       </c>
       <c r="CL108" s="2">
-        <f t="shared" si="135"/>
-        <v>19036.817719187107</v>
+        <f t="shared" si="136"/>
+        <v>18688.801472522555</v>
       </c>
       <c r="CM108" s="2">
-        <f t="shared" ref="CM108:DR108" si="136">CL108*(1+$AC$56)</f>
-        <v>19417.554073570849</v>
+        <f t="shared" ref="CM108:DR108" si="137">CL108*(1+$AC$56)</f>
+        <v>19062.577501973006</v>
       </c>
       <c r="CN108" s="2">
-        <f t="shared" si="136"/>
-        <v>19805.905155042266</v>
+        <f t="shared" si="137"/>
+        <v>19443.829052012468</v>
       </c>
       <c r="CO108" s="2">
-        <f t="shared" si="136"/>
-        <v>20202.023258143112</v>
+        <f t="shared" si="137"/>
+        <v>19832.705633052719</v>
       </c>
       <c r="CP108" s="2">
-        <f t="shared" si="136"/>
-        <v>20606.063723305975</v>
+        <f t="shared" si="137"/>
+        <v>20229.359745713773</v>
       </c>
       <c r="CQ108" s="2">
-        <f t="shared" si="136"/>
-        <v>21018.184997772096</v>
+        <f t="shared" si="137"/>
+        <v>20633.946940628048</v>
       </c>
       <c r="CR108" s="2">
-        <f t="shared" si="136"/>
-        <v>21438.54869772754</v>
+        <f t="shared" si="137"/>
+        <v>21046.625879440609</v>
       </c>
       <c r="CS108" s="2">
-        <f t="shared" si="136"/>
-        <v>21867.319671682089</v>
+        <f t="shared" si="137"/>
+        <v>21467.558397029421</v>
       </c>
       <c r="CT108" s="2">
-        <f t="shared" si="136"/>
-        <v>22304.666065115733</v>
+        <f t="shared" si="137"/>
+        <v>21896.90956497001</v>
       </c>
       <c r="CU108" s="2">
-        <f t="shared" si="136"/>
-        <v>22750.759386418049</v>
+        <f t="shared" si="137"/>
+        <v>22334.84775626941</v>
       </c>
       <c r="CV108" s="2">
-        <f t="shared" si="136"/>
-        <v>23205.77457414641</v>
+        <f t="shared" si="137"/>
+        <v>22781.544711394799</v>
       </c>
       <c r="CW108" s="2">
-        <f t="shared" si="136"/>
-        <v>23669.890065629337</v>
+        <f t="shared" si="137"/>
+        <v>23237.175605622695</v>
       </c>
       <c r="CX108" s="2">
-        <f t="shared" si="136"/>
-        <v>24143.287866941926</v>
+        <f t="shared" si="137"/>
+        <v>23701.919117735149</v>
       </c>
       <c r="CY108" s="2">
-        <f t="shared" si="136"/>
-        <v>24626.153624280763</v>
+        <f t="shared" si="137"/>
+        <v>24175.957500089851</v>
       </c>
       <c r="CZ108" s="2">
-        <f t="shared" si="136"/>
-        <v>25118.676696766379</v>
+        <f t="shared" si="137"/>
+        <v>24659.476650091648</v>
       </c>
       <c r="DA108" s="2">
-        <f t="shared" si="136"/>
-        <v>25621.050230701709</v>
+        <f t="shared" si="137"/>
+        <v>25152.666183093483</v>
       </c>
       <c r="DB108" s="2">
-        <f t="shared" si="136"/>
-        <v>26133.471235315745</v>
+        <f t="shared" si="137"/>
+        <v>25655.719506755351</v>
       </c>
       <c r="DC108" s="2">
-        <f t="shared" si="136"/>
-        <v>26656.140660022062</v>
+        <f t="shared" si="137"/>
+        <v>26168.833896890457</v>
       </c>
       <c r="DD108" s="2">
-        <f t="shared" si="136"/>
-        <v>27189.263473222505</v>
+        <f t="shared" si="137"/>
+        <v>26692.210574828267</v>
       </c>
       <c r="DE108" s="2">
-        <f t="shared" si="136"/>
-        <v>27733.048742686955</v>
+        <f t="shared" si="137"/>
+        <v>27226.054786324832</v>
       </c>
       <c r="DF108" s="2">
-        <f t="shared" si="136"/>
-        <v>28287.709717540696</v>
+        <f t="shared" si="137"/>
+        <v>27770.575882051329</v>
       </c>
       <c r="DG108" s="2">
-        <f t="shared" si="136"/>
-        <v>28853.463911891511</v>
+        <f t="shared" si="137"/>
+        <v>28325.987399692356</v>
       </c>
       <c r="DH108" s="2">
-        <f t="shared" si="136"/>
-        <v>29430.533190129343</v>
+        <f t="shared" si="137"/>
+        <v>28892.507147686203</v>
       </c>
       <c r="DI108" s="2">
-        <f t="shared" si="136"/>
-        <v>30019.143853931932</v>
+        <f t="shared" si="137"/>
+        <v>29470.357290639928</v>
       </c>
       <c r="DJ108" s="2">
-        <f t="shared" si="136"/>
-        <v>30619.52673101057</v>
+        <f t="shared" si="137"/>
+        <v>30059.764436452726</v>
       </c>
       <c r="DK108" s="2">
-        <f t="shared" si="136"/>
-        <v>31231.917265630782</v>
+        <f t="shared" si="137"/>
+        <v>30660.95972518178</v>
       </c>
       <c r="DL108" s="2">
-        <f t="shared" si="136"/>
-        <v>31856.555610943396</v>
+        <f t="shared" si="137"/>
+        <v>31274.178919685415</v>
       </c>
       <c r="DM108" s="2">
-        <f t="shared" si="136"/>
-        <v>32493.686723162264</v>
+        <f t="shared" si="137"/>
+        <v>31899.662498079124</v>
       </c>
       <c r="DN108" s="2">
-        <f t="shared" si="136"/>
-        <v>33143.560457625506</v>
+        <f t="shared" si="137"/>
+        <v>32537.655748040706</v>
       </c>
       <c r="DO108" s="2">
-        <f t="shared" si="136"/>
-        <v>33806.431666778015</v>
+        <f t="shared" si="137"/>
+        <v>33188.408863001518</v>
       </c>
       <c r="DP108" s="2">
-        <f t="shared" si="136"/>
-        <v>34482.560300113575</v>
+        <f t="shared" si="137"/>
+        <v>33852.177040261551</v>
       </c>
       <c r="DQ108" s="2">
-        <f t="shared" si="136"/>
-        <v>35172.211506115847</v>
+        <f t="shared" si="137"/>
+        <v>34529.22058106678</v>
       </c>
       <c r="DR108" s="2">
-        <f t="shared" si="136"/>
-        <v>35875.655736238165</v>
+        <f t="shared" si="137"/>
+        <v>35219.804992688114</v>
       </c>
     </row>
   </sheetData>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A2A36-21AD-466F-8A37-BBA16152DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2C1B9-CF9B-4E89-83B9-219CEC15CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4349,7 +4349,7 @@
         <v>0.1275</v>
       </c>
       <c r="X59" s="17">
-        <f t="shared" ref="X59:Z59" si="75">W59*1.02</f>
+        <f t="shared" ref="X59" si="75">W59*1.02</f>
         <v>0.13005</v>
       </c>
       <c r="Y59" s="17">

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2C1B9-CF9B-4E89-83B9-219CEC15CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61799055-C9B1-44A8-854D-4B6724DA4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -150,10 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="143">
-  <si>
-    <t>SMCI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
   <si>
     <t>Price</t>
   </si>
@@ -590,7 +587,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,61 +596,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -667,16 +610,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -709,40 +652,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1236,269 +1163,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5214CC-655A-4E11-87EC-D301395A4983}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="3.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>596.82000000000005</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <f>N4*N3</f>
+        <v>23275.980000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>596.82000000000005</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="M6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="4">
-        <f>F14*F13</f>
-        <v>23275.980000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="N6" s="2">
+        <v>1430</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="4">
-        <v>1430</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="N7" s="2">
         <f>1700+53+289</f>
         <v>2042</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="O7" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="M8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2">
+        <f>N5+N7-N6</f>
+        <v>23887.980000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4">
-        <f>F15+F17-F16</f>
-        <v>23887.980000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="25" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E24" s="31" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="28">
-        <v>2020</v>
-      </c>
-      <c r="C25" s="29" t="s">
+      <c r="E26" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="15">
+        <v>2025.5</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="15">
+        <v>2026</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="7">
-        <v>2022</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="31" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="15">
+        <v>2027</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="15">
+        <v>2028</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="7">
-        <v>2025</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="7">
-        <v>2025.5</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="7">
-        <v>2026</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="7">
-        <v>2027</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="7">
-        <v>2028</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="31" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="15" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="31" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1512,5482 +1434,5480 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3098DAD7-B3FD-4340-A438-67E4C3210CEC}">
   <dimension ref="A1:DR108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="T39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC56" sqref="AC56"/>
+      <selection pane="bottomRight" activeCell="AA58" sqref="AA58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="8" customWidth="1"/>
-    <col min="3" max="20" width="9.140625" style="8"/>
-    <col min="21" max="21" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="8" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="8"/>
-    <col min="26" max="26" width="11" style="8" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" style="8"/>
-    <col min="30" max="30" width="9.140625" style="8" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="6" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
+    <col min="3" max="20" width="9.140625" style="2"/>
+    <col min="21" max="21" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="2" customWidth="1"/>
+    <col min="23" max="25" width="9.140625" style="2"/>
+    <col min="26" max="26" width="11" style="2" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" style="2"/>
+    <col min="30" max="30" width="9.140625" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="9">
+      <c r="P1" s="3">
         <v>2020</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="3">
         <v>2021</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="3">
         <v>2022</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="3">
         <v>2023</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="3">
         <v>2024</v>
       </c>
-      <c r="U1" s="10">
+      <c r="U1" s="4">
         <f t="shared" ref="U1:Z1" si="0">T1+1</f>
         <v>2025</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1" s="3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="Z1" s="9">
+      <c r="Z1" s="3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AA1" s="9">
+      <c r="AA1" s="3">
         <f t="shared" ref="AA1" si="1">Z1+1</f>
         <v>2031</v>
       </c>
-      <c r="AB1" s="9">
+      <c r="AB1" s="3">
         <f t="shared" ref="AB1" si="2">AA1+1</f>
         <v>2032</v>
       </c>
-      <c r="AC1" s="9">
+      <c r="AC1" s="3">
         <f t="shared" ref="AC1" si="3">AB1+1</f>
         <v>2033</v>
       </c>
-      <c r="AD1" s="9">
+      <c r="AD1" s="3">
         <f t="shared" ref="AD1" si="4">AC1+1</f>
         <v>2034</v>
       </c>
-      <c r="AE1" s="9">
+      <c r="AE1" s="3">
         <f t="shared" ref="AE1" si="5">AD1+1</f>
         <v>2035</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="5">
         <v>0.76</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="5">
         <v>0.6</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="5">
         <v>0.11</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="5">
         <v>0.3</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5">
         <v>0.13</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="5">
         <v>0.1</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="E5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
+      <c r="E5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="8">
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2">
         <v>14593</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="2">
         <v>14020</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="8">
+      <c r="B7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2">
         <v>17624</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="2">
         <v>27136</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="2">
         <f>U7+6000</f>
         <v>33136</v>
       </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="8">
+      <c r="B8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="2">
         <v>15137</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="2">
         <v>13926</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="2">
         <v>15931</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="2">
         <f>U8*1.2</f>
         <v>19117.2</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="8">
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="2">
         <v>7100</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="2">
         <v>9800</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="2">
         <v>10000</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="22"/>
-      <c r="E10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14">
+      <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6">
         <v>0.10100000000000001</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="14">
+      <c r="B12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="6">
         <v>0.126</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="6">
         <v>0.128</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="6">
         <v>0.11799999999999999</v>
       </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="14">
+      <c r="B13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="6">
         <v>0.125</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="6">
         <v>0.124</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="6">
         <v>0.112</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="6">
         <v>0.11</v>
       </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="14">
+      <c r="B14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="6">
         <v>0.17</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="6">
         <v>0.17</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="6">
         <v>0.16700000000000001</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="6">
         <v>0.15</v>
       </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="E15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
+      <c r="E15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="8">
+      <c r="B16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="2">
         <f>SUM(V17:V21)</f>
         <v>336000</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="2">
         <f t="shared" ref="W16:Z16" si="6">SUM(W17:W21)</f>
         <v>352800</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="2">
         <f t="shared" si="6"/>
         <v>370440</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="2">
         <f t="shared" si="6"/>
         <v>388962</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="2">
         <f t="shared" si="6"/>
         <v>408410.1</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="V17" s="8">
+      <c r="B17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V17" s="2">
         <v>75000</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="2">
         <f>V17*1.05</f>
         <v>78750</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="2">
         <f t="shared" ref="X17:Z17" si="7">W17*1.05</f>
         <v>82687.5</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y17" s="2">
         <f t="shared" si="7"/>
         <v>86821.875</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="2">
         <f t="shared" si="7"/>
         <v>91162.96875</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="V18" s="8">
+      <c r="B18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V18" s="2">
         <v>80000</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="2">
         <f t="shared" ref="W18:Z21" si="8">V18*1.05</f>
         <v>84000</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="2">
         <f t="shared" si="8"/>
         <v>88200</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y18" s="2">
         <f t="shared" si="8"/>
         <v>92610</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z18" s="2">
         <f t="shared" si="8"/>
         <v>97240.5</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="V19" s="8">
+      <c r="B19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V19" s="2">
         <v>100000</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="2">
         <f t="shared" si="8"/>
         <v>105000</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="2">
         <f t="shared" si="8"/>
         <v>110250</v>
       </c>
-      <c r="Y19" s="8">
+      <c r="Y19" s="2">
         <f t="shared" si="8"/>
         <v>115762.5</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z19" s="2">
         <f t="shared" si="8"/>
         <v>121550.625</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="V20" s="8">
+      <c r="B20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V20" s="2">
         <v>65000</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="2">
         <f t="shared" si="8"/>
         <v>68250</v>
       </c>
-      <c r="X20" s="8">
+      <c r="X20" s="2">
         <f t="shared" ref="X20" si="9">W20*1.05</f>
         <v>71662.5</v>
       </c>
-      <c r="Y20" s="8">
+      <c r="Y20" s="2">
         <f t="shared" ref="Y20" si="10">X20*1.05</f>
         <v>75245.625</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="Z20" s="2">
         <f t="shared" ref="Z20" si="11">Y20*1.05</f>
         <v>79007.90625</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="V21" s="8">
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V21" s="2">
         <v>16000</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="2">
         <f t="shared" si="8"/>
         <v>16800</v>
       </c>
-      <c r="X21" s="8">
+      <c r="X21" s="2">
         <f t="shared" si="8"/>
         <v>17640</v>
       </c>
-      <c r="Y21" s="8">
+      <c r="Y21" s="2">
         <f t="shared" si="8"/>
         <v>18522</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z21" s="2">
         <f t="shared" si="8"/>
         <v>19448.100000000002</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="B22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="2">
         <v>500</v>
       </c>
-      <c r="S22" s="13" t="e">
+      <c r="S22" s="5" t="e">
         <f t="shared" ref="S22:Z22" si="12">S39/S16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="13" t="e">
+      <c r="T22" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U22" s="13" t="e">
+      <c r="U22" s="5" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="5">
         <f t="shared" si="12"/>
         <v>0.11904761904761904</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="5">
         <f t="shared" si="12"/>
         <v>0.12471655328798185</v>
       </c>
-      <c r="X22" s="13">
+      <c r="X22" s="5">
         <f t="shared" si="12"/>
         <v>0.13065543677788577</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="Y22" s="5">
         <f t="shared" si="12"/>
         <v>0.1368771242434994</v>
       </c>
-      <c r="Z22" s="13">
+      <c r="Z22" s="5">
         <f t="shared" si="12"/>
         <v>0.14339508254080893</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="J23" s="13">
+      <c r="J23" s="5">
         <f>J22/I26</f>
         <v>4.3859649122807015E-2</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="B24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="5">
         <f>I39/I26</f>
         <v>0.40350877192982454</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="5">
         <f t="shared" ref="S24:Z24" si="13">S39/S25</f>
         <v>0.26382962962962964</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="5">
         <f t="shared" si="13"/>
         <v>0.24572459016393444</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="5">
         <f t="shared" si="13"/>
         <v>0.17088461538461538</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="5">
         <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="5">
         <f t="shared" si="13"/>
         <v>0.16541353383458646</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X24" s="5">
         <f t="shared" si="13"/>
         <v>0.13672316384180794</v>
       </c>
-      <c r="Y24" s="13">
+      <c r="Y24" s="5">
         <f t="shared" si="13"/>
         <v>0.11327659574468088</v>
       </c>
-      <c r="Z24" s="13">
+      <c r="Z24" s="5">
         <f t="shared" si="13"/>
         <v>9.3702400000000033E-2</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="S25" s="8">
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="S25" s="2">
         <v>27000</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="2">
         <v>61000</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="2">
         <v>130000</v>
       </c>
-      <c r="V25" s="8">
+      <c r="V25" s="2">
         <v>200000</v>
       </c>
-      <c r="W25" s="8">
+      <c r="W25" s="2">
         <v>266000</v>
       </c>
-      <c r="X25" s="8">
+      <c r="X25" s="2">
         <v>354000</v>
       </c>
-      <c r="Y25" s="8">
+      <c r="Y25" s="2">
         <v>470000</v>
       </c>
-      <c r="Z25" s="8">
+      <c r="Z25" s="2">
         <v>625000</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="2">
         <v>11400</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="8" t="s">
-        <v>76</v>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="B29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2">
         <f>I29*0.97</f>
         <v>1843</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="2">
         <f>H39*0.25</f>
         <v>1419.5</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="2">
         <v>1900</v>
       </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="8">
+      <c r="B31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="2">
         <f>U33/0.15-U33</f>
         <v>22666.666666666668</v>
       </c>
-      <c r="V31" s="8">
+      <c r="V31" s="2">
         <f>V33/0.3-V33</f>
         <v>21000</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="30">
+      <c r="B32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="7">
         <f>U37/U31</f>
         <v>0.36242647058823529</v>
       </c>
-      <c r="V32" s="30">
+      <c r="V32" s="7">
         <f>V37/V31</f>
         <v>0.61904761904761907</v>
       </c>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="8">
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="2">
         <v>4000</v>
       </c>
-      <c r="V33" s="8">
+      <c r="V33" s="2">
         <v>9000</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="30">
+      <c r="B34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="7">
         <v>3.5</v>
       </c>
-      <c r="V34" s="30">
+      <c r="V34" s="7">
         <v>3</v>
       </c>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="24"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="8">
+      <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="2">
         <f>U34*U33</f>
         <v>14000</v>
       </c>
-      <c r="V36" s="8">
+      <c r="V36" s="2">
         <f>V34*V33</f>
         <v>27000</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="U37" s="19">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U37" s="2">
         <f>U39-U36</f>
         <v>8215</v>
       </c>
-      <c r="V37" s="19">
+      <c r="V37" s="2">
         <f>V39-V36</f>
         <v>13000</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-    </row>
-    <row r="39" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="19">
+    <row r="38" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+    </row>
+    <row r="39" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
         <v>2119.6</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="2">
         <v>3664.9</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="2">
         <v>3850</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="2">
         <v>5308.2</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="2">
         <v>5937</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="2">
         <v>5678</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="2">
         <v>4600</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="2">
         <v>6000</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="2">
         <f>J39*1.2</f>
         <v>7200</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="2">
         <f>K39*1.03</f>
         <v>7416</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="2">
         <f>L39*1.03</f>
         <v>7638.4800000000005</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="2">
         <f>M39*1.4</f>
         <v>10693.871999999999</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="2">
         <f>SUM(K39:N39)</f>
         <v>32948.351999999999</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P39" s="2">
         <v>3339.3</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="2">
         <v>3557.4</v>
       </c>
-      <c r="R39" s="19">
+      <c r="R39" s="2">
         <v>5196.1000000000004</v>
       </c>
-      <c r="S39" s="19">
+      <c r="S39" s="2">
         <v>7123.4</v>
       </c>
-      <c r="T39" s="19">
+      <c r="T39" s="2">
         <v>14989.2</v>
       </c>
-      <c r="U39" s="19">
+      <c r="U39" s="2">
         <f>SUM(G39:J39)</f>
         <v>22215</v>
       </c>
-      <c r="V39" s="19">
+      <c r="V39" s="2">
         <v>40000</v>
       </c>
-      <c r="W39" s="19">
+      <c r="W39" s="2">
         <f>V39*1.1</f>
         <v>44000</v>
       </c>
-      <c r="X39" s="19">
+      <c r="X39" s="2">
         <f t="shared" ref="X39:Z39" si="14">W39*1.1</f>
         <v>48400.000000000007</v>
       </c>
-      <c r="Y39" s="19">
+      <c r="Y39" s="2">
         <f t="shared" si="14"/>
         <v>53240.000000000015</v>
       </c>
-      <c r="Z39" s="19">
+      <c r="Z39" s="2">
         <f t="shared" si="14"/>
         <v>58564.000000000022</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2">
         <v>353.6</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="2">
         <v>3100.6</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="2">
         <v>3252.7</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="2">
         <v>4711.8999999999996</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="2">
         <v>5161.6000000000004</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="2">
         <v>5007.8999999999996</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="2">
         <v>4159</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="2">
         <f>J39*(1-J59)</f>
         <v>5280</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="2">
         <f>K39*(1-K59)</f>
         <v>6336</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="2">
         <f>L39*(1-L59)</f>
         <v>6526.08</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="2">
         <f>M39*(1-M59)</f>
         <v>6721.8624000000009</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="2">
         <f>N39*(1-N59)</f>
         <v>9410.60736</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="2">
         <v>2813.1</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="2">
         <v>3022.9</v>
       </c>
-      <c r="R40" s="8">
+      <c r="R40" s="2">
         <v>4396.1000000000004</v>
       </c>
-      <c r="S40" s="8">
+      <c r="S40" s="2">
         <v>5840.4</v>
       </c>
-      <c r="T40" s="8">
+      <c r="T40" s="2">
         <v>12927.8</v>
       </c>
-      <c r="U40" s="8">
+      <c r="U40" s="2">
         <f>SUM(G40:J40)</f>
         <v>19608.5</v>
       </c>
-      <c r="V40" s="8">
+      <c r="V40" s="2">
         <f>V39*(1-V59)</f>
         <v>35000</v>
       </c>
-      <c r="W40" s="8">
+      <c r="W40" s="2">
         <f t="shared" ref="W40:Z40" si="15">W39*(1-W59)</f>
         <v>38390</v>
       </c>
-      <c r="X40" s="8">
+      <c r="X40" s="2">
         <f t="shared" si="15"/>
         <v>42105.580000000009</v>
       </c>
-      <c r="Y40" s="8">
+      <c r="Y40" s="2">
         <f t="shared" si="15"/>
         <v>46318.80000000001</v>
       </c>
-      <c r="Z40" s="8">
+      <c r="Z40" s="2">
         <f t="shared" si="15"/>
         <v>50950.680000000022</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="B41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2">
         <f t="shared" ref="C41:N41" si="16">C39-C40</f>
         <v>1766</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="2">
         <f t="shared" si="16"/>
         <v>564.30000000000018</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="2">
         <f t="shared" si="16"/>
         <v>597.30000000000018</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="2">
         <f t="shared" si="16"/>
         <v>596.30000000000018</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="2">
         <f t="shared" si="16"/>
         <v>775.39999999999964</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="2">
         <f t="shared" si="16"/>
         <v>670.10000000000036</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="2">
         <f t="shared" si="16"/>
         <v>441</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="2">
         <f t="shared" si="16"/>
         <v>720</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="2">
         <f t="shared" si="16"/>
         <v>864</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="2">
         <f t="shared" si="16"/>
         <v>889.92000000000007</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="2">
         <f t="shared" si="16"/>
         <v>916.61759999999958</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="2">
         <f t="shared" si="16"/>
         <v>1283.2646399999994</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="2">
         <f t="shared" ref="P41:V41" si="17">P39-P40</f>
         <v>526.20000000000027</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="2">
         <f t="shared" si="17"/>
         <v>534.5</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R41" s="2">
         <f t="shared" si="17"/>
         <v>800</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S41" s="2">
         <f t="shared" si="17"/>
         <v>1283</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T41" s="2">
         <f t="shared" si="17"/>
         <v>2061.4000000000015</v>
       </c>
-      <c r="U41" s="8">
+      <c r="U41" s="2">
         <f t="shared" si="17"/>
         <v>2606.5</v>
       </c>
-      <c r="V41" s="8">
+      <c r="V41" s="2">
         <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="W41" s="8">
+      <c r="W41" s="2">
         <f t="shared" ref="W41:Z41" si="18">W39-W40</f>
         <v>5610</v>
       </c>
-      <c r="X41" s="8">
+      <c r="X41" s="2">
         <f t="shared" si="18"/>
         <v>6294.4199999999983</v>
       </c>
-      <c r="Y41" s="8">
+      <c r="Y41" s="2">
         <f t="shared" si="18"/>
         <v>6921.2000000000044</v>
       </c>
-      <c r="Z41" s="8">
+      <c r="Z41" s="2">
         <f t="shared" si="18"/>
         <v>7613.32</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
         <v>111</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="2">
         <v>108.8</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="2">
         <v>116.2</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="2">
         <v>126.9</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="2">
         <v>132.19999999999999</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="2">
         <v>158.19999999999999</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="2">
         <v>162.9</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="2">
         <f>I42*(1+J56)</f>
         <v>212.47826086956522</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="2">
         <f t="shared" ref="K42:L42" si="19">J42*1.01</f>
         <v>214.60304347826087</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="2">
         <f t="shared" si="19"/>
         <v>216.74907391304347</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="2">
         <f t="shared" ref="M42" si="20">L42*1.01</f>
         <v>218.91656465217392</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="2">
         <f t="shared" ref="N42" si="21">M42*1.01</f>
         <v>221.10573029869565</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="2">
         <v>221.5</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="2">
         <v>224.4</v>
       </c>
-      <c r="R42" s="8">
+      <c r="R42" s="2">
         <v>272.3</v>
       </c>
-      <c r="S42" s="8">
+      <c r="S42" s="2">
         <v>307.26</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T42" s="2">
         <v>463.5</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U42" s="2">
         <f>SUM(G42:J42)</f>
         <v>665.7782608695652</v>
       </c>
-      <c r="V42" s="8">
+      <c r="V42" s="2">
         <f t="shared" ref="V42:Z42" si="22">U42*(1+V55)</f>
         <v>1198.7904764700702</v>
       </c>
-      <c r="W42" s="8">
+      <c r="W42" s="2">
         <f t="shared" si="22"/>
         <v>1318.6695241170773</v>
       </c>
-      <c r="X42" s="8">
+      <c r="X42" s="2">
         <f t="shared" si="22"/>
         <v>1450.5364765287852</v>
       </c>
-      <c r="Y42" s="8">
+      <c r="Y42" s="2">
         <f t="shared" si="22"/>
         <v>1595.5901241816639</v>
       </c>
-      <c r="Z42" s="8">
+      <c r="Z42" s="2">
         <f t="shared" si="22"/>
         <v>1755.1491365998304</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="2">
         <v>46.8</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="2">
         <v>49.7</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="2">
         <v>55.7</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="2">
         <v>68.8</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="2">
         <v>79.5</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="2">
         <v>60</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="2">
         <f t="shared" ref="J43:L43" si="23">I43*(1+J56)</f>
         <v>78.260869565217391</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="2">
         <f t="shared" si="23"/>
         <v>93.91304347826086</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L43" s="2">
         <f t="shared" si="23"/>
         <v>96.730434782608683</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="2">
         <f t="shared" ref="M43" si="24">L43*(1+M56)</f>
         <v>99.632347826086942</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="2">
         <f t="shared" ref="N43" si="25">M43*(1+N56)</f>
         <v>139.48528695652172</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="2">
         <v>85.1</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="2">
         <v>85.7</v>
       </c>
-      <c r="R43" s="8">
+      <c r="R43" s="2">
         <v>90.1</v>
       </c>
-      <c r="S43" s="8">
+      <c r="S43" s="2">
         <v>115</v>
       </c>
-      <c r="T43" s="8">
+      <c r="T43" s="2">
         <v>189.7</v>
       </c>
-      <c r="U43" s="8">
+      <c r="U43" s="2">
         <f>SUM(G43:J43)</f>
         <v>286.56086956521739</v>
       </c>
-      <c r="V43" s="8">
+      <c r="V43" s="2">
         <f t="shared" ref="V43:Z43" si="26">U43*(1+V55)</f>
         <v>515.97725782618477</v>
       </c>
-      <c r="W43" s="8">
+      <c r="W43" s="2">
         <f t="shared" si="26"/>
         <v>567.57498360880334</v>
       </c>
-      <c r="X43" s="8">
+      <c r="X43" s="2">
         <f t="shared" si="26"/>
         <v>624.33248196968373</v>
       </c>
-      <c r="Y43" s="8">
+      <c r="Y43" s="2">
         <f t="shared" si="26"/>
         <v>686.76573016665213</v>
       </c>
-      <c r="Z43" s="8">
+      <c r="Z43" s="2">
         <f t="shared" si="26"/>
         <v>755.44230318331745</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="2">
         <v>33.9</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="2">
         <v>53.1</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="2">
         <v>70.400000000000006</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="2">
         <v>65.2</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="2">
         <v>63.6</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="2">
         <v>70.599999999999994</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="2">
         <f t="shared" ref="J44:L44" si="27">I44*(1+J56)</f>
         <v>92.086956521739125</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="2">
         <f t="shared" si="27"/>
         <v>110.50434782608694</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="2">
         <f t="shared" si="27"/>
         <v>113.81947826086956</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="2">
         <f t="shared" ref="M44" si="28">L44*(1+M56)</f>
         <v>117.23406260869565</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="2">
         <f t="shared" ref="N44" si="29">M44*(1+N56)</f>
         <v>164.1276876521739</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="2">
         <v>134</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="2">
         <v>100.5</v>
       </c>
-      <c r="R44" s="8">
+      <c r="R44" s="2">
         <v>102.4</v>
       </c>
-      <c r="S44" s="8">
+      <c r="S44" s="2">
         <v>99.5</v>
       </c>
-      <c r="T44" s="8">
+      <c r="T44" s="2">
         <v>197.3</v>
       </c>
-      <c r="U44" s="8">
+      <c r="U44" s="2">
         <f>SUM(G44:J44)</f>
         <v>291.4869565217391</v>
       </c>
-      <c r="V44" s="8">
+      <c r="V44" s="2">
         <f t="shared" ref="V44:Z44" si="30">U44*(1+V55)</f>
         <v>524.84709704567024</v>
       </c>
-      <c r="W44" s="8">
+      <c r="W44" s="2">
         <f t="shared" si="30"/>
         <v>577.33180675023732</v>
       </c>
-      <c r="X44" s="8">
+      <c r="X44" s="2">
         <f t="shared" si="30"/>
         <v>635.06498742526105</v>
       </c>
-      <c r="Y44" s="8">
+      <c r="Y44" s="2">
         <f t="shared" si="30"/>
         <v>698.57148616778716</v>
       </c>
-      <c r="Z44" s="8">
+      <c r="Z44" s="2">
         <f t="shared" si="30"/>
         <v>768.42863478456593</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="8">
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2">
         <f>SUM(C42:C44)</f>
         <v>182.1</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="2">
         <f t="shared" ref="D45:F45" si="31">SUM(D42:D44)</f>
         <v>192.8</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="2">
         <f t="shared" si="31"/>
         <v>219</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="2">
         <f t="shared" si="31"/>
         <v>253.00000000000003</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="2">
         <f>SUM(G42:G44)</f>
         <v>266.2</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="2">
         <f>SUM(H42:H44)</f>
         <v>301.3</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="2">
         <f t="shared" ref="I45:L45" si="32">SUM(I42:I44)</f>
         <v>293.5</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="2">
         <f t="shared" si="32"/>
         <v>382.82608695652175</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="2">
         <f t="shared" si="32"/>
         <v>419.02043478260867</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="2">
         <f t="shared" si="32"/>
         <v>427.29898695652173</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="2">
         <f t="shared" ref="M45:N45" si="33">SUM(M42:M44)</f>
         <v>435.78297508695647</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="2">
         <f t="shared" si="33"/>
         <v>524.71870490739127</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="2">
         <f t="shared" ref="P45:R45" si="34">SUM(P42:P44)</f>
         <v>440.6</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="2">
         <f t="shared" si="34"/>
         <v>410.6</v>
       </c>
-      <c r="R45" s="8">
+      <c r="R45" s="2">
         <f t="shared" si="34"/>
         <v>464.79999999999995</v>
       </c>
-      <c r="S45" s="8">
+      <c r="S45" s="2">
         <f t="shared" ref="S45:T45" si="35">SUM(S42:S44)</f>
         <v>521.76</v>
       </c>
-      <c r="T45" s="8">
+      <c r="T45" s="2">
         <f t="shared" si="35"/>
         <v>850.5</v>
       </c>
-      <c r="U45" s="8">
+      <c r="U45" s="2">
         <f t="shared" ref="U45:Z45" si="36">SUM(U42:U44)</f>
         <v>1243.8260869565217</v>
       </c>
-      <c r="V45" s="8">
+      <c r="V45" s="2">
         <f t="shared" si="36"/>
         <v>2239.6148313419253</v>
       </c>
-      <c r="W45" s="8">
+      <c r="W45" s="2">
         <f t="shared" si="36"/>
         <v>2463.5763144761181</v>
       </c>
-      <c r="X45" s="8">
+      <c r="X45" s="2">
         <f t="shared" si="36"/>
         <v>2709.9339459237299</v>
       </c>
-      <c r="Y45" s="8">
+      <c r="Y45" s="2">
         <f t="shared" si="36"/>
         <v>2980.927340516103</v>
       </c>
-      <c r="Z45" s="8">
+      <c r="Z45" s="2">
         <f t="shared" si="36"/>
         <v>3279.0200745677139</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="2">
+    <row r="46" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="8">
         <f>C41-C45</f>
         <v>1583.9</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="8">
         <f t="shared" ref="D46:F46" si="37">D41-D45</f>
         <v>371.50000000000017</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="8">
         <f t="shared" si="37"/>
         <v>378.30000000000018</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="8">
         <f t="shared" si="37"/>
         <v>343.30000000000018</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="8">
         <f>G41-G45</f>
         <v>509.19999999999965</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="8">
         <f>H41-H45</f>
         <v>368.80000000000035</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="8">
         <f t="shared" ref="I46:L46" si="38">I41-I45</f>
         <v>147.5</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="8">
         <f t="shared" si="38"/>
         <v>337.17391304347825</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="8">
         <f t="shared" si="38"/>
         <v>444.97956521739133</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="8">
         <f t="shared" si="38"/>
         <v>462.62101304347834</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="8">
         <f t="shared" ref="M46:N46" si="39">M41-M45</f>
         <v>480.83462491304311</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="8">
         <f t="shared" si="39"/>
         <v>758.54593509260815</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="8">
         <f t="shared" ref="P46:R46" si="40">P41-P45</f>
         <v>85.60000000000025</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="8">
         <f t="shared" si="40"/>
         <v>123.89999999999998</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46" s="8">
         <f t="shared" si="40"/>
         <v>335.20000000000005</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="8">
         <f t="shared" ref="S46:T46" si="41">S41-S45</f>
         <v>761.24</v>
       </c>
-      <c r="T46" s="2">
+      <c r="T46" s="8">
         <f t="shared" si="41"/>
         <v>1210.9000000000015</v>
       </c>
-      <c r="U46" s="2">
+      <c r="U46" s="8">
         <f t="shared" ref="U46:V46" si="42">U41-U45</f>
         <v>1362.6739130434783</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V46" s="8">
         <f t="shared" si="42"/>
         <v>2760.3851686580747</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W46" s="8">
         <f t="shared" ref="W46" si="43">W41-W45</f>
         <v>3146.4236855238819</v>
       </c>
-      <c r="X46" s="2">
+      <c r="X46" s="8">
         <f t="shared" ref="X46" si="44">X41-X45</f>
         <v>3584.4860540762684</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="Y46" s="8">
         <f t="shared" ref="Y46:Z46" si="45">Y41-Y45</f>
         <v>3940.2726594839014</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="Z46" s="8">
         <f t="shared" si="45"/>
         <v>4334.2999254322858</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="B47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="2">
         <v>6.6</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="2">
         <v>-8</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="2">
         <v>10</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="2">
         <v>14</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="2">
         <v>7.2</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="2">
         <v>12.9</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="2">
         <v>-18.3</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P47" s="2">
         <v>1.4</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="2">
         <v>-2.8</v>
       </c>
-      <c r="R47" s="8">
+      <c r="R47" s="2">
         <v>8.1</v>
       </c>
-      <c r="T47" s="8">
+      <c r="T47" s="2">
         <v>22.7</v>
       </c>
-      <c r="U47" s="8">
+      <c r="U47" s="2">
         <f>SUM(G47:J47)</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-8</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-6.3</v>
+      </c>
+      <c r="F48" s="2">
+        <v>-3.1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-17.3</v>
+      </c>
+      <c r="H48" s="2">
+        <v>-6.5</v>
+      </c>
+      <c r="I48" s="2">
+        <v>-13.4</v>
+      </c>
+      <c r="J48" s="2">
+        <f>I63*$AC$55/4</f>
+        <v>-0.40900000000000092</v>
+      </c>
+      <c r="K48" s="2">
+        <f>J63*$AC$55/4</f>
+        <v>1.0222508804347816</v>
+      </c>
+      <c r="L48" s="2">
+        <f>K63*$AC$55/4</f>
+        <v>2.917758598850543</v>
+      </c>
+      <c r="M48" s="2">
+        <f>L63*$AC$55/4</f>
+        <v>4.8962983783304406</v>
+      </c>
+      <c r="N48" s="2">
+        <f>M63*$AC$55/4</f>
+        <v>6.9606548023187775</v>
+      </c>
+      <c r="P48" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="R48" s="2">
+        <v>-6.4</v>
+      </c>
+      <c r="T48" s="2">
+        <v>-19.350000000000001</v>
+      </c>
+      <c r="U48" s="2">
+        <f>SUM(G48:J48)</f>
+        <v>-37.609000000000002</v>
+      </c>
+      <c r="V48" s="2">
+        <f>U63*$AC$55</f>
+        <v>4.0890035217391265</v>
+      </c>
+      <c r="W48" s="2">
+        <f>V63*$AC$55</f>
+        <v>48.88902332443471</v>
+      </c>
+      <c r="X48" s="2">
+        <f>W63*$AC$55</f>
+        <v>100.8388674964103</v>
+      </c>
+      <c r="Y48" s="2">
+        <f>X63*$AC$55</f>
+        <v>160.92431892237406</v>
+      </c>
+      <c r="Z48" s="2">
+        <f>Y63*$AC$55</f>
+        <v>227.97522238446072</v>
+      </c>
+    </row>
+    <row r="49" spans="2:92" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="8">
-        <v>-1.8</v>
-      </c>
-      <c r="D48" s="8">
-        <v>-8</v>
-      </c>
-      <c r="E48" s="8">
-        <v>-6.3</v>
-      </c>
-      <c r="F48" s="8">
-        <v>-3.1</v>
-      </c>
-      <c r="G48" s="8">
-        <v>-17.3</v>
-      </c>
-      <c r="H48" s="8">
-        <v>-6.5</v>
-      </c>
-      <c r="I48" s="8">
-        <v>-13.4</v>
-      </c>
-      <c r="J48" s="8">
-        <f>I63*$AC$55/4</f>
-        <v>-1.2270000000000028</v>
-      </c>
-      <c r="K48" s="8">
-        <f>J63*$AC$55/4</f>
-        <v>3.0563231413043455</v>
-      </c>
-      <c r="L48" s="8">
-        <f>K63*$AC$55/4</f>
-        <v>8.768780717877716</v>
-      </c>
-      <c r="M48" s="8">
-        <f>L63*$AC$55/4</f>
-        <v>14.779000588335006</v>
-      </c>
-      <c r="N48" s="8">
-        <f>M63*$AC$55/4</f>
-        <v>21.098074313477575</v>
-      </c>
-      <c r="P48" s="8">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="Q48" s="8">
-        <v>-2.5</v>
-      </c>
-      <c r="R48" s="8">
-        <v>-6.4</v>
-      </c>
-      <c r="T48" s="8">
-        <v>-19.350000000000001</v>
-      </c>
-      <c r="U48" s="8">
-        <f>SUM(G48:J48)</f>
-        <v>-38.427000000000007</v>
-      </c>
-      <c r="V48" s="8">
-        <f>U63*$AC$55</f>
-        <v>12.225292565217382</v>
-      </c>
-      <c r="W48" s="8">
-        <f>V63*$AC$55</f>
-        <v>147.11352931591284</v>
-      </c>
-      <c r="X48" s="8">
-        <f>W63*$AC$55</f>
-        <v>308.85653219132826</v>
-      </c>
-      <c r="Y48" s="8">
-        <f>X63*$AC$55</f>
-        <v>501.59394635091462</v>
-      </c>
-      <c r="Z48" s="8">
-        <f>Y63*$AC$55</f>
-        <v>723.18683438288713</v>
-      </c>
-    </row>
-    <row r="49" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="C49" s="2">
         <f>C46+SUM(C47:C48)</f>
         <v>1588.7</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="2">
         <f t="shared" ref="D49:F49" si="46">D46+SUM(D47:D48)</f>
         <v>355.50000000000017</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="2">
         <f t="shared" si="46"/>
         <v>382.00000000000017</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="2">
         <f t="shared" si="46"/>
         <v>354.20000000000016</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="2">
         <f>G46+SUM(G47:G48)</f>
         <v>499.09999999999962</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="2">
         <f>H46+SUM(H47:H48)</f>
         <v>375.20000000000033</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="2">
         <f t="shared" ref="I49:L49" si="47">I46+SUM(I47:I48)</f>
         <v>115.8</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="2">
         <f t="shared" si="47"/>
-        <v>335.94691304347828</v>
-      </c>
-      <c r="K49" s="8">
+        <v>336.76491304347826</v>
+      </c>
+      <c r="K49" s="2">
         <f t="shared" si="47"/>
-        <v>448.03588835869567</v>
-      </c>
-      <c r="L49" s="8">
+        <v>446.00181609782612</v>
+      </c>
+      <c r="L49" s="2">
         <f t="shared" si="47"/>
-        <v>471.38979376135603</v>
-      </c>
-      <c r="M49" s="8">
+        <v>465.53877164232887</v>
+      </c>
+      <c r="M49" s="2">
         <f t="shared" ref="M49:N49" si="48">M46+SUM(M47:M48)</f>
-        <v>495.61362550137812</v>
-      </c>
-      <c r="N49" s="8">
+        <v>485.73092329137353</v>
+      </c>
+      <c r="N49" s="2">
         <f t="shared" si="48"/>
-        <v>779.64400940608573</v>
-      </c>
-      <c r="P49" s="8">
+        <v>765.50658989492695</v>
+      </c>
+      <c r="P49" s="2">
         <f t="shared" ref="P49:R49" si="49">P46+SUM(P47:P48)</f>
         <v>84.800000000000253</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="2">
         <f t="shared" si="49"/>
         <v>118.59999999999998</v>
       </c>
-      <c r="R49" s="8">
+      <c r="R49" s="2">
         <f t="shared" si="49"/>
         <v>336.90000000000003</v>
       </c>
-      <c r="S49" s="8">
+      <c r="S49" s="2">
         <f t="shared" ref="S49:T49" si="50">S46+SUM(S47:S48)</f>
         <v>761.24</v>
       </c>
-      <c r="T49" s="8">
+      <c r="T49" s="2">
         <f t="shared" si="50"/>
         <v>1214.2500000000014</v>
       </c>
-      <c r="U49" s="8">
+      <c r="U49" s="2">
         <f t="shared" ref="U49:V49" si="51">U46+SUM(U47:U48)</f>
-        <v>1326.0469130434783</v>
-      </c>
-      <c r="V49" s="8">
+        <v>1326.8649130434783</v>
+      </c>
+      <c r="V49" s="2">
         <f t="shared" si="51"/>
-        <v>2772.6104612232921</v>
-      </c>
-      <c r="W49" s="8">
+        <v>2764.4741721798136</v>
+      </c>
+      <c r="W49" s="2">
         <f t="shared" ref="W49" si="52">W46+SUM(W47:W48)</f>
-        <v>3293.5372148397946</v>
-      </c>
-      <c r="X49" s="8">
+        <v>3195.3127088483166</v>
+      </c>
+      <c r="X49" s="2">
         <f t="shared" ref="X49" si="53">X46+SUM(X47:X48)</f>
-        <v>3893.3425862675967</v>
-      </c>
-      <c r="Y49" s="8">
+        <v>3685.3249215726787</v>
+      </c>
+      <c r="Y49" s="2">
         <f t="shared" ref="Y49:Z49" si="54">Y46+SUM(Y47:Y48)</f>
-        <v>4441.8666058348163</v>
-      </c>
-      <c r="Z49" s="8">
+        <v>4101.1969784062758</v>
+      </c>
+      <c r="Z49" s="2">
         <f t="shared" si="54"/>
-        <v>5057.4867598151732</v>
+        <v>4562.2751478167465</v>
       </c>
     </row>
     <row r="50" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B50" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="2">
         <v>20.2</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="2">
         <v>-61.5</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="2">
         <v>-20</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="2">
         <v>1</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="2">
         <v>74.7</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="2">
         <v>56.9</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="2">
         <v>5.8</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="2">
         <f>J49*J57</f>
-        <v>50.392036956521743</v>
-      </c>
-      <c r="K50" s="8">
+        <v>50.514736956521737</v>
+      </c>
+      <c r="K50" s="2">
         <f t="shared" ref="K50:N50" si="55">K49*K57</f>
-        <v>67.205383253804342</v>
-      </c>
-      <c r="L50" s="8">
+        <v>66.900272414673921</v>
+      </c>
+      <c r="L50" s="2">
         <f t="shared" si="55"/>
-        <v>70.708469064203399</v>
-      </c>
-      <c r="M50" s="8">
+        <v>69.83081574634933</v>
+      </c>
+      <c r="M50" s="2">
         <f t="shared" si="55"/>
-        <v>74.342043825206716</v>
-      </c>
-      <c r="N50" s="8">
+        <v>72.859638493706029</v>
+      </c>
+      <c r="N50" s="2">
         <f t="shared" si="55"/>
-        <v>116.94660141091285</v>
-      </c>
-      <c r="P50" s="8">
+        <v>114.82598848423903</v>
+      </c>
+      <c r="P50" s="2">
         <v>2.9</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="Q50" s="2">
         <v>6.9</v>
       </c>
-      <c r="R50" s="8">
+      <c r="R50" s="2">
         <v>52.9</v>
       </c>
-      <c r="S50" s="8">
+      <c r="S50" s="2">
         <v>110.6</v>
       </c>
-      <c r="T50" s="8">
+      <c r="T50" s="2">
         <v>63.3</v>
       </c>
-      <c r="U50" s="8">
+      <c r="U50" s="2">
         <f>SUM(G50:J50)</f>
-        <v>187.79203695652174</v>
-      </c>
-      <c r="V50" s="8">
+        <v>187.91473695652175</v>
+      </c>
+      <c r="V50" s="2">
         <f t="shared" ref="V50:Z50" si="56">V57*V46</f>
         <v>524.47318204503415</v>
       </c>
-      <c r="W50" s="8">
+      <c r="W50" s="2">
         <f t="shared" si="56"/>
         <v>597.82050024953753</v>
       </c>
-      <c r="X50" s="8">
+      <c r="X50" s="2">
         <f t="shared" si="56"/>
         <v>681.052350274491</v>
       </c>
-      <c r="Y50" s="8">
+      <c r="Y50" s="2">
         <f t="shared" si="56"/>
         <v>748.65180530194129</v>
       </c>
-      <c r="Z50" s="8">
+      <c r="Z50" s="2">
         <f t="shared" si="56"/>
         <v>823.51698583213431</v>
       </c>
     </row>
-    <row r="51" spans="2:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="2">
+    <row r="51" spans="2:92" x14ac:dyDescent="0.2">
+      <c r="B51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="8">
         <f>C49-C50</f>
         <v>1568.5</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="8">
         <f t="shared" ref="D51:F51" si="57">D49-D50</f>
         <v>417.00000000000017</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="8">
         <f t="shared" si="57"/>
         <v>402.00000000000017</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="8">
         <f t="shared" si="57"/>
         <v>353.20000000000016</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="8">
         <f>G49-G50</f>
         <v>424.39999999999964</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="8">
         <f>H49-H50</f>
         <v>318.30000000000035</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="8">
         <f>I49-I50</f>
         <v>110</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="8">
         <f>J49-J50</f>
-        <v>285.55487608695654</v>
-      </c>
-      <c r="K51" s="2">
+        <v>286.25017608695651</v>
+      </c>
+      <c r="K51" s="8">
         <f t="shared" ref="K51:L51" si="58">K49-K50</f>
-        <v>380.83050510489136</v>
-      </c>
-      <c r="L51" s="2">
+        <v>379.10154368315222</v>
+      </c>
+      <c r="L51" s="8">
         <f t="shared" si="58"/>
-        <v>400.6813246971526</v>
-      </c>
-      <c r="M51" s="2">
+        <v>395.70795589597952</v>
+      </c>
+      <c r="M51" s="8">
         <f t="shared" ref="M51:N51" si="59">M49-M50</f>
-        <v>421.27158167617142</v>
-      </c>
-      <c r="N51" s="2">
+        <v>412.8712847976675</v>
+      </c>
+      <c r="N51" s="8">
         <f t="shared" si="59"/>
-        <v>662.69740799517285</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2">
+        <v>650.68060141068793</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8">
         <f t="shared" ref="P51:R51" si="60">P49-P50</f>
         <v>81.900000000000247</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="8">
         <f t="shared" si="60"/>
         <v>111.69999999999997</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="8">
         <f t="shared" si="60"/>
         <v>284.00000000000006</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="8">
         <f t="shared" ref="S51:Y51" si="61">S49-S50</f>
         <v>650.64</v>
       </c>
-      <c r="T51" s="2">
+      <c r="T51" s="8">
         <f t="shared" si="61"/>
         <v>1150.9500000000014</v>
       </c>
-      <c r="U51" s="2">
+      <c r="U51" s="8">
         <f t="shared" si="61"/>
-        <v>1138.2548760869565</v>
-      </c>
-      <c r="V51" s="2">
+        <v>1138.9501760869566</v>
+      </c>
+      <c r="V51" s="8">
         <f t="shared" si="61"/>
-        <v>2248.1372791782578</v>
-      </c>
-      <c r="W51" s="2">
+        <v>2240.0009901347794</v>
+      </c>
+      <c r="W51" s="8">
         <f t="shared" si="61"/>
-        <v>2695.7167145902572</v>
-      </c>
-      <c r="X51" s="2">
+        <v>2597.4922085987791</v>
+      </c>
+      <c r="X51" s="8">
         <f t="shared" si="61"/>
-        <v>3212.2902359931059</v>
-      </c>
-      <c r="Y51" s="2">
+        <v>3004.2725712981878</v>
+      </c>
+      <c r="Y51" s="8">
         <f t="shared" si="61"/>
-        <v>3693.214800532875</v>
-      </c>
-      <c r="Z51" s="2">
+        <v>3352.5451731043345</v>
+      </c>
+      <c r="Z51" s="8">
         <f t="shared" ref="Z51" si="62">Z49-Z50</f>
-        <v>4233.969773983039</v>
-      </c>
-      <c r="AA51" s="2">
+        <v>3738.7581619846123</v>
+      </c>
+      <c r="AA51" s="8">
         <f t="shared" ref="AA51:BF51" si="63">Z51*(1+$AC$56)</f>
-        <v>4318.6491694627002</v>
-      </c>
-      <c r="AB51" s="2">
+        <v>3813.5333252243045</v>
+      </c>
+      <c r="AB51" s="8">
         <f t="shared" si="63"/>
-        <v>4405.0221528519542</v>
-      </c>
-      <c r="AC51" s="2">
+        <v>3889.8039917287906</v>
+      </c>
+      <c r="AC51" s="8">
         <f t="shared" si="63"/>
-        <v>4493.1225959089934</v>
-      </c>
-      <c r="AD51" s="2">
+        <v>3967.6000715633663</v>
+      </c>
+      <c r="AD51" s="8">
         <f t="shared" si="63"/>
-        <v>4582.9850478271737</v>
-      </c>
-      <c r="AE51" s="2">
+        <v>4046.9520729946339</v>
+      </c>
+      <c r="AE51" s="8">
         <f t="shared" si="63"/>
-        <v>4674.6447487837177</v>
-      </c>
-      <c r="AF51" s="2">
+        <v>4127.8911144545264</v>
+      </c>
+      <c r="AF51" s="8">
         <f t="shared" si="63"/>
-        <v>4768.1376437593917</v>
-      </c>
-      <c r="AG51" s="2">
+        <v>4210.4489367436172</v>
+      </c>
+      <c r="AG51" s="8">
         <f t="shared" si="63"/>
-        <v>4863.5003966345794</v>
-      </c>
-      <c r="AH51" s="2">
+        <v>4294.6579154784895</v>
+      </c>
+      <c r="AH51" s="8">
         <f t="shared" si="63"/>
-        <v>4960.7704045672708</v>
-      </c>
-      <c r="AI51" s="2">
+        <v>4380.5510737880595</v>
+      </c>
+      <c r="AI51" s="8">
         <f t="shared" si="63"/>
-        <v>5059.9858126586159</v>
-      </c>
-      <c r="AJ51" s="2">
+        <v>4468.1620952638204</v>
+      </c>
+      <c r="AJ51" s="8">
         <f t="shared" si="63"/>
-        <v>5161.1855289117884</v>
-      </c>
-      <c r="AK51" s="2">
+        <v>4557.5253371690969</v>
+      </c>
+      <c r="AK51" s="8">
         <f t="shared" si="63"/>
-        <v>5264.4092394900244</v>
-      </c>
-      <c r="AL51" s="2">
+        <v>4648.6758439124787</v>
+      </c>
+      <c r="AL51" s="8">
         <f t="shared" si="63"/>
-        <v>5369.6974242798251</v>
-      </c>
-      <c r="AM51" s="2">
+        <v>4741.6493607907287</v>
+      </c>
+      <c r="AM51" s="8">
         <f t="shared" si="63"/>
-        <v>5477.0913727654215</v>
-      </c>
-      <c r="AN51" s="2">
+        <v>4836.4823480065434</v>
+      </c>
+      <c r="AN51" s="8">
         <f t="shared" si="63"/>
-        <v>5586.63320022073</v>
-      </c>
-      <c r="AO51" s="2">
+        <v>4933.211994966674</v>
+      </c>
+      <c r="AO51" s="8">
         <f t="shared" si="63"/>
-        <v>5698.3658642251448</v>
-      </c>
-      <c r="AP51" s="2">
+        <v>5031.8762348660075</v>
+      </c>
+      <c r="AP51" s="8">
         <f t="shared" si="63"/>
-        <v>5812.3331815096481</v>
-      </c>
-      <c r="AQ51" s="2">
+        <v>5132.5137595633278</v>
+      </c>
+      <c r="AQ51" s="8">
         <f t="shared" si="63"/>
-        <v>5928.5798451398414</v>
-      </c>
-      <c r="AR51" s="2">
+        <v>5235.1640347545945</v>
+      </c>
+      <c r="AR51" s="8">
         <f t="shared" si="63"/>
-        <v>6047.1514420426383</v>
-      </c>
-      <c r="AS51" s="2">
+        <v>5339.8673154496864</v>
+      </c>
+      <c r="AS51" s="8">
         <f t="shared" si="63"/>
-        <v>6168.0944708834913</v>
-      </c>
-      <c r="AT51" s="2">
+        <v>5446.6646617586803</v>
+      </c>
+      <c r="AT51" s="8">
         <f t="shared" si="63"/>
-        <v>6291.4563603011611</v>
-      </c>
-      <c r="AU51" s="2">
+        <v>5555.5979549938538</v>
+      </c>
+      <c r="AU51" s="8">
         <f t="shared" si="63"/>
-        <v>6417.2854875071844</v>
-      </c>
-      <c r="AV51" s="2">
+        <v>5666.7099140937307</v>
+      </c>
+      <c r="AV51" s="8">
         <f t="shared" si="63"/>
-        <v>6545.6311972573285</v>
-      </c>
-      <c r="AW51" s="2">
+        <v>5780.0441123756054</v>
+      </c>
+      <c r="AW51" s="8">
         <f t="shared" si="63"/>
-        <v>6676.5438212024756</v>
-      </c>
-      <c r="AX51" s="2">
+        <v>5895.6449946231178</v>
+      </c>
+      <c r="AX51" s="8">
         <f t="shared" si="63"/>
-        <v>6810.0746976265254</v>
-      </c>
-      <c r="AY51" s="2">
+        <v>6013.5578945155803</v>
+      </c>
+      <c r="AY51" s="8">
         <f t="shared" si="63"/>
-        <v>6946.2761915790561</v>
-      </c>
-      <c r="AZ51" s="2">
+        <v>6133.8290524058921</v>
+      </c>
+      <c r="AZ51" s="8">
         <f t="shared" si="63"/>
-        <v>7085.201715410637</v>
-      </c>
-      <c r="BA51" s="2">
+        <v>6256.5056334540104</v>
+      </c>
+      <c r="BA51" s="8">
         <f t="shared" si="63"/>
-        <v>7226.9057497188496</v>
-      </c>
-      <c r="BB51" s="2">
+        <v>6381.6357461230909</v>
+      </c>
+      <c r="BB51" s="8">
         <f t="shared" si="63"/>
-        <v>7371.4438647132265</v>
-      </c>
-      <c r="BC51" s="2">
+        <v>6509.2684610455526</v>
+      </c>
+      <c r="BC51" s="8">
         <f t="shared" si="63"/>
-        <v>7518.8727420074911</v>
-      </c>
-      <c r="BD51" s="2">
+        <v>6639.4538302664641</v>
+      </c>
+      <c r="BD51" s="8">
         <f t="shared" si="63"/>
-        <v>7669.2501968476408</v>
-      </c>
-      <c r="BE51" s="2">
+        <v>6772.2429068717938</v>
+      </c>
+      <c r="BE51" s="8">
         <f t="shared" si="63"/>
-        <v>7822.6352007845935</v>
-      </c>
-      <c r="BF51" s="2">
+        <v>6907.6877650092301</v>
+      </c>
+      <c r="BF51" s="8">
         <f t="shared" si="63"/>
-        <v>7979.0879048002853</v>
-      </c>
-      <c r="BG51" s="2">
+        <v>7045.8415203094146</v>
+      </c>
+      <c r="BG51" s="8">
         <f t="shared" ref="BG51:CN51" si="64">BF51*(1+$AC$56)</f>
-        <v>8138.6696628962909</v>
-      </c>
-      <c r="BH51" s="2">
+        <v>7186.7583507156032</v>
+      </c>
+      <c r="BH51" s="8">
         <f t="shared" si="64"/>
-        <v>8301.4430561542176</v>
-      </c>
-      <c r="BI51" s="2">
+        <v>7330.4935177299158</v>
+      </c>
+      <c r="BI51" s="8">
         <f t="shared" si="64"/>
-        <v>8467.4719172773021</v>
-      </c>
-      <c r="BJ51" s="2">
+        <v>7477.1033880845143</v>
+      </c>
+      <c r="BJ51" s="8">
         <f t="shared" si="64"/>
-        <v>8636.8213556228475</v>
-      </c>
-      <c r="BK51" s="2">
+        <v>7626.6454558462046</v>
+      </c>
+      <c r="BK51" s="8">
         <f t="shared" si="64"/>
-        <v>8809.5577827353045</v>
-      </c>
-      <c r="BL51" s="2">
+        <v>7779.1783649631288</v>
+      </c>
+      <c r="BL51" s="8">
         <f t="shared" si="64"/>
-        <v>8985.7489383900102</v>
-      </c>
-      <c r="BM51" s="2">
+        <v>7934.7619322623914</v>
+      </c>
+      <c r="BM51" s="8">
         <f t="shared" si="64"/>
-        <v>9165.463917157811</v>
-      </c>
-      <c r="BN51" s="2">
+        <v>8093.457170907639</v>
+      </c>
+      <c r="BN51" s="8">
         <f t="shared" si="64"/>
-        <v>9348.7731955009676</v>
-      </c>
-      <c r="BO51" s="2">
+        <v>8255.3263143257918</v>
+      </c>
+      <c r="BO51" s="8">
         <f t="shared" si="64"/>
-        <v>9535.7486594109869</v>
-      </c>
-      <c r="BP51" s="2">
+        <v>8420.4328406123077</v>
+      </c>
+      <c r="BP51" s="8">
         <f t="shared" si="64"/>
-        <v>9726.4636325992069</v>
-      </c>
-      <c r="BQ51" s="2">
+        <v>8588.8414974245534</v>
+      </c>
+      <c r="BQ51" s="8">
         <f t="shared" si="64"/>
-        <v>9920.9929052511907</v>
-      </c>
-      <c r="BR51" s="2">
+        <v>8760.6183273730439</v>
+      </c>
+      <c r="BR51" s="8">
         <f t="shared" si="64"/>
-        <v>10119.412763356215</v>
-      </c>
-      <c r="BS51" s="2">
+        <v>8935.8306939205049</v>
+      </c>
+      <c r="BS51" s="8">
         <f t="shared" si="64"/>
-        <v>10321.801018623339</v>
-      </c>
-      <c r="BT51" s="2">
+        <v>9114.5473077989154</v>
+      </c>
+      <c r="BT51" s="8">
         <f t="shared" si="64"/>
-        <v>10528.237038995805</v>
-      </c>
-      <c r="BU51" s="2">
+        <v>9296.8382539548948</v>
+      </c>
+      <c r="BU51" s="8">
         <f t="shared" si="64"/>
-        <v>10738.801779775722</v>
-      </c>
-      <c r="BV51" s="2">
+        <v>9482.7750190339921</v>
+      </c>
+      <c r="BV51" s="8">
         <f t="shared" si="64"/>
-        <v>10953.577815371236</v>
-      </c>
-      <c r="BW51" s="2">
+        <v>9672.4305194146727</v>
+      </c>
+      <c r="BW51" s="8">
         <f t="shared" si="64"/>
-        <v>11172.649371678661</v>
-      </c>
-      <c r="BX51" s="2">
+        <v>9865.8791298029664</v>
+      </c>
+      <c r="BX51" s="8">
         <f t="shared" si="64"/>
-        <v>11396.102359112234</v>
-      </c>
-      <c r="BY51" s="2">
+        <v>10063.196712399025</v>
+      </c>
+      <c r="BY51" s="8">
         <f t="shared" si="64"/>
-        <v>11624.024406294478</v>
-      </c>
-      <c r="BZ51" s="2">
+        <v>10264.460646647007</v>
+      </c>
+      <c r="BZ51" s="8">
         <f t="shared" si="64"/>
-        <v>11856.504894420368</v>
-      </c>
-      <c r="CA51" s="2">
+        <v>10469.749859579948</v>
+      </c>
+      <c r="CA51" s="8">
         <f t="shared" si="64"/>
-        <v>12093.634992308776</v>
-      </c>
-      <c r="CB51" s="2">
+        <v>10679.144856771547</v>
+      </c>
+      <c r="CB51" s="8">
         <f t="shared" si="64"/>
-        <v>12335.507692154952</v>
-      </c>
-      <c r="CC51" s="2">
+        <v>10892.727753906978</v>
+      </c>
+      <c r="CC51" s="8">
         <f t="shared" si="64"/>
-        <v>12582.217845998051</v>
-      </c>
-      <c r="CD51" s="2">
+        <v>11110.582308985118</v>
+      </c>
+      <c r="CD51" s="8">
         <f t="shared" si="64"/>
-        <v>12833.862202918013</v>
-      </c>
-      <c r="CE51" s="2">
+        <v>11332.793955164821</v>
+      </c>
+      <c r="CE51" s="8">
         <f t="shared" si="64"/>
-        <v>13090.539446976374</v>
-      </c>
-      <c r="CF51" s="2">
+        <v>11559.449834268118</v>
+      </c>
+      <c r="CF51" s="8">
         <f t="shared" si="64"/>
-        <v>13352.350235915901</v>
-      </c>
-      <c r="CG51" s="2">
+        <v>11790.638830953481</v>
+      </c>
+      <c r="CG51" s="8">
         <f t="shared" si="64"/>
-        <v>13619.39724063422</v>
-      </c>
-      <c r="CH51" s="2">
+        <v>12026.451607572551</v>
+      </c>
+      <c r="CH51" s="8">
         <f t="shared" si="64"/>
-        <v>13891.785185446905</v>
-      </c>
-      <c r="CI51" s="2">
+        <v>12266.980639724003</v>
+      </c>
+      <c r="CI51" s="8">
         <f t="shared" si="64"/>
-        <v>14169.620889155844</v>
-      </c>
-      <c r="CJ51" s="2">
+        <v>12512.320252518482</v>
+      </c>
+      <c r="CJ51" s="8">
         <f t="shared" si="64"/>
-        <v>14453.013306938961</v>
-      </c>
-      <c r="CK51" s="2">
+        <v>12762.566657568852</v>
+      </c>
+      <c r="CK51" s="8">
         <f t="shared" si="64"/>
-        <v>14742.073573077741</v>
-      </c>
-      <c r="CL51" s="2">
+        <v>13017.817990720228</v>
+      </c>
+      <c r="CL51" s="8">
         <f t="shared" si="64"/>
-        <v>15036.915044539297</v>
-      </c>
-      <c r="CM51" s="2">
+        <v>13278.174350534633</v>
+      </c>
+      <c r="CM51" s="8">
         <f t="shared" si="64"/>
-        <v>15337.653345430082</v>
-      </c>
-      <c r="CN51" s="2">
+        <v>13543.737837545326</v>
+      </c>
+      <c r="CN51" s="8">
         <f t="shared" si="64"/>
-        <v>15644.406412338685</v>
+        <v>13814.612594296234</v>
       </c>
     </row>
     <row r="52" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B52" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="B52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="9">
         <f t="shared" ref="C52:N52" si="65">C51/C53</f>
         <v>2.9538606403013183</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="9">
         <f t="shared" si="65"/>
         <v>0.77079482439926095</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="9">
         <f t="shared" si="65"/>
         <v>0.71276595744680882</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="9">
         <f t="shared" si="65"/>
         <v>0.60170357751277714</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="9">
         <f t="shared" si="65"/>
         <v>0.71510292663118047</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="9">
         <f t="shared" si="65"/>
         <v>0.53632719497338643</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="9">
         <f t="shared" si="65"/>
         <v>0.18534712989969351</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="9">
         <f t="shared" si="65"/>
-        <v>0.4547052166989754</v>
-      </c>
-      <c r="K52" s="11">
+        <v>0.4558123823040709</v>
+      </c>
+      <c r="K52" s="9">
         <f t="shared" si="65"/>
-        <v>0.6064180017593811</v>
-      </c>
-      <c r="L52" s="11">
+        <v>0.60366487847635708</v>
+      </c>
+      <c r="L52" s="9">
         <f t="shared" si="65"/>
-        <v>0.63802758709737672</v>
-      </c>
-      <c r="M52" s="11">
+        <v>0.63010821002544515</v>
+      </c>
+      <c r="M52" s="9">
         <f t="shared" si="65"/>
-        <v>0.67081462050345764</v>
-      </c>
-      <c r="N52" s="11">
+        <v>0.6574383515886425</v>
+      </c>
+      <c r="N52" s="9">
         <f t="shared" si="65"/>
-        <v>1.0552506496738421</v>
-      </c>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11">
+        <v>1.0361156073418598</v>
+      </c>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9">
         <f t="shared" ref="P52:Z52" si="66">P51/P53</f>
         <v>0.16058823529411814</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q52" s="9">
         <f t="shared" si="66"/>
         <v>0.21859099804305279</v>
       </c>
-      <c r="R52" s="11">
+      <c r="R52" s="9">
         <f t="shared" si="66"/>
         <v>0.55252918287937758</v>
       </c>
-      <c r="S52" s="11" t="e">
+      <c r="S52" s="9" t="e">
         <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T52" s="11">
+      <c r="T52" s="9">
         <f t="shared" si="66"/>
         <v>1.939320719618659</v>
       </c>
-      <c r="U52" s="11">
+      <c r="U52" s="9">
         <f t="shared" si="66"/>
-        <v>1.8125077644696761</v>
-      </c>
-      <c r="V52" s="11">
+        <v>1.8136149300747717</v>
+      </c>
+      <c r="V52" s="9">
         <f t="shared" si="66"/>
-        <v>3.5798364318125127</v>
-      </c>
-      <c r="W52" s="11">
+        <v>3.5668805575394575</v>
+      </c>
+      <c r="W52" s="9">
         <f t="shared" si="66"/>
-        <v>4.2925425391564609</v>
-      </c>
-      <c r="X52" s="11">
+        <v>4.1361340901254442</v>
+      </c>
+      <c r="X52" s="9">
         <f t="shared" si="66"/>
-        <v>5.1151118407533529</v>
-      </c>
-      <c r="Y52" s="11">
+        <v>4.7838735211754582</v>
+      </c>
+      <c r="Y52" s="9">
         <f t="shared" si="66"/>
-        <v>5.8809152874727308</v>
-      </c>
-      <c r="Z52" s="11">
+        <v>5.3384477278731444</v>
+      </c>
+      <c r="Z52" s="9">
         <f t="shared" si="66"/>
-        <v>6.7419900859602535</v>
+        <v>5.953436563669765</v>
       </c>
     </row>
     <row r="53" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B53" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="8">
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
         <v>531</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="2">
         <v>541</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="2">
         <v>564</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="2">
         <v>587</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="2">
         <v>593.48099999999999</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="2">
         <v>593.48099999999999</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="2">
         <v>593.48099999999999</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="2">
         <v>628</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="2">
         <v>628</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L53" s="2">
         <v>628</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="2">
         <v>628</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="2">
         <v>628</v>
       </c>
-      <c r="P53" s="8">
+      <c r="P53" s="2">
         <v>510</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="Q53" s="2">
         <v>511</v>
       </c>
-      <c r="R53" s="8">
+      <c r="R53" s="2">
         <v>514</v>
       </c>
-      <c r="T53" s="8">
+      <c r="T53" s="2">
         <v>593.48099999999999</v>
       </c>
-      <c r="U53" s="8">
+      <c r="U53" s="2">
         <f>J53</f>
         <v>628</v>
       </c>
-      <c r="V53" s="8">
+      <c r="V53" s="2">
         <v>628</v>
       </c>
-      <c r="W53" s="8">
+      <c r="W53" s="2">
         <v>628</v>
       </c>
-      <c r="X53" s="8">
+      <c r="X53" s="2">
         <v>628</v>
       </c>
-      <c r="Y53" s="8">
+      <c r="Y53" s="2">
         <v>628</v>
       </c>
-      <c r="Z53" s="8">
+      <c r="Z53" s="2">
         <v>628</v>
       </c>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="13"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-    </row>
-    <row r="55" spans="2:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="3">
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+    </row>
+    <row r="55" spans="2:92" x14ac:dyDescent="0.2">
+      <c r="B55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="10">
         <f t="shared" ref="G55:N55" si="67">G39/C39-1</f>
         <v>1.8010001887148519</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="10">
         <f t="shared" si="67"/>
         <v>0.54929193156702771</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="10">
         <f t="shared" si="67"/>
         <v>0.19480519480519476</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="10">
         <f t="shared" si="67"/>
         <v>0.13032666440601348</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="10">
         <f t="shared" si="67"/>
         <v>0.21273370389085389</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="10">
         <f t="shared" si="67"/>
         <v>0.30609369496301508</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="10">
         <f t="shared" si="67"/>
         <v>0.66053913043478274</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="10">
         <f t="shared" si="67"/>
         <v>0.7823119999999999</v>
       </c>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="3">
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="10">
         <f t="shared" ref="Q55:V55" si="68">Q39/P39-1</f>
         <v>6.5313089569670302E-2</v>
       </c>
-      <c r="R55" s="3">
+      <c r="R55" s="10">
         <f t="shared" si="68"/>
         <v>0.46064541519086988</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S55" s="10">
         <f t="shared" si="68"/>
         <v>0.37091279998460358</v>
       </c>
-      <c r="T55" s="3">
+      <c r="T55" s="10">
         <f t="shared" si="68"/>
         <v>1.1042198949939639</v>
       </c>
-      <c r="U55" s="3">
+      <c r="U55" s="10">
         <f t="shared" si="68"/>
         <v>0.48206708830357847</v>
       </c>
-      <c r="V55" s="3">
+      <c r="V55" s="10">
         <f t="shared" si="68"/>
         <v>0.80058519018681062</v>
       </c>
-      <c r="W55" s="3">
+      <c r="W55" s="10">
         <f t="shared" ref="W55:Z55" si="69">W39/V39-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="X55" s="3">
+      <c r="X55" s="10">
         <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Y55" s="3">
+      <c r="Y55" s="10">
         <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Z55" s="3">
+      <c r="Z55" s="10">
         <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC55" s="13">
-        <v>0.06</v>
-      </c>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC55" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
     </row>
     <row r="56" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B56" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="13">
+      <c r="B56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="5">
         <f t="shared" ref="D56:N56" si="70">D39/C39-1</f>
         <v>0.72905265144366882</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="5">
         <f t="shared" si="70"/>
         <v>5.0506152964610251E-2</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="5">
         <f t="shared" si="70"/>
         <v>0.37875324675324662</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="5">
         <f t="shared" si="70"/>
         <v>0.11845823442975023</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="5">
         <f t="shared" si="70"/>
         <v>-4.362472629274039E-2</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="5">
         <f t="shared" si="70"/>
         <v>-0.18985558295174354</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="5">
         <f t="shared" si="70"/>
         <v>0.30434782608695654</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="5">
         <f t="shared" si="70"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="5">
         <f t="shared" si="70"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="5">
         <f t="shared" si="70"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="5">
         <f t="shared" si="70"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="AB56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC56" s="13">
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="AB56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC56" s="5">
         <v>0.02</v>
       </c>
     </row>
     <row r="57" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B57" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="13">
+      <c r="B57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="5">
         <f t="shared" ref="C57:I57" si="71">C50/C46</f>
         <v>1.2753330387019382E-2</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="5">
         <f t="shared" si="71"/>
         <v>-0.16554508748317623</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="5">
         <f t="shared" si="71"/>
         <v>-5.2868094105207479E-2</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="5">
         <f t="shared" si="71"/>
         <v>2.9129041654529552E-3</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="5">
         <f t="shared" si="71"/>
         <v>0.14670070699135909</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="5">
         <f t="shared" si="71"/>
         <v>0.15428416485900201</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="5">
         <f t="shared" si="71"/>
         <v>3.9322033898305082E-2</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="5">
         <v>0.15</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="5">
         <v>0.15</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="5">
         <v>0.15</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="5">
         <v>0.15</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N57" s="5">
         <v>0.15</v>
       </c>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13">
+      <c r="O57" s="5"/>
+      <c r="P57" s="5">
         <f t="shared" ref="P57:U57" si="72">P50/P46</f>
         <v>3.3878504672897096E-2</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="Q57" s="5">
         <f t="shared" si="72"/>
         <v>5.5690072639225194E-2</v>
       </c>
-      <c r="R57" s="13">
+      <c r="R57" s="5">
         <f t="shared" si="72"/>
         <v>0.15781622911694509</v>
       </c>
-      <c r="S57" s="13">
+      <c r="S57" s="5">
         <f t="shared" si="72"/>
         <v>0.14528926488361094</v>
       </c>
-      <c r="T57" s="13">
+      <c r="T57" s="5">
         <f t="shared" si="72"/>
         <v>5.2275167230985152E-2</v>
       </c>
-      <c r="U57" s="13">
+      <c r="U57" s="5">
         <f t="shared" si="72"/>
-        <v>0.13781142734074631</v>
-      </c>
-      <c r="V57" s="13">
+        <v>0.13790147089322466</v>
+      </c>
+      <c r="V57" s="5">
         <v>0.19</v>
       </c>
-      <c r="W57" s="13">
+      <c r="W57" s="5">
         <v>0.19</v>
       </c>
-      <c r="X57" s="13">
+      <c r="X57" s="5">
         <v>0.19</v>
       </c>
-      <c r="Y57" s="13">
+      <c r="Y57" s="5">
         <v>0.19</v>
       </c>
-      <c r="Z57" s="13">
+      <c r="Z57" s="5">
         <v>0.19</v>
       </c>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC57" s="14">
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC57" s="6">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
-    </row>
-    <row r="58" spans="2:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC58" s="2">
-        <f>NPV(AC57,V51:CN51)+main!F16-main!F17</f>
-        <v>47633.665544611489</v>
-      </c>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13"/>
-    </row>
-    <row r="59" spans="2:92" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+    </row>
+    <row r="58" spans="2:92" x14ac:dyDescent="0.2">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC58" s="8">
+        <f>NPV(AC57,V51:CN51)+Main!N6-Main!N7</f>
+        <v>42595.749167282236</v>
+      </c>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+    </row>
+    <row r="59" spans="2:92" x14ac:dyDescent="0.2">
+      <c r="B59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="10">
         <f t="shared" ref="C59:I59" si="73">C41/C39</f>
         <v>0.83317607095678436</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="10">
         <f t="shared" si="73"/>
         <v>0.15397418756309864</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="10">
         <f t="shared" si="73"/>
         <v>0.15514285714285719</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="10">
         <f t="shared" si="73"/>
         <v>0.11233563166421766</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="10">
         <f t="shared" si="73"/>
         <v>0.13060468249957885</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="10">
         <f t="shared" si="73"/>
         <v>0.11801690736174716</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="10">
         <f t="shared" si="73"/>
         <v>9.5869565217391303E-2</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="10">
         <v>0.12</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="10">
         <v>0.12</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="10">
         <v>0.12</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="10">
         <v>0.12</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="10">
         <v>0.12</v>
       </c>
-      <c r="O59" s="3"/>
-      <c r="P59" s="17">
+      <c r="O59" s="10"/>
+      <c r="P59" s="12">
         <f t="shared" ref="P59:U59" si="74">P41/P39</f>
         <v>0.1575779354954632</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q59" s="12">
         <f t="shared" si="74"/>
         <v>0.15025018271771517</v>
       </c>
-      <c r="R59" s="17">
+      <c r="R59" s="12">
         <f t="shared" si="74"/>
         <v>0.15396162506495256</v>
       </c>
-      <c r="S59" s="17">
+      <c r="S59" s="12">
         <f t="shared" si="74"/>
         <v>0.18011062133250977</v>
       </c>
-      <c r="T59" s="17">
+      <c r="T59" s="12">
         <f t="shared" si="74"/>
         <v>0.13752568515998195</v>
       </c>
-      <c r="U59" s="17">
+      <c r="U59" s="12">
         <f t="shared" si="74"/>
         <v>0.11733063245554805</v>
       </c>
-      <c r="V59" s="17">
+      <c r="V59" s="12">
         <v>0.125</v>
       </c>
-      <c r="W59" s="17">
+      <c r="W59" s="12">
         <f>V59*1.02</f>
         <v>0.1275</v>
       </c>
-      <c r="X59" s="17">
+      <c r="X59" s="12">
         <f t="shared" ref="X59" si="75">W59*1.02</f>
         <v>0.13005</v>
       </c>
-      <c r="Y59" s="17">
+      <c r="Y59" s="12">
         <v>0.13</v>
       </c>
-      <c r="Z59" s="17">
+      <c r="Z59" s="12">
         <v>0.13</v>
       </c>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="15">
-        <f>AC58/main!F14</f>
-        <v>79.812448551676354</v>
-      </c>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="13">
+        <f>AC58/Main!N4</f>
+        <v>71.37118254629911</v>
+      </c>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
     </row>
     <row r="60" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B60" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="13" t="e">
+      <c r="B60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="5" t="e">
         <f>#REF!/C39</f>
         <v>#REF!</v>
       </c>
-      <c r="D60" s="13" t="e">
+      <c r="D60" s="5" t="e">
         <f>#REF!/D39</f>
         <v>#REF!</v>
       </c>
-      <c r="E60" s="13" t="e">
+      <c r="E60" s="5" t="e">
         <f>#REF!/E39</f>
         <v>#REF!</v>
       </c>
-      <c r="F60" s="13" t="e">
+      <c r="F60" s="5" t="e">
         <f>#REF!/F39</f>
         <v>#REF!</v>
       </c>
-      <c r="G60" s="13" t="e">
+      <c r="G60" s="5" t="e">
         <f>#REF!/G39</f>
         <v>#REF!</v>
       </c>
-      <c r="H60" s="13" t="e">
+      <c r="H60" s="5" t="e">
         <f>#REF!/H39</f>
         <v>#REF!</v>
       </c>
-      <c r="I60" s="13" t="e">
+      <c r="I60" s="5" t="e">
         <f>#REF!/I39</f>
         <v>#REF!</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="5">
         <v>6.2E-2</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K60" s="5">
         <v>6.2E-2</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N60" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13">
+      <c r="O60" s="5"/>
+      <c r="P60" s="5">
         <f>P108/P39</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="13">
+      <c r="Q60" s="5">
         <f t="shared" ref="Q60:Z60" si="76">Q108/Q39</f>
         <v>0</v>
       </c>
-      <c r="R60" s="13">
+      <c r="R60" s="5">
         <f t="shared" si="76"/>
         <v>-9.3493196820692417E-2</v>
       </c>
-      <c r="S60" s="13">
+      <c r="S60" s="5">
         <f t="shared" si="76"/>
         <v>8.7977651121655398E-2</v>
       </c>
-      <c r="T60" s="13">
+      <c r="T60" s="5">
         <f t="shared" si="76"/>
         <v>-0.17412937314866705</v>
       </c>
-      <c r="U60" s="13">
+      <c r="U60" s="5">
         <f t="shared" si="76"/>
-        <v>5.8183526896241282E-2</v>
-      </c>
-      <c r="V60" s="13">
+        <v>5.8214825568309682E-2</v>
+      </c>
+      <c r="V60" s="5">
         <f t="shared" si="76"/>
-        <v>7.37614519228946E-2</v>
-      </c>
-      <c r="W60" s="13">
+        <v>7.3558044696807628E-2</v>
+      </c>
+      <c r="W60" s="5">
         <f t="shared" si="76"/>
-        <v>7.8824308911398522E-2</v>
-      </c>
-      <c r="X60" s="13">
+        <v>7.6591933775228577E-2</v>
+      </c>
+      <c r="X60" s="5">
         <f t="shared" si="76"/>
-        <v>8.3927652918502307E-2</v>
-      </c>
-      <c r="Y60" s="13">
+        <v>7.9629767284309774E-2</v>
+      </c>
+      <c r="Y60" s="5">
         <f t="shared" si="76"/>
-        <v>8.6927193507166045E-2</v>
-      </c>
-      <c r="Z60" s="13">
+        <v>8.052844017454884E-2</v>
+      </c>
+      <c r="Z60" s="5">
         <f t="shared" si="76"/>
-        <v>8.9854478074423677E-2</v>
-      </c>
-      <c r="AA60" s="13"/>
-      <c r="AB60" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC60" s="13">
-        <f>AC59/main!F13-1</f>
-        <v>1.0464730397865734</v>
-      </c>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="13"/>
+        <v>8.1398573218224884E-2</v>
+      </c>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC60" s="5">
+        <f>AC59/Main!N3-1</f>
+        <v>0.83003032169997715</v>
+      </c>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
     </row>
     <row r="61" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B61" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="13">
+      <c r="B61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="5">
         <f t="shared" ref="C61:N61" si="77">C45/C39</f>
         <v>8.5912436308737503E-2</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="5">
         <f t="shared" si="77"/>
         <v>5.2607165270539442E-2</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="5">
         <f t="shared" si="77"/>
         <v>5.6883116883116883E-2</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="5">
         <f t="shared" si="77"/>
         <v>4.7662107682453568E-2</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="5">
         <f t="shared" si="77"/>
         <v>4.4837459996631295E-2</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="5">
         <f t="shared" si="77"/>
         <v>5.3064459316660796E-2</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="5">
         <f t="shared" si="77"/>
         <v>6.380434782608696E-2</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="5">
         <f t="shared" si="77"/>
         <v>6.380434782608696E-2</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K61" s="5">
         <f t="shared" si="77"/>
         <v>5.8197282608695652E-2</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="5">
         <f t="shared" si="77"/>
         <v>5.7618525749261289E-2</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M61" s="5">
         <f t="shared" si="77"/>
         <v>5.7051006887097494E-2</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N61" s="5">
         <f t="shared" si="77"/>
         <v>4.9067232608300461E-2</v>
       </c>
-      <c r="O61" s="13"/>
-      <c r="P61" s="14">
+      <c r="O61" s="5"/>
+      <c r="P61" s="6">
         <f t="shared" ref="P61:Z61" si="78">P45/P39</f>
         <v>0.13194382056119547</v>
       </c>
-      <c r="Q61" s="14">
+      <c r="Q61" s="6">
         <f t="shared" si="78"/>
         <v>0.11542137516163491</v>
       </c>
-      <c r="R61" s="14">
+      <c r="R61" s="6">
         <f t="shared" si="78"/>
         <v>8.9451704162737428E-2</v>
       </c>
-      <c r="S61" s="14">
+      <c r="S61" s="6">
         <f t="shared" si="78"/>
         <v>7.3245921891231719E-2</v>
       </c>
-      <c r="T61" s="14">
+      <c r="T61" s="6">
         <f t="shared" si="78"/>
         <v>5.6740853414458406E-2</v>
       </c>
-      <c r="U61" s="14">
+      <c r="U61" s="6">
         <f t="shared" si="78"/>
         <v>5.5990370783548134E-2</v>
       </c>
-      <c r="V61" s="14">
+      <c r="V61" s="6">
         <f t="shared" si="78"/>
         <v>5.5990370783548134E-2</v>
       </c>
-      <c r="W61" s="14">
+      <c r="W61" s="6">
         <f t="shared" si="78"/>
         <v>5.5990370783548141E-2</v>
       </c>
-      <c r="X61" s="14">
+      <c r="X61" s="6">
         <f t="shared" si="78"/>
         <v>5.5990370783548127E-2</v>
       </c>
-      <c r="Y61" s="14">
+      <c r="Y61" s="6">
         <f t="shared" si="78"/>
         <v>5.5990370783548127E-2</v>
       </c>
-      <c r="Z61" s="14">
+      <c r="Z61" s="6">
         <f t="shared" si="78"/>
         <v>5.5990370783548127E-2</v>
       </c>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
-      <c r="AC61" s="14"/>
-      <c r="AD61" s="14"/>
-      <c r="AE61" s="14"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
     </row>
     <row r="62" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="12"/>
-      <c r="AB62" s="12"/>
-      <c r="AC62" s="12"/>
-      <c r="AD62" s="12"/>
-      <c r="AE62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
     </row>
     <row r="63" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B63" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="13"/>
-      <c r="I63" s="8">
+      <c r="B63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="I63" s="2">
         <f>I64-(SUM(I78:I80))</f>
         <v>-81.800000000000182</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="2">
         <f>I63+J51</f>
-        <v>203.75487608695636</v>
-      </c>
-      <c r="K63" s="8">
+        <v>204.45017608695633</v>
+      </c>
+      <c r="K63" s="2">
         <f t="shared" ref="K63:N63" si="79">J63+K51</f>
-        <v>584.58538119184777</v>
-      </c>
-      <c r="L63" s="8">
+        <v>583.55171977010855</v>
+      </c>
+      <c r="L63" s="2">
         <f t="shared" si="79"/>
-        <v>985.26670588900038</v>
-      </c>
-      <c r="M63" s="8">
+        <v>979.25967566608801</v>
+      </c>
+      <c r="M63" s="2">
         <f t="shared" si="79"/>
-        <v>1406.5382875651717</v>
-      </c>
-      <c r="N63" s="8">
+        <v>1392.1309604637554</v>
+      </c>
+      <c r="N63" s="2">
         <f t="shared" si="79"/>
-        <v>2069.2356955603445</v>
-      </c>
-      <c r="R63" s="13"/>
-      <c r="S63" s="8">
+        <v>2042.8115618744432</v>
+      </c>
+      <c r="R63" s="5"/>
+      <c r="S63" s="2">
         <f>S64-(SUM(S78:S80))</f>
         <v>282.25900000000001</v>
       </c>
-      <c r="T63" s="8">
+      <c r="T63" s="2">
         <f>T64-(SUM(T78:T80))</f>
         <v>-172.20000000000005</v>
       </c>
-      <c r="U63" s="8">
+      <c r="U63" s="2">
         <f>J63</f>
-        <v>203.75487608695636</v>
-      </c>
-      <c r="V63" s="8">
+        <v>204.45017608695633</v>
+      </c>
+      <c r="V63" s="2">
         <f>U63+V51</f>
-        <v>2451.8921552652141</v>
-      </c>
-      <c r="W63" s="8">
+        <v>2444.4511662217355</v>
+      </c>
+      <c r="W63" s="2">
         <f>V63+W51</f>
-        <v>5147.6088698554713</v>
-      </c>
-      <c r="X63" s="8">
+        <v>5041.9433748205147</v>
+      </c>
+      <c r="X63" s="2">
         <f>W63+X51</f>
-        <v>8359.8991058485772</v>
-      </c>
-      <c r="Y63" s="8">
+        <v>8046.215946118702</v>
+      </c>
+      <c r="Y63" s="2">
         <f>X63+Y51</f>
-        <v>12053.113906381452</v>
-      </c>
-      <c r="Z63" s="8">
+        <v>11398.761119223036</v>
+      </c>
+      <c r="Z63" s="2">
         <f>Y63+Z51</f>
-        <v>16287.083680364491</v>
+        <v>15137.519281207649</v>
       </c>
     </row>
     <row r="64" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B64" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" s="8">
+      <c r="B64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" s="2">
         <v>2536.1</v>
       </c>
-      <c r="S64" s="8">
+      <c r="S64" s="2">
         <v>440.459</v>
       </c>
-      <c r="T64" s="8">
+      <c r="T64" s="2">
         <v>1669.8</v>
       </c>
-      <c r="U64" s="8">
+      <c r="U64" s="2">
         <f>J64</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I65" s="2">
+        <v>2642.5</v>
+      </c>
+      <c r="S65" s="2">
+        <v>1148.3</v>
+      </c>
+      <c r="T65" s="2">
+        <v>2737.3</v>
+      </c>
+      <c r="U65" s="2">
+        <f t="shared" ref="U65:U70" si="80">J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I65" s="8">
-        <v>2642.5</v>
-      </c>
-      <c r="S65" s="8">
-        <v>1148.3</v>
-      </c>
-      <c r="T65" s="8">
-        <v>2737.3</v>
-      </c>
-      <c r="U65" s="8">
-        <f t="shared" ref="U65:U70" si="80">J65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B66" s="8" t="s">
+      <c r="I66" s="2">
+        <v>3870.2</v>
+      </c>
+      <c r="S66" s="2">
+        <v>1445.6</v>
+      </c>
+      <c r="T66" s="2">
+        <v>4333</v>
+      </c>
+      <c r="U66" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" s="2">
+        <v>464.7</v>
+      </c>
+      <c r="S67" s="2">
+        <v>145.1</v>
+      </c>
+      <c r="T67" s="2">
+        <v>191.8</v>
+      </c>
+      <c r="U67" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I66" s="8">
-        <v>3870.2</v>
-      </c>
-      <c r="S66" s="8">
-        <v>1445.6</v>
-      </c>
-      <c r="T66" s="8">
-        <v>4333</v>
-      </c>
-      <c r="U66" s="8">
+      <c r="I68" s="2">
+        <v>492.6</v>
+      </c>
+      <c r="S68" s="2">
+        <v>290.2</v>
+      </c>
+      <c r="T68" s="2">
+        <v>414.1</v>
+      </c>
+      <c r="U68" s="2">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B67" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="I67" s="8">
-        <v>464.7</v>
-      </c>
-      <c r="S67" s="8">
-        <v>145.1</v>
-      </c>
-      <c r="T67" s="8">
-        <v>191.8</v>
-      </c>
-      <c r="U67" s="8">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I69" s="2">
+        <v>481.2</v>
+      </c>
+      <c r="S69" s="2">
+        <v>162.6</v>
+      </c>
+      <c r="T69" s="2">
+        <v>365.2</v>
+      </c>
+      <c r="U69" s="2">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B68" s="8" t="s">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I68" s="8">
-        <v>492.6</v>
-      </c>
-      <c r="S68" s="8">
-        <v>290.2</v>
-      </c>
-      <c r="T68" s="8">
-        <v>414.1</v>
-      </c>
-      <c r="U68" s="8">
+      <c r="I70" s="2">
+        <v>251.2</v>
+      </c>
+      <c r="S70" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="T70" s="2">
+        <v>114.95</v>
+      </c>
+      <c r="U70" s="2">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B69" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I69" s="8">
-        <v>481.2</v>
-      </c>
-      <c r="S69" s="8">
-        <v>162.6</v>
-      </c>
-      <c r="T69" s="8">
-        <v>365.2</v>
-      </c>
-      <c r="U69" s="8">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B70" s="8" t="s">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I70" s="8">
-        <v>251.2</v>
-      </c>
-      <c r="S70" s="8">
-        <v>42.4</v>
-      </c>
-      <c r="T70" s="8">
-        <v>114.95</v>
-      </c>
-      <c r="U70" s="8">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="8">
+      <c r="C71" s="2">
         <f>SUM(C64:C70)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="2">
         <f t="shared" ref="D71:P71" si="81">SUM(D64:D70)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="2">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="2">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="2">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="2">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="2">
         <f t="shared" si="81"/>
         <v>10738.500000000002</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="2">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71" s="2">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="L71" s="8">
+      <c r="L71" s="2">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="M71" s="8">
+      <c r="M71" s="2">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="N71" s="8">
+      <c r="N71" s="2">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="P71" s="8">
+      <c r="P71" s="2">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="Q71" s="8">
+      <c r="Q71" s="2">
         <f t="shared" ref="Q71" si="82">SUM(Q64:Q70)</f>
         <v>0</v>
       </c>
-      <c r="R71" s="8">
+      <c r="R71" s="2">
         <f t="shared" ref="R71" si="83">SUM(R64:R70)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="8">
+      <c r="S71" s="2">
         <f t="shared" ref="S71" si="84">SUM(S64:S70)</f>
         <v>3674.6589999999997</v>
       </c>
-      <c r="T71" s="8">
+      <c r="T71" s="2">
         <f t="shared" ref="T71" si="85">SUM(T64:T70)</f>
         <v>9826.1500000000015</v>
       </c>
-      <c r="U71" s="8">
+      <c r="U71" s="2">
         <f t="shared" ref="U71" si="86">SUM(U64:U70)</f>
         <v>0</v>
       </c>
-      <c r="V71" s="8">
+      <c r="V71" s="2">
         <f t="shared" ref="V71" si="87">SUM(V64:V70)</f>
         <v>0</v>
       </c>
-      <c r="W71" s="8">
+      <c r="W71" s="2">
         <f t="shared" ref="W71" si="88">SUM(W64:W70)</f>
         <v>0</v>
       </c>
-      <c r="X71" s="8">
+      <c r="X71" s="2">
         <f t="shared" ref="X71" si="89">SUM(X64:X70)</f>
         <v>0</v>
       </c>
-      <c r="Y71" s="8">
+      <c r="Y71" s="2">
         <f t="shared" ref="Y71" si="90">SUM(Y64:Y70)</f>
         <v>0</v>
       </c>
-      <c r="Z71" s="8">
+      <c r="Z71" s="2">
         <f t="shared" ref="Z71" si="91">SUM(Z64:Z70)</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I73" s="2">
+        <v>643.1</v>
+      </c>
+      <c r="S73" s="2">
+        <v>776.9</v>
+      </c>
+      <c r="T73" s="2">
+        <v>1472.4</v>
+      </c>
+      <c r="U73" s="2">
+        <f t="shared" ref="U73:U80" si="92">J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I73" s="8">
-        <v>643.1</v>
-      </c>
-      <c r="S73" s="8">
-        <v>776.9</v>
-      </c>
-      <c r="T73" s="8">
-        <v>1472.4</v>
-      </c>
-      <c r="U73" s="8">
-        <f t="shared" ref="U73:U80" si="92">J73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
+      <c r="I74" s="2">
+        <v>344.7</v>
+      </c>
+      <c r="S74" s="2">
+        <v>163.9</v>
+      </c>
+      <c r="T74" s="2">
+        <v>259.7</v>
+      </c>
+      <c r="U74" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I75" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="S75" s="2">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="T75" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="U75" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I74" s="8">
-        <v>344.7</v>
-      </c>
-      <c r="S74" s="8">
-        <v>163.9</v>
-      </c>
-      <c r="T74" s="8">
-        <v>259.7</v>
-      </c>
-      <c r="U74" s="8">
+      <c r="I76" s="2">
+        <v>63.97</v>
+      </c>
+      <c r="S76" s="2">
+        <v>170.12</v>
+      </c>
+      <c r="T76" s="2">
+        <v>402.4</v>
+      </c>
+      <c r="U76" s="2">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B75" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I75" s="8">
-        <v>23.6</v>
-      </c>
-      <c r="S75" s="8">
-        <v>129.19999999999999</v>
-      </c>
-      <c r="T75" s="8">
-        <v>18.3</v>
-      </c>
-      <c r="U75" s="8">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I76" s="8">
-        <v>63.97</v>
-      </c>
-      <c r="S76" s="8">
-        <v>170.12</v>
-      </c>
-      <c r="T76" s="8">
-        <v>402.4</v>
-      </c>
-      <c r="U76" s="8">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B77" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="I77" s="8">
+      <c r="B77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I77" s="2">
         <v>352.8</v>
       </c>
-      <c r="S77" s="8">
+      <c r="S77" s="2">
         <f>135+170</f>
         <v>305</v>
       </c>
-      <c r="T77" s="8">
+      <c r="T77" s="2">
         <f>193+223</f>
         <v>416</v>
       </c>
-      <c r="U77" s="8">
+      <c r="U77" s="2">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="2">
+        <v>43</v>
+      </c>
+      <c r="S78" s="2">
+        <v>120.2</v>
+      </c>
+      <c r="T78" s="2">
+        <v>74</v>
+      </c>
+      <c r="U78" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I78" s="8">
-        <v>43</v>
-      </c>
-      <c r="S78" s="8">
-        <v>120.2</v>
-      </c>
-      <c r="T78" s="8">
-        <v>74</v>
-      </c>
-      <c r="U78" s="8">
+      <c r="I79" s="2">
+        <v>2385.3000000000002</v>
+      </c>
+      <c r="S79" s="2">
+        <v>0</v>
+      </c>
+      <c r="T79" s="2">
+        <v>1700</v>
+      </c>
+      <c r="U79" s="2">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B79" s="8" t="s">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I80" s="2">
+        <v>189.6</v>
+      </c>
+      <c r="S80" s="2">
+        <v>38</v>
+      </c>
+      <c r="T80" s="2">
+        <v>68</v>
+      </c>
+      <c r="U80" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I79" s="8">
-        <v>2385.3000000000002</v>
-      </c>
-      <c r="S79" s="8">
-        <v>0</v>
-      </c>
-      <c r="T79" s="8">
-        <v>1700</v>
-      </c>
-      <c r="U79" s="8">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B80" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I80" s="8">
-        <v>189.6</v>
-      </c>
-      <c r="S80" s="8">
-        <v>38</v>
-      </c>
-      <c r="T80" s="8">
-        <v>68</v>
-      </c>
-      <c r="U80" s="8">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B81" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="8">
+      <c r="C81" s="2">
         <f t="shared" ref="C81:N81" si="93">SUM(C73:C80)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="2">
         <f t="shared" si="93"/>
         <v>4046.07</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J81" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K81" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="L81" s="8">
+      <c r="L81" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M81" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="N81" s="8">
+      <c r="N81" s="2">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="P81" s="8">
+      <c r="P81" s="2">
         <f t="shared" ref="P81:Z81" si="94">SUM(P73:P80)</f>
         <v>0</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="Q81" s="2">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="R81" s="8">
+      <c r="R81" s="2">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="S81" s="8">
+      <c r="S81" s="2">
         <f t="shared" si="94"/>
         <v>1703.32</v>
       </c>
-      <c r="T81" s="8">
+      <c r="T81" s="2">
         <f t="shared" si="94"/>
         <v>4410.8</v>
       </c>
-      <c r="U81" s="8">
+      <c r="U81" s="2">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="V81" s="8">
+      <c r="V81" s="2">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="W81" s="8">
+      <c r="W81" s="2">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="X81" s="8">
+      <c r="X81" s="2">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="Y81" s="8">
+      <c r="Y81" s="2">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="Z81" s="8">
+      <c r="Z81" s="2">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B82" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" s="8">
+      <c r="B82" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="2">
         <f t="shared" ref="C82:N82" si="95">C71-C81</f>
         <v>0</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="2">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="2">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="2">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="2">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="2">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="2">
         <f t="shared" si="95"/>
         <v>6692.4300000000021</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J82" s="2">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K82" s="2">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="L82" s="8">
+      <c r="L82" s="2">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="M82" s="8">
+      <c r="M82" s="2">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="N82" s="8">
+      <c r="N82" s="2">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="P82" s="8">
+      <c r="P82" s="2">
         <f t="shared" ref="P82:Z82" si="96">P71-P81</f>
         <v>0</v>
       </c>
-      <c r="Q82" s="8">
+      <c r="Q82" s="2">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="R82" s="8">
+      <c r="R82" s="2">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="S82" s="8">
+      <c r="S82" s="2">
         <f t="shared" si="96"/>
         <v>1971.3389999999997</v>
       </c>
-      <c r="T82" s="8">
+      <c r="T82" s="2">
         <f t="shared" si="96"/>
         <v>5415.3500000000013</v>
       </c>
-      <c r="U82" s="8">
+      <c r="U82" s="2">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="V82" s="8">
+      <c r="V82" s="2">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="W82" s="8">
+      <c r="W82" s="2">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="X82" s="8">
+      <c r="X82" s="2">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="Y82" s="8">
+      <c r="Y82" s="2">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="Z82" s="8">
+      <c r="Z82" s="2">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B83" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" s="8">
+      <c r="B83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="2">
         <f>C81+C82</f>
         <v>0</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="2">
         <f t="shared" ref="D83:P83" si="97">D81+D82</f>
         <v>0</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="2">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="2">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="2">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="2">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="2">
         <f t="shared" si="97"/>
         <v>10738.500000000002</v>
       </c>
-      <c r="J83" s="8">
+      <c r="J83" s="2">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K83" s="2">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="L83" s="8">
+      <c r="L83" s="2">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="M83" s="8">
+      <c r="M83" s="2">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="N83" s="8">
+      <c r="N83" s="2">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="P83" s="8">
+      <c r="P83" s="2">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="8">
+      <c r="Q83" s="2">
         <f t="shared" ref="Q83" si="98">Q81+Q82</f>
         <v>0</v>
       </c>
-      <c r="R83" s="8">
+      <c r="R83" s="2">
         <f t="shared" ref="R83" si="99">R81+R82</f>
         <v>0</v>
       </c>
-      <c r="S83" s="8">
+      <c r="S83" s="2">
         <f t="shared" ref="S83" si="100">S81+S82</f>
         <v>3674.6589999999997</v>
       </c>
-      <c r="T83" s="8">
+      <c r="T83" s="2">
         <f t="shared" ref="T83" si="101">T81+T82</f>
         <v>9826.1500000000015</v>
       </c>
-      <c r="U83" s="8">
+      <c r="U83" s="2">
         <f t="shared" ref="U83" si="102">U81+U82</f>
         <v>0</v>
       </c>
-      <c r="V83" s="8">
+      <c r="V83" s="2">
         <f t="shared" ref="V83" si="103">V81+V82</f>
         <v>0</v>
       </c>
-      <c r="W83" s="8">
+      <c r="W83" s="2">
         <f t="shared" ref="W83" si="104">W81+W82</f>
         <v>0</v>
       </c>
-      <c r="X83" s="8">
+      <c r="X83" s="2">
         <f t="shared" ref="X83" si="105">X81+X82</f>
         <v>0</v>
       </c>
-      <c r="Y83" s="8">
+      <c r="Y83" s="2">
         <f t="shared" ref="Y83" si="106">Y81+Y82</f>
         <v>0</v>
       </c>
-      <c r="Z83" s="8">
+      <c r="Z83" s="2">
         <f t="shared" ref="Z83" si="107">Z81+Z82</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B85" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="8">
+      <c r="B85" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="2">
         <f t="shared" ref="C85:N85" si="108">C65/C39*90</f>
         <v>0</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="2">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="2">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="2">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="2">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85" s="2">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I85" s="2">
         <f t="shared" si="108"/>
         <v>51.701086956521735</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J85" s="2">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K85" s="2">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="L85" s="8">
+      <c r="L85" s="2">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="M85" s="8">
+      <c r="M85" s="2">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="N85" s="8">
+      <c r="N85" s="2">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="P85" s="8">
+      <c r="P85" s="2">
         <f t="shared" ref="P85:Z85" si="109">P65/P39*360</f>
         <v>0</v>
       </c>
-      <c r="Q85" s="8">
+      <c r="Q85" s="2">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="R85" s="8">
+      <c r="R85" s="2">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="S85" s="8">
+      <c r="S85" s="2">
         <f t="shared" si="109"/>
         <v>58.032400258303625</v>
       </c>
-      <c r="T85" s="8">
+      <c r="T85" s="2">
         <f t="shared" si="109"/>
         <v>65.742534624929945</v>
       </c>
-      <c r="U85" s="8">
+      <c r="U85" s="2">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="V85" s="8">
+      <c r="V85" s="2">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="W85" s="8">
+      <c r="W85" s="2">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="X85" s="8">
+      <c r="X85" s="2">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="Y85" s="8">
+      <c r="Y85" s="2">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="Z85" s="8">
+      <c r="Z85" s="2">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B87" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" s="8">
+      <c r="B87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="2">
         <f t="shared" ref="C87:N87" si="110">C51</f>
         <v>1568.5</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="2">
         <f t="shared" si="110"/>
         <v>417.00000000000017</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="2">
         <f t="shared" si="110"/>
         <v>402.00000000000017</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87" s="2">
         <f t="shared" si="110"/>
         <v>353.20000000000016</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="2">
         <f t="shared" si="110"/>
         <v>424.39999999999964</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H87" s="2">
         <f t="shared" si="110"/>
         <v>318.30000000000035</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I87" s="2">
         <f t="shared" si="110"/>
         <v>110</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J87" s="2">
         <f t="shared" si="110"/>
-        <v>285.55487608695654</v>
-      </c>
-      <c r="K87" s="8">
+        <v>286.25017608695651</v>
+      </c>
+      <c r="K87" s="2">
         <f t="shared" si="110"/>
-        <v>380.83050510489136</v>
-      </c>
-      <c r="L87" s="8">
+        <v>379.10154368315222</v>
+      </c>
+      <c r="L87" s="2">
         <f t="shared" si="110"/>
-        <v>400.6813246971526</v>
-      </c>
-      <c r="M87" s="8">
+        <v>395.70795589597952</v>
+      </c>
+      <c r="M87" s="2">
         <f t="shared" si="110"/>
-        <v>421.27158167617142</v>
-      </c>
-      <c r="N87" s="8">
+        <v>412.8712847976675</v>
+      </c>
+      <c r="N87" s="2">
         <f t="shared" si="110"/>
-        <v>662.69740799517285</v>
-      </c>
-      <c r="R87" s="8">
+        <v>650.68060141068793</v>
+      </c>
+      <c r="R87" s="2">
         <f t="shared" ref="R87:Z87" si="111">R51</f>
         <v>284.00000000000006</v>
       </c>
-      <c r="S87" s="8">
+      <c r="S87" s="2">
         <f t="shared" si="111"/>
         <v>650.64</v>
       </c>
-      <c r="T87" s="8">
+      <c r="T87" s="2">
         <f t="shared" si="111"/>
         <v>1150.9500000000014</v>
       </c>
-      <c r="U87" s="8">
+      <c r="U87" s="2">
         <f t="shared" si="111"/>
-        <v>1138.2548760869565</v>
-      </c>
-      <c r="V87" s="8">
+        <v>1138.9501760869566</v>
+      </c>
+      <c r="V87" s="2">
         <f t="shared" si="111"/>
-        <v>2248.1372791782578</v>
-      </c>
-      <c r="W87" s="8">
+        <v>2240.0009901347794</v>
+      </c>
+      <c r="W87" s="2">
         <f t="shared" si="111"/>
-        <v>2695.7167145902572</v>
-      </c>
-      <c r="X87" s="8">
+        <v>2597.4922085987791</v>
+      </c>
+      <c r="X87" s="2">
         <f t="shared" si="111"/>
-        <v>3212.2902359931059</v>
-      </c>
-      <c r="Y87" s="8">
+        <v>3004.2725712981878</v>
+      </c>
+      <c r="Y87" s="2">
         <f t="shared" si="111"/>
-        <v>3693.214800532875</v>
-      </c>
-      <c r="Z87" s="8">
+        <v>3352.5451731043345</v>
+      </c>
+      <c r="Z87" s="2">
         <f t="shared" si="111"/>
-        <v>4233.969773983039</v>
+        <v>3738.7581619846123</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" s="2">
+        <v>424.3</v>
+      </c>
+      <c r="H88" s="2">
+        <v>745</v>
+      </c>
+      <c r="I88" s="2">
+        <v>853.7</v>
+      </c>
+      <c r="R88" s="2">
+        <v>285.2</v>
+      </c>
+      <c r="S88" s="2">
+        <v>640</v>
+      </c>
+      <c r="T88" s="2">
+        <v>1152.7</v>
+      </c>
+      <c r="U88" s="2">
+        <f>SUM(G88:I88,J87)</f>
+        <v>2309.2501760869563</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="8">
-        <v>424.3</v>
-      </c>
-      <c r="H88" s="8">
-        <v>745</v>
-      </c>
-      <c r="I88" s="8">
-        <v>853.7</v>
-      </c>
-      <c r="R88" s="8">
-        <v>285.2</v>
-      </c>
-      <c r="S88" s="8">
-        <v>640</v>
-      </c>
-      <c r="T88" s="8">
-        <v>1152.7</v>
-      </c>
-      <c r="U88" s="8">
-        <f>SUM(G88:I88,J87)</f>
-        <v>2308.5548760869565</v>
-      </c>
-    </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B89" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G89" s="8">
+      <c r="G89" s="2">
         <v>14.1</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="2">
         <v>29</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I89" s="2">
         <v>39.700000000000003</v>
       </c>
-      <c r="J89" s="8">
+      <c r="J89" s="2">
         <f>I89*(1+J56)</f>
         <v>51.782608695652179</v>
       </c>
-      <c r="R89" s="8">
+      <c r="R89" s="2">
         <v>32.5</v>
       </c>
-      <c r="S89" s="8">
+      <c r="S89" s="2">
         <v>35</v>
       </c>
-      <c r="T89" s="8">
+      <c r="T89" s="2">
         <v>41</v>
       </c>
-      <c r="U89" s="8">
+      <c r="U89" s="2">
         <f>SUM(G89:J89)</f>
         <v>134.5826086956522</v>
       </c>
-      <c r="V89" s="8">
+      <c r="V89" s="2">
         <f>U89*(1+V55)</f>
         <v>242.32745207409803</v>
       </c>
-      <c r="W89" s="8">
+      <c r="W89" s="2">
         <f t="shared" ref="W89:W95" si="112">V89*1.1</f>
         <v>266.56019728150784</v>
       </c>
-      <c r="X89" s="8">
+      <c r="X89" s="2">
         <f t="shared" ref="X89:Z89" si="113">W89*1.1</f>
         <v>293.21621700965864</v>
       </c>
-      <c r="Y89" s="8">
+      <c r="Y89" s="2">
         <f t="shared" si="113"/>
         <v>322.5378387106245</v>
       </c>
-      <c r="Z89" s="8">
+      <c r="Z89" s="2">
         <f t="shared" si="113"/>
         <v>354.79162258168697</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B90" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G90" s="8">
+      <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G90" s="2">
         <v>64</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H90" s="2">
         <v>146</v>
       </c>
-      <c r="I90" s="8">
+      <c r="I90" s="2">
         <v>230.84</v>
       </c>
-      <c r="J90" s="8">
+      <c r="J90" s="2">
         <f>I90*(1+J56)</f>
         <v>301.09565217391304</v>
       </c>
-      <c r="R90" s="8">
+      <c r="R90" s="2">
         <v>32.799999999999997</v>
       </c>
-      <c r="S90" s="8">
+      <c r="S90" s="2">
         <v>54.4</v>
       </c>
-      <c r="T90" s="8">
+      <c r="T90" s="2">
         <v>231.5</v>
       </c>
-      <c r="U90" s="8">
+      <c r="U90" s="2">
         <f t="shared" ref="U90:U106" si="114">SUM(G90:J90)</f>
         <v>741.93565217391301</v>
       </c>
-      <c r="V90" s="8">
+      <c r="V90" s="2">
         <f>U90*(1+V55)</f>
         <v>1335.9183473759406</v>
       </c>
-      <c r="W90" s="8">
+      <c r="W90" s="2">
         <f t="shared" si="112"/>
         <v>1469.5101821135347</v>
       </c>
-      <c r="X90" s="8">
+      <c r="X90" s="2">
         <f t="shared" ref="X90:Z90" si="115">W90*1.1</f>
         <v>1616.4612003248883</v>
       </c>
-      <c r="Y90" s="8">
+      <c r="Y90" s="2">
         <f t="shared" si="115"/>
         <v>1778.1073203573774</v>
       </c>
-      <c r="Z90" s="8">
+      <c r="Z90" s="2">
         <f t="shared" si="115"/>
         <v>1955.9180523931152</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B91" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G91" s="8">
-        <v>0</v>
-      </c>
-      <c r="H91" s="8">
+      <c r="B91" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
         <v>-2.5</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I91" s="2">
         <v>-2</v>
       </c>
-      <c r="J91" s="8">
+      <c r="J91" s="2">
         <f>I91*(1+J56)</f>
         <v>-2.6086956521739131</v>
       </c>
-      <c r="R91" s="8">
+      <c r="R91" s="2">
         <v>-1.2</v>
       </c>
-      <c r="S91" s="8">
+      <c r="S91" s="2">
         <v>3.6</v>
       </c>
-      <c r="T91" s="8">
+      <c r="T91" s="2">
         <v>-1.8</v>
       </c>
-      <c r="U91" s="8">
+      <c r="U91" s="2">
         <f t="shared" si="114"/>
         <v>-7.1086956521739131</v>
       </c>
-      <c r="V91" s="8">
+      <c r="V91" s="2">
         <f>U91*(1+V55)</f>
         <v>-12.799812112849718</v>
       </c>
-      <c r="W91" s="8">
+      <c r="W91" s="2">
         <f t="shared" si="112"/>
         <v>-14.079793324134691</v>
       </c>
-      <c r="X91" s="8">
+      <c r="X91" s="2">
         <f t="shared" ref="X91:Z91" si="116">W91*1.1</f>
         <v>-15.487772656548161</v>
       </c>
-      <c r="Y91" s="8">
+      <c r="Y91" s="2">
         <f t="shared" si="116"/>
         <v>-17.03654992220298</v>
       </c>
-      <c r="Z91" s="8">
+      <c r="Z91" s="2">
         <f t="shared" si="116"/>
         <v>-18.740204914423281</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B92" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G92" s="8">
+      <c r="B92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G92" s="2">
         <v>1</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H92" s="2">
         <v>-0.3</v>
       </c>
-      <c r="I92" s="8">
+      <c r="I92" s="2">
         <v>2.7</v>
       </c>
-      <c r="J92" s="8">
+      <c r="J92" s="2">
         <f>I92*(1+J56)</f>
         <v>3.5217391304347827</v>
       </c>
-      <c r="R92" s="8">
+      <c r="R92" s="2">
         <v>-13.7</v>
       </c>
-      <c r="S92" s="8">
+      <c r="S92" s="2">
         <v>-2.6</v>
       </c>
-      <c r="T92" s="8">
+      <c r="T92" s="2">
         <v>-0.5</v>
       </c>
-      <c r="U92" s="8">
+      <c r="U92" s="2">
         <f t="shared" si="114"/>
         <v>6.9217391304347835</v>
       </c>
-      <c r="V92" s="8">
+      <c r="V92" s="2">
         <f>U92*(1+V55)</f>
         <v>12.463180968597404</v>
       </c>
-      <c r="W92" s="8">
+      <c r="W92" s="2">
         <f t="shared" si="112"/>
         <v>13.709499065457146</v>
       </c>
-      <c r="X92" s="8">
+      <c r="X92" s="2">
         <f t="shared" ref="X92:Z92" si="117">W92*1.1</f>
         <v>15.080448972002863</v>
       </c>
-      <c r="Y92" s="8">
+      <c r="Y92" s="2">
         <f t="shared" si="117"/>
         <v>16.588493869203152</v>
       </c>
-      <c r="Z92" s="8">
+      <c r="Z92" s="2">
         <f t="shared" si="117"/>
         <v>18.247343256123468</v>
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B93" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G93" s="8">
+      <c r="B93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G93" s="2">
         <v>-46.5</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H93" s="2">
         <v>-76</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I93" s="2">
         <v>-134.4</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J93" s="2">
         <f>I93*(1+J56)</f>
         <v>-175.30434782608697</v>
       </c>
-      <c r="R93" s="8">
+      <c r="R93" s="2">
         <v>-6.8</v>
       </c>
-      <c r="S93" s="8">
+      <c r="S93" s="2">
         <v>-93</v>
       </c>
-      <c r="T93" s="8">
+      <c r="T93" s="2">
         <v>-168.5</v>
       </c>
-      <c r="U93" s="8">
+      <c r="U93" s="2">
         <f t="shared" si="114"/>
         <v>-432.20434782608697</v>
       </c>
-      <c r="V93" s="8">
+      <c r="V93" s="2">
         <f>U93*(1+V55)</f>
         <v>-778.2207478300013</v>
       </c>
-      <c r="W93" s="8">
+      <c r="W93" s="2">
         <f t="shared" si="112"/>
         <v>-856.04282261300148</v>
       </c>
-      <c r="X93" s="8">
+      <c r="X93" s="2">
         <f t="shared" ref="X93:Z93" si="118">W93*1.1</f>
         <v>-941.6471048743017</v>
       </c>
-      <c r="Y93" s="8">
+      <c r="Y93" s="2">
         <f t="shared" si="118"/>
         <v>-1035.811815361732</v>
       </c>
-      <c r="Z93" s="8">
+      <c r="Z93" s="2">
         <f t="shared" si="118"/>
         <v>-1139.3929968979053</v>
       </c>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B94" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G94" s="8">
+      <c r="B94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G94" s="2">
         <v>-3.3</v>
       </c>
-      <c r="H94" s="8">
+      <c r="H94" s="2">
         <v>-4</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I94" s="2">
         <v>5.6</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J94" s="2">
         <f>I94*(1+J56)</f>
         <v>7.3043478260869561</v>
       </c>
-      <c r="R94" s="8">
+      <c r="R94" s="2">
         <v>0.4</v>
       </c>
-      <c r="S94" s="8">
+      <c r="S94" s="2">
         <v>-0.7</v>
       </c>
-      <c r="T94" s="8">
+      <c r="T94" s="2">
         <v>12.3</v>
       </c>
-      <c r="U94" s="8">
+      <c r="U94" s="2">
         <f t="shared" si="114"/>
         <v>5.6043478260869559</v>
       </c>
-      <c r="V94" s="8">
+      <c r="V94" s="2">
         <f>U94*(1+V55)</f>
         <v>10.091105696307821</v>
       </c>
-      <c r="W94" s="8">
+      <c r="W94" s="2">
         <f t="shared" si="112"/>
         <v>11.100216265938604</v>
       </c>
-      <c r="X94" s="8">
+      <c r="X94" s="2">
         <f t="shared" ref="X94:Z94" si="119">W94*1.1</f>
         <v>12.210237892532465</v>
       </c>
-      <c r="Y94" s="8">
+      <c r="Y94" s="2">
         <f t="shared" si="119"/>
         <v>13.431261681785713</v>
       </c>
-      <c r="Z94" s="8">
+      <c r="Z94" s="2">
         <f t="shared" si="119"/>
         <v>14.774387849964286</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B95" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G95" s="8">
+      <c r="B95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G95" s="2">
         <v>15.3</v>
       </c>
-      <c r="H95" s="8">
+      <c r="H95" s="2">
         <v>-320</v>
       </c>
-      <c r="I95" s="8">
+      <c r="I95" s="2">
         <v>94.8</v>
       </c>
-      <c r="J95" s="8">
+      <c r="J95" s="2">
         <f>I95*(1+J56)</f>
         <v>123.65217391304347</v>
       </c>
-      <c r="R95" s="8">
+      <c r="R95" s="2">
         <v>-372.4</v>
       </c>
-      <c r="S95" s="8">
+      <c r="S95" s="2">
         <v>-311.89999999999998</v>
       </c>
-      <c r="T95" s="8">
+      <c r="T95" s="2">
         <v>-1589</v>
       </c>
-      <c r="U95" s="8">
+      <c r="U95" s="2">
         <f t="shared" si="114"/>
         <v>-86.247826086956508</v>
       </c>
-      <c r="V95" s="8">
-        <v>0</v>
-      </c>
-      <c r="W95" s="8">
+      <c r="V95" s="2">
+        <v>0</v>
+      </c>
+      <c r="W95" s="2">
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="X95" s="8">
+      <c r="X95" s="2">
         <f t="shared" ref="X95:Z95" si="120">W95*1.1</f>
         <v>0</v>
       </c>
-      <c r="Y95" s="8">
+      <c r="Y95" s="2">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="Z95" s="8">
+      <c r="Z95" s="2">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B96" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G96" s="8">
+      <c r="B96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G96" s="2">
         <v>-600</v>
       </c>
-      <c r="H96" s="8">
+      <c r="H96" s="2">
         <v>733.6</v>
       </c>
-      <c r="I96" s="8">
+      <c r="I96" s="2">
         <v>457.9</v>
       </c>
-      <c r="J96" s="8">
+      <c r="J96" s="2">
         <f>I96*(1+J56)</f>
         <v>597.26086956521738</v>
       </c>
-      <c r="R96" s="8">
+      <c r="R96" s="2">
         <v>-504.6</v>
       </c>
-      <c r="S96" s="8">
+      <c r="S96" s="2">
         <v>100</v>
       </c>
-      <c r="T96" s="8">
+      <c r="T96" s="2">
         <v>-2900</v>
       </c>
-      <c r="U96" s="8">
+      <c r="U96" s="2">
         <f t="shared" si="114"/>
         <v>1188.7608695652175</v>
       </c>
-      <c r="V96" s="8">
+      <c r="V96" s="2">
         <v>-500</v>
       </c>
-      <c r="W96" s="8">
+      <c r="W96" s="2">
         <f t="shared" ref="W96:Z102" si="121">V96*1.1</f>
         <v>-550</v>
       </c>
-      <c r="X96" s="8">
+      <c r="X96" s="2">
         <f t="shared" si="121"/>
         <v>-605</v>
       </c>
-      <c r="Y96" s="8">
+      <c r="Y96" s="2">
         <f t="shared" si="121"/>
         <v>-665.5</v>
       </c>
-      <c r="Z96" s="8">
+      <c r="Z96" s="2">
         <f t="shared" si="121"/>
         <v>-732.05000000000007</v>
       </c>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B97" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G97" s="8">
+      <c r="B97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G97" s="2">
         <v>87</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="2">
         <v>-400</v>
       </c>
-      <c r="I97" s="8">
+      <c r="I97" s="2">
         <v>-284.3</v>
       </c>
-      <c r="J97" s="8">
+      <c r="J97" s="2">
         <f>I97*(1+J56)</f>
         <v>-370.82608695652175</v>
       </c>
-      <c r="R97" s="8">
+      <c r="R97" s="2">
         <v>-29</v>
       </c>
-      <c r="S97" s="8">
+      <c r="S97" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="T97" s="8">
+      <c r="T97" s="2">
         <v>-44.7</v>
       </c>
-      <c r="U97" s="8">
+      <c r="U97" s="2">
         <f t="shared" si="114"/>
         <v>-968.1260869565217</v>
       </c>
-      <c r="V97" s="8">
+      <c r="V97" s="2">
         <v>100</v>
       </c>
-      <c r="W97" s="8">
+      <c r="W97" s="2">
         <f t="shared" si="121"/>
         <v>110.00000000000001</v>
       </c>
-      <c r="X97" s="8">
+      <c r="X97" s="2">
         <f t="shared" si="121"/>
         <v>121.00000000000003</v>
       </c>
-      <c r="Y97" s="8">
+      <c r="Y97" s="2">
         <f t="shared" si="121"/>
         <v>133.10000000000005</v>
       </c>
-      <c r="Z97" s="8">
+      <c r="Z97" s="2">
         <f t="shared" si="121"/>
         <v>146.41000000000008</v>
       </c>
     </row>
     <row r="98" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B98" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G98" s="8">
+      <c r="B98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" s="2">
         <v>220</v>
       </c>
-      <c r="H98" s="8">
+      <c r="H98" s="2">
         <v>-907</v>
       </c>
-      <c r="I98" s="8">
+      <c r="I98" s="2">
         <v>-811.7</v>
       </c>
-      <c r="J98" s="8">
+      <c r="J98" s="2">
         <f>I98*(1+J56)</f>
         <v>-1058.7391304347827</v>
       </c>
-      <c r="R98" s="8">
+      <c r="R98" s="2">
         <v>50.1</v>
       </c>
-      <c r="S98" s="8">
+      <c r="S98" s="2">
         <v>127.1</v>
       </c>
-      <c r="T98" s="8">
+      <c r="T98" s="2">
         <v>679.2</v>
       </c>
-      <c r="U98" s="8">
+      <c r="U98" s="2">
         <f t="shared" si="114"/>
         <v>-2557.4391304347828</v>
       </c>
-      <c r="V98" s="8">
-        <v>0</v>
-      </c>
-      <c r="W98" s="8">
+      <c r="V98" s="2">
+        <v>0</v>
+      </c>
+      <c r="W98" s="2">
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="X98" s="8">
+      <c r="X98" s="2">
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="Y98" s="8">
+      <c r="Y98" s="2">
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="Z98" s="8">
+      <c r="Z98" s="2">
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B99" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="G99" s="8">
+      <c r="B99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G99" s="2">
         <v>26</v>
       </c>
-      <c r="H99" s="8">
+      <c r="H99" s="2">
         <v>-60</v>
       </c>
-      <c r="I99" s="8">
+      <c r="I99" s="2">
         <v>52.7</v>
       </c>
-      <c r="J99" s="8">
+      <c r="J99" s="2">
         <f>I99*(1+J56)</f>
         <v>68.739130434782609</v>
       </c>
-      <c r="R99" s="8">
+      <c r="R99" s="2">
         <v>36</v>
       </c>
-      <c r="S99" s="8">
+      <c r="S99" s="2">
         <v>-50.3</v>
       </c>
-      <c r="T99" s="8">
+      <c r="T99" s="2">
         <v>93</v>
       </c>
-      <c r="U99" s="8">
+      <c r="U99" s="2">
         <f t="shared" si="114"/>
         <v>87.439130434782612</v>
       </c>
-      <c r="V99" s="8">
+      <c r="V99" s="2">
         <f>U99*(1+V55)</f>
         <v>157.4416033036824</v>
       </c>
-      <c r="W99" s="8">
+      <c r="W99" s="2">
         <f t="shared" si="121"/>
         <v>173.18576363405066</v>
       </c>
-      <c r="X99" s="8">
+      <c r="X99" s="2">
         <f t="shared" si="121"/>
         <v>190.50433999745573</v>
       </c>
-      <c r="Y99" s="8">
+      <c r="Y99" s="2">
         <f t="shared" si="121"/>
         <v>209.55477399720132</v>
       </c>
-      <c r="Z99" s="8">
+      <c r="Z99" s="2">
         <f t="shared" si="121"/>
         <v>230.51025139692146</v>
       </c>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B100" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G100" s="8">
+      <c r="B100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G100" s="2">
         <v>62</v>
       </c>
-      <c r="H100" s="8">
+      <c r="H100" s="2">
         <v>97</v>
       </c>
-      <c r="I100" s="8">
+      <c r="I100" s="2">
         <v>5.4</v>
       </c>
-      <c r="J100" s="8">
+      <c r="J100" s="2">
         <f>I100*(1+J56)</f>
         <v>7.0434782608695654</v>
       </c>
-      <c r="R100" s="8">
+      <c r="R100" s="2">
         <v>29</v>
       </c>
-      <c r="S100" s="8">
+      <c r="S100" s="2">
         <v>87.4</v>
       </c>
-      <c r="T100" s="8">
+      <c r="T100" s="2">
         <v>-111</v>
       </c>
-      <c r="U100" s="8">
+      <c r="U100" s="2">
         <f t="shared" si="114"/>
         <v>171.44347826086957</v>
       </c>
-      <c r="V100" s="8">
+      <c r="V100" s="2">
         <v>100</v>
       </c>
-      <c r="W100" s="8">
+      <c r="W100" s="2">
         <f t="shared" si="121"/>
         <v>110.00000000000001</v>
       </c>
-      <c r="X100" s="8">
+      <c r="X100" s="2">
         <f t="shared" si="121"/>
         <v>121.00000000000003</v>
       </c>
-      <c r="Y100" s="8">
+      <c r="Y100" s="2">
         <f t="shared" si="121"/>
         <v>133.10000000000005</v>
       </c>
-      <c r="Z100" s="8">
+      <c r="Z100" s="2">
         <f t="shared" si="121"/>
         <v>146.41000000000008</v>
       </c>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B101" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G101" s="8">
+      <c r="B101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G101" s="2">
         <v>142</v>
       </c>
-      <c r="H101" s="8">
+      <c r="H101" s="2">
         <v>183</v>
       </c>
-      <c r="I101" s="8">
+      <c r="I101" s="2">
         <v>250</v>
       </c>
-      <c r="J101" s="8">
+      <c r="J101" s="2">
         <f>I101*(1+J56)</f>
         <v>326.08695652173913</v>
       </c>
-      <c r="R101" s="8">
+      <c r="R101" s="2">
         <v>31.6</v>
       </c>
-      <c r="S101" s="8">
+      <c r="S101" s="2">
         <v>70.599999999999994</v>
       </c>
-      <c r="T101" s="8">
+      <c r="T101" s="2">
         <v>112</v>
       </c>
-      <c r="U101" s="8">
+      <c r="U101" s="2">
         <f t="shared" si="114"/>
         <v>901.08695652173913</v>
       </c>
-      <c r="V101" s="8">
+      <c r="V101" s="2">
         <v>400</v>
       </c>
-      <c r="W101" s="8">
+      <c r="W101" s="2">
         <f t="shared" si="121"/>
         <v>440.00000000000006</v>
       </c>
-      <c r="X101" s="8">
+      <c r="X101" s="2">
         <f t="shared" si="121"/>
         <v>484.00000000000011</v>
       </c>
-      <c r="Y101" s="8">
+      <c r="Y101" s="2">
         <f t="shared" si="121"/>
         <v>532.4000000000002</v>
       </c>
-      <c r="Z101" s="8">
+      <c r="Z101" s="2">
         <f t="shared" si="121"/>
         <v>585.64000000000033</v>
       </c>
     </row>
     <row r="102" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B102" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G102" s="8">
+      <c r="B102" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G102" s="2">
         <v>1.5</v>
       </c>
-      <c r="H102" s="8">
+      <c r="H102" s="2">
         <v>4</v>
       </c>
-      <c r="I102" s="8">
+      <c r="I102" s="2">
         <v>5.4</v>
       </c>
-      <c r="J102" s="8">
+      <c r="J102" s="2">
         <f>I102*(1+J56)</f>
         <v>7.0434782608695654</v>
       </c>
-      <c r="R102" s="8">
+      <c r="R102" s="2">
         <v>-10.5</v>
       </c>
-      <c r="S102" s="8">
+      <c r="S102" s="2">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="T102" s="8">
+      <c r="T102" s="2">
         <v>8.0399999999999991</v>
       </c>
-      <c r="U102" s="8">
+      <c r="U102" s="2">
         <f t="shared" si="114"/>
         <v>17.943478260869565</v>
       </c>
-      <c r="V102" s="8">
+      <c r="V102" s="2">
         <f>U102*(1+V55)</f>
         <v>32.308761216960725</v>
       </c>
-      <c r="W102" s="8">
+      <c r="W102" s="2">
         <f t="shared" si="121"/>
         <v>35.539637338656803</v>
       </c>
-      <c r="X102" s="8">
+      <c r="X102" s="2">
         <f t="shared" si="121"/>
         <v>39.093601072522489</v>
       </c>
-      <c r="Y102" s="8">
+      <c r="Y102" s="2">
         <f t="shared" si="121"/>
         <v>43.002961179774744</v>
       </c>
-      <c r="Z102" s="8">
+      <c r="Z102" s="2">
         <f t="shared" si="121"/>
         <v>47.303257297752225</v>
       </c>
     </row>
-    <row r="103" spans="1:122" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="2">
+    <row r="103" spans="1:122" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+      <c r="B103" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="8">
         <f>SUM(C88:C102)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="8">
         <f t="shared" ref="D103:H103" si="122">SUM(D88:D102)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="8">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="8">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="8">
         <f>SUM(G88:G102)</f>
         <v>407.40000000000003</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="8">
         <f t="shared" si="122"/>
         <v>167.80000000000018</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="8">
         <f>SUM(I88:I102)</f>
         <v>766.34</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103" s="8">
         <f>SUM(J89:J102,J87)</f>
-        <v>171.6070499999999</v>
-      </c>
-      <c r="K103" s="2">
+        <v>172.30234999999988</v>
+      </c>
+      <c r="K103" s="8">
         <f t="shared" ref="K103:N103" si="123">SUM(K89:K102,K87)</f>
-        <v>380.83050510489136</v>
-      </c>
-      <c r="L103" s="2">
+        <v>379.10154368315222</v>
+      </c>
+      <c r="L103" s="8">
         <f t="shared" si="123"/>
-        <v>400.6813246971526</v>
-      </c>
-      <c r="M103" s="2">
+        <v>395.70795589597952</v>
+      </c>
+      <c r="M103" s="8">
         <f t="shared" si="123"/>
-        <v>421.27158167617142</v>
-      </c>
-      <c r="N103" s="2">
+        <v>412.8712847976675</v>
+      </c>
+      <c r="N103" s="8">
         <f t="shared" si="123"/>
-        <v>662.69740799517285</v>
-      </c>
-      <c r="R103" s="2">
+        <v>650.68060141068793</v>
+      </c>
+      <c r="R103" s="8">
         <f>SUM(R88:R102)</f>
         <v>-440.59999999999991</v>
       </c>
-      <c r="S103" s="2">
+      <c r="S103" s="8">
         <f>SUM(S88:S102)</f>
         <v>663.5</v>
       </c>
-      <c r="T103" s="2">
+      <c r="T103" s="8">
         <f>SUM(T88:T102)</f>
         <v>-2485.7600000000002</v>
       </c>
-      <c r="U103" s="2">
+      <c r="U103" s="8">
         <f>SUM(U88:U102)</f>
-        <v>1513.14705</v>
-      </c>
-      <c r="V103" s="2">
+        <v>1513.8423499999994</v>
+      </c>
+      <c r="V103" s="8">
         <f t="shared" ref="V103:Z103" si="124">SUM(V89:V102,V87)</f>
-        <v>3347.6671698709943</v>
-      </c>
-      <c r="W103" s="2">
+        <v>3339.5308808275158</v>
+      </c>
+      <c r="W103" s="8">
         <f t="shared" si="124"/>
-        <v>3905.1995943522666</v>
-      </c>
-      <c r="X103" s="2">
+        <v>3806.9750883607885</v>
+      </c>
+      <c r="X103" s="8">
         <f t="shared" si="124"/>
-        <v>4542.721403731317</v>
-      </c>
-      <c r="Y103" s="2">
+        <v>4334.7037390363985</v>
+      </c>
+      <c r="Y103" s="8">
         <f t="shared" si="124"/>
-        <v>5156.6890850449072</v>
-      </c>
-      <c r="Z103" s="2">
+        <v>4816.0194576163667</v>
+      </c>
+      <c r="Z103" s="8">
         <f t="shared" si="124"/>
-        <v>5843.7914869462738</v>
+        <v>5348.5798749478472</v>
       </c>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B104" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G104" s="23">
+      <c r="B104" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G104" s="2">
         <v>-44.3</v>
       </c>
-      <c r="H104" s="23">
+      <c r="H104" s="2">
         <v>-71.8</v>
       </c>
-      <c r="I104" s="8">
+      <c r="I104" s="2">
         <v>-104.5</v>
       </c>
-      <c r="R104" s="8">
+      <c r="R104" s="2">
         <v>-45.2</v>
       </c>
-      <c r="S104" s="8">
+      <c r="S104" s="2">
         <v>-36.799999999999997</v>
       </c>
-      <c r="T104" s="8">
+      <c r="T104" s="2">
         <v>-124.3</v>
       </c>
-      <c r="U104" s="8">
+      <c r="U104" s="2">
         <f t="shared" si="114"/>
         <v>-220.6</v>
       </c>
-      <c r="V104" s="8">
+      <c r="V104" s="2">
         <f>U104*(1+V55)</f>
         <v>-397.20909295521039</v>
       </c>
-      <c r="W104" s="8">
+      <c r="W104" s="2">
         <f>V104*(1+W55)</f>
         <v>-436.93000225073149</v>
       </c>
-      <c r="X104" s="8">
+      <c r="X104" s="2">
         <f>W104*(1+X55)</f>
         <v>-480.6230024758047</v>
       </c>
-      <c r="Y104" s="8">
+      <c r="Y104" s="2">
         <f>X104*(1+Y55)</f>
         <v>-528.68530272338523</v>
       </c>
-      <c r="Z104" s="8">
+      <c r="Z104" s="2">
         <f>Y104*(1+Z55)</f>
         <v>-581.55383299572384</v>
       </c>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="R105" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="S105" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="T105" s="2">
+        <v>-69.7</v>
+      </c>
+      <c r="U105" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I105" s="8">
-        <v>0</v>
-      </c>
-      <c r="R105" s="8">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="S105" s="8">
-        <v>-0.5</v>
-      </c>
-      <c r="T105" s="8">
-        <v>-69.7</v>
-      </c>
-      <c r="U105" s="8">
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="R106" s="2">
+        <v>0</v>
+      </c>
+      <c r="S106" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="T106" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="U106" s="2">
         <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B106" s="8" t="s">
+    <row r="107" spans="1:122" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I106" s="8">
-        <v>0</v>
-      </c>
-      <c r="R106" s="8">
-        <v>0</v>
-      </c>
-      <c r="S106" s="8">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="T106" s="8">
-        <v>-0.3</v>
-      </c>
-      <c r="U106" s="8">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:122" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="2">
+      <c r="C107" s="8">
         <v>-2.63</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="8">
         <v>-17.350000000000001</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="8">
         <f t="shared" ref="E107:N107" si="125">E104</f>
         <v>0</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="8">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="8">
         <f t="shared" si="125"/>
         <v>-44.3</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="8">
         <f t="shared" si="125"/>
         <v>-71.8</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="8">
         <f t="shared" si="125"/>
         <v>-104.5</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107" s="8">
         <v>-50</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107" s="8">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="L107" s="2">
+      <c r="L107" s="8">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="M107" s="2">
+      <c r="M107" s="8">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="N107" s="2">
+      <c r="N107" s="8">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="R107" s="2">
+      <c r="R107" s="8">
         <f>R104</f>
         <v>-45.2</v>
       </c>
-      <c r="S107" s="2">
+      <c r="S107" s="8">
         <f t="shared" ref="S107:Z107" si="126">S104</f>
         <v>-36.799999999999997</v>
       </c>
-      <c r="T107" s="2">
+      <c r="T107" s="8">
         <f t="shared" si="126"/>
         <v>-124.3</v>
       </c>
-      <c r="U107" s="2">
+      <c r="U107" s="8">
         <f t="shared" si="126"/>
         <v>-220.6</v>
       </c>
-      <c r="V107" s="2">
+      <c r="V107" s="8">
         <f t="shared" si="126"/>
         <v>-397.20909295521039</v>
       </c>
-      <c r="W107" s="2">
+      <c r="W107" s="8">
         <f t="shared" si="126"/>
         <v>-436.93000225073149</v>
       </c>
-      <c r="X107" s="2">
+      <c r="X107" s="8">
         <f t="shared" si="126"/>
         <v>-480.6230024758047</v>
       </c>
-      <c r="Y107" s="2">
+      <c r="Y107" s="8">
         <f t="shared" si="126"/>
         <v>-528.68530272338523</v>
       </c>
-      <c r="Z107" s="2">
+      <c r="Z107" s="8">
         <f t="shared" si="126"/>
         <v>-581.55383299572384</v>
       </c>
     </row>
-    <row r="108" spans="1:122" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="B108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="2">
+    <row r="108" spans="1:122" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+      <c r="B108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="8">
         <f>C103+C107</f>
         <v>-2.63</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="8">
         <f t="shared" ref="D108:N108" si="127">D103+D107</f>
         <v>-17.350000000000001</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="8">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="8">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="8">
         <f t="shared" si="127"/>
         <v>363.1</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="8">
         <f t="shared" si="127"/>
         <v>96.000000000000185</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="8">
         <f t="shared" si="127"/>
         <v>661.84</v>
       </c>
-      <c r="J108" s="2">
+      <c r="J108" s="8">
         <f t="shared" si="127"/>
-        <v>121.6070499999999</v>
-      </c>
-      <c r="K108" s="2">
+        <v>122.30234999999988</v>
+      </c>
+      <c r="K108" s="8">
         <f t="shared" si="127"/>
-        <v>380.83050510489136</v>
-      </c>
-      <c r="L108" s="2">
+        <v>379.10154368315222</v>
+      </c>
+      <c r="L108" s="8">
         <f t="shared" si="127"/>
-        <v>400.6813246971526</v>
-      </c>
-      <c r="M108" s="2">
+        <v>395.70795589597952</v>
+      </c>
+      <c r="M108" s="8">
         <f t="shared" si="127"/>
-        <v>421.27158167617142</v>
-      </c>
-      <c r="N108" s="2">
+        <v>412.8712847976675</v>
+      </c>
+      <c r="N108" s="8">
         <f t="shared" si="127"/>
-        <v>662.69740799517285</v>
-      </c>
-      <c r="R108" s="2">
+        <v>650.68060141068793</v>
+      </c>
+      <c r="R108" s="8">
         <f>R103+R107</f>
         <v>-485.7999999999999</v>
       </c>
-      <c r="S108" s="2">
+      <c r="S108" s="8">
         <f t="shared" ref="S108:T108" si="128">S103+S107</f>
         <v>626.70000000000005</v>
       </c>
-      <c r="T108" s="2">
+      <c r="T108" s="8">
         <f t="shared" si="128"/>
         <v>-2610.0600000000004</v>
       </c>
-      <c r="U108" s="2">
+      <c r="U108" s="8">
         <f t="shared" ref="U108" si="129">U103+U107</f>
-        <v>1292.5470500000001</v>
-      </c>
-      <c r="V108" s="2">
+        <v>1293.2423499999995</v>
+      </c>
+      <c r="V108" s="8">
         <f t="shared" ref="V108" si="130">V103+V107</f>
-        <v>2950.4580769157837</v>
-      </c>
-      <c r="W108" s="2">
+        <v>2942.3217878723053</v>
+      </c>
+      <c r="W108" s="8">
         <f t="shared" ref="W108" si="131">W103+W107</f>
-        <v>3468.2695921015352</v>
-      </c>
-      <c r="X108" s="2">
+        <v>3370.0450861100571</v>
+      </c>
+      <c r="X108" s="8">
         <f t="shared" ref="X108" si="132">X103+X107</f>
-        <v>4062.0984012555123</v>
-      </c>
-      <c r="Y108" s="2">
+        <v>3854.0807365605938</v>
+      </c>
+      <c r="Y108" s="8">
         <f t="shared" ref="Y108" si="133">Y103+Y107</f>
-        <v>4628.0037823215216</v>
-      </c>
-      <c r="Z108" s="2">
+        <v>4287.3341548929811</v>
+      </c>
+      <c r="Z108" s="8">
         <f t="shared" ref="Z108" si="134">Z103+Z107</f>
-        <v>5262.2376539505503</v>
-      </c>
-      <c r="AA108" s="2">
+        <v>4767.0260419521237</v>
+      </c>
+      <c r="AA108" s="8">
         <f t="shared" ref="AA108:BF108" si="135">Z108*(1+$AC$56)</f>
-        <v>5367.4824070295617</v>
-      </c>
-      <c r="AB108" s="2">
+        <v>4862.366562791166</v>
+      </c>
+      <c r="AB108" s="8">
         <f t="shared" si="135"/>
-        <v>5474.8320551701527</v>
-      </c>
-      <c r="AC108" s="2">
+        <v>4959.6138940469891</v>
+      </c>
+      <c r="AC108" s="8">
         <f t="shared" si="135"/>
-        <v>5584.3286962735556</v>
-      </c>
-      <c r="AD108" s="2">
+        <v>5058.8061719279294</v>
+      </c>
+      <c r="AD108" s="8">
         <f t="shared" si="135"/>
-        <v>5696.0152701990264</v>
-      </c>
-      <c r="AE108" s="2">
+        <v>5159.982295366488</v>
+      </c>
+      <c r="AE108" s="8">
         <f t="shared" si="135"/>
-        <v>5809.9355756030072</v>
-      </c>
-      <c r="AF108" s="2">
+        <v>5263.1819412738178</v>
+      </c>
+      <c r="AF108" s="8">
         <f t="shared" si="135"/>
-        <v>5926.1342871150673</v>
-      </c>
-      <c r="AG108" s="2">
+        <v>5368.4455800992946</v>
+      </c>
+      <c r="AG108" s="8">
         <f t="shared" si="135"/>
-        <v>6044.6569728573686</v>
-      </c>
-      <c r="AH108" s="2">
+        <v>5475.8144917012805</v>
+      </c>
+      <c r="AH108" s="8">
         <f t="shared" si="135"/>
-        <v>6165.5501123145159</v>
-      </c>
-      <c r="AI108" s="2">
+        <v>5585.3307815353064</v>
+      </c>
+      <c r="AI108" s="8">
         <f t="shared" si="135"/>
-        <v>6288.8611145608065</v>
-      </c>
-      <c r="AJ108" s="2">
+        <v>5697.0373971660129</v>
+      </c>
+      <c r="AJ108" s="8">
         <f t="shared" si="135"/>
-        <v>6414.6383368520228</v>
-      </c>
-      <c r="AK108" s="2">
+        <v>5810.9781451093331</v>
+      </c>
+      <c r="AK108" s="8">
         <f t="shared" si="135"/>
-        <v>6542.9311035890632</v>
-      </c>
-      <c r="AL108" s="2">
+        <v>5927.1977080115203</v>
+      </c>
+      <c r="AL108" s="8">
         <f t="shared" si="135"/>
-        <v>6673.7897256608449</v>
-      </c>
-      <c r="AM108" s="2">
+        <v>6045.7416621717512</v>
+      </c>
+      <c r="AM108" s="8">
         <f t="shared" si="135"/>
-        <v>6807.2655201740617</v>
-      </c>
-      <c r="AN108" s="2">
+        <v>6166.6564954151863</v>
+      </c>
+      <c r="AN108" s="8">
         <f t="shared" si="135"/>
-        <v>6943.4108305775435</v>
-      </c>
-      <c r="AO108" s="2">
+        <v>6289.9896253234901</v>
+      </c>
+      <c r="AO108" s="8">
         <f t="shared" si="135"/>
-        <v>7082.2790471890949</v>
-      </c>
-      <c r="AP108" s="2">
+        <v>6415.7894178299603</v>
+      </c>
+      <c r="AP108" s="8">
         <f t="shared" si="135"/>
-        <v>7223.9246281328769</v>
-      </c>
-      <c r="AQ108" s="2">
+        <v>6544.1052061865594</v>
+      </c>
+      <c r="AQ108" s="8">
         <f t="shared" si="135"/>
-        <v>7368.4031206955342</v>
-      </c>
-      <c r="AR108" s="2">
+        <v>6674.9873103102909</v>
+      </c>
+      <c r="AR108" s="8">
         <f t="shared" si="135"/>
-        <v>7515.7711831094448</v>
-      </c>
-      <c r="AS108" s="2">
+        <v>6808.4870565164965</v>
+      </c>
+      <c r="AS108" s="8">
         <f t="shared" si="135"/>
-        <v>7666.0866067716343</v>
-      </c>
-      <c r="AT108" s="2">
+        <v>6944.6567976468268</v>
+      </c>
+      <c r="AT108" s="8">
         <f t="shared" si="135"/>
-        <v>7819.4083389070674</v>
-      </c>
-      <c r="AU108" s="2">
+        <v>7083.5499335997638</v>
+      </c>
+      <c r="AU108" s="8">
         <f t="shared" si="135"/>
-        <v>7975.796505685209</v>
-      </c>
-      <c r="AV108" s="2">
+        <v>7225.220932271759</v>
+      </c>
+      <c r="AV108" s="8">
         <f t="shared" si="135"/>
-        <v>8135.3124357989136</v>
-      </c>
-      <c r="AW108" s="2">
+        <v>7369.7253509171942</v>
+      </c>
+      <c r="AW108" s="8">
         <f t="shared" si="135"/>
-        <v>8298.0186845148928</v>
-      </c>
-      <c r="AX108" s="2">
+        <v>7517.1198579355378</v>
+      </c>
+      <c r="AX108" s="8">
         <f t="shared" si="135"/>
-        <v>8463.9790582051901</v>
-      </c>
-      <c r="AY108" s="2">
+        <v>7667.4622550942486</v>
+      </c>
+      <c r="AY108" s="8">
         <f t="shared" si="135"/>
-        <v>8633.2586393692945</v>
-      </c>
-      <c r="AZ108" s="2">
+        <v>7820.8115001961332</v>
+      </c>
+      <c r="AZ108" s="8">
         <f t="shared" si="135"/>
-        <v>8805.9238121566814</v>
-      </c>
-      <c r="BA108" s="2">
+        <v>7977.2277302000557</v>
+      </c>
+      <c r="BA108" s="8">
         <f t="shared" si="135"/>
-        <v>8982.0422883998144</v>
-      </c>
-      <c r="BB108" s="2">
+        <v>8136.7722848040567</v>
+      </c>
+      <c r="BB108" s="8">
         <f t="shared" si="135"/>
-        <v>9161.6831341678117</v>
-      </c>
-      <c r="BC108" s="2">
+        <v>8299.5077305001378</v>
+      </c>
+      <c r="BC108" s="8">
         <f t="shared" si="135"/>
-        <v>9344.9167968511683</v>
-      </c>
-      <c r="BD108" s="2">
+        <v>8465.4978851101405</v>
+      </c>
+      <c r="BD108" s="8">
         <f t="shared" si="135"/>
-        <v>9531.8151327881915</v>
-      </c>
-      <c r="BE108" s="2">
+        <v>8634.8078428123426</v>
+      </c>
+      <c r="BE108" s="8">
         <f t="shared" si="135"/>
-        <v>9722.4514354439561</v>
-      </c>
-      <c r="BF108" s="2">
+        <v>8807.50399966859</v>
+      </c>
+      <c r="BF108" s="8">
         <f t="shared" si="135"/>
-        <v>9916.9004641528354</v>
-      </c>
-      <c r="BG108" s="2">
+        <v>8983.6540796619629</v>
+      </c>
+      <c r="BG108" s="8">
         <f t="shared" ref="BG108:CL108" si="136">BF108*(1+$AC$56)</f>
-        <v>10115.238473435893</v>
-      </c>
-      <c r="BH108" s="2">
+        <v>9163.3271612552016</v>
+      </c>
+      <c r="BH108" s="8">
         <f t="shared" si="136"/>
-        <v>10317.54324290461</v>
-      </c>
-      <c r="BI108" s="2">
+        <v>9346.593704480305</v>
+      </c>
+      <c r="BI108" s="8">
         <f t="shared" si="136"/>
-        <v>10523.894107762702</v>
-      </c>
-      <c r="BJ108" s="2">
+        <v>9533.5255785699119</v>
+      </c>
+      <c r="BJ108" s="8">
         <f t="shared" si="136"/>
-        <v>10734.371989917956</v>
-      </c>
-      <c r="BK108" s="2">
+        <v>9724.1960901413095</v>
+      </c>
+      <c r="BK108" s="8">
         <f t="shared" si="136"/>
-        <v>10949.059429716315</v>
-      </c>
-      <c r="BL108" s="2">
+        <v>9918.6800119441359</v>
+      </c>
+      <c r="BL108" s="8">
         <f t="shared" si="136"/>
-        <v>11168.040618310642</v>
-      </c>
-      <c r="BM108" s="2">
+        <v>10117.053612183019</v>
+      </c>
+      <c r="BM108" s="8">
         <f t="shared" si="136"/>
-        <v>11391.401430676855</v>
-      </c>
-      <c r="BN108" s="2">
+        <v>10319.394684426679</v>
+      </c>
+      <c r="BN108" s="8">
         <f t="shared" si="136"/>
-        <v>11619.229459290393</v>
-      </c>
-      <c r="BO108" s="2">
+        <v>10525.782578115213</v>
+      </c>
+      <c r="BO108" s="8">
         <f t="shared" si="136"/>
-        <v>11851.6140484762</v>
-      </c>
-      <c r="BP108" s="2">
+        <v>10736.298229677517</v>
+      </c>
+      <c r="BP108" s="8">
         <f t="shared" si="136"/>
-        <v>12088.646329445724</v>
-      </c>
-      <c r="BQ108" s="2">
+        <v>10951.024194271067</v>
+      </c>
+      <c r="BQ108" s="8">
         <f t="shared" si="136"/>
-        <v>12330.419256034638</v>
-      </c>
-      <c r="BR108" s="2">
+        <v>11170.04467815649</v>
+      </c>
+      <c r="BR108" s="8">
         <f t="shared" si="136"/>
-        <v>12577.027641155331</v>
-      </c>
-      <c r="BS108" s="2">
+        <v>11393.44557171962</v>
+      </c>
+      <c r="BS108" s="8">
         <f t="shared" si="136"/>
-        <v>12828.568193978439</v>
-      </c>
-      <c r="BT108" s="2">
+        <v>11621.314483154012</v>
+      </c>
+      <c r="BT108" s="8">
         <f t="shared" si="136"/>
-        <v>13085.139557858009</v>
-      </c>
-      <c r="BU108" s="2">
+        <v>11853.740772817093</v>
+      </c>
+      <c r="BU108" s="8">
         <f t="shared" si="136"/>
-        <v>13346.842349015169</v>
-      </c>
-      <c r="BV108" s="2">
+        <v>12090.815588273435</v>
+      </c>
+      <c r="BV108" s="8">
         <f t="shared" si="136"/>
-        <v>13613.779195995472</v>
-      </c>
-      <c r="BW108" s="2">
+        <v>12332.631900038905</v>
+      </c>
+      <c r="BW108" s="8">
         <f t="shared" si="136"/>
-        <v>13886.054779915381</v>
-      </c>
-      <c r="BX108" s="2">
+        <v>12579.284538039683</v>
+      </c>
+      <c r="BX108" s="8">
         <f t="shared" si="136"/>
-        <v>14163.775875513689</v>
-      </c>
-      <c r="BY108" s="2">
+        <v>12830.870228800477</v>
+      </c>
+      <c r="BY108" s="8">
         <f t="shared" si="136"/>
-        <v>14447.051393023963</v>
-      </c>
-      <c r="BZ108" s="2">
+        <v>13087.487633376486</v>
+      </c>
+      <c r="BZ108" s="8">
         <f t="shared" si="136"/>
-        <v>14735.992420884442</v>
-      </c>
-      <c r="CA108" s="2">
+        <v>13349.237386044017</v>
+      </c>
+      <c r="CA108" s="8">
         <f t="shared" si="136"/>
-        <v>15030.712269302132</v>
-      </c>
-      <c r="CB108" s="2">
+        <v>13616.222133764897</v>
+      </c>
+      <c r="CB108" s="8">
         <f t="shared" si="136"/>
-        <v>15331.326514688175</v>
-      </c>
-      <c r="CC108" s="2">
+        <v>13888.546576440196</v>
+      </c>
+      <c r="CC108" s="8">
         <f t="shared" si="136"/>
-        <v>15637.953044981939</v>
-      </c>
-      <c r="CD108" s="2">
+        <v>14166.317507969001</v>
+      </c>
+      <c r="CD108" s="8">
         <f t="shared" si="136"/>
-        <v>15950.712105881579</v>
-      </c>
-      <c r="CE108" s="2">
+        <v>14449.643858128382</v>
+      </c>
+      <c r="CE108" s="8">
         <f t="shared" si="136"/>
-        <v>16269.726347999211</v>
-      </c>
-      <c r="CF108" s="2">
+        <v>14738.636735290949</v>
+      </c>
+      <c r="CF108" s="8">
         <f t="shared" si="136"/>
-        <v>16595.120874959197</v>
-      </c>
-      <c r="CG108" s="2">
+        <v>15033.409469996768</v>
+      </c>
+      <c r="CG108" s="8">
         <f t="shared" si="136"/>
-        <v>16927.02329245838</v>
-      </c>
-      <c r="CH108" s="2">
+        <v>15334.077659396704</v>
+      </c>
+      <c r="CH108" s="8">
         <f t="shared" si="136"/>
-        <v>17265.563758307548</v>
-      </c>
-      <c r="CI108" s="2">
+        <v>15640.759212584639</v>
+      </c>
+      <c r="CI108" s="8">
         <f t="shared" si="136"/>
-        <v>17610.875033473698</v>
-      </c>
-      <c r="CJ108" s="2">
+        <v>15953.574396836331</v>
+      </c>
+      <c r="CJ108" s="8">
         <f t="shared" si="136"/>
-        <v>17963.092534143172</v>
-      </c>
-      <c r="CK108" s="2">
+        <v>16272.645884773057</v>
+      </c>
+      <c r="CK108" s="8">
         <f t="shared" si="136"/>
-        <v>18322.354384826034</v>
-      </c>
-      <c r="CL108" s="2">
+        <v>16598.098802468518</v>
+      </c>
+      <c r="CL108" s="8">
         <f t="shared" si="136"/>
-        <v>18688.801472522555</v>
-      </c>
-      <c r="CM108" s="2">
+        <v>16930.060778517887</v>
+      </c>
+      <c r="CM108" s="8">
         <f t="shared" ref="CM108:DR108" si="137">CL108*(1+$AC$56)</f>
-        <v>19062.577501973006</v>
-      </c>
-      <c r="CN108" s="2">
+        <v>17268.661994088245</v>
+      </c>
+      <c r="CN108" s="8">
         <f t="shared" si="137"/>
-        <v>19443.829052012468</v>
-      </c>
-      <c r="CO108" s="2">
+        <v>17614.035233970011</v>
+      </c>
+      <c r="CO108" s="8">
         <f t="shared" si="137"/>
-        <v>19832.705633052719</v>
-      </c>
-      <c r="CP108" s="2">
+        <v>17966.315938649412</v>
+      </c>
+      <c r="CP108" s="8">
         <f t="shared" si="137"/>
-        <v>20229.359745713773</v>
-      </c>
-      <c r="CQ108" s="2">
+        <v>18325.642257422402</v>
+      </c>
+      <c r="CQ108" s="8">
         <f t="shared" si="137"/>
-        <v>20633.946940628048</v>
-      </c>
-      <c r="CR108" s="2">
+        <v>18692.15510257085</v>
+      </c>
+      <c r="CR108" s="8">
         <f t="shared" si="137"/>
-        <v>21046.625879440609</v>
-      </c>
-      <c r="CS108" s="2">
+        <v>19065.998204622269</v>
+      </c>
+      <c r="CS108" s="8">
         <f t="shared" si="137"/>
-        <v>21467.558397029421</v>
-      </c>
-      <c r="CT108" s="2">
+        <v>19447.318168714715</v>
+      </c>
+      <c r="CT108" s="8">
         <f t="shared" si="137"/>
-        <v>21896.90956497001</v>
-      </c>
-      <c r="CU108" s="2">
+        <v>19836.264532089011</v>
+      </c>
+      <c r="CU108" s="8">
         <f t="shared" si="137"/>
-        <v>22334.84775626941</v>
-      </c>
-      <c r="CV108" s="2">
+        <v>20232.989822730793</v>
+      </c>
+      <c r="CV108" s="8">
         <f t="shared" si="137"/>
-        <v>22781.544711394799</v>
-      </c>
-      <c r="CW108" s="2">
+        <v>20637.649619185409</v>
+      </c>
+      <c r="CW108" s="8">
         <f t="shared" si="137"/>
-        <v>23237.175605622695</v>
-      </c>
-      <c r="CX108" s="2">
+        <v>21050.402611569119</v>
+      </c>
+      <c r="CX108" s="8">
         <f t="shared" si="137"/>
-        <v>23701.919117735149</v>
-      </c>
-      <c r="CY108" s="2">
+        <v>21471.410663800503</v>
+      </c>
+      <c r="CY108" s="8">
         <f t="shared" si="137"/>
-        <v>24175.957500089851</v>
-      </c>
-      <c r="CZ108" s="2">
+        <v>21900.838877076512</v>
+      </c>
+      <c r="CZ108" s="8">
         <f t="shared" si="137"/>
-        <v>24659.476650091648</v>
-      </c>
-      <c r="DA108" s="2">
+        <v>22338.855654618044</v>
+      </c>
+      <c r="DA108" s="8">
         <f t="shared" si="137"/>
-        <v>25152.666183093483</v>
-      </c>
-      <c r="DB108" s="2">
+        <v>22785.632767710405</v>
+      </c>
+      <c r="DB108" s="8">
         <f t="shared" si="137"/>
-        <v>25655.719506755351</v>
-      </c>
-      <c r="DC108" s="2">
+        <v>23241.345423064613</v>
+      </c>
+      <c r="DC108" s="8">
         <f t="shared" si="137"/>
-        <v>26168.833896890457</v>
-      </c>
-      <c r="DD108" s="2">
+        <v>23706.172331525904</v>
+      </c>
+      <c r="DD108" s="8">
         <f t="shared" si="137"/>
-        <v>26692.210574828267</v>
-      </c>
-      <c r="DE108" s="2">
+        <v>24180.295778156422</v>
+      </c>
+      <c r="DE108" s="8">
         <f t="shared" si="137"/>
-        <v>27226.054786324832</v>
-      </c>
-      <c r="DF108" s="2">
+        <v>24663.901693719552</v>
+      </c>
+      <c r="DF108" s="8">
         <f t="shared" si="137"/>
-        <v>27770.575882051329</v>
-      </c>
-      <c r="DG108" s="2">
+        <v>25157.179727593943</v>
+      </c>
+      <c r="DG108" s="8">
         <f t="shared" si="137"/>
-        <v>28325.987399692356</v>
-      </c>
-      <c r="DH108" s="2">
+        <v>25660.323322145821</v>
+      </c>
+      <c r="DH108" s="8">
         <f t="shared" si="137"/>
-        <v>28892.507147686203</v>
-      </c>
-      <c r="DI108" s="2">
+        <v>26173.529788588738</v>
+      </c>
+      <c r="DI108" s="8">
         <f t="shared" si="137"/>
-        <v>29470.357290639928</v>
-      </c>
-      <c r="DJ108" s="2">
+        <v>26697.000384360512</v>
+      </c>
+      <c r="DJ108" s="8">
         <f t="shared" si="137"/>
-        <v>30059.764436452726</v>
-      </c>
-      <c r="DK108" s="2">
+        <v>27230.940392047723</v>
+      </c>
+      <c r="DK108" s="8">
         <f t="shared" si="137"/>
-        <v>30660.95972518178</v>
-      </c>
-      <c r="DL108" s="2">
+        <v>27775.559199888678</v>
+      </c>
+      <c r="DL108" s="8">
         <f t="shared" si="137"/>
-        <v>31274.178919685415</v>
-      </c>
-      <c r="DM108" s="2">
+        <v>28331.07038388645</v>
+      </c>
+      <c r="DM108" s="8">
         <f t="shared" si="137"/>
-        <v>31899.662498079124</v>
-      </c>
-      <c r="DN108" s="2">
+        <v>28897.691791564179</v>
+      </c>
+      <c r="DN108" s="8">
         <f t="shared" si="137"/>
-        <v>32537.655748040706</v>
-      </c>
-      <c r="DO108" s="2">
+        <v>29475.645627395465</v>
+      </c>
+      <c r="DO108" s="8">
         <f t="shared" si="137"/>
-        <v>33188.408863001518</v>
-      </c>
-      <c r="DP108" s="2">
+        <v>30065.158539943375</v>
+      </c>
+      <c r="DP108" s="8">
         <f t="shared" si="137"/>
-        <v>33852.177040261551</v>
-      </c>
-      <c r="DQ108" s="2">
+        <v>30666.461710742242</v>
+      </c>
+      <c r="DQ108" s="8">
         <f t="shared" si="137"/>
-        <v>34529.22058106678</v>
-      </c>
-      <c r="DR108" s="2">
+        <v>31279.790944957087</v>
+      </c>
+      <c r="DR108" s="8">
         <f t="shared" si="137"/>
-        <v>35219.804992688114</v>
+        <v>31905.38676385623</v>
       </c>
     </row>
   </sheetData>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61799055-C9B1-44A8-854D-4B6724DA4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D785A-C307-4695-9E10-63EC95F89268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,6 @@
     <author>tc={F2FEB8A9-AB5D-4787-9460-AE116AE11E92}</author>
     <author>tc={DEC1EFA7-08CE-407F-80BC-3BD72A054B95}</author>
     <author>tc={518D6400-4738-48D4-8A7C-6A58D2E68831}</author>
-    <author>tc={F447A70C-BFD1-47B1-8F98-8C7CAE49EF2E}</author>
     <author>tc={960D152D-CF0A-4D06-BBAA-48E55DA153B5}</author>
   </authors>
   <commentList>
@@ -129,15 +128,7 @@
     “diluted share count”</t>
       </text>
     </comment>
-    <comment ref="J57" authorId="7" shapeId="0" xr:uid="{F447A70C-BFD1-47B1-8F98-8C7CAE49EF2E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    “expect 14.9% GAAP tax rate”</t>
-      </text>
-    </comment>
-    <comment ref="J107" authorId="8" shapeId="0" xr:uid="{960D152D-CF0A-4D06-BBAA-48E55DA153B5}">
+    <comment ref="J106" authorId="7" shapeId="0" xr:uid="{960D152D-CF0A-4D06-BBAA-48E55DA153B5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -150,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="141">
   <si>
     <t>Price</t>
   </si>
@@ -258,9 +249,6 @@
   </si>
   <si>
     <t>notes:</t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
   </si>
   <si>
     <t>Revenue q/q</t>
@@ -701,7 +689,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -751,7 +739,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1152,10 +1140,7 @@
   <threadedComment ref="J53" dT="2025-05-13T05:05:22.48" personId="{9FB83736-EE26-422E-AD1E-D65440F32024}" id="{518D6400-4738-48D4-8A7C-6A58D2E68831}">
     <text>“diluted share count”</text>
   </threadedComment>
-  <threadedComment ref="J57" dT="2025-05-13T05:05:00.83" personId="{9FB83736-EE26-422E-AD1E-D65440F32024}" id="{F447A70C-BFD1-47B1-8F98-8C7CAE49EF2E}">
-    <text>“expect 14.9% GAAP tax rate”</text>
-  </threadedComment>
-  <threadedComment ref="J107" dT="2025-05-13T05:04:41.19" personId="{9FB83736-EE26-422E-AD1E-D65440F32024}" id="{960D152D-CF0A-4D06-BBAA-48E55DA153B5}">
+  <threadedComment ref="J106" dT="2025-05-13T05:04:41.19" personId="{9FB83736-EE26-422E-AD1E-D65440F32024}" id="{960D152D-CF0A-4D06-BBAA-48E55DA153B5}">
     <text>“expect 45-55m”</text>
   </threadedComment>
 </ThreadedComments>
@@ -1165,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5214CC-655A-4E11-87EC-D301395A4983}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1186,18 +1171,18 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="2">
-        <v>39</v>
+      <c r="N3" s="9">
+        <v>41.5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>1</v>
@@ -1211,19 +1196,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="N5" s="2">
         <f>N4*N3</f>
-        <v>23275.980000000003</v>
+        <v>24768.030000000002</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>3</v>
@@ -1237,7 +1222,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>4</v>
@@ -1252,7 +1237,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="9"/>
       <c r="M8" s="15" t="s">
@@ -1260,85 +1245,85 @@
       </c>
       <c r="N8" s="2">
         <f>N5+N7-N6</f>
-        <v>23887.980000000003</v>
+        <v>25380.030000000002</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E24" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -1346,7 +1331,7 @@
         <v>2020</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -1354,13 +1339,13 @@
         <v>2022</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -1368,7 +1353,7 @@
         <v>2025</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -1376,7 +1361,7 @@
         <v>2025.5</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -1384,7 +1369,7 @@
         <v>2026</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -1392,7 +1377,7 @@
         <v>2027</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -1400,27 +1385,27 @@
         <v>2028</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1432,13 +1417,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3098DAD7-B3FD-4340-A438-67E4C3210CEC}">
-  <dimension ref="A1:DR108"/>
+  <dimension ref="A1:DR107"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="T37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA58" sqref="AA58"/>
+      <selection pane="bottomRight" activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1457,19 +1442,19 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -1490,10 +1475,10 @@
         <v>34</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="P1" s="3">
         <v>2020</v>
@@ -1558,7 +1543,7 @@
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="5">
         <v>0.76</v>
@@ -1581,7 +1566,7 @@
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5">
         <v>0.11</v>
@@ -1604,7 +1589,7 @@
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5">
         <v>0.13</v>
@@ -1643,7 +1628,7 @@
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="5"/>
       <c r="I6" s="5"/>
@@ -1666,7 +1651,7 @@
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5"/>
       <c r="I7" s="5"/>
@@ -1692,7 +1677,7 @@
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5"/>
       <c r="I8" s="5"/>
@@ -1720,7 +1705,7 @@
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="5"/>
       <c r="I9" s="5"/>
@@ -1756,7 +1741,7 @@
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="5"/>
       <c r="I11" s="5"/>
@@ -1777,7 +1762,7 @@
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="5"/>
       <c r="I12" s="5"/>
@@ -1802,7 +1787,7 @@
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="5"/>
       <c r="I13" s="5"/>
@@ -1829,7 +1814,7 @@
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="5"/>
       <c r="I14" s="5"/>
@@ -1872,7 +1857,7 @@
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="5"/>
       <c r="P16" s="3"/>
@@ -1905,7 +1890,7 @@
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V17" s="2">
         <v>75000</v>
@@ -1930,7 +1915,7 @@
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V18" s="2">
         <v>80000</v>
@@ -1955,7 +1940,7 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V19" s="2">
         <v>100000</v>
@@ -1980,7 +1965,7 @@
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V20" s="2">
         <v>65000</v>
@@ -2005,7 +1990,7 @@
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V21" s="2">
         <v>16000</v>
@@ -2030,7 +2015,7 @@
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J22" s="2">
         <v>500</v>
@@ -2078,7 +2063,7 @@
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" s="5">
         <f>I39/I26</f>
@@ -2120,7 +2105,7 @@
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="5"/>
       <c r="S25" s="2">
@@ -2151,7 +2136,7 @@
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I26" s="2">
         <v>11400</v>
@@ -2160,7 +2145,7 @@
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -2180,7 +2165,7 @@
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2">
         <f>I29*0.97</f>
@@ -2222,7 +2207,7 @@
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -2241,7 +2226,7 @@
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -2264,7 +2249,7 @@
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -2281,7 +2266,7 @@
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -2310,7 +2295,7 @@
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I36" s="5"/>
       <c r="P36" s="3"/>
@@ -2330,7 +2315,7 @@
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U37" s="2">
         <f>U39-U36</f>
@@ -2462,23 +2447,23 @@
         <v>4159</v>
       </c>
       <c r="J40" s="2">
-        <f>J39*(1-J59)</f>
+        <f>J39*(1-J58)</f>
         <v>5280</v>
       </c>
       <c r="K40" s="2">
-        <f>K39*(1-K59)</f>
+        <f>K39*(1-K58)</f>
         <v>6336</v>
       </c>
       <c r="L40" s="2">
-        <f>L39*(1-L59)</f>
+        <f>L39*(1-L58)</f>
         <v>6526.08</v>
       </c>
       <c r="M40" s="2">
-        <f>M39*(1-M59)</f>
+        <f>M39*(1-M58)</f>
         <v>6721.8624000000009</v>
       </c>
       <c r="N40" s="2">
-        <f>N39*(1-N59)</f>
+        <f>N39*(1-N58)</f>
         <v>9410.60736</v>
       </c>
       <c r="P40" s="2">
@@ -2501,24 +2486,24 @@
         <v>19608.5</v>
       </c>
       <c r="V40" s="2">
-        <f>V39*(1-V59)</f>
+        <f>V39*(1-V58)</f>
         <v>35000</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" ref="W40:Z40" si="15">W39*(1-W59)</f>
-        <v>38390</v>
+        <f>W39*(1-W58)</f>
+        <v>38445</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="15"/>
-        <v>42105.580000000009</v>
+        <f>X39*(1-X58)</f>
+        <v>42228.395000000004</v>
       </c>
       <c r="Y40" s="2">
-        <f t="shared" si="15"/>
-        <v>46318.80000000001</v>
+        <f>Y39*(1-Y58)</f>
+        <v>46383.346845000015</v>
       </c>
       <c r="Z40" s="2">
-        <f t="shared" si="15"/>
-        <v>50950.680000000022</v>
+        <f>Z39*(1-Z58)</f>
+        <v>50946.258344795016</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -2526,96 +2511,96 @@
         <v>21</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ref="C41:N41" si="16">C39-C40</f>
+        <f t="shared" ref="C41:N41" si="15">C39-C40</f>
         <v>1766</v>
       </c>
       <c r="D41" s="2">
+        <f t="shared" si="15"/>
+        <v>564.30000000000018</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="15"/>
+        <v>597.30000000000018</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="15"/>
+        <v>596.30000000000018</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="15"/>
+        <v>775.39999999999964</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="15"/>
+        <v>670.10000000000036</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="15"/>
+        <v>441</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="15"/>
+        <v>720</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="15"/>
+        <v>864</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="15"/>
+        <v>889.92000000000007</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="15"/>
+        <v>916.61759999999958</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="15"/>
+        <v>1283.2646399999994</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" ref="P41:V41" si="16">P39-P40</f>
+        <v>526.20000000000027</v>
+      </c>
+      <c r="Q41" s="2">
         <f t="shared" si="16"/>
-        <v>564.30000000000018</v>
-      </c>
-      <c r="E41" s="2">
+        <v>534.5</v>
+      </c>
+      <c r="R41" s="2">
         <f t="shared" si="16"/>
-        <v>597.30000000000018</v>
-      </c>
-      <c r="F41" s="2">
+        <v>800</v>
+      </c>
+      <c r="S41" s="2">
         <f t="shared" si="16"/>
-        <v>596.30000000000018</v>
-      </c>
-      <c r="G41" s="2">
+        <v>1283</v>
+      </c>
+      <c r="T41" s="2">
         <f t="shared" si="16"/>
-        <v>775.39999999999964</v>
-      </c>
-      <c r="H41" s="2">
+        <v>2061.4000000000015</v>
+      </c>
+      <c r="U41" s="2">
         <f t="shared" si="16"/>
-        <v>670.10000000000036</v>
-      </c>
-      <c r="I41" s="2">
+        <v>2606.5</v>
+      </c>
+      <c r="V41" s="2">
         <f t="shared" si="16"/>
-        <v>441</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="16"/>
-        <v>720</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="16"/>
-        <v>864</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" si="16"/>
-        <v>889.92000000000007</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="16"/>
-        <v>916.61759999999958</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="16"/>
-        <v>1283.2646399999994</v>
-      </c>
-      <c r="P41" s="2">
-        <f t="shared" ref="P41:V41" si="17">P39-P40</f>
-        <v>526.20000000000027</v>
-      </c>
-      <c r="Q41" s="2">
+        <v>5000</v>
+      </c>
+      <c r="W41" s="2">
+        <f t="shared" ref="W41:Z41" si="17">W39-W40</f>
+        <v>5555</v>
+      </c>
+      <c r="X41" s="2">
         <f t="shared" si="17"/>
-        <v>534.5</v>
-      </c>
-      <c r="R41" s="2">
+        <v>6171.6050000000032</v>
+      </c>
+      <c r="Y41" s="2">
         <f t="shared" si="17"/>
-        <v>800</v>
-      </c>
-      <c r="S41" s="2">
+        <v>6856.653155</v>
+      </c>
+      <c r="Z41" s="2">
         <f t="shared" si="17"/>
-        <v>1283</v>
-      </c>
-      <c r="T41" s="2">
-        <f t="shared" si="17"/>
-        <v>2061.4000000000015</v>
-      </c>
-      <c r="U41" s="2">
-        <f t="shared" si="17"/>
-        <v>2606.5</v>
-      </c>
-      <c r="V41" s="2">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="W41" s="2">
-        <f t="shared" ref="W41:Z41" si="18">W39-W40</f>
-        <v>5610</v>
-      </c>
-      <c r="X41" s="2">
-        <f t="shared" si="18"/>
-        <v>6294.4199999999983</v>
-      </c>
-      <c r="Y41" s="2">
-        <f t="shared" si="18"/>
-        <v>6921.2000000000044</v>
-      </c>
-      <c r="Z41" s="2">
-        <f t="shared" si="18"/>
-        <v>7613.32</v>
+        <v>7617.7416552050054</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
@@ -2648,19 +2633,19 @@
         <v>212.47826086956522</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" ref="K42:L42" si="19">J42*1.01</f>
+        <f t="shared" ref="K42:L42" si="18">J42*1.01</f>
         <v>214.60304347826087</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>216.74907391304347</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" ref="M42" si="20">L42*1.01</f>
+        <f t="shared" ref="M42" si="19">L42*1.01</f>
         <v>218.91656465217392</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" ref="N42" si="21">M42*1.01</f>
+        <f t="shared" ref="N42" si="20">M42*1.01</f>
         <v>221.10573029869565</v>
       </c>
       <c r="P42" s="2">
@@ -2683,23 +2668,23 @@
         <v>665.7782608695652</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" ref="V42:Z42" si="22">U42*(1+V55)</f>
+        <f t="shared" ref="V42:Z42" si="21">U42*(1+V55)</f>
         <v>1198.7904764700702</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1318.6695241170773</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1450.5364765287852</v>
       </c>
       <c r="Y42" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1595.5901241816639</v>
       </c>
       <c r="Z42" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1755.1491365998304</v>
       </c>
     </row>
@@ -2729,23 +2714,23 @@
         <v>60</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" ref="J43:L43" si="23">I43*(1+J56)</f>
+        <f t="shared" ref="J43:L43" si="22">I43*(1+J56)</f>
         <v>78.260869565217391</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>93.91304347826086</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>96.730434782608683</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" ref="M43" si="24">L43*(1+M56)</f>
+        <f t="shared" ref="M43" si="23">L43*(1+M56)</f>
         <v>99.632347826086942</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" ref="N43" si="25">M43*(1+N56)</f>
+        <f t="shared" ref="N43" si="24">M43*(1+N56)</f>
         <v>139.48528695652172</v>
       </c>
       <c r="P43" s="2">
@@ -2768,23 +2753,23 @@
         <v>286.56086956521739</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" ref="V43:Z43" si="26">U43*(1+V55)</f>
+        <f t="shared" ref="V43:Z43" si="25">U43*(1+V55)</f>
         <v>515.97725782618477</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>567.57498360880334</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>624.33248196968373</v>
       </c>
       <c r="Y43" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>686.76573016665213</v>
       </c>
       <c r="Z43" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>755.44230318331745</v>
       </c>
     </row>
@@ -2814,23 +2799,23 @@
         <v>70.599999999999994</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" ref="J44:L44" si="27">I44*(1+J56)</f>
+        <f t="shared" ref="J44:L44" si="26">I44*(1+J56)</f>
         <v>92.086956521739125</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>110.50434782608694</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>113.81947826086956</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" ref="M44" si="28">L44*(1+M56)</f>
+        <f t="shared" ref="M44" si="27">L44*(1+M56)</f>
         <v>117.23406260869565</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" ref="N44" si="29">M44*(1+N56)</f>
+        <f t="shared" ref="N44" si="28">M44*(1+N56)</f>
         <v>164.1276876521739</v>
       </c>
       <c r="P44" s="2">
@@ -2853,23 +2838,23 @@
         <v>291.4869565217391</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" ref="V44:Z44" si="30">U44*(1+V55)</f>
+        <f t="shared" ref="V44:Z44" si="29">U44*(1+V55)</f>
         <v>524.84709704567024</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>577.33180675023732</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>635.06498742526105</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>698.57148616778716</v>
       </c>
       <c r="Z44" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>768.42863478456593</v>
       </c>
     </row>
@@ -2882,15 +2867,15 @@
         <v>182.1</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" ref="D45:F45" si="31">SUM(D42:D44)</f>
+        <f t="shared" ref="D45:F45" si="30">SUM(D42:D44)</f>
         <v>192.8</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>219</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>253.00000000000003</v>
       </c>
       <c r="G45" s="2">
@@ -2902,71 +2887,71 @@
         <v>301.3</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" ref="I45:L45" si="32">SUM(I42:I44)</f>
+        <f t="shared" ref="I45:L45" si="31">SUM(I42:I44)</f>
         <v>293.5</v>
       </c>
       <c r="J45" s="2">
+        <f t="shared" si="31"/>
+        <v>382.82608695652175</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="31"/>
+        <v>419.02043478260867</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="31"/>
+        <v>427.29898695652173</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" ref="M45:N45" si="32">SUM(M42:M44)</f>
+        <v>435.78297508695647</v>
+      </c>
+      <c r="N45" s="2">
         <f t="shared" si="32"/>
-        <v>382.82608695652175</v>
-      </c>
-      <c r="K45" s="2">
-        <f t="shared" si="32"/>
-        <v>419.02043478260867</v>
-      </c>
-      <c r="L45" s="2">
-        <f t="shared" si="32"/>
-        <v>427.29898695652173</v>
-      </c>
-      <c r="M45" s="2">
-        <f t="shared" ref="M45:N45" si="33">SUM(M42:M44)</f>
-        <v>435.78297508695647</v>
-      </c>
-      <c r="N45" s="2">
+        <v>524.71870490739127</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" ref="P45:R45" si="33">SUM(P42:P44)</f>
+        <v>440.6</v>
+      </c>
+      <c r="Q45" s="2">
         <f t="shared" si="33"/>
-        <v>524.71870490739127</v>
-      </c>
-      <c r="P45" s="2">
-        <f t="shared" ref="P45:R45" si="34">SUM(P42:P44)</f>
-        <v>440.6</v>
-      </c>
-      <c r="Q45" s="2">
+        <v>410.6</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" si="33"/>
+        <v>464.79999999999995</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" ref="S45:T45" si="34">SUM(S42:S44)</f>
+        <v>521.76</v>
+      </c>
+      <c r="T45" s="2">
         <f t="shared" si="34"/>
-        <v>410.6</v>
-      </c>
-      <c r="R45" s="2">
-        <f t="shared" si="34"/>
-        <v>464.79999999999995</v>
-      </c>
-      <c r="S45" s="2">
-        <f t="shared" ref="S45:T45" si="35">SUM(S42:S44)</f>
-        <v>521.76</v>
-      </c>
-      <c r="T45" s="2">
+        <v>850.5</v>
+      </c>
+      <c r="U45" s="2">
+        <f t="shared" ref="U45:Z45" si="35">SUM(U42:U44)</f>
+        <v>1243.8260869565217</v>
+      </c>
+      <c r="V45" s="2">
         <f t="shared" si="35"/>
-        <v>850.5</v>
-      </c>
-      <c r="U45" s="2">
-        <f t="shared" ref="U45:Z45" si="36">SUM(U42:U44)</f>
-        <v>1243.8260869565217</v>
-      </c>
-      <c r="V45" s="2">
-        <f t="shared" si="36"/>
         <v>2239.6148313419253</v>
       </c>
       <c r="W45" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2463.5763144761181</v>
       </c>
       <c r="X45" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2709.9339459237299</v>
       </c>
       <c r="Y45" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2980.927340516103</v>
       </c>
       <c r="Z45" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3279.0200745677139</v>
       </c>
     </row>
@@ -2979,15 +2964,15 @@
         <v>1583.9</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" ref="D46:F46" si="37">D41-D45</f>
+        <f t="shared" ref="D46:F46" si="36">D41-D45</f>
         <v>371.50000000000017</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>378.30000000000018</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>343.30000000000018</v>
       </c>
       <c r="G46" s="8">
@@ -2999,72 +2984,72 @@
         <v>368.80000000000035</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" ref="I46:L46" si="38">I41-I45</f>
+        <f t="shared" ref="I46:L46" si="37">I41-I45</f>
         <v>147.5</v>
       </c>
       <c r="J46" s="8">
+        <f t="shared" si="37"/>
+        <v>337.17391304347825</v>
+      </c>
+      <c r="K46" s="8">
+        <f t="shared" si="37"/>
+        <v>444.97956521739133</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="37"/>
+        <v>462.62101304347834</v>
+      </c>
+      <c r="M46" s="8">
+        <f t="shared" ref="M46:N46" si="38">M41-M45</f>
+        <v>480.83462491304311</v>
+      </c>
+      <c r="N46" s="8">
         <f t="shared" si="38"/>
-        <v>337.17391304347825</v>
-      </c>
-      <c r="K46" s="8">
-        <f t="shared" si="38"/>
-        <v>444.97956521739133</v>
-      </c>
-      <c r="L46" s="8">
-        <f t="shared" si="38"/>
-        <v>462.62101304347834</v>
-      </c>
-      <c r="M46" s="8">
-        <f t="shared" ref="M46:N46" si="39">M41-M45</f>
-        <v>480.83462491304311</v>
-      </c>
-      <c r="N46" s="8">
+        <v>758.54593509260815</v>
+      </c>
+      <c r="P46" s="8">
+        <f t="shared" ref="P46:R46" si="39">P41-P45</f>
+        <v>85.60000000000025</v>
+      </c>
+      <c r="Q46" s="8">
         <f t="shared" si="39"/>
-        <v>758.54593509260815</v>
-      </c>
-      <c r="P46" s="8">
-        <f t="shared" ref="P46:R46" si="40">P41-P45</f>
-        <v>85.60000000000025</v>
-      </c>
-      <c r="Q46" s="8">
+        <v>123.89999999999998</v>
+      </c>
+      <c r="R46" s="8">
+        <f t="shared" si="39"/>
+        <v>335.20000000000005</v>
+      </c>
+      <c r="S46" s="8">
+        <f t="shared" ref="S46:T46" si="40">S41-S45</f>
+        <v>761.24</v>
+      </c>
+      <c r="T46" s="8">
         <f t="shared" si="40"/>
-        <v>123.89999999999998</v>
-      </c>
-      <c r="R46" s="8">
-        <f t="shared" si="40"/>
-        <v>335.20000000000005</v>
-      </c>
-      <c r="S46" s="8">
-        <f t="shared" ref="S46:T46" si="41">S41-S45</f>
-        <v>761.24</v>
-      </c>
-      <c r="T46" s="8">
+        <v>1210.9000000000015</v>
+      </c>
+      <c r="U46" s="8">
+        <f t="shared" ref="U46:V46" si="41">U41-U45</f>
+        <v>1362.6739130434783</v>
+      </c>
+      <c r="V46" s="8">
         <f t="shared" si="41"/>
-        <v>1210.9000000000015</v>
-      </c>
-      <c r="U46" s="8">
-        <f t="shared" ref="U46:V46" si="42">U41-U45</f>
-        <v>1362.6739130434783</v>
-      </c>
-      <c r="V46" s="8">
-        <f t="shared" si="42"/>
         <v>2760.3851686580747</v>
       </c>
       <c r="W46" s="8">
-        <f t="shared" ref="W46" si="43">W41-W45</f>
-        <v>3146.4236855238819</v>
+        <f t="shared" ref="W46" si="42">W41-W45</f>
+        <v>3091.4236855238819</v>
       </c>
       <c r="X46" s="8">
-        <f t="shared" ref="X46" si="44">X41-X45</f>
-        <v>3584.4860540762684</v>
+        <f t="shared" ref="X46" si="43">X41-X45</f>
+        <v>3461.6710540762733</v>
       </c>
       <c r="Y46" s="8">
-        <f t="shared" ref="Y46:Z46" si="45">Y41-Y45</f>
-        <v>3940.2726594839014</v>
+        <f t="shared" ref="Y46:Z46" si="44">Y41-Y45</f>
+        <v>3875.725814483897</v>
       </c>
       <c r="Z46" s="8">
-        <f t="shared" si="45"/>
-        <v>4334.2999254322858</v>
+        <f t="shared" si="44"/>
+        <v>4338.7215806372915</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -3135,24 +3120,24 @@
         <v>-13.4</v>
       </c>
       <c r="J48" s="2">
-        <f>I63*$AC$55/4</f>
+        <f>I62*$AC$54/4</f>
         <v>-0.40900000000000092</v>
       </c>
       <c r="K48" s="2">
-        <f>J63*$AC$55/4</f>
-        <v>1.0222508804347816</v>
+        <f>J62*$AC$54/4</f>
+        <v>0.93805965217391218</v>
       </c>
       <c r="L48" s="2">
-        <f>K63*$AC$55/4</f>
-        <v>2.917758598850543</v>
+        <f>K62*$AC$54/4</f>
+        <v>2.721730151652173</v>
       </c>
       <c r="M48" s="2">
-        <f>L63*$AC$55/4</f>
-        <v>4.8962983783304406</v>
+        <f>L62*$AC$54/4</f>
+        <v>4.5831011244326954</v>
       </c>
       <c r="N48" s="2">
-        <f>M63*$AC$55/4</f>
-        <v>6.9606548023187775</v>
+        <f>M62*$AC$54/4</f>
+        <v>6.5247720285825981</v>
       </c>
       <c r="P48" s="2">
         <v>-2.2000000000000002</v>
@@ -3171,24 +3156,24 @@
         <v>-37.609000000000002</v>
       </c>
       <c r="V48" s="2">
-        <f>U63*$AC$55</f>
-        <v>4.0890035217391265</v>
+        <f>U62*$AC$54</f>
+        <v>3.7522386086956487</v>
       </c>
       <c r="W48" s="2">
-        <f>V63*$AC$55</f>
-        <v>48.88902332443471</v>
+        <f>V62*$AC$54</f>
+        <v>47.978437124963975</v>
       </c>
       <c r="X48" s="2">
-        <f>W63*$AC$55</f>
-        <v>100.8388674964103</v>
+        <f>W62*$AC$54</f>
+        <v>98.208871087345514</v>
       </c>
       <c r="Y48" s="2">
-        <f>X63*$AC$55</f>
-        <v>160.92431892237406</v>
+        <f>X62*$AC$54</f>
+        <v>155.1669498899634</v>
       </c>
       <c r="Z48" s="2">
-        <f>Y63*$AC$55</f>
-        <v>227.97522238446072</v>
+        <f>Y62*$AC$54</f>
+        <v>219.66123411994516</v>
       </c>
     </row>
     <row r="49" spans="2:92" x14ac:dyDescent="0.2">
@@ -3200,15 +3185,15 @@
         <v>1588.7</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" ref="D49:F49" si="46">D46+SUM(D47:D48)</f>
+        <f t="shared" ref="D49:F49" si="45">D46+SUM(D47:D48)</f>
         <v>355.50000000000017</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>382.00000000000017</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>354.20000000000016</v>
       </c>
       <c r="G49" s="2">
@@ -3220,72 +3205,72 @@
         <v>375.20000000000033</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" ref="I49:L49" si="47">I46+SUM(I47:I48)</f>
+        <f t="shared" ref="I49:L49" si="46">I46+SUM(I47:I48)</f>
         <v>115.8</v>
       </c>
       <c r="J49" s="2">
+        <f t="shared" si="46"/>
+        <v>336.76491304347826</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="46"/>
+        <v>445.91762486956526</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="46"/>
+        <v>465.34274319513054</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" ref="M49:N49" si="47">M46+SUM(M47:M48)</f>
+        <v>485.4177260374758</v>
+      </c>
+      <c r="N49" s="2">
         <f t="shared" si="47"/>
-        <v>336.76491304347826</v>
-      </c>
-      <c r="K49" s="2">
-        <f t="shared" si="47"/>
-        <v>446.00181609782612</v>
-      </c>
-      <c r="L49" s="2">
-        <f t="shared" si="47"/>
-        <v>465.53877164232887</v>
-      </c>
-      <c r="M49" s="2">
-        <f t="shared" ref="M49:N49" si="48">M46+SUM(M47:M48)</f>
-        <v>485.73092329137353</v>
-      </c>
-      <c r="N49" s="2">
+        <v>765.07070712119071</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" ref="P49:R49" si="48">P46+SUM(P47:P48)</f>
+        <v>84.800000000000253</v>
+      </c>
+      <c r="Q49" s="2">
         <f t="shared" si="48"/>
-        <v>765.50658989492695</v>
-      </c>
-      <c r="P49" s="2">
-        <f t="shared" ref="P49:R49" si="49">P46+SUM(P47:P48)</f>
-        <v>84.800000000000253</v>
-      </c>
-      <c r="Q49" s="2">
+        <v>118.59999999999998</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="48"/>
+        <v>336.90000000000003</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" ref="S49:T49" si="49">S46+SUM(S47:S48)</f>
+        <v>761.24</v>
+      </c>
+      <c r="T49" s="2">
         <f t="shared" si="49"/>
-        <v>118.59999999999998</v>
-      </c>
-      <c r="R49" s="2">
-        <f t="shared" si="49"/>
-        <v>336.90000000000003</v>
-      </c>
-      <c r="S49" s="2">
-        <f t="shared" ref="S49:T49" si="50">S46+SUM(S47:S48)</f>
-        <v>761.24</v>
-      </c>
-      <c r="T49" s="2">
+        <v>1214.2500000000014</v>
+      </c>
+      <c r="U49" s="2">
+        <f t="shared" ref="U49:V49" si="50">U46+SUM(U47:U48)</f>
+        <v>1326.8649130434783</v>
+      </c>
+      <c r="V49" s="2">
         <f t="shared" si="50"/>
-        <v>1214.2500000000014</v>
-      </c>
-      <c r="U49" s="2">
-        <f t="shared" ref="U49:V49" si="51">U46+SUM(U47:U48)</f>
-        <v>1326.8649130434783</v>
-      </c>
-      <c r="V49" s="2">
-        <f t="shared" si="51"/>
-        <v>2764.4741721798136</v>
+        <v>2764.1374072667704</v>
       </c>
       <c r="W49" s="2">
-        <f t="shared" ref="W49" si="52">W46+SUM(W47:W48)</f>
-        <v>3195.3127088483166</v>
+        <f t="shared" ref="W49" si="51">W46+SUM(W47:W48)</f>
+        <v>3139.4021226488458</v>
       </c>
       <c r="X49" s="2">
-        <f t="shared" ref="X49" si="53">X46+SUM(X47:X48)</f>
-        <v>3685.3249215726787</v>
+        <f t="shared" ref="X49" si="52">X46+SUM(X47:X48)</f>
+        <v>3559.8799251636187</v>
       </c>
       <c r="Y49" s="2">
-        <f t="shared" ref="Y49:Z49" si="54">Y46+SUM(Y47:Y48)</f>
-        <v>4101.1969784062758</v>
+        <f t="shared" ref="Y49:Z49" si="53">Y46+SUM(Y47:Y48)</f>
+        <v>4030.8927643738602</v>
       </c>
       <c r="Z49" s="2">
-        <f t="shared" si="54"/>
-        <v>4562.2751478167465</v>
+        <f t="shared" si="53"/>
+        <v>4558.3828147572367</v>
       </c>
     </row>
     <row r="50" spans="2:92" x14ac:dyDescent="0.2">
@@ -3314,24 +3299,24 @@
         <v>5.8</v>
       </c>
       <c r="J50" s="2">
-        <f>J49*J57</f>
-        <v>50.514736956521737</v>
+        <f>J49*0.2</f>
+        <v>67.352982608695655</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" ref="K50:N50" si="55">K49*K57</f>
-        <v>66.900272414673921</v>
+        <f t="shared" ref="K50:N50" si="54">K49*0.2</f>
+        <v>89.183524973913052</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" si="55"/>
-        <v>69.83081574634933</v>
+        <f t="shared" si="54"/>
+        <v>93.068548639026119</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="55"/>
-        <v>72.859638493706029</v>
+        <f t="shared" si="54"/>
+        <v>97.083545207495163</v>
       </c>
       <c r="N50" s="2">
-        <f t="shared" si="55"/>
-        <v>114.82598848423903</v>
+        <f t="shared" si="54"/>
+        <v>153.01414142423815</v>
       </c>
       <c r="P50" s="2">
         <v>2.9</v>
@@ -3350,27 +3335,27 @@
       </c>
       <c r="U50" s="2">
         <f>SUM(G50:J50)</f>
-        <v>187.91473695652175</v>
+        <v>204.75298260869567</v>
       </c>
       <c r="V50" s="2">
-        <f t="shared" ref="V50:Z50" si="56">V57*V46</f>
-        <v>524.47318204503415</v>
+        <f>V49*0.2</f>
+        <v>552.82748145335415</v>
       </c>
       <c r="W50" s="2">
-        <f t="shared" si="56"/>
-        <v>597.82050024953753</v>
+        <f t="shared" ref="W50:Z50" si="55">W49*0.2</f>
+        <v>627.88042452976924</v>
       </c>
       <c r="X50" s="2">
-        <f t="shared" si="56"/>
-        <v>681.052350274491</v>
+        <f t="shared" si="55"/>
+        <v>711.97598503272377</v>
       </c>
       <c r="Y50" s="2">
-        <f t="shared" si="56"/>
-        <v>748.65180530194129</v>
+        <f t="shared" si="55"/>
+        <v>806.17855287477209</v>
       </c>
       <c r="Z50" s="2">
-        <f t="shared" si="56"/>
-        <v>823.51698583213431</v>
+        <f t="shared" si="55"/>
+        <v>911.67656295144741</v>
       </c>
     </row>
     <row r="51" spans="2:92" x14ac:dyDescent="0.2">
@@ -3382,15 +3367,15 @@
         <v>1568.5</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" ref="D51:F51" si="57">D49-D50</f>
+        <f t="shared" ref="D51:F51" si="56">D49-D50</f>
         <v>417.00000000000017</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>402.00000000000017</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>353.20000000000016</v>
       </c>
       <c r="G51" s="8">
@@ -3407,332 +3392,332 @@
       </c>
       <c r="J51" s="8">
         <f>J49-J50</f>
-        <v>286.25017608695651</v>
+        <v>269.41193043478262</v>
       </c>
       <c r="K51" s="8">
-        <f t="shared" ref="K51:L51" si="58">K49-K50</f>
-        <v>379.10154368315222</v>
+        <f t="shared" ref="K51:L51" si="57">K49-K50</f>
+        <v>356.73409989565221</v>
       </c>
       <c r="L51" s="8">
+        <f t="shared" si="57"/>
+        <v>372.27419455610442</v>
+      </c>
+      <c r="M51" s="8">
+        <f t="shared" ref="M51:N51" si="58">M49-M50</f>
+        <v>388.33418082998065</v>
+      </c>
+      <c r="N51" s="8">
         <f t="shared" si="58"/>
-        <v>395.70795589597952</v>
-      </c>
-      <c r="M51" s="8">
-        <f t="shared" ref="M51:N51" si="59">M49-M50</f>
-        <v>412.8712847976675</v>
-      </c>
-      <c r="N51" s="8">
-        <f t="shared" si="59"/>
-        <v>650.68060141068793</v>
+        <v>612.05656569695259</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="8">
-        <f t="shared" ref="P51:R51" si="60">P49-P50</f>
+        <f t="shared" ref="P51:R51" si="59">P49-P50</f>
         <v>81.900000000000247</v>
       </c>
       <c r="Q51" s="8">
+        <f t="shared" si="59"/>
+        <v>111.69999999999997</v>
+      </c>
+      <c r="R51" s="8">
+        <f t="shared" si="59"/>
+        <v>284.00000000000006</v>
+      </c>
+      <c r="S51" s="8">
+        <f t="shared" ref="S51:U51" si="60">S49-S50</f>
+        <v>650.64</v>
+      </c>
+      <c r="T51" s="8">
         <f t="shared" si="60"/>
-        <v>111.69999999999997</v>
-      </c>
-      <c r="R51" s="8">
+        <v>1150.9500000000014</v>
+      </c>
+      <c r="U51" s="8">
         <f t="shared" si="60"/>
-        <v>284.00000000000006</v>
-      </c>
-      <c r="S51" s="8">
-        <f t="shared" ref="S51:Y51" si="61">S49-S50</f>
-        <v>650.64</v>
-      </c>
-      <c r="T51" s="8">
-        <f t="shared" si="61"/>
-        <v>1150.9500000000014</v>
-      </c>
-      <c r="U51" s="8">
-        <f t="shared" si="61"/>
-        <v>1138.9501760869566</v>
+        <v>1122.1119304347826</v>
       </c>
       <c r="V51" s="8">
-        <f t="shared" si="61"/>
-        <v>2240.0009901347794</v>
+        <f>V49-V50</f>
+        <v>2211.3099258134162</v>
       </c>
       <c r="W51" s="8">
-        <f t="shared" si="61"/>
-        <v>2597.4922085987791</v>
+        <f t="shared" ref="W51:Z51" si="61">W49-W50</f>
+        <v>2511.5216981190765</v>
       </c>
       <c r="X51" s="8">
         <f t="shared" si="61"/>
-        <v>3004.2725712981878</v>
+        <v>2847.9039401308951</v>
       </c>
       <c r="Y51" s="8">
         <f t="shared" si="61"/>
-        <v>3352.5451731043345</v>
+        <v>3224.7142114990884</v>
       </c>
       <c r="Z51" s="8">
-        <f t="shared" ref="Z51" si="62">Z49-Z50</f>
-        <v>3738.7581619846123</v>
+        <f t="shared" si="61"/>
+        <v>3646.7062518057892</v>
       </c>
       <c r="AA51" s="8">
-        <f t="shared" ref="AA51:BF51" si="63">Z51*(1+$AC$56)</f>
-        <v>3813.5333252243045</v>
+        <f t="shared" ref="AA51:BF51" si="62">Z51*(1+$AC$55)</f>
+        <v>3719.640376841905</v>
       </c>
       <c r="AB51" s="8">
+        <f t="shared" si="62"/>
+        <v>3794.033184378743</v>
+      </c>
+      <c r="AC51" s="8">
+        <f t="shared" si="62"/>
+        <v>3869.9138480663178</v>
+      </c>
+      <c r="AD51" s="8">
+        <f t="shared" si="62"/>
+        <v>3947.312125027644</v>
+      </c>
+      <c r="AE51" s="8">
+        <f t="shared" si="62"/>
+        <v>4026.2583675281971</v>
+      </c>
+      <c r="AF51" s="8">
+        <f t="shared" si="62"/>
+        <v>4106.7835348787612</v>
+      </c>
+      <c r="AG51" s="8">
+        <f t="shared" si="62"/>
+        <v>4188.9192055763369</v>
+      </c>
+      <c r="AH51" s="8">
+        <f t="shared" si="62"/>
+        <v>4272.6975896878639</v>
+      </c>
+      <c r="AI51" s="8">
+        <f t="shared" si="62"/>
+        <v>4358.1515414816213</v>
+      </c>
+      <c r="AJ51" s="8">
+        <f t="shared" si="62"/>
+        <v>4445.3145723112539</v>
+      </c>
+      <c r="AK51" s="8">
+        <f t="shared" si="62"/>
+        <v>4534.2208637574786</v>
+      </c>
+      <c r="AL51" s="8">
+        <f t="shared" si="62"/>
+        <v>4624.9052810326284</v>
+      </c>
+      <c r="AM51" s="8">
+        <f t="shared" si="62"/>
+        <v>4717.4033866532809</v>
+      </c>
+      <c r="AN51" s="8">
+        <f t="shared" si="62"/>
+        <v>4811.7514543863463</v>
+      </c>
+      <c r="AO51" s="8">
+        <f t="shared" si="62"/>
+        <v>4907.9864834740729</v>
+      </c>
+      <c r="AP51" s="8">
+        <f t="shared" si="62"/>
+        <v>5006.1462131435546</v>
+      </c>
+      <c r="AQ51" s="8">
+        <f t="shared" si="62"/>
+        <v>5106.2691374064261</v>
+      </c>
+      <c r="AR51" s="8">
+        <f t="shared" si="62"/>
+        <v>5208.3945201545548</v>
+      </c>
+      <c r="AS51" s="8">
+        <f t="shared" si="62"/>
+        <v>5312.5624105576462</v>
+      </c>
+      <c r="AT51" s="8">
+        <f t="shared" si="62"/>
+        <v>5418.8136587687995</v>
+      </c>
+      <c r="AU51" s="8">
+        <f t="shared" si="62"/>
+        <v>5527.1899319441754</v>
+      </c>
+      <c r="AV51" s="8">
+        <f t="shared" si="62"/>
+        <v>5637.7337305830588</v>
+      </c>
+      <c r="AW51" s="8">
+        <f t="shared" si="62"/>
+        <v>5750.4884051947201</v>
+      </c>
+      <c r="AX51" s="8">
+        <f t="shared" si="62"/>
+        <v>5865.4981732986143</v>
+      </c>
+      <c r="AY51" s="8">
+        <f t="shared" si="62"/>
+        <v>5982.8081367645864</v>
+      </c>
+      <c r="AZ51" s="8">
+        <f t="shared" si="62"/>
+        <v>6102.4642994998785</v>
+      </c>
+      <c r="BA51" s="8">
+        <f t="shared" si="62"/>
+        <v>6224.5135854898763</v>
+      </c>
+      <c r="BB51" s="8">
+        <f t="shared" si="62"/>
+        <v>6349.0038571996738</v>
+      </c>
+      <c r="BC51" s="8">
+        <f t="shared" si="62"/>
+        <v>6475.983934343667</v>
+      </c>
+      <c r="BD51" s="8">
+        <f t="shared" si="62"/>
+        <v>6605.5036130305407</v>
+      </c>
+      <c r="BE51" s="8">
+        <f t="shared" si="62"/>
+        <v>6737.6136852911513</v>
+      </c>
+      <c r="BF51" s="8">
+        <f t="shared" si="62"/>
+        <v>6872.3659589969748</v>
+      </c>
+      <c r="BG51" s="8">
+        <f t="shared" ref="BG51:CN51" si="63">BF51*(1+$AC$55)</f>
+        <v>7009.8132781769145</v>
+      </c>
+      <c r="BH51" s="8">
         <f t="shared" si="63"/>
-        <v>3889.8039917287906</v>
-      </c>
-      <c r="AC51" s="8">
+        <v>7150.0095437404525</v>
+      </c>
+      <c r="BI51" s="8">
         <f t="shared" si="63"/>
-        <v>3967.6000715633663</v>
-      </c>
-      <c r="AD51" s="8">
+        <v>7293.0097346152616</v>
+      </c>
+      <c r="BJ51" s="8">
         <f t="shared" si="63"/>
-        <v>4046.9520729946339</v>
-      </c>
-      <c r="AE51" s="8">
+        <v>7438.869929307567</v>
+      </c>
+      <c r="BK51" s="8">
         <f t="shared" si="63"/>
-        <v>4127.8911144545264</v>
-      </c>
-      <c r="AF51" s="8">
+        <v>7587.6473278937183</v>
+      </c>
+      <c r="BL51" s="8">
         <f t="shared" si="63"/>
-        <v>4210.4489367436172</v>
-      </c>
-      <c r="AG51" s="8">
+        <v>7739.4002744515928</v>
+      </c>
+      <c r="BM51" s="8">
         <f t="shared" si="63"/>
-        <v>4294.6579154784895</v>
-      </c>
-      <c r="AH51" s="8">
+        <v>7894.1882799406249</v>
+      </c>
+      <c r="BN51" s="8">
         <f t="shared" si="63"/>
-        <v>4380.5510737880595</v>
-      </c>
-      <c r="AI51" s="8">
+        <v>8052.0720455394376</v>
+      </c>
+      <c r="BO51" s="8">
         <f t="shared" si="63"/>
-        <v>4468.1620952638204</v>
-      </c>
-      <c r="AJ51" s="8">
+        <v>8213.1134864502274</v>
+      </c>
+      <c r="BP51" s="8">
         <f t="shared" si="63"/>
-        <v>4557.5253371690969</v>
-      </c>
-      <c r="AK51" s="8">
+        <v>8377.3757561792318</v>
+      </c>
+      <c r="BQ51" s="8">
         <f t="shared" si="63"/>
-        <v>4648.6758439124787</v>
-      </c>
-      <c r="AL51" s="8">
+        <v>8544.9232713028159</v>
+      </c>
+      <c r="BR51" s="8">
         <f t="shared" si="63"/>
-        <v>4741.6493607907287</v>
-      </c>
-      <c r="AM51" s="8">
+        <v>8715.8217367288726</v>
+      </c>
+      <c r="BS51" s="8">
         <f t="shared" si="63"/>
-        <v>4836.4823480065434</v>
-      </c>
-      <c r="AN51" s="8">
+        <v>8890.1381714634499</v>
+      </c>
+      <c r="BT51" s="8">
         <f t="shared" si="63"/>
-        <v>4933.211994966674</v>
-      </c>
-      <c r="AO51" s="8">
+        <v>9067.9409348927184</v>
+      </c>
+      <c r="BU51" s="8">
         <f t="shared" si="63"/>
-        <v>5031.8762348660075</v>
-      </c>
-      <c r="AP51" s="8">
+        <v>9249.2997535905724</v>
+      </c>
+      <c r="BV51" s="8">
         <f t="shared" si="63"/>
-        <v>5132.5137595633278</v>
-      </c>
-      <c r="AQ51" s="8">
+        <v>9434.2857486623834</v>
+      </c>
+      <c r="BW51" s="8">
         <f t="shared" si="63"/>
-        <v>5235.1640347545945</v>
-      </c>
-      <c r="AR51" s="8">
+        <v>9622.9714636356312</v>
+      </c>
+      <c r="BX51" s="8">
         <f t="shared" si="63"/>
-        <v>5339.8673154496864</v>
-      </c>
-      <c r="AS51" s="8">
+        <v>9815.4308929083436</v>
+      </c>
+      <c r="BY51" s="8">
         <f t="shared" si="63"/>
-        <v>5446.6646617586803</v>
-      </c>
-      <c r="AT51" s="8">
+        <v>10011.739510766511</v>
+      </c>
+      <c r="BZ51" s="8">
         <f t="shared" si="63"/>
-        <v>5555.5979549938538</v>
-      </c>
-      <c r="AU51" s="8">
+        <v>10211.974300981841</v>
+      </c>
+      <c r="CA51" s="8">
         <f t="shared" si="63"/>
-        <v>5666.7099140937307</v>
-      </c>
-      <c r="AV51" s="8">
+        <v>10416.213787001478</v>
+      </c>
+      <c r="CB51" s="8">
         <f t="shared" si="63"/>
-        <v>5780.0441123756054</v>
-      </c>
-      <c r="AW51" s="8">
+        <v>10624.538062741507</v>
+      </c>
+      <c r="CC51" s="8">
         <f t="shared" si="63"/>
-        <v>5895.6449946231178</v>
-      </c>
-      <c r="AX51" s="8">
+        <v>10837.028823996337</v>
+      </c>
+      <c r="CD51" s="8">
         <f t="shared" si="63"/>
-        <v>6013.5578945155803</v>
-      </c>
-      <c r="AY51" s="8">
+        <v>11053.769400476265</v>
+      </c>
+      <c r="CE51" s="8">
         <f t="shared" si="63"/>
-        <v>6133.8290524058921</v>
-      </c>
-      <c r="AZ51" s="8">
+        <v>11274.844788485791</v>
+      </c>
+      <c r="CF51" s="8">
         <f t="shared" si="63"/>
-        <v>6256.5056334540104</v>
-      </c>
-      <c r="BA51" s="8">
+        <v>11500.341684255507</v>
+      </c>
+      <c r="CG51" s="8">
         <f t="shared" si="63"/>
-        <v>6381.6357461230909</v>
-      </c>
-      <c r="BB51" s="8">
+        <v>11730.348517940618</v>
+      </c>
+      <c r="CH51" s="8">
         <f t="shared" si="63"/>
-        <v>6509.2684610455526</v>
-      </c>
-      <c r="BC51" s="8">
+        <v>11964.955488299431</v>
+      </c>
+      <c r="CI51" s="8">
         <f t="shared" si="63"/>
-        <v>6639.4538302664641</v>
-      </c>
-      <c r="BD51" s="8">
+        <v>12204.254598065419</v>
+      </c>
+      <c r="CJ51" s="8">
         <f t="shared" si="63"/>
-        <v>6772.2429068717938</v>
-      </c>
-      <c r="BE51" s="8">
+        <v>12448.339690026729</v>
+      </c>
+      <c r="CK51" s="8">
         <f t="shared" si="63"/>
-        <v>6907.6877650092301</v>
-      </c>
-      <c r="BF51" s="8">
+        <v>12697.306483827264</v>
+      </c>
+      <c r="CL51" s="8">
         <f t="shared" si="63"/>
-        <v>7045.8415203094146</v>
-      </c>
-      <c r="BG51" s="8">
-        <f t="shared" ref="BG51:CN51" si="64">BF51*(1+$AC$56)</f>
-        <v>7186.7583507156032</v>
-      </c>
-      <c r="BH51" s="8">
-        <f t="shared" si="64"/>
-        <v>7330.4935177299158</v>
-      </c>
-      <c r="BI51" s="8">
-        <f t="shared" si="64"/>
-        <v>7477.1033880845143</v>
-      </c>
-      <c r="BJ51" s="8">
-        <f t="shared" si="64"/>
-        <v>7626.6454558462046</v>
-      </c>
-      <c r="BK51" s="8">
-        <f t="shared" si="64"/>
-        <v>7779.1783649631288</v>
-      </c>
-      <c r="BL51" s="8">
-        <f t="shared" si="64"/>
-        <v>7934.7619322623914</v>
-      </c>
-      <c r="BM51" s="8">
-        <f t="shared" si="64"/>
-        <v>8093.457170907639</v>
-      </c>
-      <c r="BN51" s="8">
-        <f t="shared" si="64"/>
-        <v>8255.3263143257918</v>
-      </c>
-      <c r="BO51" s="8">
-        <f t="shared" si="64"/>
-        <v>8420.4328406123077</v>
-      </c>
-      <c r="BP51" s="8">
-        <f t="shared" si="64"/>
-        <v>8588.8414974245534</v>
-      </c>
-      <c r="BQ51" s="8">
-        <f t="shared" si="64"/>
-        <v>8760.6183273730439</v>
-      </c>
-      <c r="BR51" s="8">
-        <f t="shared" si="64"/>
-        <v>8935.8306939205049</v>
-      </c>
-      <c r="BS51" s="8">
-        <f t="shared" si="64"/>
-        <v>9114.5473077989154</v>
-      </c>
-      <c r="BT51" s="8">
-        <f t="shared" si="64"/>
-        <v>9296.8382539548948</v>
-      </c>
-      <c r="BU51" s="8">
-        <f t="shared" si="64"/>
-        <v>9482.7750190339921</v>
-      </c>
-      <c r="BV51" s="8">
-        <f t="shared" si="64"/>
-        <v>9672.4305194146727</v>
-      </c>
-      <c r="BW51" s="8">
-        <f t="shared" si="64"/>
-        <v>9865.8791298029664</v>
-      </c>
-      <c r="BX51" s="8">
-        <f t="shared" si="64"/>
-        <v>10063.196712399025</v>
-      </c>
-      <c r="BY51" s="8">
-        <f t="shared" si="64"/>
-        <v>10264.460646647007</v>
-      </c>
-      <c r="BZ51" s="8">
-        <f t="shared" si="64"/>
-        <v>10469.749859579948</v>
-      </c>
-      <c r="CA51" s="8">
-        <f t="shared" si="64"/>
-        <v>10679.144856771547</v>
-      </c>
-      <c r="CB51" s="8">
-        <f t="shared" si="64"/>
-        <v>10892.727753906978</v>
-      </c>
-      <c r="CC51" s="8">
-        <f t="shared" si="64"/>
-        <v>11110.582308985118</v>
-      </c>
-      <c r="CD51" s="8">
-        <f t="shared" si="64"/>
-        <v>11332.793955164821</v>
-      </c>
-      <c r="CE51" s="8">
-        <f t="shared" si="64"/>
-        <v>11559.449834268118</v>
-      </c>
-      <c r="CF51" s="8">
-        <f t="shared" si="64"/>
-        <v>11790.638830953481</v>
-      </c>
-      <c r="CG51" s="8">
-        <f t="shared" si="64"/>
-        <v>12026.451607572551</v>
-      </c>
-      <c r="CH51" s="8">
-        <f t="shared" si="64"/>
-        <v>12266.980639724003</v>
-      </c>
-      <c r="CI51" s="8">
-        <f t="shared" si="64"/>
-        <v>12512.320252518482</v>
-      </c>
-      <c r="CJ51" s="8">
-        <f t="shared" si="64"/>
-        <v>12762.566657568852</v>
-      </c>
-      <c r="CK51" s="8">
-        <f t="shared" si="64"/>
-        <v>13017.817990720228</v>
-      </c>
-      <c r="CL51" s="8">
-        <f t="shared" si="64"/>
-        <v>13278.174350534633</v>
+        <v>12951.25261350381</v>
       </c>
       <c r="CM51" s="8">
-        <f t="shared" si="64"/>
-        <v>13543.737837545326</v>
+        <f t="shared" si="63"/>
+        <v>13210.277665773887</v>
       </c>
       <c r="CN51" s="8">
-        <f t="shared" si="64"/>
-        <v>13814.612594296234</v>
+        <f t="shared" si="63"/>
+        <v>13474.483219089365</v>
       </c>
     </row>
     <row r="52" spans="2:92" x14ac:dyDescent="0.2">
@@ -3740,97 +3725,97 @@
         <v>30</v>
       </c>
       <c r="C52" s="9">
-        <f t="shared" ref="C52:N52" si="65">C51/C53</f>
+        <f t="shared" ref="C52:N52" si="64">C51/C53</f>
         <v>2.9538606403013183</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.77079482439926095</v>
       </c>
       <c r="E52" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.71276595744680882</v>
       </c>
       <c r="F52" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.60170357751277714</v>
       </c>
       <c r="G52" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.71510292663118047</v>
       </c>
       <c r="H52" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.53632719497338643</v>
       </c>
       <c r="I52" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.18534712989969351</v>
       </c>
       <c r="J52" s="9">
-        <f t="shared" si="65"/>
-        <v>0.4558123823040709</v>
+        <f t="shared" si="64"/>
+        <v>0.42899988922736088</v>
       </c>
       <c r="K52" s="9">
-        <f t="shared" si="65"/>
-        <v>0.60366487847635708</v>
+        <f t="shared" si="64"/>
+        <v>0.56804792977014684</v>
       </c>
       <c r="L52" s="9">
-        <f t="shared" si="65"/>
-        <v>0.63010821002544515</v>
+        <f t="shared" si="64"/>
+        <v>0.59279330343328729</v>
       </c>
       <c r="M52" s="9">
-        <f t="shared" si="65"/>
-        <v>0.6574383515886425</v>
+        <f t="shared" si="64"/>
+        <v>0.61836652998404562</v>
       </c>
       <c r="N52" s="9">
-        <f t="shared" si="65"/>
-        <v>1.0361156073418598</v>
+        <f t="shared" si="64"/>
+        <v>0.97461236575947863</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9">
-        <f t="shared" ref="P52:Z52" si="66">P51/P53</f>
+        <f t="shared" ref="P52:Z52" si="65">P51/P53</f>
         <v>0.16058823529411814</v>
       </c>
       <c r="Q52" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.21859099804305279</v>
       </c>
       <c r="R52" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.55252918287937758</v>
       </c>
       <c r="S52" s="9" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T52" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1.939320719618659</v>
       </c>
       <c r="U52" s="9">
-        <f t="shared" si="66"/>
-        <v>1.8136149300747717</v>
+        <f t="shared" si="65"/>
+        <v>1.7868024369980615</v>
       </c>
       <c r="V52" s="9">
-        <f t="shared" si="66"/>
-        <v>3.5668805575394575</v>
+        <f t="shared" si="65"/>
+        <v>3.5211941493844208</v>
       </c>
       <c r="W52" s="9">
-        <f t="shared" si="66"/>
-        <v>4.1361340901254442</v>
+        <f t="shared" si="65"/>
+        <v>3.9992383728010772</v>
       </c>
       <c r="X52" s="9">
-        <f t="shared" si="66"/>
-        <v>4.7838735211754582</v>
+        <f t="shared" si="65"/>
+        <v>4.5348788855587499</v>
       </c>
       <c r="Y52" s="9">
-        <f t="shared" si="66"/>
-        <v>5.3384477278731444</v>
+        <f t="shared" si="65"/>
+        <v>5.1348952412405868</v>
       </c>
       <c r="Z52" s="9">
-        <f t="shared" si="66"/>
-        <v>5.953436563669765</v>
+        <f t="shared" si="65"/>
+        <v>5.8068570888627216</v>
       </c>
     </row>
     <row r="53" spans="2:92" x14ac:dyDescent="0.2">
@@ -3910,87 +3895,95 @@
       <c r="AD53" s="9"/>
       <c r="AE53" s="9"/>
     </row>
+    <row r="54" spans="2:92" x14ac:dyDescent="0.2">
+      <c r="AB54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC54" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
     <row r="55" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" ref="G55:N55" si="67">G39/C39-1</f>
+        <f t="shared" ref="G55:N55" si="66">G39/C39-1</f>
         <v>1.8010001887148519</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.54929193156702771</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.19480519480519476</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.13032666440601348</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.21273370389085389</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.30609369496301508</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.66053913043478274</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.7823119999999999</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="10">
-        <f t="shared" ref="Q55:V55" si="68">Q39/P39-1</f>
+        <f t="shared" ref="Q55:V55" si="67">Q39/P39-1</f>
         <v>6.5313089569670302E-2</v>
       </c>
       <c r="R55" s="10">
+        <f t="shared" si="67"/>
+        <v>0.46064541519086988</v>
+      </c>
+      <c r="S55" s="10">
+        <f t="shared" si="67"/>
+        <v>0.37091279998460358</v>
+      </c>
+      <c r="T55" s="10">
+        <f t="shared" si="67"/>
+        <v>1.1042198949939639</v>
+      </c>
+      <c r="U55" s="10">
+        <f t="shared" si="67"/>
+        <v>0.48206708830357847</v>
+      </c>
+      <c r="V55" s="10">
+        <f t="shared" si="67"/>
+        <v>0.80058519018681062</v>
+      </c>
+      <c r="W55" s="10">
+        <f t="shared" ref="W55:Z55" si="68">W39/V39-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="X55" s="10">
         <f t="shared" si="68"/>
-        <v>0.46064541519086988</v>
-      </c>
-      <c r="S55" s="10">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Y55" s="10">
         <f t="shared" si="68"/>
-        <v>0.37091279998460358</v>
-      </c>
-      <c r="T55" s="10">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Z55" s="10">
         <f t="shared" si="68"/>
-        <v>1.1042198949939639</v>
-      </c>
-      <c r="U55" s="10">
-        <f t="shared" si="68"/>
-        <v>0.48206708830357847</v>
-      </c>
-      <c r="V55" s="10">
-        <f t="shared" si="68"/>
-        <v>0.80058519018681062</v>
-      </c>
-      <c r="W55" s="10">
-        <f t="shared" ref="W55:Z55" si="69">W39/V39-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="X55" s="10">
-        <f t="shared" si="69"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Y55" s="10">
-        <f t="shared" si="69"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Z55" s="10">
-        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AA55" s="10"/>
       <c r="AB55" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="AC55" s="5">
         <v>0.02</v>
@@ -4000,610 +3993,529 @@
     </row>
     <row r="56" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" ref="D56:N56" si="70">D39/C39-1</f>
+        <f t="shared" ref="D56:N56" si="69">D39/C39-1</f>
         <v>0.72905265144366882</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>5.0506152964610251E-2</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>0.37875324675324662</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>0.11845823442975023</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>-4.362472629274039E-2</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>-0.18985558295174354</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="AB56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC56" s="5">
-        <v>0.02</v>
+        <v>9</v>
+      </c>
+      <c r="AC56" s="6">
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="5">
-        <f t="shared" ref="C57:I57" si="71">C50/C46</f>
-        <v>1.2753330387019382E-2</v>
-      </c>
-      <c r="D57" s="5">
-        <f t="shared" si="71"/>
-        <v>-0.16554508748317623</v>
-      </c>
-      <c r="E57" s="5">
-        <f t="shared" si="71"/>
-        <v>-5.2868094105207479E-2</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" si="71"/>
-        <v>2.9129041654529552E-3</v>
-      </c>
-      <c r="G57" s="5">
-        <f t="shared" si="71"/>
-        <v>0.14670070699135909</v>
-      </c>
-      <c r="H57" s="5">
-        <f t="shared" si="71"/>
-        <v>0.15428416485900201</v>
-      </c>
-      <c r="I57" s="5">
-        <f t="shared" si="71"/>
-        <v>3.9322033898305082E-2</v>
-      </c>
-      <c r="J57" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="K57" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="L57" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="M57" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="N57" s="5">
-        <v>0.15</v>
-      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
       <c r="O57" s="5"/>
-      <c r="P57" s="5">
-        <f t="shared" ref="P57:U57" si="72">P50/P46</f>
-        <v>3.3878504672897096E-2</v>
-      </c>
-      <c r="Q57" s="5">
-        <f t="shared" si="72"/>
-        <v>5.5690072639225194E-2</v>
-      </c>
-      <c r="R57" s="5">
-        <f t="shared" si="72"/>
-        <v>0.15781622911694509</v>
-      </c>
-      <c r="S57" s="5">
-        <f t="shared" si="72"/>
-        <v>0.14528926488361094</v>
-      </c>
-      <c r="T57" s="5">
-        <f t="shared" si="72"/>
-        <v>5.2275167230985152E-2</v>
-      </c>
-      <c r="U57" s="5">
-        <f t="shared" si="72"/>
-        <v>0.13790147089322466</v>
-      </c>
-      <c r="V57" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="W57" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="X57" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="Y57" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="Z57" s="5">
-        <v>0.19</v>
-      </c>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
-      <c r="AB57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC57" s="6">
-        <v>9.5000000000000001E-2</v>
+      <c r="AB57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC57" s="8">
+        <f>NPV(AC56,V51:CN51)+Main!N6-Main!N7</f>
+        <v>41443.47135316323</v>
       </c>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
     </row>
     <row r="58" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC58" s="8">
-        <f>NPV(AC57,V51:CN51)+Main!N6-Main!N7</f>
-        <v>42595.749167282236</v>
-      </c>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
+      <c r="B58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" ref="C58:I58" si="70">C41/C39</f>
+        <v>0.83317607095678436</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="70"/>
+        <v>0.15397418756309864</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" si="70"/>
+        <v>0.15514285714285719</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" si="70"/>
+        <v>0.11233563166421766</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="70"/>
+        <v>0.13060468249957885</v>
+      </c>
+      <c r="H58" s="10">
+        <f t="shared" si="70"/>
+        <v>0.11801690736174716</v>
+      </c>
+      <c r="I58" s="10">
+        <f t="shared" si="70"/>
+        <v>9.5869565217391303E-2</v>
+      </c>
+      <c r="J58" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="K58" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="L58" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="M58" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="N58" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="O58" s="10"/>
+      <c r="P58" s="12">
+        <f t="shared" ref="P58:U58" si="71">P41/P39</f>
+        <v>0.1575779354954632</v>
+      </c>
+      <c r="Q58" s="12">
+        <f t="shared" si="71"/>
+        <v>0.15025018271771517</v>
+      </c>
+      <c r="R58" s="12">
+        <f t="shared" si="71"/>
+        <v>0.15396162506495256</v>
+      </c>
+      <c r="S58" s="12">
+        <f t="shared" si="71"/>
+        <v>0.18011062133250977</v>
+      </c>
+      <c r="T58" s="12">
+        <f t="shared" si="71"/>
+        <v>0.13752568515998195</v>
+      </c>
+      <c r="U58" s="12">
+        <f t="shared" si="71"/>
+        <v>0.11733063245554805</v>
+      </c>
+      <c r="V58" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="W58" s="12">
+        <f>V58*1.01</f>
+        <v>0.12625</v>
+      </c>
+      <c r="X58" s="12">
+        <f t="shared" ref="X58:Z58" si="72">W58*1.01</f>
+        <v>0.1275125</v>
+      </c>
+      <c r="Y58" s="12">
+        <f t="shared" si="72"/>
+        <v>0.12878762499999999</v>
+      </c>
+      <c r="Z58" s="12">
+        <f t="shared" si="72"/>
+        <v>0.13007550125</v>
+      </c>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="13">
+        <f>AC57/Main!N4</f>
+        <v>69.440486835500195</v>
+      </c>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
     </row>
     <row r="59" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B59" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="10">
-        <f t="shared" ref="C59:I59" si="73">C41/C39</f>
-        <v>0.83317607095678436</v>
-      </c>
-      <c r="D59" s="10">
+      <c r="B59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="5" t="e">
+        <f>#REF!/C39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D59" s="5" t="e">
+        <f>#REF!/D39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E59" s="5" t="e">
+        <f>#REF!/E39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F59" s="5" t="e">
+        <f>#REF!/F39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G59" s="5" t="e">
+        <f>#REF!/G39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H59" s="5" t="e">
+        <f>#REF!/H39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I59" s="5" t="e">
+        <f>#REF!/I39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J59" s="5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K59" s="5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="L59" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M59" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N59" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5">
+        <f t="shared" ref="P59:Z59" si="73">P107/P39</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
         <f t="shared" si="73"/>
-        <v>0.15397418756309864</v>
-      </c>
-      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="R59" s="5">
         <f t="shared" si="73"/>
-        <v>0.15514285714285719</v>
-      </c>
-      <c r="F59" s="10">
+        <v>-9.3493196820692417E-2</v>
+      </c>
+      <c r="S59" s="5">
         <f t="shared" si="73"/>
-        <v>0.11233563166421766</v>
-      </c>
-      <c r="G59" s="10">
+        <v>8.7977651121655398E-2</v>
+      </c>
+      <c r="T59" s="5">
         <f t="shared" si="73"/>
-        <v>0.13060468249957885</v>
-      </c>
-      <c r="H59" s="10">
+        <v>-0.17412937314866705</v>
+      </c>
+      <c r="U59" s="5">
         <f t="shared" si="73"/>
-        <v>0.11801690736174716</v>
-      </c>
-      <c r="I59" s="10">
+        <v>5.7456858174558922E-2</v>
+      </c>
+      <c r="V59" s="5">
         <f t="shared" si="73"/>
-        <v>9.5869565217391303E-2</v>
-      </c>
-      <c r="J59" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="K59" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="L59" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="M59" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="N59" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="O59" s="10"/>
-      <c r="P59" s="12">
-        <f t="shared" ref="P59:U59" si="74">P41/P39</f>
-        <v>0.1575779354954632</v>
-      </c>
-      <c r="Q59" s="12">
-        <f t="shared" si="74"/>
-        <v>0.15025018271771517</v>
-      </c>
-      <c r="R59" s="12">
-        <f t="shared" si="74"/>
-        <v>0.15396162506495256</v>
-      </c>
-      <c r="S59" s="12">
-        <f t="shared" si="74"/>
-        <v>0.18011062133250977</v>
-      </c>
-      <c r="T59" s="12">
-        <f t="shared" si="74"/>
-        <v>0.13752568515998195</v>
-      </c>
-      <c r="U59" s="12">
-        <f t="shared" si="74"/>
-        <v>0.11733063245554805</v>
-      </c>
-      <c r="V59" s="12">
-        <v>0.125</v>
-      </c>
-      <c r="W59" s="12">
-        <f>V59*1.02</f>
-        <v>0.1275</v>
-      </c>
-      <c r="X59" s="12">
-        <f t="shared" ref="X59" si="75">W59*1.02</f>
-        <v>0.13005</v>
-      </c>
-      <c r="Y59" s="12">
-        <v>0.13</v>
-      </c>
-      <c r="Z59" s="12">
-        <v>0.13</v>
-      </c>
-      <c r="AA59" s="12"/>
+        <v>7.2840768088773558E-2</v>
+      </c>
+      <c r="W59" s="5">
+        <f t="shared" si="73"/>
+        <v>7.4638058537053506E-2</v>
+      </c>
+      <c r="X59" s="5">
+        <f t="shared" si="73"/>
+        <v>7.6399010442010334E-2</v>
+      </c>
+      <c r="Y59" s="5">
+        <f t="shared" si="73"/>
+        <v>7.8127407837861262E-2</v>
+      </c>
+      <c r="Z59" s="5">
+        <f t="shared" si="73"/>
+        <v>7.9826755887120057E-2</v>
+      </c>
+      <c r="AA59" s="5"/>
       <c r="AB59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="13">
-        <f>AC58/Main!N4</f>
-        <v>71.37118254629911</v>
-      </c>
-      <c r="AD59" s="12"/>
-      <c r="AE59" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="AC59" s="5">
+        <f>AC58/Main!N3-1</f>
+        <v>0.673264743024101</v>
+      </c>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
     </row>
     <row r="60" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="5" t="e">
-        <f>#REF!/C39</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D60" s="5" t="e">
-        <f>#REF!/D39</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E60" s="5" t="e">
-        <f>#REF!/E39</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F60" s="5" t="e">
-        <f>#REF!/F39</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G60" s="5" t="e">
-        <f>#REF!/G39</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H60" s="5" t="e">
-        <f>#REF!/H39</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I60" s="5" t="e">
-        <f>#REF!/I39</f>
-        <v>#REF!</v>
+        <v>47</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" ref="C60:N60" si="74">C45/C39</f>
+        <v>8.5912436308737503E-2</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="74"/>
+        <v>5.2607165270539442E-2</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="74"/>
+        <v>5.6883116883116883E-2</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="74"/>
+        <v>4.7662107682453568E-2</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="74"/>
+        <v>4.4837459996631295E-2</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" si="74"/>
+        <v>5.3064459316660796E-2</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="74"/>
+        <v>6.380434782608696E-2</v>
       </c>
       <c r="J60" s="5">
-        <v>6.2E-2</v>
+        <f t="shared" si="74"/>
+        <v>6.380434782608696E-2</v>
       </c>
       <c r="K60" s="5">
-        <v>6.2E-2</v>
+        <f t="shared" si="74"/>
+        <v>5.8197282608695652E-2</v>
       </c>
       <c r="L60" s="5">
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="74"/>
+        <v>5.7618525749261289E-2</v>
       </c>
       <c r="M60" s="5">
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="74"/>
+        <v>5.7051006887097494E-2</v>
       </c>
       <c r="N60" s="5">
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="74"/>
+        <v>4.9067232608300461E-2</v>
       </c>
       <c r="O60" s="5"/>
-      <c r="P60" s="5">
-        <f>P108/P39</f>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="5">
-        <f t="shared" ref="Q60:Z60" si="76">Q108/Q39</f>
-        <v>0</v>
-      </c>
-      <c r="R60" s="5">
-        <f t="shared" si="76"/>
-        <v>-9.3493196820692417E-2</v>
-      </c>
-      <c r="S60" s="5">
-        <f t="shared" si="76"/>
-        <v>8.7977651121655398E-2</v>
-      </c>
-      <c r="T60" s="5">
-        <f t="shared" si="76"/>
-        <v>-0.17412937314866705</v>
-      </c>
-      <c r="U60" s="5">
-        <f t="shared" si="76"/>
-        <v>5.8214825568309682E-2</v>
-      </c>
-      <c r="V60" s="5">
-        <f t="shared" si="76"/>
-        <v>7.3558044696807628E-2</v>
-      </c>
-      <c r="W60" s="5">
-        <f t="shared" si="76"/>
-        <v>7.6591933775228577E-2</v>
-      </c>
-      <c r="X60" s="5">
-        <f t="shared" si="76"/>
-        <v>7.9629767284309774E-2</v>
-      </c>
-      <c r="Y60" s="5">
-        <f t="shared" si="76"/>
-        <v>8.052844017454884E-2</v>
-      </c>
-      <c r="Z60" s="5">
-        <f t="shared" si="76"/>
-        <v>8.1398573218224884E-2</v>
-      </c>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC60" s="5">
-        <f>AC59/Main!N3-1</f>
-        <v>0.83003032169997715</v>
-      </c>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
+      <c r="P60" s="6">
+        <f t="shared" ref="P60:Z60" si="75">P45/P39</f>
+        <v>0.13194382056119547</v>
+      </c>
+      <c r="Q60" s="6">
+        <f t="shared" si="75"/>
+        <v>0.11542137516163491</v>
+      </c>
+      <c r="R60" s="6">
+        <f t="shared" si="75"/>
+        <v>8.9451704162737428E-2</v>
+      </c>
+      <c r="S60" s="6">
+        <f t="shared" si="75"/>
+        <v>7.3245921891231719E-2</v>
+      </c>
+      <c r="T60" s="6">
+        <f t="shared" si="75"/>
+        <v>5.6740853414458406E-2</v>
+      </c>
+      <c r="U60" s="6">
+        <f t="shared" si="75"/>
+        <v>5.5990370783548134E-2</v>
+      </c>
+      <c r="V60" s="6">
+        <f t="shared" si="75"/>
+        <v>5.5990370783548134E-2</v>
+      </c>
+      <c r="W60" s="6">
+        <f t="shared" si="75"/>
+        <v>5.5990370783548141E-2</v>
+      </c>
+      <c r="X60" s="6">
+        <f t="shared" si="75"/>
+        <v>5.5990370783548127E-2</v>
+      </c>
+      <c r="Y60" s="6">
+        <f t="shared" si="75"/>
+        <v>5.5990370783548127E-2</v>
+      </c>
+      <c r="Z60" s="6">
+        <f t="shared" si="75"/>
+        <v>5.5990370783548127E-2</v>
+      </c>
+      <c r="AA60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
     </row>
     <row r="61" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="5">
-        <f t="shared" ref="C61:N61" si="77">C45/C39</f>
-        <v>8.5912436308737503E-2</v>
-      </c>
-      <c r="D61" s="5">
-        <f t="shared" si="77"/>
-        <v>5.2607165270539442E-2</v>
-      </c>
-      <c r="E61" s="5">
-        <f t="shared" si="77"/>
-        <v>5.6883116883116883E-2</v>
-      </c>
-      <c r="F61" s="5">
-        <f t="shared" si="77"/>
-        <v>4.7662107682453568E-2</v>
-      </c>
-      <c r="G61" s="5">
-        <f t="shared" si="77"/>
-        <v>4.4837459996631295E-2</v>
-      </c>
-      <c r="H61" s="5">
-        <f t="shared" si="77"/>
-        <v>5.3064459316660796E-2</v>
-      </c>
-      <c r="I61" s="5">
-        <f t="shared" si="77"/>
-        <v>6.380434782608696E-2</v>
-      </c>
-      <c r="J61" s="5">
-        <f t="shared" si="77"/>
-        <v>6.380434782608696E-2</v>
-      </c>
-      <c r="K61" s="5">
-        <f t="shared" si="77"/>
-        <v>5.8197282608695652E-2</v>
-      </c>
-      <c r="L61" s="5">
-        <f t="shared" si="77"/>
-        <v>5.7618525749261289E-2</v>
-      </c>
-      <c r="M61" s="5">
-        <f t="shared" si="77"/>
-        <v>5.7051006887097494E-2</v>
-      </c>
-      <c r="N61" s="5">
-        <f t="shared" si="77"/>
-        <v>4.9067232608300461E-2</v>
-      </c>
-      <c r="O61" s="5"/>
-      <c r="P61" s="6">
-        <f t="shared" ref="P61:Z61" si="78">P45/P39</f>
-        <v>0.13194382056119547</v>
-      </c>
-      <c r="Q61" s="6">
-        <f t="shared" si="78"/>
-        <v>0.11542137516163491</v>
-      </c>
-      <c r="R61" s="6">
-        <f t="shared" si="78"/>
-        <v>8.9451704162737428E-2</v>
-      </c>
-      <c r="S61" s="6">
-        <f t="shared" si="78"/>
-        <v>7.3245921891231719E-2</v>
-      </c>
-      <c r="T61" s="6">
-        <f t="shared" si="78"/>
-        <v>5.6740853414458406E-2</v>
-      </c>
-      <c r="U61" s="6">
-        <f t="shared" si="78"/>
-        <v>5.5990370783548134E-2</v>
-      </c>
-      <c r="V61" s="6">
-        <f t="shared" si="78"/>
-        <v>5.5990370783548134E-2</v>
-      </c>
-      <c r="W61" s="6">
-        <f t="shared" si="78"/>
-        <v>5.5990370783548141E-2</v>
-      </c>
-      <c r="X61" s="6">
-        <f t="shared" si="78"/>
-        <v>5.5990370783548127E-2</v>
-      </c>
-      <c r="Y61" s="6">
-        <f t="shared" si="78"/>
-        <v>5.5990370783548127E-2</v>
-      </c>
-      <c r="Z61" s="6">
-        <f t="shared" si="78"/>
-        <v>5.5990370783548127E-2</v>
-      </c>
-      <c r="AA61" s="6"/>
-      <c r="AB61" s="6"/>
-      <c r="AC61" s="6"/>
-      <c r="AD61" s="6"/>
-      <c r="AE61" s="6"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AD61" s="11"/>
+      <c r="AE61" s="11"/>
     </row>
     <row r="62" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="11"/>
-      <c r="AE62" s="11"/>
+      <c r="B62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="I62" s="2">
+        <f>I63-(SUM(I77:I79))</f>
+        <v>-81.800000000000182</v>
+      </c>
+      <c r="J62" s="2">
+        <f>I62+J51</f>
+        <v>187.61193043478244</v>
+      </c>
+      <c r="K62" s="2">
+        <f>J62+K51</f>
+        <v>544.34603033043459</v>
+      </c>
+      <c r="L62" s="2">
+        <f>K62+L51</f>
+        <v>916.62022488653906</v>
+      </c>
+      <c r="M62" s="2">
+        <f>L62+M51</f>
+        <v>1304.9544057165197</v>
+      </c>
+      <c r="N62" s="2">
+        <f>M62+N51</f>
+        <v>1917.0109714134724</v>
+      </c>
+      <c r="R62" s="5"/>
+      <c r="S62" s="2">
+        <f>S63-(SUM(S77:S79))</f>
+        <v>282.25900000000001</v>
+      </c>
+      <c r="T62" s="2">
+        <f>T63-(SUM(T77:T79))</f>
+        <v>-172.20000000000005</v>
+      </c>
+      <c r="U62" s="2">
+        <f>J62</f>
+        <v>187.61193043478244</v>
+      </c>
+      <c r="V62" s="2">
+        <f>U62+V51</f>
+        <v>2398.9218562481988</v>
+      </c>
+      <c r="W62" s="2">
+        <f>V62+W51</f>
+        <v>4910.4435543672753</v>
+      </c>
+      <c r="X62" s="2">
+        <f>W62+X51</f>
+        <v>7758.3474944981699</v>
+      </c>
+      <c r="Y62" s="2">
+        <f>X62+Y51</f>
+        <v>10983.061705997257</v>
+      </c>
+      <c r="Z62" s="2">
+        <f>Y62+Z51</f>
+        <v>14629.767957803047</v>
+      </c>
     </row>
     <row r="63" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="5"/>
+        <v>3</v>
+      </c>
       <c r="I63" s="2">
-        <f>I64-(SUM(I78:I80))</f>
-        <v>-81.800000000000182</v>
-      </c>
-      <c r="J63" s="2">
-        <f>I63+J51</f>
-        <v>204.45017608695633</v>
-      </c>
-      <c r="K63" s="2">
-        <f t="shared" ref="K63:N63" si="79">J63+K51</f>
-        <v>583.55171977010855</v>
-      </c>
-      <c r="L63" s="2">
-        <f t="shared" si="79"/>
-        <v>979.25967566608801</v>
-      </c>
-      <c r="M63" s="2">
-        <f t="shared" si="79"/>
-        <v>1392.1309604637554</v>
-      </c>
-      <c r="N63" s="2">
-        <f t="shared" si="79"/>
-        <v>2042.8115618744432</v>
-      </c>
-      <c r="R63" s="5"/>
+        <v>2536.1</v>
+      </c>
       <c r="S63" s="2">
-        <f>S64-(SUM(S78:S80))</f>
-        <v>282.25900000000001</v>
+        <v>440.459</v>
       </c>
       <c r="T63" s="2">
-        <f>T64-(SUM(T78:T80))</f>
-        <v>-172.20000000000005</v>
+        <v>1669.8</v>
       </c>
       <c r="U63" s="2">
         <f>J63</f>
-        <v>204.45017608695633</v>
-      </c>
-      <c r="V63" s="2">
-        <f>U63+V51</f>
-        <v>2444.4511662217355</v>
-      </c>
-      <c r="W63" s="2">
-        <f>V63+W51</f>
-        <v>5041.9433748205147</v>
-      </c>
-      <c r="X63" s="2">
-        <f>W63+X51</f>
-        <v>8046.215946118702</v>
-      </c>
-      <c r="Y63" s="2">
-        <f>X63+Y51</f>
-        <v>11398.761119223036</v>
-      </c>
-      <c r="Z63" s="2">
-        <f>Y63+Z51</f>
-        <v>15137.519281207649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="I64" s="2">
-        <v>2536.1</v>
+        <v>2642.5</v>
       </c>
       <c r="S64" s="2">
-        <v>440.459</v>
+        <v>1148.3</v>
       </c>
       <c r="T64" s="2">
-        <v>1669.8</v>
+        <v>2737.3</v>
       </c>
       <c r="U64" s="2">
-        <f>J64</f>
+        <f t="shared" ref="U64:U69" si="76">J64</f>
         <v>0</v>
       </c>
     </row>
@@ -4612,88 +4524,88 @@
         <v>49</v>
       </c>
       <c r="I65" s="2">
-        <v>2642.5</v>
+        <v>3870.2</v>
       </c>
       <c r="S65" s="2">
-        <v>1148.3</v>
+        <v>1445.6</v>
       </c>
       <c r="T65" s="2">
-        <v>2737.3</v>
+        <v>4333</v>
       </c>
       <c r="U65" s="2">
-        <f t="shared" ref="U65:U70" si="80">J65</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I66" s="2">
-        <v>3870.2</v>
+        <v>464.7</v>
       </c>
       <c r="S66" s="2">
-        <v>1445.6</v>
+        <v>145.1</v>
       </c>
       <c r="T66" s="2">
-        <v>4333</v>
+        <v>191.8</v>
       </c>
       <c r="U66" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="I67" s="2">
-        <v>464.7</v>
+        <v>492.6</v>
       </c>
       <c r="S67" s="2">
-        <v>145.1</v>
+        <v>290.2</v>
       </c>
       <c r="T67" s="2">
-        <v>191.8</v>
+        <v>414.1</v>
       </c>
       <c r="U67" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="I68" s="2">
-        <v>492.6</v>
+        <v>481.2</v>
       </c>
       <c r="S68" s="2">
-        <v>290.2</v>
+        <v>162.6</v>
       </c>
       <c r="T68" s="2">
-        <v>414.1</v>
+        <v>365.2</v>
       </c>
       <c r="U68" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="I69" s="2">
-        <v>481.2</v>
+        <v>251.2</v>
       </c>
       <c r="S69" s="2">
-        <v>162.6</v>
+        <v>42.4</v>
       </c>
       <c r="T69" s="2">
-        <v>365.2</v>
+        <v>114.95</v>
       </c>
       <c r="U69" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
@@ -4701,114 +4613,114 @@
       <c r="B70" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C70" s="2">
+        <f>SUM(C63:C69)</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" ref="D70:P70" si="77">SUM(D63:D69)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
       <c r="I70" s="2">
-        <v>251.2</v>
+        <f t="shared" si="77"/>
+        <v>10738.500000000002</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2">
+        <f t="shared" ref="Q70" si="78">SUM(Q63:Q69)</f>
+        <v>0</v>
+      </c>
+      <c r="R70" s="2">
+        <f t="shared" ref="R70" si="79">SUM(R63:R69)</f>
+        <v>0</v>
       </c>
       <c r="S70" s="2">
-        <v>42.4</v>
+        <f t="shared" ref="S70" si="80">SUM(S63:S69)</f>
+        <v>3674.6589999999997</v>
       </c>
       <c r="T70" s="2">
-        <v>114.95</v>
+        <f t="shared" ref="T70" si="81">SUM(T63:T69)</f>
+        <v>9826.1500000000015</v>
       </c>
       <c r="U70" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
+        <f t="shared" ref="U70" si="82">SUM(U63:U69)</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="2">
+        <f t="shared" ref="V70" si="83">SUM(V63:V69)</f>
+        <v>0</v>
+      </c>
+      <c r="W70" s="2">
+        <f t="shared" ref="W70" si="84">SUM(W63:W69)</f>
+        <v>0</v>
+      </c>
+      <c r="X70" s="2">
+        <f t="shared" ref="X70" si="85">SUM(X63:X69)</f>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2">
+        <f t="shared" ref="Y70" si="86">SUM(Y63:Y69)</f>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2">
+        <f t="shared" ref="Z70" si="87">SUM(Z63:Z69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="2">
-        <f>SUM(C64:C70)</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="2">
-        <f t="shared" ref="D71:P71" si="81">SUM(D64:D70)</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="2">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="2">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="2">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="2">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="2">
-        <f t="shared" si="81"/>
-        <v>10738.500000000002</v>
-      </c>
-      <c r="J71" s="2">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="2">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="2">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="2">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="2">
-        <f t="shared" ref="Q71" si="82">SUM(Q64:Q70)</f>
-        <v>0</v>
-      </c>
-      <c r="R71" s="2">
-        <f t="shared" ref="R71" si="83">SUM(R64:R70)</f>
-        <v>0</v>
-      </c>
-      <c r="S71" s="2">
-        <f t="shared" ref="S71" si="84">SUM(S64:S70)</f>
-        <v>3674.6589999999997</v>
-      </c>
-      <c r="T71" s="2">
-        <f t="shared" ref="T71" si="85">SUM(T64:T70)</f>
-        <v>9826.1500000000015</v>
-      </c>
-      <c r="U71" s="2">
-        <f t="shared" ref="U71" si="86">SUM(U64:U70)</f>
-        <v>0</v>
-      </c>
-      <c r="V71" s="2">
-        <f t="shared" ref="V71" si="87">SUM(V64:V70)</f>
-        <v>0</v>
-      </c>
-      <c r="W71" s="2">
-        <f t="shared" ref="W71" si="88">SUM(W64:W70)</f>
-        <v>0</v>
-      </c>
-      <c r="X71" s="2">
-        <f t="shared" ref="X71" si="89">SUM(X64:X70)</f>
-        <v>0</v>
-      </c>
-      <c r="Y71" s="2">
-        <f t="shared" ref="Y71" si="90">SUM(Y64:Y70)</f>
-        <v>0</v>
-      </c>
-      <c r="Z71" s="2">
-        <f t="shared" ref="Z71" si="91">SUM(Z64:Z70)</f>
+      <c r="I72" s="2">
+        <v>643.1</v>
+      </c>
+      <c r="S72" s="2">
+        <v>776.9</v>
+      </c>
+      <c r="T72" s="2">
+        <v>1472.4</v>
+      </c>
+      <c r="U72" s="2">
+        <f t="shared" ref="U72:U79" si="88">J72</f>
         <v>0</v>
       </c>
     </row>
@@ -4817,90 +4729,90 @@
         <v>54</v>
       </c>
       <c r="I73" s="2">
-        <v>643.1</v>
+        <v>344.7</v>
       </c>
       <c r="S73" s="2">
-        <v>776.9</v>
+        <v>163.9</v>
       </c>
       <c r="T73" s="2">
-        <v>1472.4</v>
+        <v>259.7</v>
       </c>
       <c r="U73" s="2">
-        <f t="shared" ref="U73:U80" si="92">J73</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="I74" s="2">
-        <v>344.7</v>
+        <v>23.6</v>
       </c>
       <c r="S74" s="2">
-        <v>163.9</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="T74" s="2">
-        <v>259.7</v>
+        <v>18.3</v>
       </c>
       <c r="U74" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="I75" s="2">
-        <v>23.6</v>
+        <v>63.97</v>
       </c>
       <c r="S75" s="2">
-        <v>129.19999999999999</v>
+        <v>170.12</v>
       </c>
       <c r="T75" s="2">
-        <v>18.3</v>
+        <v>402.4</v>
       </c>
       <c r="U75" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="I76" s="2">
-        <v>63.97</v>
+        <v>352.8</v>
       </c>
       <c r="S76" s="2">
-        <v>170.12</v>
+        <f>135+170</f>
+        <v>305</v>
       </c>
       <c r="T76" s="2">
-        <v>402.4</v>
+        <f>193+223</f>
+        <v>416</v>
       </c>
       <c r="U76" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="I77" s="2">
-        <v>352.8</v>
+        <v>43</v>
       </c>
       <c r="S77" s="2">
-        <f>135+170</f>
-        <v>305</v>
+        <v>120.2</v>
       </c>
       <c r="T77" s="2">
-        <f>193+223</f>
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="U77" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
@@ -4909,52 +4821,131 @@
         <v>57</v>
       </c>
       <c r="I78" s="2">
-        <v>43</v>
+        <v>2385.3000000000002</v>
       </c>
       <c r="S78" s="2">
-        <v>120.2</v>
+        <v>0</v>
       </c>
       <c r="T78" s="2">
-        <v>74</v>
+        <v>1700</v>
       </c>
       <c r="U78" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="I79" s="2">
-        <v>2385.3000000000002</v>
+        <v>189.6</v>
       </c>
       <c r="S79" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="T79" s="2">
-        <v>1700</v>
+        <v>68</v>
       </c>
       <c r="U79" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>117</v>
+        <v>58</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" ref="C80:N80" si="89">SUM(C72:C79)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
       </c>
       <c r="I80" s="2">
-        <v>189.6</v>
+        <f t="shared" si="89"/>
+        <v>4046.07</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="2">
+        <f t="shared" ref="P80:Z80" si="90">SUM(P72:P79)</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
       </c>
       <c r="S80" s="2">
-        <v>38</v>
+        <f t="shared" si="90"/>
+        <v>1703.32</v>
       </c>
       <c r="T80" s="2">
-        <v>68</v>
+        <f t="shared" si="90"/>
+        <v>4410.8</v>
       </c>
       <c r="U80" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="W80" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="X80" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="2">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -4963,95 +4954,95 @@
         <v>59</v>
       </c>
       <c r="C81" s="2">
-        <f t="shared" ref="C81:N81" si="93">SUM(C73:C80)</f>
+        <f t="shared" ref="C81:N81" si="91">C70-C80</f>
         <v>0</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="93"/>
-        <v>4046.07</v>
+        <f t="shared" si="91"/>
+        <v>6692.4300000000021</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="N81" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="P81" s="2">
-        <f t="shared" ref="P81:Z81" si="94">SUM(P73:P80)</f>
+        <f t="shared" ref="P81:Z81" si="92">P70-P80</f>
         <v>0</v>
       </c>
       <c r="Q81" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="R81" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="94"/>
-        <v>1703.32</v>
+        <f t="shared" si="92"/>
+        <v>1971.3389999999997</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" si="94"/>
-        <v>4410.8</v>
+        <f t="shared" si="92"/>
+        <v>5415.3500000000013</v>
       </c>
       <c r="U81" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="V81" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="W81" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="X81" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Y81" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Z81" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -5060,379 +5051,309 @@
         <v>60</v>
       </c>
       <c r="C82" s="2">
-        <f t="shared" ref="C82:N82" si="95">C71-C81</f>
+        <f>C80+C81</f>
         <v>0</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" ref="D82:P82" si="93">D80+D81</f>
         <v>0</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="95"/>
-        <v>6692.4300000000021</v>
+        <f t="shared" si="93"/>
+        <v>10738.500000000002</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N82" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="P82" s="2">
-        <f t="shared" ref="P82:Z82" si="96">P71-P81</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Q82" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="Q82" si="94">Q80+Q81</f>
         <v>0</v>
       </c>
       <c r="R82" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="R82" si="95">R80+R81</f>
         <v>0</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="96"/>
-        <v>1971.3389999999997</v>
+        <f t="shared" ref="S82" si="96">S80+S81</f>
+        <v>3674.6589999999997</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="96"/>
-        <v>5415.3500000000013</v>
+        <f t="shared" ref="T82" si="97">T80+T81</f>
+        <v>9826.1500000000015</v>
       </c>
       <c r="U82" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="U82" si="98">U80+U81</f>
         <v>0</v>
       </c>
       <c r="V82" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="V82" si="99">V80+V81</f>
         <v>0</v>
       </c>
       <c r="W82" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="W82" si="100">W80+W81</f>
         <v>0</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="X82" si="101">X80+X81</f>
         <v>0</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="Y82" si="102">Y80+Y81</f>
         <v>0</v>
       </c>
       <c r="Z82" s="2">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
+        <f t="shared" ref="Z82" si="103">Z80+Z81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C83" s="2">
-        <f>C81+C82</f>
-        <v>0</v>
-      </c>
-      <c r="D83" s="2">
-        <f t="shared" ref="D83:P83" si="97">D81+D82</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="2">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="2">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="2">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="2">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="2">
-        <f t="shared" si="97"/>
-        <v>10738.500000000002</v>
-      </c>
-      <c r="J83" s="2">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="2">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="2">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="2">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="2">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="P83" s="2">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="Q83" s="2">
-        <f t="shared" ref="Q83" si="98">Q81+Q82</f>
-        <v>0</v>
-      </c>
-      <c r="R83" s="2">
-        <f t="shared" ref="R83" si="99">R81+R82</f>
-        <v>0</v>
-      </c>
-      <c r="S83" s="2">
-        <f t="shared" ref="S83" si="100">S81+S82</f>
-        <v>3674.6589999999997</v>
-      </c>
-      <c r="T83" s="2">
-        <f t="shared" ref="T83" si="101">T81+T82</f>
-        <v>9826.1500000000015</v>
-      </c>
-      <c r="U83" s="2">
-        <f t="shared" ref="U83" si="102">U81+U82</f>
-        <v>0</v>
-      </c>
-      <c r="V83" s="2">
-        <f t="shared" ref="V83" si="103">V81+V82</f>
-        <v>0</v>
-      </c>
-      <c r="W83" s="2">
-        <f t="shared" ref="W83" si="104">W81+W82</f>
-        <v>0</v>
-      </c>
-      <c r="X83" s="2">
-        <f t="shared" ref="X83" si="105">X81+X82</f>
-        <v>0</v>
-      </c>
-      <c r="Y83" s="2">
-        <f t="shared" ref="Y83" si="106">Y81+Y82</f>
-        <v>0</v>
-      </c>
-      <c r="Z83" s="2">
-        <f t="shared" ref="Z83" si="107">Z81+Z82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
+      <c r="C84" s="2">
+        <f t="shared" ref="C84:N84" si="104">C64/C39*90</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <f t="shared" si="104"/>
+        <v>51.701086956521735</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="2">
+        <f t="shared" ref="P84:Z84" si="105">P64/P39*360</f>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="2">
+        <f t="shared" si="105"/>
+        <v>58.032400258303625</v>
+      </c>
+      <c r="T84" s="2">
+        <f t="shared" si="105"/>
+        <v>65.742534624929945</v>
+      </c>
+      <c r="U84" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="X84" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="2">
-        <f t="shared" ref="C85:N85" si="108">C65/C39*90</f>
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="2">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="2">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="2">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="2">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="2">
-        <f t="shared" si="108"/>
-        <v>51.701086956521735</v>
-      </c>
-      <c r="J85" s="2">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="2">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="L85" s="2">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="2">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="N85" s="2">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="P85" s="2">
-        <f t="shared" ref="P85:Z85" si="109">P65/P39*360</f>
-        <v>0</v>
-      </c>
-      <c r="Q85" s="2">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="R85" s="2">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="S85" s="2">
-        <f t="shared" si="109"/>
-        <v>58.032400258303625</v>
-      </c>
-      <c r="T85" s="2">
-        <f t="shared" si="109"/>
-        <v>65.742534624929945</v>
-      </c>
-      <c r="U85" s="2">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="V85" s="2">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="W85" s="2">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="X85" s="2">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="Y85" s="2">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="Z85" s="2">
-        <f t="shared" si="109"/>
-        <v>0</v>
+      <c r="C86" s="2">
+        <f t="shared" ref="C86:N86" si="106">C51</f>
+        <v>1568.5</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="106"/>
+        <v>417.00000000000017</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="106"/>
+        <v>402.00000000000017</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="106"/>
+        <v>353.20000000000016</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="106"/>
+        <v>424.39999999999964</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" si="106"/>
+        <v>318.30000000000035</v>
+      </c>
+      <c r="I86" s="2">
+        <f t="shared" si="106"/>
+        <v>110</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="106"/>
+        <v>269.41193043478262</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="106"/>
+        <v>356.73409989565221</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" si="106"/>
+        <v>372.27419455610442</v>
+      </c>
+      <c r="M86" s="2">
+        <f t="shared" si="106"/>
+        <v>388.33418082998065</v>
+      </c>
+      <c r="N86" s="2">
+        <f t="shared" si="106"/>
+        <v>612.05656569695259</v>
+      </c>
+      <c r="R86" s="2">
+        <f t="shared" ref="R86:Z86" si="107">R51</f>
+        <v>284.00000000000006</v>
+      </c>
+      <c r="S86" s="2">
+        <f t="shared" si="107"/>
+        <v>650.64</v>
+      </c>
+      <c r="T86" s="2">
+        <f t="shared" si="107"/>
+        <v>1150.9500000000014</v>
+      </c>
+      <c r="U86" s="2">
+        <f t="shared" si="107"/>
+        <v>1122.1119304347826</v>
+      </c>
+      <c r="V86" s="2">
+        <f t="shared" si="107"/>
+        <v>2211.3099258134162</v>
+      </c>
+      <c r="W86" s="2">
+        <f t="shared" si="107"/>
+        <v>2511.5216981190765</v>
+      </c>
+      <c r="X86" s="2">
+        <f t="shared" si="107"/>
+        <v>2847.9039401308951</v>
+      </c>
+      <c r="Y86" s="2">
+        <f t="shared" si="107"/>
+        <v>3224.7142114990884</v>
+      </c>
+      <c r="Z86" s="2">
+        <f t="shared" si="107"/>
+        <v>3646.7062518057892</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="2">
-        <f t="shared" ref="C87:N87" si="110">C51</f>
-        <v>1568.5</v>
-      </c>
-      <c r="D87" s="2">
-        <f t="shared" si="110"/>
-        <v>417.00000000000017</v>
-      </c>
-      <c r="E87" s="2">
-        <f t="shared" si="110"/>
-        <v>402.00000000000017</v>
-      </c>
-      <c r="F87" s="2">
-        <f t="shared" si="110"/>
-        <v>353.20000000000016</v>
-      </c>
       <c r="G87" s="2">
-        <f t="shared" si="110"/>
-        <v>424.39999999999964</v>
+        <v>424.3</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="110"/>
-        <v>318.30000000000035</v>
+        <v>745</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="110"/>
-        <v>110</v>
-      </c>
-      <c r="J87" s="2">
-        <f t="shared" si="110"/>
-        <v>286.25017608695651</v>
-      </c>
-      <c r="K87" s="2">
-        <f t="shared" si="110"/>
-        <v>379.10154368315222</v>
-      </c>
-      <c r="L87" s="2">
-        <f t="shared" si="110"/>
-        <v>395.70795589597952</v>
-      </c>
-      <c r="M87" s="2">
-        <f t="shared" si="110"/>
-        <v>412.8712847976675</v>
-      </c>
-      <c r="N87" s="2">
-        <f t="shared" si="110"/>
-        <v>650.68060141068793</v>
+        <v>853.7</v>
       </c>
       <c r="R87" s="2">
-        <f t="shared" ref="R87:Z87" si="111">R51</f>
-        <v>284.00000000000006</v>
+        <v>285.2</v>
       </c>
       <c r="S87" s="2">
-        <f t="shared" si="111"/>
-        <v>650.64</v>
+        <v>640</v>
       </c>
       <c r="T87" s="2">
-        <f t="shared" si="111"/>
-        <v>1150.9500000000014</v>
+        <v>1152.7</v>
       </c>
       <c r="U87" s="2">
-        <f t="shared" si="111"/>
-        <v>1138.9501760869566</v>
-      </c>
-      <c r="V87" s="2">
-        <f t="shared" si="111"/>
-        <v>2240.0009901347794</v>
-      </c>
-      <c r="W87" s="2">
-        <f t="shared" si="111"/>
-        <v>2597.4922085987791</v>
-      </c>
-      <c r="X87" s="2">
-        <f t="shared" si="111"/>
-        <v>3004.2725712981878</v>
-      </c>
-      <c r="Y87" s="2">
-        <f t="shared" si="111"/>
-        <v>3352.5451731043345</v>
-      </c>
-      <c r="Z87" s="2">
-        <f t="shared" si="111"/>
-        <v>3738.7581619846123</v>
+        <f>SUM(G87:I87,J86)</f>
+        <v>2292.4119304347828</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.2">
@@ -5440,332 +5361,355 @@
         <v>64</v>
       </c>
       <c r="G88" s="2">
-        <v>424.3</v>
+        <v>14.1</v>
       </c>
       <c r="H88" s="2">
-        <v>745</v>
+        <v>29</v>
       </c>
       <c r="I88" s="2">
-        <v>853.7</v>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="J88" s="2">
+        <f>I88*(1+J56)</f>
+        <v>51.782608695652179</v>
       </c>
       <c r="R88" s="2">
-        <v>285.2</v>
+        <v>32.5</v>
       </c>
       <c r="S88" s="2">
-        <v>640</v>
+        <v>35</v>
       </c>
       <c r="T88" s="2">
-        <v>1152.7</v>
+        <v>41</v>
       </c>
       <c r="U88" s="2">
-        <f>SUM(G88:I88,J87)</f>
-        <v>2309.2501760869563</v>
+        <f>SUM(G88:J88)</f>
+        <v>134.5826086956522</v>
+      </c>
+      <c r="V88" s="2">
+        <f>U88*(1+V55)</f>
+        <v>242.32745207409803</v>
+      </c>
+      <c r="W88" s="2">
+        <f t="shared" ref="W88:W94" si="108">V88*1.1</f>
+        <v>266.56019728150784</v>
+      </c>
+      <c r="X88" s="2">
+        <f t="shared" ref="X88:Z88" si="109">W88*1.1</f>
+        <v>293.21621700965864</v>
+      </c>
+      <c r="Y88" s="2">
+        <f t="shared" si="109"/>
+        <v>322.5378387106245</v>
+      </c>
+      <c r="Z88" s="2">
+        <f t="shared" si="109"/>
+        <v>354.79162258168697</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="G89" s="2">
-        <v>14.1</v>
+        <v>64</v>
       </c>
       <c r="H89" s="2">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I89" s="2">
-        <v>39.700000000000003</v>
+        <v>230.84</v>
       </c>
       <c r="J89" s="2">
         <f>I89*(1+J56)</f>
-        <v>51.782608695652179</v>
+        <v>301.09565217391304</v>
       </c>
       <c r="R89" s="2">
-        <v>32.5</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="S89" s="2">
-        <v>35</v>
+        <v>54.4</v>
       </c>
       <c r="T89" s="2">
-        <v>41</v>
+        <v>231.5</v>
       </c>
       <c r="U89" s="2">
-        <f>SUM(G89:J89)</f>
-        <v>134.5826086956522</v>
+        <f t="shared" ref="U89:U105" si="110">SUM(G89:J89)</f>
+        <v>741.93565217391301</v>
       </c>
       <c r="V89" s="2">
         <f>U89*(1+V55)</f>
-        <v>242.32745207409803</v>
+        <v>1335.9183473759406</v>
       </c>
       <c r="W89" s="2">
-        <f t="shared" ref="W89:W95" si="112">V89*1.1</f>
-        <v>266.56019728150784</v>
+        <f t="shared" si="108"/>
+        <v>1469.5101821135347</v>
       </c>
       <c r="X89" s="2">
-        <f t="shared" ref="X89:Z89" si="113">W89*1.1</f>
-        <v>293.21621700965864</v>
+        <f t="shared" ref="X89:Z89" si="111">W89*1.1</f>
+        <v>1616.4612003248883</v>
       </c>
       <c r="Y89" s="2">
-        <f t="shared" si="113"/>
-        <v>322.5378387106245</v>
+        <f t="shared" si="111"/>
+        <v>1778.1073203573774</v>
       </c>
       <c r="Z89" s="2">
-        <f t="shared" si="113"/>
-        <v>354.79162258168697</v>
+        <f t="shared" si="111"/>
+        <v>1955.9180523931152</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="G90" s="2">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H90" s="2">
-        <v>146</v>
+        <v>-2.5</v>
       </c>
       <c r="I90" s="2">
-        <v>230.84</v>
+        <v>-2</v>
       </c>
       <c r="J90" s="2">
         <f>I90*(1+J56)</f>
-        <v>301.09565217391304</v>
+        <v>-2.6086956521739131</v>
       </c>
       <c r="R90" s="2">
-        <v>32.799999999999997</v>
+        <v>-1.2</v>
       </c>
       <c r="S90" s="2">
-        <v>54.4</v>
+        <v>3.6</v>
       </c>
       <c r="T90" s="2">
-        <v>231.5</v>
+        <v>-1.8</v>
       </c>
       <c r="U90" s="2">
-        <f t="shared" ref="U90:U106" si="114">SUM(G90:J90)</f>
-        <v>741.93565217391301</v>
+        <f t="shared" si="110"/>
+        <v>-7.1086956521739131</v>
       </c>
       <c r="V90" s="2">
         <f>U90*(1+V55)</f>
-        <v>1335.9183473759406</v>
+        <v>-12.799812112849718</v>
       </c>
       <c r="W90" s="2">
+        <f t="shared" si="108"/>
+        <v>-14.079793324134691</v>
+      </c>
+      <c r="X90" s="2">
+        <f t="shared" ref="X90:Z90" si="112">W90*1.1</f>
+        <v>-15.487772656548161</v>
+      </c>
+      <c r="Y90" s="2">
         <f t="shared" si="112"/>
-        <v>1469.5101821135347</v>
-      </c>
-      <c r="X90" s="2">
-        <f t="shared" ref="X90:Z90" si="115">W90*1.1</f>
-        <v>1616.4612003248883</v>
-      </c>
-      <c r="Y90" s="2">
-        <f t="shared" si="115"/>
-        <v>1778.1073203573774</v>
+        <v>-17.03654992220298</v>
       </c>
       <c r="Z90" s="2">
-        <f t="shared" si="115"/>
-        <v>1955.9180523931152</v>
+        <f t="shared" si="112"/>
+        <v>-18.740204914423281</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="G91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="2">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="I91" s="2">
-        <v>-2</v>
+        <v>2.7</v>
       </c>
       <c r="J91" s="2">
         <f>I91*(1+J56)</f>
-        <v>-2.6086956521739131</v>
+        <v>3.5217391304347827</v>
       </c>
       <c r="R91" s="2">
-        <v>-1.2</v>
+        <v>-13.7</v>
       </c>
       <c r="S91" s="2">
-        <v>3.6</v>
+        <v>-2.6</v>
       </c>
       <c r="T91" s="2">
-        <v>-1.8</v>
+        <v>-0.5</v>
       </c>
       <c r="U91" s="2">
-        <f t="shared" si="114"/>
-        <v>-7.1086956521739131</v>
+        <f t="shared" si="110"/>
+        <v>6.9217391304347835</v>
       </c>
       <c r="V91" s="2">
         <f>U91*(1+V55)</f>
-        <v>-12.799812112849718</v>
+        <v>12.463180968597404</v>
       </c>
       <c r="W91" s="2">
-        <f t="shared" si="112"/>
-        <v>-14.079793324134691</v>
+        <f t="shared" si="108"/>
+        <v>13.709499065457146</v>
       </c>
       <c r="X91" s="2">
-        <f t="shared" ref="X91:Z91" si="116">W91*1.1</f>
-        <v>-15.487772656548161</v>
+        <f t="shared" ref="X91:Z91" si="113">W91*1.1</f>
+        <v>15.080448972002863</v>
       </c>
       <c r="Y91" s="2">
-        <f t="shared" si="116"/>
-        <v>-17.03654992220298</v>
+        <f t="shared" si="113"/>
+        <v>16.588493869203152</v>
       </c>
       <c r="Z91" s="2">
-        <f t="shared" si="116"/>
-        <v>-18.740204914423281</v>
+        <f t="shared" si="113"/>
+        <v>18.247343256123468</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G92" s="2">
-        <v>1</v>
+        <v>-46.5</v>
       </c>
       <c r="H92" s="2">
-        <v>-0.3</v>
+        <v>-76</v>
       </c>
       <c r="I92" s="2">
-        <v>2.7</v>
+        <v>-134.4</v>
       </c>
       <c r="J92" s="2">
         <f>I92*(1+J56)</f>
-        <v>3.5217391304347827</v>
+        <v>-175.30434782608697</v>
       </c>
       <c r="R92" s="2">
-        <v>-13.7</v>
+        <v>-6.8</v>
       </c>
       <c r="S92" s="2">
-        <v>-2.6</v>
+        <v>-93</v>
       </c>
       <c r="T92" s="2">
-        <v>-0.5</v>
+        <v>-168.5</v>
       </c>
       <c r="U92" s="2">
-        <f t="shared" si="114"/>
-        <v>6.9217391304347835</v>
+        <f t="shared" si="110"/>
+        <v>-432.20434782608697</v>
       </c>
       <c r="V92" s="2">
         <f>U92*(1+V55)</f>
-        <v>12.463180968597404</v>
+        <v>-778.2207478300013</v>
       </c>
       <c r="W92" s="2">
-        <f t="shared" si="112"/>
-        <v>13.709499065457146</v>
+        <f t="shared" si="108"/>
+        <v>-856.04282261300148</v>
       </c>
       <c r="X92" s="2">
-        <f t="shared" ref="X92:Z92" si="117">W92*1.1</f>
-        <v>15.080448972002863</v>
+        <f t="shared" ref="X92:Z92" si="114">W92*1.1</f>
+        <v>-941.6471048743017</v>
       </c>
       <c r="Y92" s="2">
-        <f t="shared" si="117"/>
-        <v>16.588493869203152</v>
+        <f t="shared" si="114"/>
+        <v>-1035.811815361732</v>
       </c>
       <c r="Z92" s="2">
-        <f t="shared" si="117"/>
-        <v>18.247343256123468</v>
+        <f t="shared" si="114"/>
+        <v>-1139.3929968979053</v>
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="G93" s="2">
-        <v>-46.5</v>
+        <v>-3.3</v>
       </c>
       <c r="H93" s="2">
-        <v>-76</v>
+        <v>-4</v>
       </c>
       <c r="I93" s="2">
-        <v>-134.4</v>
+        <v>5.6</v>
       </c>
       <c r="J93" s="2">
         <f>I93*(1+J56)</f>
-        <v>-175.30434782608697</v>
+        <v>7.3043478260869561</v>
       </c>
       <c r="R93" s="2">
-        <v>-6.8</v>
+        <v>0.4</v>
       </c>
       <c r="S93" s="2">
-        <v>-93</v>
+        <v>-0.7</v>
       </c>
       <c r="T93" s="2">
-        <v>-168.5</v>
+        <v>12.3</v>
       </c>
       <c r="U93" s="2">
-        <f t="shared" si="114"/>
-        <v>-432.20434782608697</v>
+        <f t="shared" si="110"/>
+        <v>5.6043478260869559</v>
       </c>
       <c r="V93" s="2">
         <f>U93*(1+V55)</f>
-        <v>-778.2207478300013</v>
+        <v>10.091105696307821</v>
       </c>
       <c r="W93" s="2">
-        <f t="shared" si="112"/>
-        <v>-856.04282261300148</v>
+        <f t="shared" si="108"/>
+        <v>11.100216265938604</v>
       </c>
       <c r="X93" s="2">
-        <f t="shared" ref="X93:Z93" si="118">W93*1.1</f>
-        <v>-941.6471048743017</v>
+        <f t="shared" ref="X93:Z93" si="115">W93*1.1</f>
+        <v>12.210237892532465</v>
       </c>
       <c r="Y93" s="2">
-        <f t="shared" si="118"/>
-        <v>-1035.811815361732</v>
+        <f t="shared" si="115"/>
+        <v>13.431261681785713</v>
       </c>
       <c r="Z93" s="2">
-        <f t="shared" si="118"/>
-        <v>-1139.3929968979053</v>
+        <f t="shared" si="115"/>
+        <v>14.774387849964286</v>
       </c>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G94" s="2">
-        <v>-3.3</v>
+        <v>15.3</v>
       </c>
       <c r="H94" s="2">
-        <v>-4</v>
+        <v>-320</v>
       </c>
       <c r="I94" s="2">
-        <v>5.6</v>
+        <v>94.8</v>
       </c>
       <c r="J94" s="2">
         <f>I94*(1+J56)</f>
-        <v>7.3043478260869561</v>
+        <v>123.65217391304347</v>
       </c>
       <c r="R94" s="2">
-        <v>0.4</v>
+        <v>-372.4</v>
       </c>
       <c r="S94" s="2">
-        <v>-0.7</v>
+        <v>-311.89999999999998</v>
       </c>
       <c r="T94" s="2">
-        <v>12.3</v>
+        <v>-1589</v>
       </c>
       <c r="U94" s="2">
-        <f t="shared" si="114"/>
-        <v>5.6043478260869559</v>
+        <f t="shared" si="110"/>
+        <v>-86.247826086956508</v>
       </c>
       <c r="V94" s="2">
-        <f>U94*(1+V55)</f>
-        <v>10.091105696307821</v>
+        <v>0</v>
       </c>
       <c r="W94" s="2">
-        <f t="shared" si="112"/>
-        <v>11.100216265938604</v>
+        <f t="shared" si="108"/>
+        <v>0</v>
       </c>
       <c r="X94" s="2">
-        <f t="shared" ref="X94:Z94" si="119">W94*1.1</f>
-        <v>12.210237892532465</v>
+        <f t="shared" ref="X94:Z94" si="116">W94*1.1</f>
+        <v>0</v>
       </c>
       <c r="Y94" s="2">
-        <f t="shared" si="119"/>
-        <v>13.431261681785713</v>
+        <f t="shared" si="116"/>
+        <v>0</v>
       </c>
       <c r="Z94" s="2">
-        <f t="shared" si="119"/>
-        <v>14.774387849964286</v>
+        <f t="shared" si="116"/>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.2">
@@ -5773,538 +5717,509 @@
         <v>49</v>
       </c>
       <c r="G95" s="2">
-        <v>15.3</v>
+        <v>-600</v>
       </c>
       <c r="H95" s="2">
-        <v>-320</v>
+        <v>733.6</v>
       </c>
       <c r="I95" s="2">
-        <v>94.8</v>
+        <v>457.9</v>
       </c>
       <c r="J95" s="2">
         <f>I95*(1+J56)</f>
-        <v>123.65217391304347</v>
+        <v>597.26086956521738</v>
       </c>
       <c r="R95" s="2">
-        <v>-372.4</v>
+        <v>-504.6</v>
       </c>
       <c r="S95" s="2">
-        <v>-311.89999999999998</v>
+        <v>100</v>
       </c>
       <c r="T95" s="2">
-        <v>-1589</v>
+        <v>-2900</v>
       </c>
       <c r="U95" s="2">
-        <f t="shared" si="114"/>
-        <v>-86.247826086956508</v>
+        <f t="shared" si="110"/>
+        <v>1188.7608695652175</v>
       </c>
       <c r="V95" s="2">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="W95" s="2">
-        <f t="shared" si="112"/>
-        <v>0</v>
+        <f t="shared" ref="W95:Z101" si="117">V95*1.1</f>
+        <v>-550</v>
       </c>
       <c r="X95" s="2">
-        <f t="shared" ref="X95:Z95" si="120">W95*1.1</f>
-        <v>0</v>
+        <f t="shared" si="117"/>
+        <v>-605</v>
       </c>
       <c r="Y95" s="2">
-        <f t="shared" si="120"/>
-        <v>0</v>
+        <f t="shared" si="117"/>
+        <v>-665.5</v>
       </c>
       <c r="Z95" s="2">
-        <f t="shared" si="120"/>
-        <v>0</v>
+        <f t="shared" si="117"/>
+        <v>-732.05000000000007</v>
       </c>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="G96" s="2">
-        <v>-600</v>
+        <v>87</v>
       </c>
       <c r="H96" s="2">
-        <v>733.6</v>
+        <v>-400</v>
       </c>
       <c r="I96" s="2">
-        <v>457.9</v>
+        <v>-284.3</v>
       </c>
       <c r="J96" s="2">
         <f>I96*(1+J56)</f>
-        <v>597.26086956521738</v>
+        <v>-370.82608695652175</v>
       </c>
       <c r="R96" s="2">
-        <v>-504.6</v>
+        <v>-29</v>
       </c>
       <c r="S96" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T96" s="2">
+        <v>-44.7</v>
+      </c>
+      <c r="U96" s="2">
+        <f t="shared" si="110"/>
+        <v>-968.1260869565217</v>
+      </c>
+      <c r="V96" s="2">
         <v>100</v>
       </c>
-      <c r="T96" s="2">
-        <v>-2900</v>
-      </c>
-      <c r="U96" s="2">
-        <f t="shared" si="114"/>
-        <v>1188.7608695652175</v>
-      </c>
-      <c r="V96" s="2">
-        <v>-500</v>
-      </c>
       <c r="W96" s="2">
-        <f t="shared" ref="W96:Z102" si="121">V96*1.1</f>
-        <v>-550</v>
+        <f t="shared" si="117"/>
+        <v>110.00000000000001</v>
       </c>
       <c r="X96" s="2">
-        <f t="shared" si="121"/>
-        <v>-605</v>
+        <f t="shared" si="117"/>
+        <v>121.00000000000003</v>
       </c>
       <c r="Y96" s="2">
-        <f t="shared" si="121"/>
-        <v>-665.5</v>
+        <f t="shared" si="117"/>
+        <v>133.10000000000005</v>
       </c>
       <c r="Z96" s="2">
-        <f t="shared" si="121"/>
-        <v>-732.05000000000007</v>
+        <f t="shared" si="117"/>
+        <v>146.41000000000008</v>
       </c>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G97" s="2">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="H97" s="2">
-        <v>-400</v>
+        <v>-907</v>
       </c>
       <c r="I97" s="2">
-        <v>-284.3</v>
+        <v>-811.7</v>
       </c>
       <c r="J97" s="2">
         <f>I97*(1+J56)</f>
-        <v>-370.82608695652175</v>
+        <v>-1058.7391304347827</v>
       </c>
       <c r="R97" s="2">
-        <v>-29</v>
+        <v>50.1</v>
       </c>
       <c r="S97" s="2">
-        <v>8.3000000000000007</v>
+        <v>127.1</v>
       </c>
       <c r="T97" s="2">
-        <v>-44.7</v>
+        <v>679.2</v>
       </c>
       <c r="U97" s="2">
-        <f t="shared" si="114"/>
-        <v>-968.1260869565217</v>
+        <f t="shared" si="110"/>
+        <v>-2557.4391304347828</v>
       </c>
       <c r="V97" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W97" s="2">
-        <f t="shared" si="121"/>
-        <v>110.00000000000001</v>
+        <f t="shared" si="117"/>
+        <v>0</v>
       </c>
       <c r="X97" s="2">
-        <f t="shared" si="121"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="117"/>
+        <v>0</v>
       </c>
       <c r="Y97" s="2">
-        <f t="shared" si="121"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="117"/>
+        <v>0</v>
       </c>
       <c r="Z97" s="2">
-        <f t="shared" si="121"/>
-        <v>146.41000000000008</v>
+        <f t="shared" si="117"/>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:122" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="G98" s="2">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="H98" s="2">
-        <v>-907</v>
+        <v>-60</v>
       </c>
       <c r="I98" s="2">
-        <v>-811.7</v>
+        <v>52.7</v>
       </c>
       <c r="J98" s="2">
         <f>I98*(1+J56)</f>
-        <v>-1058.7391304347827</v>
+        <v>68.739130434782609</v>
       </c>
       <c r="R98" s="2">
-        <v>50.1</v>
+        <v>36</v>
       </c>
       <c r="S98" s="2">
-        <v>127.1</v>
+        <v>-50.3</v>
       </c>
       <c r="T98" s="2">
-        <v>679.2</v>
+        <v>93</v>
       </c>
       <c r="U98" s="2">
-        <f t="shared" si="114"/>
-        <v>-2557.4391304347828</v>
+        <f t="shared" si="110"/>
+        <v>87.439130434782612</v>
       </c>
       <c r="V98" s="2">
-        <v>0</v>
+        <f>U98*(1+V55)</f>
+        <v>157.4416033036824</v>
       </c>
       <c r="W98" s="2">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f t="shared" si="117"/>
+        <v>173.18576363405066</v>
       </c>
       <c r="X98" s="2">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f t="shared" si="117"/>
+        <v>190.50433999745573</v>
       </c>
       <c r="Y98" s="2">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f t="shared" si="117"/>
+        <v>209.55477399720132</v>
       </c>
       <c r="Z98" s="2">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f t="shared" si="117"/>
+        <v>230.51025139692146</v>
       </c>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G99" s="2">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H99" s="2">
-        <v>-60</v>
+        <v>97</v>
       </c>
       <c r="I99" s="2">
-        <v>52.7</v>
+        <v>5.4</v>
       </c>
       <c r="J99" s="2">
         <f>I99*(1+J56)</f>
-        <v>68.739130434782609</v>
+        <v>7.0434782608695654</v>
       </c>
       <c r="R99" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="S99" s="2">
-        <v>-50.3</v>
+        <v>87.4</v>
       </c>
       <c r="T99" s="2">
-        <v>93</v>
+        <v>-111</v>
       </c>
       <c r="U99" s="2">
-        <f t="shared" si="114"/>
-        <v>87.439130434782612</v>
+        <f t="shared" si="110"/>
+        <v>171.44347826086957</v>
       </c>
       <c r="V99" s="2">
-        <f>U99*(1+V55)</f>
-        <v>157.4416033036824</v>
+        <v>100</v>
       </c>
       <c r="W99" s="2">
-        <f t="shared" si="121"/>
-        <v>173.18576363405066</v>
+        <f t="shared" si="117"/>
+        <v>110.00000000000001</v>
       </c>
       <c r="X99" s="2">
-        <f t="shared" si="121"/>
-        <v>190.50433999745573</v>
+        <f t="shared" si="117"/>
+        <v>121.00000000000003</v>
       </c>
       <c r="Y99" s="2">
-        <f t="shared" si="121"/>
-        <v>209.55477399720132</v>
+        <f t="shared" si="117"/>
+        <v>133.10000000000005</v>
       </c>
       <c r="Z99" s="2">
-        <f t="shared" si="121"/>
-        <v>230.51025139692146</v>
+        <f t="shared" si="117"/>
+        <v>146.41000000000008</v>
       </c>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G100" s="2">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H100" s="2">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="I100" s="2">
-        <v>5.4</v>
+        <v>250</v>
       </c>
       <c r="J100" s="2">
         <f>I100*(1+J56)</f>
-        <v>7.0434782608695654</v>
+        <v>326.08695652173913</v>
       </c>
       <c r="R100" s="2">
-        <v>29</v>
+        <v>31.6</v>
       </c>
       <c r="S100" s="2">
-        <v>87.4</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="T100" s="2">
-        <v>-111</v>
+        <v>112</v>
       </c>
       <c r="U100" s="2">
-        <f t="shared" si="114"/>
-        <v>171.44347826086957</v>
+        <f t="shared" si="110"/>
+        <v>901.08695652173913</v>
       </c>
       <c r="V100" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="W100" s="2">
-        <f t="shared" si="121"/>
-        <v>110.00000000000001</v>
+        <f t="shared" si="117"/>
+        <v>440.00000000000006</v>
       </c>
       <c r="X100" s="2">
-        <f t="shared" si="121"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="117"/>
+        <v>484.00000000000011</v>
       </c>
       <c r="Y100" s="2">
-        <f t="shared" si="121"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="117"/>
+        <v>532.4000000000002</v>
       </c>
       <c r="Z100" s="2">
-        <f t="shared" si="121"/>
-        <v>146.41000000000008</v>
+        <f t="shared" si="117"/>
+        <v>585.64000000000033</v>
       </c>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G101" s="2">
-        <v>142</v>
+        <v>1.5</v>
       </c>
       <c r="H101" s="2">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="I101" s="2">
-        <v>250</v>
+        <v>5.4</v>
       </c>
       <c r="J101" s="2">
         <f>I101*(1+J56)</f>
-        <v>326.08695652173913</v>
+        <v>7.0434782608695654</v>
       </c>
       <c r="R101" s="2">
-        <v>31.6</v>
+        <v>-10.5</v>
       </c>
       <c r="S101" s="2">
-        <v>70.599999999999994</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="T101" s="2">
-        <v>112</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="U101" s="2">
-        <f t="shared" si="114"/>
-        <v>901.08695652173913</v>
+        <f t="shared" si="110"/>
+        <v>17.943478260869565</v>
       </c>
       <c r="V101" s="2">
-        <v>400</v>
+        <f>U101*(1+V55)</f>
+        <v>32.308761216960725</v>
       </c>
       <c r="W101" s="2">
-        <f t="shared" si="121"/>
-        <v>440.00000000000006</v>
+        <f t="shared" si="117"/>
+        <v>35.539637338656803</v>
       </c>
       <c r="X101" s="2">
-        <f t="shared" si="121"/>
-        <v>484.00000000000011</v>
+        <f t="shared" si="117"/>
+        <v>39.093601072522489</v>
       </c>
       <c r="Y101" s="2">
-        <f t="shared" si="121"/>
-        <v>532.4000000000002</v>
+        <f t="shared" si="117"/>
+        <v>43.002961179774744</v>
       </c>
       <c r="Z101" s="2">
-        <f t="shared" si="121"/>
-        <v>585.64000000000033</v>
-      </c>
-    </row>
-    <row r="102" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B102" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G102" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H102" s="2">
-        <v>4</v>
-      </c>
-      <c r="I102" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="J102" s="2">
-        <f>I102*(1+J56)</f>
-        <v>7.0434782608695654</v>
-      </c>
-      <c r="R102" s="2">
-        <v>-10.5</v>
-      </c>
-      <c r="S102" s="2">
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="T102" s="2">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="U102" s="2">
-        <f t="shared" si="114"/>
-        <v>17.943478260869565</v>
-      </c>
-      <c r="V102" s="2">
-        <f>U102*(1+V55)</f>
-        <v>32.308761216960725</v>
-      </c>
-      <c r="W102" s="2">
-        <f t="shared" si="121"/>
-        <v>35.539637338656803</v>
-      </c>
-      <c r="X102" s="2">
-        <f t="shared" si="121"/>
-        <v>39.093601072522489</v>
-      </c>
-      <c r="Y102" s="2">
-        <f t="shared" si="121"/>
-        <v>43.002961179774744</v>
-      </c>
-      <c r="Z102" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="117"/>
         <v>47.303257297752225</v>
       </c>
     </row>
-    <row r="103" spans="1:122" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="8" t="s">
+    <row r="102" spans="1:122" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="8">
-        <f>SUM(C88:C102)</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="8">
-        <f t="shared" ref="D103:H103" si="122">SUM(D88:D102)</f>
-        <v>0</v>
-      </c>
-      <c r="E103" s="8">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="F103" s="8">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="8">
-        <f>SUM(G88:G102)</f>
+      <c r="C102" s="8">
+        <f>SUM(C87:C101)</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="8">
+        <f t="shared" ref="D102:H102" si="118">SUM(D87:D101)</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="8">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="8">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="8">
+        <f>SUM(G87:G101)</f>
         <v>407.40000000000003</v>
       </c>
-      <c r="H103" s="8">
-        <f t="shared" si="122"/>
+      <c r="H102" s="8">
+        <f t="shared" si="118"/>
         <v>167.80000000000018</v>
       </c>
-      <c r="I103" s="8">
-        <f>SUM(I88:I102)</f>
+      <c r="I102" s="8">
+        <f>SUM(I87:I101)</f>
         <v>766.34</v>
       </c>
-      <c r="J103" s="8">
-        <f>SUM(J89:J102,J87)</f>
-        <v>172.30234999999988</v>
-      </c>
-      <c r="K103" s="8">
-        <f t="shared" ref="K103:N103" si="123">SUM(K89:K102,K87)</f>
-        <v>379.10154368315222</v>
-      </c>
-      <c r="L103" s="8">
-        <f t="shared" si="123"/>
-        <v>395.70795589597952</v>
-      </c>
-      <c r="M103" s="8">
-        <f t="shared" si="123"/>
-        <v>412.8712847976675</v>
-      </c>
-      <c r="N103" s="8">
-        <f t="shared" si="123"/>
-        <v>650.68060141068793</v>
-      </c>
-      <c r="R103" s="8">
-        <f>SUM(R88:R102)</f>
+      <c r="J102" s="8">
+        <f>SUM(J88:J101,J86)</f>
+        <v>155.46410434782598</v>
+      </c>
+      <c r="K102" s="8">
+        <f t="shared" ref="K102:N102" si="119">SUM(K88:K101,K86)</f>
+        <v>356.73409989565221</v>
+      </c>
+      <c r="L102" s="8">
+        <f t="shared" si="119"/>
+        <v>372.27419455610442</v>
+      </c>
+      <c r="M102" s="8">
+        <f t="shared" si="119"/>
+        <v>388.33418082998065</v>
+      </c>
+      <c r="N102" s="8">
+        <f t="shared" si="119"/>
+        <v>612.05656569695259</v>
+      </c>
+      <c r="R102" s="8">
+        <f>SUM(R87:R101)</f>
         <v>-440.59999999999991</v>
       </c>
-      <c r="S103" s="8">
-        <f>SUM(S88:S102)</f>
+      <c r="S102" s="8">
+        <f>SUM(S87:S101)</f>
         <v>663.5</v>
       </c>
-      <c r="T103" s="8">
-        <f>SUM(T88:T102)</f>
+      <c r="T102" s="8">
+        <f>SUM(T87:T101)</f>
         <v>-2485.7600000000002</v>
       </c>
-      <c r="U103" s="8">
-        <f>SUM(U88:U102)</f>
-        <v>1513.8423499999994</v>
-      </c>
-      <c r="V103" s="8">
-        <f t="shared" ref="V103:Z103" si="124">SUM(V89:V102,V87)</f>
-        <v>3339.5308808275158</v>
-      </c>
-      <c r="W103" s="8">
-        <f t="shared" si="124"/>
-        <v>3806.9750883607885</v>
-      </c>
-      <c r="X103" s="8">
-        <f t="shared" si="124"/>
-        <v>4334.7037390363985</v>
-      </c>
-      <c r="Y103" s="8">
-        <f t="shared" si="124"/>
-        <v>4816.0194576163667</v>
-      </c>
-      <c r="Z103" s="8">
-        <f t="shared" si="124"/>
-        <v>5348.5798749478472</v>
+      <c r="U102" s="8">
+        <f>SUM(U87:U101)</f>
+        <v>1497.0041043478263</v>
+      </c>
+      <c r="V102" s="8">
+        <f t="shared" ref="V102:Z102" si="120">SUM(V88:V101,V86)</f>
+        <v>3310.8398165061526</v>
+      </c>
+      <c r="W102" s="8">
+        <f t="shared" si="120"/>
+        <v>3721.0045778810859</v>
+      </c>
+      <c r="X102" s="8">
+        <f t="shared" si="120"/>
+        <v>4178.3351078691057</v>
+      </c>
+      <c r="Y102" s="8">
+        <f t="shared" si="120"/>
+        <v>4688.1884960111202</v>
+      </c>
+      <c r="Z102" s="8">
+        <f t="shared" si="120"/>
+        <v>5256.527964769024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:122" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G103" s="2">
+        <v>-44.3</v>
+      </c>
+      <c r="H103" s="2">
+        <v>-71.8</v>
+      </c>
+      <c r="I103" s="2">
+        <v>-104.5</v>
+      </c>
+      <c r="R103" s="2">
+        <v>-45.2</v>
+      </c>
+      <c r="S103" s="2">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="T103" s="2">
+        <v>-124.3</v>
+      </c>
+      <c r="U103" s="2">
+        <f t="shared" si="110"/>
+        <v>-220.6</v>
+      </c>
+      <c r="V103" s="2">
+        <f>U103*(1+V55)</f>
+        <v>-397.20909295521039</v>
+      </c>
+      <c r="W103" s="2">
+        <f>V103*(1+W55)</f>
+        <v>-436.93000225073149</v>
+      </c>
+      <c r="X103" s="2">
+        <f>W103*(1+X55)</f>
+        <v>-480.6230024758047</v>
+      </c>
+      <c r="Y103" s="2">
+        <f>X103*(1+Y55)</f>
+        <v>-528.68530272338523</v>
+      </c>
+      <c r="Z103" s="2">
+        <f>Y103*(1+Z55)</f>
+        <v>-581.55383299572384</v>
       </c>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G104" s="2">
-        <v>-44.3</v>
-      </c>
-      <c r="H104" s="2">
-        <v>-71.8</v>
-      </c>
       <c r="I104" s="2">
-        <v>-104.5</v>
+        <v>0</v>
       </c>
       <c r="R104" s="2">
-        <v>-45.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="S104" s="2">
-        <v>-36.799999999999997</v>
+        <v>-0.5</v>
       </c>
       <c r="T104" s="2">
-        <v>-124.3</v>
+        <v>-69.7</v>
       </c>
       <c r="U104" s="2">
-        <f t="shared" si="114"/>
-        <v>-220.6</v>
-      </c>
-      <c r="V104" s="2">
-        <f>U104*(1+V55)</f>
-        <v>-397.20909295521039</v>
-      </c>
-      <c r="W104" s="2">
-        <f>V104*(1+W55)</f>
-        <v>-436.93000225073149</v>
-      </c>
-      <c r="X104" s="2">
-        <f>W104*(1+X55)</f>
-        <v>-480.6230024758047</v>
-      </c>
-      <c r="Y104" s="2">
-        <f>X104*(1+Y55)</f>
-        <v>-528.68530272338523</v>
-      </c>
-      <c r="Z104" s="2">
-        <f>Y104*(1+Z55)</f>
-        <v>-581.55383299572384</v>
+        <f t="shared" si="110"/>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.2">
@@ -6315,599 +6230,578 @@
         <v>0</v>
       </c>
       <c r="R105" s="2">
-        <v>-1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S105" s="2">
-        <v>-0.5</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="T105" s="2">
-        <v>-69.7</v>
+        <v>-0.3</v>
       </c>
       <c r="U105" s="2">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="B106" s="2" t="s">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:122" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I106" s="2">
-        <v>0</v>
-      </c>
-      <c r="R106" s="2">
-        <v>0</v>
-      </c>
-      <c r="S106" s="2">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="T106" s="2">
-        <v>-0.3</v>
-      </c>
-      <c r="U106" s="2">
-        <f t="shared" si="114"/>
-        <v>0</v>
+      <c r="C106" s="8">
+        <v>-2.63</v>
+      </c>
+      <c r="D106" s="8">
+        <v>-17.350000000000001</v>
+      </c>
+      <c r="E106" s="8">
+        <f t="shared" ref="E106:N106" si="121">E103</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="8">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="8">
+        <f t="shared" si="121"/>
+        <v>-44.3</v>
+      </c>
+      <c r="H106" s="8">
+        <f t="shared" si="121"/>
+        <v>-71.8</v>
+      </c>
+      <c r="I106" s="8">
+        <f t="shared" si="121"/>
+        <v>-104.5</v>
+      </c>
+      <c r="J106" s="8">
+        <v>-50</v>
+      </c>
+      <c r="K106" s="8">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="8">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="8">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="N106" s="8">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="R106" s="8">
+        <f>R103</f>
+        <v>-45.2</v>
+      </c>
+      <c r="S106" s="8">
+        <f t="shared" ref="S106:Z106" si="122">S103</f>
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="T106" s="8">
+        <f t="shared" si="122"/>
+        <v>-124.3</v>
+      </c>
+      <c r="U106" s="8">
+        <f t="shared" si="122"/>
+        <v>-220.6</v>
+      </c>
+      <c r="V106" s="8">
+        <f t="shared" si="122"/>
+        <v>-397.20909295521039</v>
+      </c>
+      <c r="W106" s="8">
+        <f t="shared" si="122"/>
+        <v>-436.93000225073149</v>
+      </c>
+      <c r="X106" s="8">
+        <f t="shared" si="122"/>
+        <v>-480.6230024758047</v>
+      </c>
+      <c r="Y106" s="8">
+        <f t="shared" si="122"/>
+        <v>-528.68530272338523</v>
+      </c>
+      <c r="Z106" s="8">
+        <f t="shared" si="122"/>
+        <v>-581.55383299572384</v>
       </c>
     </row>
     <row r="107" spans="1:122" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="8" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C107" s="8">
+        <f>C102+C106</f>
         <v>-2.63</v>
       </c>
       <c r="D107" s="8">
+        <f t="shared" ref="D107:N107" si="123">D102+D106</f>
         <v>-17.350000000000001</v>
       </c>
       <c r="E107" s="8">
-        <f t="shared" ref="E107:N107" si="125">E104</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="F107" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="G107" s="8">
-        <f t="shared" si="125"/>
-        <v>-44.3</v>
+        <f t="shared" si="123"/>
+        <v>363.1</v>
       </c>
       <c r="H107" s="8">
-        <f t="shared" si="125"/>
-        <v>-71.8</v>
+        <f t="shared" si="123"/>
+        <v>96.000000000000185</v>
       </c>
       <c r="I107" s="8">
-        <f t="shared" si="125"/>
-        <v>-104.5</v>
+        <f t="shared" si="123"/>
+        <v>661.84</v>
       </c>
       <c r="J107" s="8">
-        <v>-50</v>
+        <f t="shared" si="123"/>
+        <v>105.46410434782598</v>
       </c>
       <c r="K107" s="8">
-        <f t="shared" si="125"/>
-        <v>0</v>
+        <f t="shared" si="123"/>
+        <v>356.73409989565221</v>
       </c>
       <c r="L107" s="8">
-        <f t="shared" si="125"/>
-        <v>0</v>
+        <f t="shared" si="123"/>
+        <v>372.27419455610442</v>
       </c>
       <c r="M107" s="8">
-        <f t="shared" si="125"/>
-        <v>0</v>
+        <f t="shared" si="123"/>
+        <v>388.33418082998065</v>
       </c>
       <c r="N107" s="8">
-        <f t="shared" si="125"/>
-        <v>0</v>
+        <f t="shared" si="123"/>
+        <v>612.05656569695259</v>
       </c>
       <c r="R107" s="8">
-        <f>R104</f>
-        <v>-45.2</v>
+        <f>R102+R106</f>
+        <v>-485.7999999999999</v>
       </c>
       <c r="S107" s="8">
-        <f t="shared" ref="S107:Z107" si="126">S104</f>
-        <v>-36.799999999999997</v>
+        <f t="shared" ref="S107:T107" si="124">S102+S106</f>
+        <v>626.70000000000005</v>
       </c>
       <c r="T107" s="8">
-        <f t="shared" si="126"/>
-        <v>-124.3</v>
+        <f t="shared" si="124"/>
+        <v>-2610.0600000000004</v>
       </c>
       <c r="U107" s="8">
-        <f t="shared" si="126"/>
-        <v>-220.6</v>
+        <f t="shared" ref="U107" si="125">U102+U106</f>
+        <v>1276.4041043478264</v>
       </c>
       <c r="V107" s="8">
-        <f t="shared" si="126"/>
-        <v>-397.20909295521039</v>
+        <f t="shared" ref="V107" si="126">V102+V106</f>
+        <v>2913.6307235509421</v>
       </c>
       <c r="W107" s="8">
-        <f t="shared" si="126"/>
-        <v>-436.93000225073149</v>
+        <f t="shared" ref="W107" si="127">W102+W106</f>
+        <v>3284.0745756303545</v>
       </c>
       <c r="X107" s="8">
-        <f t="shared" si="126"/>
-        <v>-480.6230024758047</v>
+        <f t="shared" ref="X107" si="128">X102+X106</f>
+        <v>3697.712105393301</v>
       </c>
       <c r="Y107" s="8">
-        <f t="shared" si="126"/>
-        <v>-528.68530272338523</v>
+        <f t="shared" ref="Y107" si="129">Y102+Y106</f>
+        <v>4159.5031932877346</v>
       </c>
       <c r="Z107" s="8">
-        <f t="shared" si="126"/>
-        <v>-581.55383299572384</v>
-      </c>
-    </row>
-    <row r="108" spans="1:122" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" s="8">
-        <f>C103+C107</f>
-        <v>-2.63</v>
-      </c>
-      <c r="D108" s="8">
-        <f t="shared" ref="D108:N108" si="127">D103+D107</f>
-        <v>-17.350000000000001</v>
-      </c>
-      <c r="E108" s="8">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="F108" s="8">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="8">
-        <f t="shared" si="127"/>
-        <v>363.1</v>
-      </c>
-      <c r="H108" s="8">
-        <f t="shared" si="127"/>
-        <v>96.000000000000185</v>
-      </c>
-      <c r="I108" s="8">
-        <f t="shared" si="127"/>
-        <v>661.84</v>
-      </c>
-      <c r="J108" s="8">
-        <f t="shared" si="127"/>
-        <v>122.30234999999988</v>
-      </c>
-      <c r="K108" s="8">
-        <f t="shared" si="127"/>
-        <v>379.10154368315222</v>
-      </c>
-      <c r="L108" s="8">
-        <f t="shared" si="127"/>
-        <v>395.70795589597952</v>
-      </c>
-      <c r="M108" s="8">
-        <f t="shared" si="127"/>
-        <v>412.8712847976675</v>
-      </c>
-      <c r="N108" s="8">
-        <f t="shared" si="127"/>
-        <v>650.68060141068793</v>
-      </c>
-      <c r="R108" s="8">
-        <f>R103+R107</f>
-        <v>-485.7999999999999</v>
-      </c>
-      <c r="S108" s="8">
-        <f t="shared" ref="S108:T108" si="128">S103+S107</f>
-        <v>626.70000000000005</v>
-      </c>
-      <c r="T108" s="8">
-        <f t="shared" si="128"/>
-        <v>-2610.0600000000004</v>
-      </c>
-      <c r="U108" s="8">
-        <f t="shared" ref="U108" si="129">U103+U107</f>
-        <v>1293.2423499999995</v>
-      </c>
-      <c r="V108" s="8">
-        <f t="shared" ref="V108" si="130">V103+V107</f>
-        <v>2942.3217878723053</v>
-      </c>
-      <c r="W108" s="8">
-        <f t="shared" ref="W108" si="131">W103+W107</f>
-        <v>3370.0450861100571</v>
-      </c>
-      <c r="X108" s="8">
-        <f t="shared" ref="X108" si="132">X103+X107</f>
-        <v>3854.0807365605938</v>
-      </c>
-      <c r="Y108" s="8">
-        <f t="shared" ref="Y108" si="133">Y103+Y107</f>
-        <v>4287.3341548929811</v>
-      </c>
-      <c r="Z108" s="8">
-        <f t="shared" ref="Z108" si="134">Z103+Z107</f>
-        <v>4767.0260419521237</v>
-      </c>
-      <c r="AA108" s="8">
-        <f t="shared" ref="AA108:BF108" si="135">Z108*(1+$AC$56)</f>
-        <v>4862.366562791166</v>
-      </c>
-      <c r="AB108" s="8">
-        <f t="shared" si="135"/>
-        <v>4959.6138940469891</v>
-      </c>
-      <c r="AC108" s="8">
-        <f t="shared" si="135"/>
-        <v>5058.8061719279294</v>
-      </c>
-      <c r="AD108" s="8">
-        <f t="shared" si="135"/>
-        <v>5159.982295366488</v>
-      </c>
-      <c r="AE108" s="8">
-        <f t="shared" si="135"/>
-        <v>5263.1819412738178</v>
-      </c>
-      <c r="AF108" s="8">
-        <f t="shared" si="135"/>
-        <v>5368.4455800992946</v>
-      </c>
-      <c r="AG108" s="8">
-        <f t="shared" si="135"/>
-        <v>5475.8144917012805</v>
-      </c>
-      <c r="AH108" s="8">
-        <f t="shared" si="135"/>
-        <v>5585.3307815353064</v>
-      </c>
-      <c r="AI108" s="8">
-        <f t="shared" si="135"/>
-        <v>5697.0373971660129</v>
-      </c>
-      <c r="AJ108" s="8">
-        <f t="shared" si="135"/>
-        <v>5810.9781451093331</v>
-      </c>
-      <c r="AK108" s="8">
-        <f t="shared" si="135"/>
-        <v>5927.1977080115203</v>
-      </c>
-      <c r="AL108" s="8">
-        <f t="shared" si="135"/>
-        <v>6045.7416621717512</v>
-      </c>
-      <c r="AM108" s="8">
-        <f t="shared" si="135"/>
-        <v>6166.6564954151863</v>
-      </c>
-      <c r="AN108" s="8">
-        <f t="shared" si="135"/>
-        <v>6289.9896253234901</v>
-      </c>
-      <c r="AO108" s="8">
-        <f t="shared" si="135"/>
-        <v>6415.7894178299603</v>
-      </c>
-      <c r="AP108" s="8">
-        <f t="shared" si="135"/>
-        <v>6544.1052061865594</v>
-      </c>
-      <c r="AQ108" s="8">
-        <f t="shared" si="135"/>
-        <v>6674.9873103102909</v>
-      </c>
-      <c r="AR108" s="8">
-        <f t="shared" si="135"/>
-        <v>6808.4870565164965</v>
-      </c>
-      <c r="AS108" s="8">
-        <f t="shared" si="135"/>
-        <v>6944.6567976468268</v>
-      </c>
-      <c r="AT108" s="8">
-        <f t="shared" si="135"/>
-        <v>7083.5499335997638</v>
-      </c>
-      <c r="AU108" s="8">
-        <f t="shared" si="135"/>
-        <v>7225.220932271759</v>
-      </c>
-      <c r="AV108" s="8">
-        <f t="shared" si="135"/>
-        <v>7369.7253509171942</v>
-      </c>
-      <c r="AW108" s="8">
-        <f t="shared" si="135"/>
-        <v>7517.1198579355378</v>
-      </c>
-      <c r="AX108" s="8">
-        <f t="shared" si="135"/>
-        <v>7667.4622550942486</v>
-      </c>
-      <c r="AY108" s="8">
-        <f t="shared" si="135"/>
-        <v>7820.8115001961332</v>
-      </c>
-      <c r="AZ108" s="8">
-        <f t="shared" si="135"/>
-        <v>7977.2277302000557</v>
-      </c>
-      <c r="BA108" s="8">
-        <f t="shared" si="135"/>
-        <v>8136.7722848040567</v>
-      </c>
-      <c r="BB108" s="8">
-        <f t="shared" si="135"/>
-        <v>8299.5077305001378</v>
-      </c>
-      <c r="BC108" s="8">
-        <f t="shared" si="135"/>
-        <v>8465.4978851101405</v>
-      </c>
-      <c r="BD108" s="8">
-        <f t="shared" si="135"/>
-        <v>8634.8078428123426</v>
-      </c>
-      <c r="BE108" s="8">
-        <f t="shared" si="135"/>
-        <v>8807.50399966859</v>
-      </c>
-      <c r="BF108" s="8">
-        <f t="shared" si="135"/>
-        <v>8983.6540796619629</v>
-      </c>
-      <c r="BG108" s="8">
-        <f t="shared" ref="BG108:CL108" si="136">BF108*(1+$AC$56)</f>
-        <v>9163.3271612552016</v>
-      </c>
-      <c r="BH108" s="8">
-        <f t="shared" si="136"/>
-        <v>9346.593704480305</v>
-      </c>
-      <c r="BI108" s="8">
-        <f t="shared" si="136"/>
-        <v>9533.5255785699119</v>
-      </c>
-      <c r="BJ108" s="8">
-        <f t="shared" si="136"/>
-        <v>9724.1960901413095</v>
-      </c>
-      <c r="BK108" s="8">
-        <f t="shared" si="136"/>
-        <v>9918.6800119441359</v>
-      </c>
-      <c r="BL108" s="8">
-        <f t="shared" si="136"/>
-        <v>10117.053612183019</v>
-      </c>
-      <c r="BM108" s="8">
-        <f t="shared" si="136"/>
-        <v>10319.394684426679</v>
-      </c>
-      <c r="BN108" s="8">
-        <f t="shared" si="136"/>
-        <v>10525.782578115213</v>
-      </c>
-      <c r="BO108" s="8">
-        <f t="shared" si="136"/>
-        <v>10736.298229677517</v>
-      </c>
-      <c r="BP108" s="8">
-        <f t="shared" si="136"/>
-        <v>10951.024194271067</v>
-      </c>
-      <c r="BQ108" s="8">
-        <f t="shared" si="136"/>
-        <v>11170.04467815649</v>
-      </c>
-      <c r="BR108" s="8">
-        <f t="shared" si="136"/>
-        <v>11393.44557171962</v>
-      </c>
-      <c r="BS108" s="8">
-        <f t="shared" si="136"/>
-        <v>11621.314483154012</v>
-      </c>
-      <c r="BT108" s="8">
-        <f t="shared" si="136"/>
-        <v>11853.740772817093</v>
-      </c>
-      <c r="BU108" s="8">
-        <f t="shared" si="136"/>
-        <v>12090.815588273435</v>
-      </c>
-      <c r="BV108" s="8">
-        <f t="shared" si="136"/>
-        <v>12332.631900038905</v>
-      </c>
-      <c r="BW108" s="8">
-        <f t="shared" si="136"/>
-        <v>12579.284538039683</v>
-      </c>
-      <c r="BX108" s="8">
-        <f t="shared" si="136"/>
-        <v>12830.870228800477</v>
-      </c>
-      <c r="BY108" s="8">
-        <f t="shared" si="136"/>
-        <v>13087.487633376486</v>
-      </c>
-      <c r="BZ108" s="8">
-        <f t="shared" si="136"/>
-        <v>13349.237386044017</v>
-      </c>
-      <c r="CA108" s="8">
-        <f t="shared" si="136"/>
-        <v>13616.222133764897</v>
-      </c>
-      <c r="CB108" s="8">
-        <f t="shared" si="136"/>
-        <v>13888.546576440196</v>
-      </c>
-      <c r="CC108" s="8">
-        <f t="shared" si="136"/>
-        <v>14166.317507969001</v>
-      </c>
-      <c r="CD108" s="8">
-        <f t="shared" si="136"/>
-        <v>14449.643858128382</v>
-      </c>
-      <c r="CE108" s="8">
-        <f t="shared" si="136"/>
-        <v>14738.636735290949</v>
-      </c>
-      <c r="CF108" s="8">
-        <f t="shared" si="136"/>
-        <v>15033.409469996768</v>
-      </c>
-      <c r="CG108" s="8">
-        <f t="shared" si="136"/>
-        <v>15334.077659396704</v>
-      </c>
-      <c r="CH108" s="8">
-        <f t="shared" si="136"/>
-        <v>15640.759212584639</v>
-      </c>
-      <c r="CI108" s="8">
-        <f t="shared" si="136"/>
-        <v>15953.574396836331</v>
-      </c>
-      <c r="CJ108" s="8">
-        <f t="shared" si="136"/>
-        <v>16272.645884773057</v>
-      </c>
-      <c r="CK108" s="8">
-        <f t="shared" si="136"/>
-        <v>16598.098802468518</v>
-      </c>
-      <c r="CL108" s="8">
-        <f t="shared" si="136"/>
-        <v>16930.060778517887</v>
-      </c>
-      <c r="CM108" s="8">
-        <f t="shared" ref="CM108:DR108" si="137">CL108*(1+$AC$56)</f>
-        <v>17268.661994088245</v>
-      </c>
-      <c r="CN108" s="8">
-        <f t="shared" si="137"/>
-        <v>17614.035233970011</v>
-      </c>
-      <c r="CO108" s="8">
-        <f t="shared" si="137"/>
-        <v>17966.315938649412</v>
-      </c>
-      <c r="CP108" s="8">
-        <f t="shared" si="137"/>
-        <v>18325.642257422402</v>
-      </c>
-      <c r="CQ108" s="8">
-        <f t="shared" si="137"/>
-        <v>18692.15510257085</v>
-      </c>
-      <c r="CR108" s="8">
-        <f t="shared" si="137"/>
-        <v>19065.998204622269</v>
-      </c>
-      <c r="CS108" s="8">
-        <f t="shared" si="137"/>
-        <v>19447.318168714715</v>
-      </c>
-      <c r="CT108" s="8">
-        <f t="shared" si="137"/>
-        <v>19836.264532089011</v>
-      </c>
-      <c r="CU108" s="8">
-        <f t="shared" si="137"/>
-        <v>20232.989822730793</v>
-      </c>
-      <c r="CV108" s="8">
-        <f t="shared" si="137"/>
-        <v>20637.649619185409</v>
-      </c>
-      <c r="CW108" s="8">
-        <f t="shared" si="137"/>
-        <v>21050.402611569119</v>
-      </c>
-      <c r="CX108" s="8">
-        <f t="shared" si="137"/>
-        <v>21471.410663800503</v>
-      </c>
-      <c r="CY108" s="8">
-        <f t="shared" si="137"/>
-        <v>21900.838877076512</v>
-      </c>
-      <c r="CZ108" s="8">
-        <f t="shared" si="137"/>
-        <v>22338.855654618044</v>
-      </c>
-      <c r="DA108" s="8">
-        <f t="shared" si="137"/>
-        <v>22785.632767710405</v>
-      </c>
-      <c r="DB108" s="8">
-        <f t="shared" si="137"/>
-        <v>23241.345423064613</v>
-      </c>
-      <c r="DC108" s="8">
-        <f t="shared" si="137"/>
-        <v>23706.172331525904</v>
-      </c>
-      <c r="DD108" s="8">
-        <f t="shared" si="137"/>
-        <v>24180.295778156422</v>
-      </c>
-      <c r="DE108" s="8">
-        <f t="shared" si="137"/>
-        <v>24663.901693719552</v>
-      </c>
-      <c r="DF108" s="8">
-        <f t="shared" si="137"/>
-        <v>25157.179727593943</v>
-      </c>
-      <c r="DG108" s="8">
-        <f t="shared" si="137"/>
-        <v>25660.323322145821</v>
-      </c>
-      <c r="DH108" s="8">
-        <f t="shared" si="137"/>
-        <v>26173.529788588738</v>
-      </c>
-      <c r="DI108" s="8">
-        <f t="shared" si="137"/>
-        <v>26697.000384360512</v>
-      </c>
-      <c r="DJ108" s="8">
-        <f t="shared" si="137"/>
-        <v>27230.940392047723</v>
-      </c>
-      <c r="DK108" s="8">
-        <f t="shared" si="137"/>
-        <v>27775.559199888678</v>
-      </c>
-      <c r="DL108" s="8">
-        <f t="shared" si="137"/>
-        <v>28331.07038388645</v>
-      </c>
-      <c r="DM108" s="8">
-        <f t="shared" si="137"/>
-        <v>28897.691791564179</v>
-      </c>
-      <c r="DN108" s="8">
-        <f t="shared" si="137"/>
-        <v>29475.645627395465</v>
-      </c>
-      <c r="DO108" s="8">
-        <f t="shared" si="137"/>
-        <v>30065.158539943375</v>
-      </c>
-      <c r="DP108" s="8">
-        <f t="shared" si="137"/>
-        <v>30666.461710742242</v>
-      </c>
-      <c r="DQ108" s="8">
-        <f t="shared" si="137"/>
-        <v>31279.790944957087</v>
-      </c>
-      <c r="DR108" s="8">
-        <f t="shared" si="137"/>
-        <v>31905.38676385623</v>
+        <f t="shared" ref="Z107" si="130">Z102+Z106</f>
+        <v>4674.9741317733005</v>
+      </c>
+      <c r="AA107" s="8">
+        <f t="shared" ref="AA107:BF107" si="131">Z107*(1+$AC$55)</f>
+        <v>4768.4736144087665</v>
+      </c>
+      <c r="AB107" s="8">
+        <f t="shared" si="131"/>
+        <v>4863.843086696942</v>
+      </c>
+      <c r="AC107" s="8">
+        <f t="shared" si="131"/>
+        <v>4961.1199484308809</v>
+      </c>
+      <c r="AD107" s="8">
+        <f t="shared" si="131"/>
+        <v>5060.342347399499</v>
+      </c>
+      <c r="AE107" s="8">
+        <f t="shared" si="131"/>
+        <v>5161.549194347489</v>
+      </c>
+      <c r="AF107" s="8">
+        <f t="shared" si="131"/>
+        <v>5264.7801782344386</v>
+      </c>
+      <c r="AG107" s="8">
+        <f t="shared" si="131"/>
+        <v>5370.0757817991271</v>
+      </c>
+      <c r="AH107" s="8">
+        <f t="shared" si="131"/>
+        <v>5477.4772974351099</v>
+      </c>
+      <c r="AI107" s="8">
+        <f t="shared" si="131"/>
+        <v>5587.0268433838119</v>
+      </c>
+      <c r="AJ107" s="8">
+        <f t="shared" si="131"/>
+        <v>5698.7673802514882</v>
+      </c>
+      <c r="AK107" s="8">
+        <f t="shared" si="131"/>
+        <v>5812.7427278565183</v>
+      </c>
+      <c r="AL107" s="8">
+        <f t="shared" si="131"/>
+        <v>5928.9975824136491</v>
+      </c>
+      <c r="AM107" s="8">
+        <f t="shared" si="131"/>
+        <v>6047.5775340619221</v>
+      </c>
+      <c r="AN107" s="8">
+        <f t="shared" si="131"/>
+        <v>6168.5290847431606</v>
+      </c>
+      <c r="AO107" s="8">
+        <f t="shared" si="131"/>
+        <v>6291.8996664380238</v>
+      </c>
+      <c r="AP107" s="8">
+        <f t="shared" si="131"/>
+        <v>6417.7376597667844</v>
+      </c>
+      <c r="AQ107" s="8">
+        <f t="shared" si="131"/>
+        <v>6546.0924129621199</v>
+      </c>
+      <c r="AR107" s="8">
+        <f t="shared" si="131"/>
+        <v>6677.0142612213622</v>
+      </c>
+      <c r="AS107" s="8">
+        <f t="shared" si="131"/>
+        <v>6810.5545464457891</v>
+      </c>
+      <c r="AT107" s="8">
+        <f t="shared" si="131"/>
+        <v>6946.765637374705</v>
+      </c>
+      <c r="AU107" s="8">
+        <f t="shared" si="131"/>
+        <v>7085.7009501221992</v>
+      </c>
+      <c r="AV107" s="8">
+        <f t="shared" si="131"/>
+        <v>7227.414969124643</v>
+      </c>
+      <c r="AW107" s="8">
+        <f t="shared" si="131"/>
+        <v>7371.9632685071356</v>
+      </c>
+      <c r="AX107" s="8">
+        <f t="shared" si="131"/>
+        <v>7519.4025338772781</v>
+      </c>
+      <c r="AY107" s="8">
+        <f t="shared" si="131"/>
+        <v>7669.7905845548239</v>
+      </c>
+      <c r="AZ107" s="8">
+        <f t="shared" si="131"/>
+        <v>7823.1863962459202</v>
+      </c>
+      <c r="BA107" s="8">
+        <f t="shared" si="131"/>
+        <v>7979.6501241708384</v>
+      </c>
+      <c r="BB107" s="8">
+        <f t="shared" si="131"/>
+        <v>8139.2431266542553</v>
+      </c>
+      <c r="BC107" s="8">
+        <f t="shared" si="131"/>
+        <v>8302.0279891873397</v>
+      </c>
+      <c r="BD107" s="8">
+        <f t="shared" si="131"/>
+        <v>8468.0685489710868</v>
+      </c>
+      <c r="BE107" s="8">
+        <f t="shared" si="131"/>
+        <v>8637.4299199505094</v>
+      </c>
+      <c r="BF107" s="8">
+        <f t="shared" si="131"/>
+        <v>8810.1785183495194</v>
+      </c>
+      <c r="BG107" s="8">
+        <f t="shared" ref="BG107:CL107" si="132">BF107*(1+$AC$55)</f>
+        <v>8986.3820887165093</v>
+      </c>
+      <c r="BH107" s="8">
+        <f t="shared" si="132"/>
+        <v>9166.1097304908399</v>
+      </c>
+      <c r="BI107" s="8">
+        <f t="shared" si="132"/>
+        <v>9349.4319251006564</v>
+      </c>
+      <c r="BJ107" s="8">
+        <f t="shared" si="132"/>
+        <v>9536.4205636026691</v>
+      </c>
+      <c r="BK107" s="8">
+        <f t="shared" si="132"/>
+        <v>9727.1489748747226</v>
+      </c>
+      <c r="BL107" s="8">
+        <f t="shared" si="132"/>
+        <v>9921.6919543722179</v>
+      </c>
+      <c r="BM107" s="8">
+        <f t="shared" si="132"/>
+        <v>10120.125793459662</v>
+      </c>
+      <c r="BN107" s="8">
+        <f t="shared" si="132"/>
+        <v>10322.528309328854</v>
+      </c>
+      <c r="BO107" s="8">
+        <f t="shared" si="132"/>
+        <v>10528.978875515431</v>
+      </c>
+      <c r="BP107" s="8">
+        <f t="shared" si="132"/>
+        <v>10739.55845302574</v>
+      </c>
+      <c r="BQ107" s="8">
+        <f t="shared" si="132"/>
+        <v>10954.349622086254</v>
+      </c>
+      <c r="BR107" s="8">
+        <f t="shared" si="132"/>
+        <v>11173.43661452798</v>
+      </c>
+      <c r="BS107" s="8">
+        <f t="shared" si="132"/>
+        <v>11396.905346818539</v>
+      </c>
+      <c r="BT107" s="8">
+        <f t="shared" si="132"/>
+        <v>11624.843453754911</v>
+      </c>
+      <c r="BU107" s="8">
+        <f t="shared" si="132"/>
+        <v>11857.34032283001</v>
+      </c>
+      <c r="BV107" s="8">
+        <f t="shared" si="132"/>
+        <v>12094.48712928661</v>
+      </c>
+      <c r="BW107" s="8">
+        <f t="shared" si="132"/>
+        <v>12336.376871872342</v>
+      </c>
+      <c r="BX107" s="8">
+        <f t="shared" si="132"/>
+        <v>12583.10440930979</v>
+      </c>
+      <c r="BY107" s="8">
+        <f t="shared" si="132"/>
+        <v>12834.766497495986</v>
+      </c>
+      <c r="BZ107" s="8">
+        <f t="shared" si="132"/>
+        <v>13091.461827445906</v>
+      </c>
+      <c r="CA107" s="8">
+        <f t="shared" si="132"/>
+        <v>13353.291063994824</v>
+      </c>
+      <c r="CB107" s="8">
+        <f t="shared" si="132"/>
+        <v>13620.356885274721</v>
+      </c>
+      <c r="CC107" s="8">
+        <f t="shared" si="132"/>
+        <v>13892.764022980216</v>
+      </c>
+      <c r="CD107" s="8">
+        <f t="shared" si="132"/>
+        <v>14170.61930343982</v>
+      </c>
+      <c r="CE107" s="8">
+        <f t="shared" si="132"/>
+        <v>14454.031689508616</v>
+      </c>
+      <c r="CF107" s="8">
+        <f t="shared" si="132"/>
+        <v>14743.112323298788</v>
+      </c>
+      <c r="CG107" s="8">
+        <f t="shared" si="132"/>
+        <v>15037.974569764765</v>
+      </c>
+      <c r="CH107" s="8">
+        <f t="shared" si="132"/>
+        <v>15338.734061160061</v>
+      </c>
+      <c r="CI107" s="8">
+        <f t="shared" si="132"/>
+        <v>15645.508742383263</v>
+      </c>
+      <c r="CJ107" s="8">
+        <f t="shared" si="132"/>
+        <v>15958.418917230929</v>
+      </c>
+      <c r="CK107" s="8">
+        <f t="shared" si="132"/>
+        <v>16277.587295575548</v>
+      </c>
+      <c r="CL107" s="8">
+        <f t="shared" si="132"/>
+        <v>16603.139041487058</v>
+      </c>
+      <c r="CM107" s="8">
+        <f t="shared" ref="CM107:DR107" si="133">CL107*(1+$AC$55)</f>
+        <v>16935.201822316802</v>
+      </c>
+      <c r="CN107" s="8">
+        <f t="shared" si="133"/>
+        <v>17273.905858763137</v>
+      </c>
+      <c r="CO107" s="8">
+        <f t="shared" si="133"/>
+        <v>17619.383975938399</v>
+      </c>
+      <c r="CP107" s="8">
+        <f t="shared" si="133"/>
+        <v>17971.771655457167</v>
+      </c>
+      <c r="CQ107" s="8">
+        <f t="shared" si="133"/>
+        <v>18331.207088566312</v>
+      </c>
+      <c r="CR107" s="8">
+        <f t="shared" si="133"/>
+        <v>18697.831230337641</v>
+      </c>
+      <c r="CS107" s="8">
+        <f t="shared" si="133"/>
+        <v>19071.787854944392</v>
+      </c>
+      <c r="CT107" s="8">
+        <f t="shared" si="133"/>
+        <v>19453.223612043279</v>
+      </c>
+      <c r="CU107" s="8">
+        <f t="shared" si="133"/>
+        <v>19842.288084284144</v>
+      </c>
+      <c r="CV107" s="8">
+        <f t="shared" si="133"/>
+        <v>20239.133845969827</v>
+      </c>
+      <c r="CW107" s="8">
+        <f t="shared" si="133"/>
+        <v>20643.916522889223</v>
+      </c>
+      <c r="CX107" s="8">
+        <f t="shared" si="133"/>
+        <v>21056.794853347008</v>
+      </c>
+      <c r="CY107" s="8">
+        <f t="shared" si="133"/>
+        <v>21477.930750413947</v>
+      </c>
+      <c r="CZ107" s="8">
+        <f t="shared" si="133"/>
+        <v>21907.489365422225</v>
+      </c>
+      <c r="DA107" s="8">
+        <f t="shared" si="133"/>
+        <v>22345.63915273067</v>
+      </c>
+      <c r="DB107" s="8">
+        <f t="shared" si="133"/>
+        <v>22792.551935785283</v>
+      </c>
+      <c r="DC107" s="8">
+        <f t="shared" si="133"/>
+        <v>23248.40297450099</v>
+      </c>
+      <c r="DD107" s="8">
+        <f t="shared" si="133"/>
+        <v>23713.37103399101</v>
+      </c>
+      <c r="DE107" s="8">
+        <f t="shared" si="133"/>
+        <v>24187.638454670832</v>
+      </c>
+      <c r="DF107" s="8">
+        <f t="shared" si="133"/>
+        <v>24671.391223764251</v>
+      </c>
+      <c r="DG107" s="8">
+        <f t="shared" si="133"/>
+        <v>25164.819048239537</v>
+      </c>
+      <c r="DH107" s="8">
+        <f t="shared" si="133"/>
+        <v>25668.115429204328</v>
+      </c>
+      <c r="DI107" s="8">
+        <f t="shared" si="133"/>
+        <v>26181.477737788417</v>
+      </c>
+      <c r="DJ107" s="8">
+        <f t="shared" si="133"/>
+        <v>26705.107292544184</v>
+      </c>
+      <c r="DK107" s="8">
+        <f t="shared" si="133"/>
+        <v>27239.209438395068</v>
+      </c>
+      <c r="DL107" s="8">
+        <f t="shared" si="133"/>
+        <v>27783.99362716297</v>
+      </c>
+      <c r="DM107" s="8">
+        <f t="shared" si="133"/>
+        <v>28339.67349970623</v>
+      </c>
+      <c r="DN107" s="8">
+        <f t="shared" si="133"/>
+        <v>28906.466969700356</v>
+      </c>
+      <c r="DO107" s="8">
+        <f t="shared" si="133"/>
+        <v>29484.596309094362</v>
+      </c>
+      <c r="DP107" s="8">
+        <f t="shared" si="133"/>
+        <v>30074.28823527625</v>
+      </c>
+      <c r="DQ107" s="8">
+        <f t="shared" si="133"/>
+        <v>30675.773999981775</v>
+      </c>
+      <c r="DR107" s="8">
+        <f t="shared" si="133"/>
+        <v>31289.289479981409</v>
       </c>
     </row>
   </sheetData>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D785A-C307-4695-9E10-63EC95F89268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E97EC-EE29-4707-86CF-26C5CF77B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="1380" yWindow="195" windowWidth="21945" windowHeight="14415" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="9">
-        <v>41.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="N5" s="2">
         <f>N4*N3</f>
-        <v>24768.030000000002</v>
+        <v>25663.260000000002</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="N8" s="2">
         <f>N5+N7-N6</f>
-        <v>25380.030000000002</v>
+        <v>26275.260000000002</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1420,10 +1420,10 @@
   <dimension ref="A1:DR107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W58" sqref="W58"/>
+      <selection pane="bottomRight" activeCell="AC55" sqref="AC55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="AC59" s="5">
         <f>AC58/Main!N3-1</f>
-        <v>0.673264743024101</v>
+        <v>0.61489504268605111</v>
       </c>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E97EC-EE29-4707-86CF-26C5CF77B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A5C295-82A2-409F-BD77-E2A7B246AEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="195" windowWidth="21945" windowHeight="14415" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="795" yWindow="750" windowWidth="23385" windowHeight="13140" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="N5" s="2">
         <f>N4*N3</f>
-        <v>25663.260000000002</v>
+        <v>29841.000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="N8" s="2">
         <f>N5+N7-N6</f>
-        <v>26275.260000000002</v>
+        <v>30453.000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1420,10 +1420,10 @@
   <dimension ref="A1:DR107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC55" sqref="AC55"/>
+      <selection pane="bottomRight" activeCell="AA58" sqref="AA58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2487,23 +2487,23 @@
       </c>
       <c r="V40" s="2">
         <f>V39*(1-V58)</f>
-        <v>35000</v>
+        <v>34880</v>
       </c>
       <c r="W40" s="2">
         <f>W39*(1-W58)</f>
-        <v>38445</v>
+        <v>38311.68</v>
       </c>
       <c r="X40" s="2">
         <f>X39*(1-X58)</f>
-        <v>42228.395000000004</v>
+        <v>42080.276480000008</v>
       </c>
       <c r="Y40" s="2">
         <f>Y39*(1-Y58)</f>
-        <v>46383.346845000015</v>
+        <v>46218.787169280011</v>
       </c>
       <c r="Z40" s="2">
         <f>Z39*(1-Z58)</f>
-        <v>50946.258344795016</v>
+        <v>50763.432545070093</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -2584,23 +2584,23 @@
       </c>
       <c r="V41" s="2">
         <f t="shared" si="16"/>
-        <v>5000</v>
+        <v>5120</v>
       </c>
       <c r="W41" s="2">
         <f t="shared" ref="W41:Z41" si="17">W39-W40</f>
-        <v>5555</v>
+        <v>5688.32</v>
       </c>
       <c r="X41" s="2">
         <f t="shared" si="17"/>
-        <v>6171.6050000000032</v>
+        <v>6319.7235199999996</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="17"/>
-        <v>6856.653155</v>
+        <v>7021.2128307200037</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="17"/>
-        <v>7617.7416552050054</v>
+        <v>7800.5674549299292</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
@@ -3033,23 +3033,23 @@
       </c>
       <c r="V46" s="8">
         <f t="shared" si="41"/>
-        <v>2760.3851686580747</v>
+        <v>2880.3851686580747</v>
       </c>
       <c r="W46" s="8">
         <f t="shared" ref="W46" si="42">W41-W45</f>
-        <v>3091.4236855238819</v>
+        <v>3224.7436855238816</v>
       </c>
       <c r="X46" s="8">
         <f t="shared" ref="X46" si="43">X41-X45</f>
-        <v>3461.6710540762733</v>
+        <v>3609.7895740762697</v>
       </c>
       <c r="Y46" s="8">
         <f t="shared" ref="Y46:Z46" si="44">Y41-Y45</f>
-        <v>3875.725814483897</v>
+        <v>4040.2854902039007</v>
       </c>
       <c r="Z46" s="8">
         <f t="shared" si="44"/>
-        <v>4338.7215806372915</v>
+        <v>4521.5473803622153</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -3161,19 +3161,19 @@
       </c>
       <c r="W48" s="2">
         <f>V62*$AC$54</f>
-        <v>47.978437124963975</v>
+        <v>49.898437124963976</v>
       </c>
       <c r="X48" s="2">
         <f>W62*$AC$54</f>
-        <v>98.208871087345514</v>
+        <v>102.29271108734551</v>
       </c>
       <c r="Y48" s="2">
         <f>X62*$AC$54</f>
-        <v>155.1669498899634</v>
+        <v>161.68602764996336</v>
       </c>
       <c r="Z48" s="2">
         <f>Y62*$AC$54</f>
-        <v>219.66123411994516</v>
+        <v>228.9175719356252</v>
       </c>
     </row>
     <row r="49" spans="2:92" x14ac:dyDescent="0.2">
@@ -3254,23 +3254,23 @@
       </c>
       <c r="V49" s="2">
         <f t="shared" si="50"/>
-        <v>2764.1374072667704</v>
+        <v>2884.1374072667704</v>
       </c>
       <c r="W49" s="2">
         <f t="shared" ref="W49" si="51">W46+SUM(W47:W48)</f>
-        <v>3139.4021226488458</v>
+        <v>3274.6421226488455</v>
       </c>
       <c r="X49" s="2">
         <f t="shared" ref="X49" si="52">X46+SUM(X47:X48)</f>
-        <v>3559.8799251636187</v>
+        <v>3712.0822851636153</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" ref="Y49:Z49" si="53">Y46+SUM(Y47:Y48)</f>
-        <v>4030.8927643738602</v>
+        <v>4201.9715178538645</v>
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="53"/>
-        <v>4558.3828147572367</v>
+        <v>4750.4649522978407</v>
       </c>
     </row>
     <row r="50" spans="2:92" x14ac:dyDescent="0.2">
@@ -3339,23 +3339,23 @@
       </c>
       <c r="V50" s="2">
         <f>V49*0.2</f>
-        <v>552.82748145335415</v>
+        <v>576.82748145335415</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" ref="W50:Z50" si="55">W49*0.2</f>
-        <v>627.88042452976924</v>
+        <v>654.92842452976913</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="55"/>
-        <v>711.97598503272377</v>
+        <v>742.41645703272309</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="55"/>
-        <v>806.17855287477209</v>
+        <v>840.39430357077299</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="55"/>
-        <v>911.67656295144741</v>
+        <v>950.09299045956823</v>
       </c>
     </row>
     <row r="51" spans="2:92" x14ac:dyDescent="0.2">
@@ -3437,287 +3437,287 @@
       </c>
       <c r="V51" s="8">
         <f>V49-V50</f>
-        <v>2211.3099258134162</v>
+        <v>2307.3099258134162</v>
       </c>
       <c r="W51" s="8">
         <f t="shared" ref="W51:Z51" si="61">W49-W50</f>
-        <v>2511.5216981190765</v>
+        <v>2619.7136981190765</v>
       </c>
       <c r="X51" s="8">
         <f t="shared" si="61"/>
-        <v>2847.9039401308951</v>
+        <v>2969.6658281308924</v>
       </c>
       <c r="Y51" s="8">
         <f t="shared" si="61"/>
-        <v>3224.7142114990884</v>
+        <v>3361.5772142830915</v>
       </c>
       <c r="Z51" s="8">
         <f t="shared" si="61"/>
-        <v>3646.7062518057892</v>
+        <v>3800.3719618382725</v>
       </c>
       <c r="AA51" s="8">
         <f t="shared" ref="AA51:BF51" si="62">Z51*(1+$AC$55)</f>
-        <v>3719.640376841905</v>
+        <v>3838.375681456655</v>
       </c>
       <c r="AB51" s="8">
         <f t="shared" si="62"/>
-        <v>3794.033184378743</v>
+        <v>3876.7594382712214</v>
       </c>
       <c r="AC51" s="8">
         <f t="shared" si="62"/>
-        <v>3869.9138480663178</v>
+        <v>3915.5270326539335</v>
       </c>
       <c r="AD51" s="8">
         <f t="shared" si="62"/>
-        <v>3947.312125027644</v>
+        <v>3954.6823029804727</v>
       </c>
       <c r="AE51" s="8">
         <f t="shared" si="62"/>
-        <v>4026.2583675281971</v>
+        <v>3994.2291260102775</v>
       </c>
       <c r="AF51" s="8">
         <f t="shared" si="62"/>
-        <v>4106.7835348787612</v>
+        <v>4034.1714172703801</v>
       </c>
       <c r="AG51" s="8">
         <f t="shared" si="62"/>
-        <v>4188.9192055763369</v>
+        <v>4074.5131314430837</v>
       </c>
       <c r="AH51" s="8">
         <f t="shared" si="62"/>
-        <v>4272.6975896878639</v>
+        <v>4115.2582627575148</v>
       </c>
       <c r="AI51" s="8">
         <f t="shared" si="62"/>
-        <v>4358.1515414816213</v>
+        <v>4156.4108453850904</v>
       </c>
       <c r="AJ51" s="8">
         <f t="shared" si="62"/>
-        <v>4445.3145723112539</v>
+        <v>4197.9749538389415</v>
       </c>
       <c r="AK51" s="8">
         <f t="shared" si="62"/>
-        <v>4534.2208637574786</v>
+        <v>4239.9547033773306</v>
       </c>
       <c r="AL51" s="8">
         <f t="shared" si="62"/>
-        <v>4624.9052810326284</v>
+        <v>4282.3542504111037</v>
       </c>
       <c r="AM51" s="8">
         <f t="shared" si="62"/>
-        <v>4717.4033866532809</v>
+        <v>4325.1777929152149</v>
       </c>
       <c r="AN51" s="8">
         <f t="shared" si="62"/>
-        <v>4811.7514543863463</v>
+        <v>4368.4295708443669</v>
       </c>
       <c r="AO51" s="8">
         <f t="shared" si="62"/>
-        <v>4907.9864834740729</v>
+        <v>4412.1138665528106</v>
       </c>
       <c r="AP51" s="8">
         <f t="shared" si="62"/>
-        <v>5006.1462131435546</v>
+        <v>4456.2350052183383</v>
       </c>
       <c r="AQ51" s="8">
         <f t="shared" si="62"/>
-        <v>5106.2691374064261</v>
+        <v>4500.7973552705216</v>
       </c>
       <c r="AR51" s="8">
         <f t="shared" si="62"/>
-        <v>5208.3945201545548</v>
+        <v>4545.8053288232268</v>
       </c>
       <c r="AS51" s="8">
         <f t="shared" si="62"/>
-        <v>5312.5624105576462</v>
+        <v>4591.2633821114587</v>
       </c>
       <c r="AT51" s="8">
         <f t="shared" si="62"/>
-        <v>5418.8136587687995</v>
+        <v>4637.1760159325731</v>
       </c>
       <c r="AU51" s="8">
         <f t="shared" si="62"/>
-        <v>5527.1899319441754</v>
+        <v>4683.5477760918993</v>
       </c>
       <c r="AV51" s="8">
         <f t="shared" si="62"/>
-        <v>5637.7337305830588</v>
+        <v>4730.3832538528186</v>
       </c>
       <c r="AW51" s="8">
         <f t="shared" si="62"/>
-        <v>5750.4884051947201</v>
+        <v>4777.6870863913464</v>
       </c>
       <c r="AX51" s="8">
         <f t="shared" si="62"/>
-        <v>5865.4981732986143</v>
+        <v>4825.4639572552596</v>
       </c>
       <c r="AY51" s="8">
         <f t="shared" si="62"/>
-        <v>5982.8081367645864</v>
+        <v>4873.7185968278127</v>
       </c>
       <c r="AZ51" s="8">
         <f t="shared" si="62"/>
-        <v>6102.4642994998785</v>
+        <v>4922.4557827960907</v>
       </c>
       <c r="BA51" s="8">
         <f t="shared" si="62"/>
-        <v>6224.5135854898763</v>
+        <v>4971.6803406240515</v>
       </c>
       <c r="BB51" s="8">
         <f t="shared" si="62"/>
-        <v>6349.0038571996738</v>
+        <v>5021.3971440302921</v>
       </c>
       <c r="BC51" s="8">
         <f t="shared" si="62"/>
-        <v>6475.983934343667</v>
+        <v>5071.611115470595</v>
       </c>
       <c r="BD51" s="8">
         <f t="shared" si="62"/>
-        <v>6605.5036130305407</v>
+        <v>5122.3272266253007</v>
       </c>
       <c r="BE51" s="8">
         <f t="shared" si="62"/>
-        <v>6737.6136852911513</v>
+        <v>5173.5504988915536</v>
       </c>
       <c r="BF51" s="8">
         <f t="shared" si="62"/>
-        <v>6872.3659589969748</v>
+        <v>5225.2860038804693</v>
       </c>
       <c r="BG51" s="8">
         <f t="shared" ref="BG51:CN51" si="63">BF51*(1+$AC$55)</f>
-        <v>7009.8132781769145</v>
+        <v>5277.5388639192743</v>
       </c>
       <c r="BH51" s="8">
         <f t="shared" si="63"/>
-        <v>7150.0095437404525</v>
+        <v>5330.3142525584672</v>
       </c>
       <c r="BI51" s="8">
         <f t="shared" si="63"/>
-        <v>7293.0097346152616</v>
+        <v>5383.6173950840521</v>
       </c>
       <c r="BJ51" s="8">
         <f t="shared" si="63"/>
-        <v>7438.869929307567</v>
+        <v>5437.453569034893</v>
       </c>
       <c r="BK51" s="8">
         <f t="shared" si="63"/>
-        <v>7587.6473278937183</v>
+        <v>5491.8281047252422</v>
       </c>
       <c r="BL51" s="8">
         <f t="shared" si="63"/>
-        <v>7739.4002744515928</v>
+        <v>5546.7463857724942</v>
       </c>
       <c r="BM51" s="8">
         <f t="shared" si="63"/>
-        <v>7894.1882799406249</v>
+        <v>5602.2138496302196</v>
       </c>
       <c r="BN51" s="8">
         <f t="shared" si="63"/>
-        <v>8052.0720455394376</v>
+        <v>5658.235988126522</v>
       </c>
       <c r="BO51" s="8">
         <f t="shared" si="63"/>
-        <v>8213.1134864502274</v>
+        <v>5714.8183480077869</v>
       </c>
       <c r="BP51" s="8">
         <f t="shared" si="63"/>
-        <v>8377.3757561792318</v>
+        <v>5771.9665314878648</v>
       </c>
       <c r="BQ51" s="8">
         <f t="shared" si="63"/>
-        <v>8544.9232713028159</v>
+        <v>5829.6861968027433</v>
       </c>
       <c r="BR51" s="8">
         <f t="shared" si="63"/>
-        <v>8715.8217367288726</v>
+        <v>5887.9830587707711</v>
       </c>
       <c r="BS51" s="8">
         <f t="shared" si="63"/>
-        <v>8890.1381714634499</v>
+        <v>5946.8628893584792</v>
       </c>
       <c r="BT51" s="8">
         <f t="shared" si="63"/>
-        <v>9067.9409348927184</v>
+        <v>6006.3315182520637</v>
       </c>
       <c r="BU51" s="8">
         <f t="shared" si="63"/>
-        <v>9249.2997535905724</v>
+        <v>6066.3948334345841</v>
       </c>
       <c r="BV51" s="8">
         <f t="shared" si="63"/>
-        <v>9434.2857486623834</v>
+        <v>6127.0587817689302</v>
       </c>
       <c r="BW51" s="8">
         <f t="shared" si="63"/>
-        <v>9622.9714636356312</v>
+        <v>6188.3293695866196</v>
       </c>
       <c r="BX51" s="8">
         <f t="shared" si="63"/>
-        <v>9815.4308929083436</v>
+        <v>6250.2126632824857</v>
       </c>
       <c r="BY51" s="8">
         <f t="shared" si="63"/>
-        <v>10011.739510766511</v>
+        <v>6312.7147899153106</v>
       </c>
       <c r="BZ51" s="8">
         <f t="shared" si="63"/>
-        <v>10211.974300981841</v>
+        <v>6375.8419378144636</v>
       </c>
       <c r="CA51" s="8">
         <f t="shared" si="63"/>
-        <v>10416.213787001478</v>
+        <v>6439.6003571926085</v>
       </c>
       <c r="CB51" s="8">
         <f t="shared" si="63"/>
-        <v>10624.538062741507</v>
+        <v>6503.996360764535</v>
       </c>
       <c r="CC51" s="8">
         <f t="shared" si="63"/>
-        <v>10837.028823996337</v>
+        <v>6569.0363243721804</v>
       </c>
       <c r="CD51" s="8">
         <f t="shared" si="63"/>
-        <v>11053.769400476265</v>
+        <v>6634.7266876159019</v>
       </c>
       <c r="CE51" s="8">
         <f t="shared" si="63"/>
-        <v>11274.844788485791</v>
+        <v>6701.0739544920607</v>
       </c>
       <c r="CF51" s="8">
         <f t="shared" si="63"/>
-        <v>11500.341684255507</v>
+        <v>6768.0846940369811</v>
       </c>
       <c r="CG51" s="8">
         <f t="shared" si="63"/>
-        <v>11730.348517940618</v>
+        <v>6835.7655409773506</v>
       </c>
       <c r="CH51" s="8">
         <f t="shared" si="63"/>
-        <v>11964.955488299431</v>
+        <v>6904.1231963871242</v>
       </c>
       <c r="CI51" s="8">
         <f t="shared" si="63"/>
-        <v>12204.254598065419</v>
+        <v>6973.1644283509959</v>
       </c>
       <c r="CJ51" s="8">
         <f t="shared" si="63"/>
-        <v>12448.339690026729</v>
+        <v>7042.8960726345058</v>
       </c>
       <c r="CK51" s="8">
         <f t="shared" si="63"/>
-        <v>12697.306483827264</v>
+        <v>7113.3250333608512</v>
       </c>
       <c r="CL51" s="8">
         <f t="shared" si="63"/>
-        <v>12951.25261350381</v>
+        <v>7184.4582836944601</v>
       </c>
       <c r="CM51" s="8">
         <f t="shared" si="63"/>
-        <v>13210.277665773887</v>
+        <v>7256.302866531405</v>
       </c>
       <c r="CN51" s="8">
         <f t="shared" si="63"/>
-        <v>13474.483219089365</v>
+        <v>7328.8658951967191</v>
       </c>
     </row>
     <row r="52" spans="2:92" x14ac:dyDescent="0.2">
@@ -3799,23 +3799,23 @@
       </c>
       <c r="V52" s="9">
         <f t="shared" si="65"/>
-        <v>3.5211941493844208</v>
+        <v>3.6740603914226373</v>
       </c>
       <c r="W52" s="9">
         <f t="shared" si="65"/>
-        <v>3.9992383728010772</v>
+        <v>4.1715186275781475</v>
       </c>
       <c r="X52" s="9">
         <f t="shared" si="65"/>
-        <v>4.5348788855587499</v>
+        <v>4.7287672422466436</v>
       </c>
       <c r="Y52" s="9">
         <f t="shared" si="65"/>
-        <v>5.1348952412405868</v>
+        <v>5.352829959049509</v>
       </c>
       <c r="Z52" s="9">
         <f t="shared" si="65"/>
-        <v>5.8068570888627216</v>
+        <v>6.0515477099335548</v>
       </c>
     </row>
     <row r="53" spans="2:92" x14ac:dyDescent="0.2">
@@ -3986,7 +3986,7 @@
         <v>11</v>
       </c>
       <c r="AC55" s="5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AD55" s="10"/>
       <c r="AE55" s="10"/>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="AC57" s="8">
         <f>NPV(AC56,V51:CN51)+Main!N6-Main!N7</f>
-        <v>41443.47135316323</v>
+        <v>39240.86505505674</v>
       </c>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
@@ -4158,23 +4158,23 @@
         <v>0.11733063245554805</v>
       </c>
       <c r="V58" s="12">
-        <v>0.125</v>
+        <v>0.128</v>
       </c>
       <c r="W58" s="12">
         <f>V58*1.01</f>
-        <v>0.12625</v>
+        <v>0.12928000000000001</v>
       </c>
       <c r="X58" s="12">
         <f t="shared" ref="X58:Z58" si="72">W58*1.01</f>
-        <v>0.1275125</v>
+        <v>0.13057280000000002</v>
       </c>
       <c r="Y58" s="12">
         <f t="shared" si="72"/>
-        <v>0.12878762499999999</v>
+        <v>0.13187852800000002</v>
       </c>
       <c r="Z58" s="12">
         <f t="shared" si="72"/>
-        <v>0.13007550125</v>
+        <v>0.13319731328000003</v>
       </c>
       <c r="AA58" s="12"/>
       <c r="AB58" s="2" t="s">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="AC58" s="13">
         <f>AC57/Main!N4</f>
-        <v>69.440486835500195</v>
+        <v>65.749916314896851</v>
       </c>
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
@@ -4261,23 +4261,23 @@
       </c>
       <c r="V59" s="5">
         <f t="shared" si="73"/>
-        <v>7.2840768088773558E-2</v>
+        <v>7.5240768088773557E-2</v>
       </c>
       <c r="W59" s="5">
         <f t="shared" si="73"/>
-        <v>7.4638058537053506E-2</v>
+        <v>7.7096967627962601E-2</v>
       </c>
       <c r="X59" s="5">
         <f t="shared" si="73"/>
-        <v>7.6399010442010334E-2</v>
+        <v>7.8914751929613586E-2</v>
       </c>
       <c r="Y59" s="5">
         <f t="shared" si="73"/>
-        <v>7.8127407837861262E-2</v>
+        <v>8.0698087830047657E-2</v>
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="73"/>
-        <v>7.9826755887120057E-2</v>
+        <v>8.2450649576630397E-2</v>
       </c>
       <c r="AA59" s="5"/>
       <c r="AB59" s="2" t="s">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="AC59" s="5">
         <f>AC58/Main!N3-1</f>
-        <v>0.61489504268605111</v>
+        <v>0.314998326297937</v>
       </c>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
@@ -4464,23 +4464,23 @@
       </c>
       <c r="V62" s="2">
         <f>U62+V51</f>
-        <v>2398.9218562481988</v>
+        <v>2494.9218562481988</v>
       </c>
       <c r="W62" s="2">
         <f>V62+W51</f>
-        <v>4910.4435543672753</v>
+        <v>5114.6355543672753</v>
       </c>
       <c r="X62" s="2">
         <f>W62+X51</f>
-        <v>7758.3474944981699</v>
+        <v>8084.3013824981681</v>
       </c>
       <c r="Y62" s="2">
         <f>X62+Y51</f>
-        <v>10983.061705997257</v>
+        <v>11445.87859678126</v>
       </c>
       <c r="Z62" s="2">
         <f>Y62+Z51</f>
-        <v>14629.767957803047</v>
+        <v>15246.250558619533</v>
       </c>
     </row>
     <row r="63" spans="2:92" x14ac:dyDescent="0.2">
@@ -5310,23 +5310,23 @@
       </c>
       <c r="V86" s="2">
         <f t="shared" si="107"/>
-        <v>2211.3099258134162</v>
+        <v>2307.3099258134162</v>
       </c>
       <c r="W86" s="2">
         <f t="shared" si="107"/>
-        <v>2511.5216981190765</v>
+        <v>2619.7136981190765</v>
       </c>
       <c r="X86" s="2">
         <f t="shared" si="107"/>
-        <v>2847.9039401308951</v>
+        <v>2969.6658281308924</v>
       </c>
       <c r="Y86" s="2">
         <f t="shared" si="107"/>
-        <v>3224.7142114990884</v>
+        <v>3361.5772142830915</v>
       </c>
       <c r="Z86" s="2">
         <f t="shared" si="107"/>
-        <v>3646.7062518057892</v>
+        <v>3800.3719618382725</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.2">
@@ -6135,23 +6135,23 @@
       </c>
       <c r="V102" s="8">
         <f t="shared" ref="V102:Z102" si="120">SUM(V88:V101,V86)</f>
-        <v>3310.8398165061526</v>
+        <v>3406.8398165061526</v>
       </c>
       <c r="W102" s="8">
         <f t="shared" si="120"/>
-        <v>3721.0045778810859</v>
+        <v>3829.1965778810859</v>
       </c>
       <c r="X102" s="8">
         <f t="shared" si="120"/>
-        <v>4178.3351078691057</v>
+        <v>4300.096995869103</v>
       </c>
       <c r="Y102" s="8">
         <f t="shared" si="120"/>
-        <v>4688.1884960111202</v>
+        <v>4825.0514987951237</v>
       </c>
       <c r="Z102" s="8">
         <f t="shared" si="120"/>
-        <v>5256.527964769024</v>
+        <v>5410.1936748015078</v>
       </c>
     </row>
     <row r="103" spans="1:122" x14ac:dyDescent="0.2">
@@ -6401,407 +6401,407 @@
       </c>
       <c r="V107" s="8">
         <f t="shared" ref="V107" si="126">V102+V106</f>
-        <v>2913.6307235509421</v>
+        <v>3009.6307235509421</v>
       </c>
       <c r="W107" s="8">
         <f t="shared" ref="W107" si="127">W102+W106</f>
-        <v>3284.0745756303545</v>
+        <v>3392.2665756303545</v>
       </c>
       <c r="X107" s="8">
         <f t="shared" ref="X107" si="128">X102+X106</f>
-        <v>3697.712105393301</v>
+        <v>3819.4739933932983</v>
       </c>
       <c r="Y107" s="8">
         <f t="shared" ref="Y107" si="129">Y102+Y106</f>
-        <v>4159.5031932877346</v>
+        <v>4296.3661960717382</v>
       </c>
       <c r="Z107" s="8">
         <f t="shared" ref="Z107" si="130">Z102+Z106</f>
-        <v>4674.9741317733005</v>
+        <v>4828.6398418057843</v>
       </c>
       <c r="AA107" s="8">
         <f t="shared" ref="AA107:BF107" si="131">Z107*(1+$AC$55)</f>
-        <v>4768.4736144087665</v>
+        <v>4876.9262402238419</v>
       </c>
       <c r="AB107" s="8">
         <f t="shared" si="131"/>
-        <v>4863.843086696942</v>
+        <v>4925.6955026260803</v>
       </c>
       <c r="AC107" s="8">
         <f t="shared" si="131"/>
-        <v>4961.1199484308809</v>
+        <v>4974.9524576523409</v>
       </c>
       <c r="AD107" s="8">
         <f t="shared" si="131"/>
-        <v>5060.342347399499</v>
+        <v>5024.7019822288639</v>
       </c>
       <c r="AE107" s="8">
         <f t="shared" si="131"/>
-        <v>5161.549194347489</v>
+        <v>5074.949002051153</v>
       </c>
       <c r="AF107" s="8">
         <f t="shared" si="131"/>
-        <v>5264.7801782344386</v>
+        <v>5125.698492071665</v>
       </c>
       <c r="AG107" s="8">
         <f t="shared" si="131"/>
-        <v>5370.0757817991271</v>
+        <v>5176.9554769923816</v>
       </c>
       <c r="AH107" s="8">
         <f t="shared" si="131"/>
-        <v>5477.4772974351099</v>
+        <v>5228.7250317623057</v>
       </c>
       <c r="AI107" s="8">
         <f t="shared" si="131"/>
-        <v>5587.0268433838119</v>
+        <v>5281.0122820799288</v>
       </c>
       <c r="AJ107" s="8">
         <f t="shared" si="131"/>
-        <v>5698.7673802514882</v>
+        <v>5333.8224049007285</v>
       </c>
       <c r="AK107" s="8">
         <f t="shared" si="131"/>
-        <v>5812.7427278565183</v>
+        <v>5387.1606289497358</v>
       </c>
       <c r="AL107" s="8">
         <f t="shared" si="131"/>
-        <v>5928.9975824136491</v>
+        <v>5441.0322352392332</v>
       </c>
       <c r="AM107" s="8">
         <f t="shared" si="131"/>
-        <v>6047.5775340619221</v>
+        <v>5495.4425575916257</v>
       </c>
       <c r="AN107" s="8">
         <f t="shared" si="131"/>
-        <v>6168.5290847431606</v>
+        <v>5550.3969831675422</v>
       </c>
       <c r="AO107" s="8">
         <f t="shared" si="131"/>
-        <v>6291.8996664380238</v>
+        <v>5605.9009529992172</v>
       </c>
       <c r="AP107" s="8">
         <f t="shared" si="131"/>
-        <v>6417.7376597667844</v>
+        <v>5661.9599625292094</v>
       </c>
       <c r="AQ107" s="8">
         <f t="shared" si="131"/>
-        <v>6546.0924129621199</v>
+        <v>5718.5795621545012</v>
       </c>
       <c r="AR107" s="8">
         <f t="shared" si="131"/>
-        <v>6677.0142612213622</v>
+        <v>5775.7653577760466</v>
       </c>
       <c r="AS107" s="8">
         <f t="shared" si="131"/>
-        <v>6810.5545464457891</v>
+        <v>5833.5230113538073</v>
       </c>
       <c r="AT107" s="8">
         <f t="shared" si="131"/>
-        <v>6946.765637374705</v>
+        <v>5891.8582414673456</v>
       </c>
       <c r="AU107" s="8">
         <f t="shared" si="131"/>
-        <v>7085.7009501221992</v>
+        <v>5950.776823882019</v>
       </c>
       <c r="AV107" s="8">
         <f t="shared" si="131"/>
-        <v>7227.414969124643</v>
+        <v>6010.2845921208391</v>
       </c>
       <c r="AW107" s="8">
         <f t="shared" si="131"/>
-        <v>7371.9632685071356</v>
+        <v>6070.3874380420475</v>
       </c>
       <c r="AX107" s="8">
         <f t="shared" si="131"/>
-        <v>7519.4025338772781</v>
+        <v>6131.091312422468</v>
       </c>
       <c r="AY107" s="8">
         <f t="shared" si="131"/>
-        <v>7669.7905845548239</v>
+        <v>6192.4022255466925</v>
       </c>
       <c r="AZ107" s="8">
         <f t="shared" si="131"/>
-        <v>7823.1863962459202</v>
+        <v>6254.3262478021597</v>
       </c>
       <c r="BA107" s="8">
         <f t="shared" si="131"/>
-        <v>7979.6501241708384</v>
+        <v>6316.8695102801812</v>
       </c>
       <c r="BB107" s="8">
         <f t="shared" si="131"/>
-        <v>8139.2431266542553</v>
+        <v>6380.0382053829835</v>
       </c>
       <c r="BC107" s="8">
         <f t="shared" si="131"/>
-        <v>8302.0279891873397</v>
+        <v>6443.8385874368132</v>
       </c>
       <c r="BD107" s="8">
         <f t="shared" si="131"/>
-        <v>8468.0685489710868</v>
+        <v>6508.2769733111818</v>
       </c>
       <c r="BE107" s="8">
         <f t="shared" si="131"/>
-        <v>8637.4299199505094</v>
+        <v>6573.3597430442933</v>
       </c>
       <c r="BF107" s="8">
         <f t="shared" si="131"/>
-        <v>8810.1785183495194</v>
+        <v>6639.0933404747366</v>
       </c>
       <c r="BG107" s="8">
         <f t="shared" ref="BG107:CL107" si="132">BF107*(1+$AC$55)</f>
-        <v>8986.3820887165093</v>
+        <v>6705.4842738794841</v>
       </c>
       <c r="BH107" s="8">
         <f t="shared" si="132"/>
-        <v>9166.1097304908399</v>
+        <v>6772.539116618279</v>
       </c>
       <c r="BI107" s="8">
         <f t="shared" si="132"/>
-        <v>9349.4319251006564</v>
+        <v>6840.2645077844618</v>
       </c>
       <c r="BJ107" s="8">
         <f t="shared" si="132"/>
-        <v>9536.4205636026691</v>
+        <v>6908.6671528623065</v>
       </c>
       <c r="BK107" s="8">
         <f t="shared" si="132"/>
-        <v>9727.1489748747226</v>
+        <v>6977.7538243909294</v>
       </c>
       <c r="BL107" s="8">
         <f t="shared" si="132"/>
-        <v>9921.6919543722179</v>
+        <v>7047.5313626348388</v>
       </c>
       <c r="BM107" s="8">
         <f t="shared" si="132"/>
-        <v>10120.125793459662</v>
+        <v>7118.0066762611868</v>
       </c>
       <c r="BN107" s="8">
         <f t="shared" si="132"/>
-        <v>10322.528309328854</v>
+        <v>7189.186743023799</v>
       </c>
       <c r="BO107" s="8">
         <f t="shared" si="132"/>
-        <v>10528.978875515431</v>
+        <v>7261.0786104540366</v>
       </c>
       <c r="BP107" s="8">
         <f t="shared" si="132"/>
-        <v>10739.55845302574</v>
+        <v>7333.6893965585768</v>
       </c>
       <c r="BQ107" s="8">
         <f t="shared" si="132"/>
-        <v>10954.349622086254</v>
+        <v>7407.0262905241625</v>
       </c>
       <c r="BR107" s="8">
         <f t="shared" si="132"/>
-        <v>11173.43661452798</v>
+        <v>7481.0965534294046</v>
       </c>
       <c r="BS107" s="8">
         <f t="shared" si="132"/>
-        <v>11396.905346818539</v>
+        <v>7555.9075189636987</v>
       </c>
       <c r="BT107" s="8">
         <f t="shared" si="132"/>
-        <v>11624.843453754911</v>
+        <v>7631.4665941533358</v>
       </c>
       <c r="BU107" s="8">
         <f t="shared" si="132"/>
-        <v>11857.34032283001</v>
+        <v>7707.7812600948691</v>
       </c>
       <c r="BV107" s="8">
         <f t="shared" si="132"/>
-        <v>12094.48712928661</v>
+        <v>7784.8590726958182</v>
       </c>
       <c r="BW107" s="8">
         <f t="shared" si="132"/>
-        <v>12336.376871872342</v>
+        <v>7862.707663422776</v>
       </c>
       <c r="BX107" s="8">
         <f t="shared" si="132"/>
-        <v>12583.10440930979</v>
+        <v>7941.3347400570037</v>
       </c>
       <c r="BY107" s="8">
         <f t="shared" si="132"/>
-        <v>12834.766497495986</v>
+        <v>8020.748087457574</v>
       </c>
       <c r="BZ107" s="8">
         <f t="shared" si="132"/>
-        <v>13091.461827445906</v>
+        <v>8100.9555683321496</v>
       </c>
       <c r="CA107" s="8">
         <f t="shared" si="132"/>
-        <v>13353.291063994824</v>
+        <v>8181.9651240154708</v>
       </c>
       <c r="CB107" s="8">
         <f t="shared" si="132"/>
-        <v>13620.356885274721</v>
+        <v>8263.7847752556263</v>
       </c>
       <c r="CC107" s="8">
         <f t="shared" si="132"/>
-        <v>13892.764022980216</v>
+        <v>8346.4226230081822</v>
       </c>
       <c r="CD107" s="8">
         <f t="shared" si="132"/>
-        <v>14170.61930343982</v>
+        <v>8429.8868492382644</v>
       </c>
       <c r="CE107" s="8">
         <f t="shared" si="132"/>
-        <v>14454.031689508616</v>
+        <v>8514.1857177306465</v>
       </c>
       <c r="CF107" s="8">
         <f t="shared" si="132"/>
-        <v>14743.112323298788</v>
+        <v>8599.327574907953</v>
       </c>
       <c r="CG107" s="8">
         <f t="shared" si="132"/>
-        <v>15037.974569764765</v>
+        <v>8685.3208506570318</v>
       </c>
       <c r="CH107" s="8">
         <f t="shared" si="132"/>
-        <v>15338.734061160061</v>
+        <v>8772.1740591636026</v>
       </c>
       <c r="CI107" s="8">
         <f t="shared" si="132"/>
-        <v>15645.508742383263</v>
+        <v>8859.8957997552388</v>
       </c>
       <c r="CJ107" s="8">
         <f t="shared" si="132"/>
-        <v>15958.418917230929</v>
+        <v>8948.494757752791</v>
       </c>
       <c r="CK107" s="8">
         <f t="shared" si="132"/>
-        <v>16277.587295575548</v>
+        <v>9037.9797053303191</v>
       </c>
       <c r="CL107" s="8">
         <f t="shared" si="132"/>
-        <v>16603.139041487058</v>
+        <v>9128.3595023836224</v>
       </c>
       <c r="CM107" s="8">
         <f t="shared" ref="CM107:DR107" si="133">CL107*(1+$AC$55)</f>
-        <v>16935.201822316802</v>
+        <v>9219.6430974074592</v>
       </c>
       <c r="CN107" s="8">
         <f t="shared" si="133"/>
-        <v>17273.905858763137</v>
+        <v>9311.8395283815335</v>
       </c>
       <c r="CO107" s="8">
         <f t="shared" si="133"/>
-        <v>17619.383975938399</v>
+        <v>9404.9579236653481</v>
       </c>
       <c r="CP107" s="8">
         <f t="shared" si="133"/>
-        <v>17971.771655457167</v>
+        <v>9499.0075029020009</v>
       </c>
       <c r="CQ107" s="8">
         <f t="shared" si="133"/>
-        <v>18331.207088566312</v>
+        <v>9593.9975779310207</v>
       </c>
       <c r="CR107" s="8">
         <f t="shared" si="133"/>
-        <v>18697.831230337641</v>
+        <v>9689.9375537103315</v>
       </c>
       <c r="CS107" s="8">
         <f t="shared" si="133"/>
-        <v>19071.787854944392</v>
+        <v>9786.8369292474345</v>
       </c>
       <c r="CT107" s="8">
         <f t="shared" si="133"/>
-        <v>19453.223612043279</v>
+        <v>9884.7052985399096</v>
       </c>
       <c r="CU107" s="8">
         <f t="shared" si="133"/>
-        <v>19842.288084284144</v>
+        <v>9983.552351525308</v>
       </c>
       <c r="CV107" s="8">
         <f t="shared" si="133"/>
-        <v>20239.133845969827</v>
+        <v>10083.387875040562</v>
       </c>
       <c r="CW107" s="8">
         <f t="shared" si="133"/>
-        <v>20643.916522889223</v>
+        <v>10184.221753790967</v>
       </c>
       <c r="CX107" s="8">
         <f t="shared" si="133"/>
-        <v>21056.794853347008</v>
+        <v>10286.063971328877</v>
       </c>
       <c r="CY107" s="8">
         <f t="shared" si="133"/>
-        <v>21477.930750413947</v>
+        <v>10388.924611042165</v>
       </c>
       <c r="CZ107" s="8">
         <f t="shared" si="133"/>
-        <v>21907.489365422225</v>
+        <v>10492.813857152587</v>
       </c>
       <c r="DA107" s="8">
         <f t="shared" si="133"/>
-        <v>22345.63915273067</v>
+        <v>10597.741995724113</v>
       </c>
       <c r="DB107" s="8">
         <f t="shared" si="133"/>
-        <v>22792.551935785283</v>
+        <v>10703.719415681355</v>
       </c>
       <c r="DC107" s="8">
         <f t="shared" si="133"/>
-        <v>23248.40297450099</v>
+        <v>10810.756609838169</v>
       </c>
       <c r="DD107" s="8">
         <f t="shared" si="133"/>
-        <v>23713.37103399101</v>
+        <v>10918.864175936551</v>
       </c>
       <c r="DE107" s="8">
         <f t="shared" si="133"/>
-        <v>24187.638454670832</v>
+        <v>11028.052817695916</v>
       </c>
       <c r="DF107" s="8">
         <f t="shared" si="133"/>
-        <v>24671.391223764251</v>
+        <v>11138.333345872876</v>
       </c>
       <c r="DG107" s="8">
         <f t="shared" si="133"/>
-        <v>25164.819048239537</v>
+        <v>11249.716679331605</v>
       </c>
       <c r="DH107" s="8">
         <f t="shared" si="133"/>
-        <v>25668.115429204328</v>
+        <v>11362.213846124921</v>
       </c>
       <c r="DI107" s="8">
         <f t="shared" si="133"/>
-        <v>26181.477737788417</v>
+        <v>11475.835984586171</v>
       </c>
       <c r="DJ107" s="8">
         <f t="shared" si="133"/>
-        <v>26705.107292544184</v>
+        <v>11590.594344432033</v>
       </c>
       <c r="DK107" s="8">
         <f t="shared" si="133"/>
-        <v>27239.209438395068</v>
+        <v>11706.500287876353</v>
       </c>
       <c r="DL107" s="8">
         <f t="shared" si="133"/>
-        <v>27783.99362716297</v>
+        <v>11823.565290755118</v>
       </c>
       <c r="DM107" s="8">
         <f t="shared" si="133"/>
-        <v>28339.67349970623</v>
+        <v>11941.800943662669</v>
       </c>
       <c r="DN107" s="8">
         <f t="shared" si="133"/>
-        <v>28906.466969700356</v>
+        <v>12061.218953099296</v>
       </c>
       <c r="DO107" s="8">
         <f t="shared" si="133"/>
-        <v>29484.596309094362</v>
+        <v>12181.83114263029</v>
       </c>
       <c r="DP107" s="8">
         <f t="shared" si="133"/>
-        <v>30074.28823527625</v>
+        <v>12303.649454056593</v>
       </c>
       <c r="DQ107" s="8">
         <f t="shared" si="133"/>
-        <v>30675.773999981775</v>
+        <v>12426.685948597158</v>
       </c>
       <c r="DR107" s="8">
         <f t="shared" si="133"/>
-        <v>31289.289479981409</v>
+        <v>12550.95280808313</v>
       </c>
     </row>
   </sheetData>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A5C295-82A2-409F-BD77-E2A7B246AEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFECA169-9CA4-488C-98D3-EE17F2F55C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="750" windowWidth="23385" windowHeight="13140" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="4425" yWindow="645" windowWidth="22935" windowHeight="13935" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
   <si>
     <t>Price</t>
   </si>
@@ -564,6 +564,21 @@
   </si>
   <si>
     <t>SMCI 2024 shipped 60% of DLC worldwide, competitors are not ready, not many are able to provide on-site services</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Is the low margins just transitory between GPU generations or is there a margin degradation?</t>
+  </si>
+  <si>
+    <t>Can they reverse and achieve their long-term GM target of 14-17%?</t>
+  </si>
+  <si>
+    <t>Is liquid cooling going to grow margins?</t>
+  </si>
+  <si>
+    <t>Does SMCI have a competitive advantage over competitors or is this industry lacking any moat except scale?</t>
   </si>
 </sst>
 </file>
@@ -575,13 +590,19 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -608,6 +629,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -640,25 +669,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1150,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5214CC-655A-4E11-87EC-D301395A4983}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="9">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1203,7 +1234,7 @@
       </c>
       <c r="N5" s="2">
         <f>N4*N3</f>
-        <v>29841.000000000004</v>
+        <v>32825.100000000006</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1245,7 +1276,7 @@
       </c>
       <c r="N8" s="2">
         <f>N5+N7-N6</f>
-        <v>30453.000000000004</v>
+        <v>33437.100000000006</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1264,26 +1295,41 @@
         <v>83</v>
       </c>
       <c r="J11" s="9"/>
+      <c r="M11" s="17" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>85</v>
       </c>
       <c r="J12" s="9"/>
+      <c r="M12" s="16" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>87</v>
       </c>
+      <c r="M13" s="16" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>88</v>
       </c>
+      <c r="M14" s="16" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>89</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1419,11 +1465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3098DAD7-B3FD-4340-A438-67E4C3210CEC}">
   <dimension ref="A1:DR107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V38" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="U38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA58" sqref="AA58"/>
+      <selection pane="bottomRight" activeCell="X62" sqref="V62:X62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4285,7 +4331,7 @@
       </c>
       <c r="AC59" s="5">
         <f>AC58/Main!N3-1</f>
-        <v>0.314998326297937</v>
+        <v>0.19545302390721542</v>
       </c>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFECA169-9CA4-488C-98D3-EE17F2F55C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B35E4DA-0A00-4998-9D7A-3AB3B3EB1F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="645" windowWidth="22935" windowHeight="13935" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="1425" yWindow="1095" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5214CC-655A-4E11-87EC-D301395A4983}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="9">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="N5" s="2">
         <f>N4*N3</f>
-        <v>32825.100000000006</v>
+        <v>28647.360000000001</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="N8" s="2">
         <f>N5+N7-N6</f>
-        <v>33437.100000000006</v>
+        <v>29259.360000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1465,11 +1465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3098DAD7-B3FD-4340-A438-67E4C3210CEC}">
   <dimension ref="A1:DR107"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="U38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X62" sqref="V62:X62"/>
+      <selection pane="bottomRight" activeCell="Y53" sqref="Y53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2080,23 +2080,23 @@
       </c>
       <c r="V22" s="5">
         <f t="shared" si="12"/>
-        <v>0.11904761904761904</v>
+        <v>9.8214285714285712E-2</v>
       </c>
       <c r="W22" s="5">
         <f t="shared" si="12"/>
-        <v>0.12471655328798185</v>
+        <v>0.10289115646258504</v>
       </c>
       <c r="X22" s="5">
         <f t="shared" si="12"/>
-        <v>0.13065543677788577</v>
+        <v>0.10779073534175575</v>
       </c>
       <c r="Y22" s="5">
         <f t="shared" si="12"/>
-        <v>0.1368771242434994</v>
+        <v>0.11292362750088697</v>
       </c>
       <c r="Z22" s="5">
         <f t="shared" si="12"/>
-        <v>0.14339508254080893</v>
+        <v>0.11830094309616732</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -2129,23 +2129,23 @@
       </c>
       <c r="V24" s="5">
         <f t="shared" si="13"/>
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="W24" s="5">
         <f t="shared" si="13"/>
-        <v>0.16541353383458646</v>
+        <v>0.13646616541353385</v>
       </c>
       <c r="X24" s="5">
         <f t="shared" si="13"/>
-        <v>0.13672316384180794</v>
+        <v>0.11279661016949152</v>
       </c>
       <c r="Y24" s="5">
         <f t="shared" si="13"/>
-        <v>0.11327659574468088</v>
+        <v>9.3453191489361709E-2</v>
       </c>
       <c r="Z24" s="5">
         <f t="shared" si="13"/>
-        <v>9.3702400000000033E-2</v>
+        <v>7.7304480000000009E-2</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="V32" s="7">
         <f>V37/V31</f>
-        <v>0.61904761904761907</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="V37" s="2">
         <f>V39-V36</f>
-        <v>13000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="38" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2448,23 +2448,23 @@
         <v>22215</v>
       </c>
       <c r="V39" s="2">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="W39" s="2">
         <f>V39*1.1</f>
-        <v>44000</v>
+        <v>36300</v>
       </c>
       <c r="X39" s="2">
         <f t="shared" ref="X39:Z39" si="14">W39*1.1</f>
-        <v>48400.000000000007</v>
+        <v>39930</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="14"/>
-        <v>53240.000000000015</v>
+        <v>43923</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="14"/>
-        <v>58564.000000000022</v>
+        <v>48315.3</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
@@ -2533,23 +2533,23 @@
       </c>
       <c r="V40" s="2">
         <f>V39*(1-V58)</f>
-        <v>34880</v>
+        <v>28776</v>
       </c>
       <c r="W40" s="2">
         <f>W39*(1-W58)</f>
-        <v>38311.68</v>
+        <v>31607.135999999999</v>
       </c>
       <c r="X40" s="2">
         <f>X39*(1-X58)</f>
-        <v>42080.276480000008</v>
+        <v>34716.228095999999</v>
       </c>
       <c r="Y40" s="2">
         <f>Y39*(1-Y58)</f>
-        <v>46218.787169280011</v>
+        <v>38130.499414655998</v>
       </c>
       <c r="Z40" s="2">
         <f>Z39*(1-Z58)</f>
-        <v>50763.432545070093</v>
+        <v>41879.831849682814</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -2630,23 +2630,23 @@
       </c>
       <c r="V41" s="2">
         <f t="shared" si="16"/>
-        <v>5120</v>
+        <v>4224</v>
       </c>
       <c r="W41" s="2">
         <f t="shared" ref="W41:Z41" si="17">W39-W40</f>
-        <v>5688.32</v>
+        <v>4692.8640000000014</v>
       </c>
       <c r="X41" s="2">
         <f t="shared" si="17"/>
-        <v>6319.7235199999996</v>
+        <v>5213.7719040000011</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="17"/>
-        <v>7021.2128307200037</v>
+        <v>5792.5005853440016</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="17"/>
-        <v>7800.5674549299292</v>
+        <v>6435.4681503171887</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
@@ -2715,23 +2715,23 @@
       </c>
       <c r="V42" s="2">
         <f t="shared" ref="V42:Z42" si="21">U42*(1+V55)</f>
-        <v>1198.7904764700702</v>
+        <v>989.00214308780778</v>
       </c>
       <c r="W42" s="2">
         <f t="shared" si="21"/>
-        <v>1318.6695241170773</v>
+        <v>1087.9023573965887</v>
       </c>
       <c r="X42" s="2">
         <f t="shared" si="21"/>
-        <v>1450.5364765287852</v>
+        <v>1196.6925931362478</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="21"/>
-        <v>1595.5901241816639</v>
+        <v>1316.3618524498727</v>
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="21"/>
-        <v>1755.1491365998304</v>
+        <v>1447.9980376948602</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -2800,23 +2800,23 @@
       </c>
       <c r="V43" s="2">
         <f t="shared" ref="V43:Z43" si="25">U43*(1+V55)</f>
-        <v>515.97725782618477</v>
+        <v>425.68123770660242</v>
       </c>
       <c r="W43" s="2">
         <f t="shared" si="25"/>
-        <v>567.57498360880334</v>
+        <v>468.24936147726271</v>
       </c>
       <c r="X43" s="2">
         <f t="shared" si="25"/>
-        <v>624.33248196968373</v>
+        <v>515.07429762498907</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="25"/>
-        <v>686.76573016665213</v>
+        <v>566.58172738748806</v>
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="25"/>
-        <v>755.44230318331745</v>
+        <v>623.23990012623688</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
@@ -2885,23 +2885,23 @@
       </c>
       <c r="V44" s="2">
         <f t="shared" ref="V44:Z44" si="29">U44*(1+V55)</f>
-        <v>524.84709704567024</v>
+        <v>432.99885506267793</v>
       </c>
       <c r="W44" s="2">
         <f t="shared" si="29"/>
-        <v>577.33180675023732</v>
+        <v>476.29874056894579</v>
       </c>
       <c r="X44" s="2">
         <f t="shared" si="29"/>
-        <v>635.06498742526105</v>
+        <v>523.9286146258404</v>
       </c>
       <c r="Y44" s="2">
         <f t="shared" si="29"/>
-        <v>698.57148616778716</v>
+        <v>576.32147608842445</v>
       </c>
       <c r="Z44" s="2">
         <f t="shared" si="29"/>
-        <v>768.42863478456593</v>
+        <v>633.95362369726695</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
@@ -2982,23 +2982,23 @@
       </c>
       <c r="V45" s="2">
         <f t="shared" si="35"/>
-        <v>2239.6148313419253</v>
+        <v>1847.682235857088</v>
       </c>
       <c r="W45" s="2">
         <f t="shared" si="35"/>
-        <v>2463.5763144761181</v>
+        <v>2032.4504594427972</v>
       </c>
       <c r="X45" s="2">
         <f t="shared" si="35"/>
-        <v>2709.9339459237299</v>
+        <v>2235.6955053870774</v>
       </c>
       <c r="Y45" s="2">
         <f t="shared" si="35"/>
-        <v>2980.927340516103</v>
+        <v>2459.265055925785</v>
       </c>
       <c r="Z45" s="2">
         <f t="shared" si="35"/>
-        <v>3279.0200745677139</v>
+        <v>2705.1915615183643</v>
       </c>
     </row>
     <row r="46" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3079,23 +3079,23 @@
       </c>
       <c r="V46" s="8">
         <f t="shared" si="41"/>
-        <v>2880.3851686580747</v>
+        <v>2376.317764142912</v>
       </c>
       <c r="W46" s="8">
         <f t="shared" ref="W46" si="42">W41-W45</f>
-        <v>3224.7436855238816</v>
+        <v>2660.4135405572042</v>
       </c>
       <c r="X46" s="8">
         <f t="shared" ref="X46" si="43">X41-X45</f>
-        <v>3609.7895740762697</v>
+        <v>2978.0763986129236</v>
       </c>
       <c r="Y46" s="8">
         <f t="shared" ref="Y46:Z46" si="44">Y41-Y45</f>
-        <v>4040.2854902039007</v>
+        <v>3333.2355294182166</v>
       </c>
       <c r="Z46" s="8">
         <f t="shared" si="44"/>
-        <v>4521.5473803622153</v>
+        <v>3730.2765887988244</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -3207,19 +3207,19 @@
       </c>
       <c r="W48" s="2">
         <f>V62*$AC$54</f>
-        <v>49.898437124963976</v>
+        <v>41.833358652721373</v>
       </c>
       <c r="X48" s="2">
         <f>W62*$AC$54</f>
-        <v>102.29271108734551</v>
+        <v>85.069309040080185</v>
       </c>
       <c r="Y48" s="2">
         <f>X62*$AC$54</f>
-        <v>161.68602764996336</v>
+        <v>134.07964036252824</v>
       </c>
       <c r="Z48" s="2">
         <f>Y62*$AC$54</f>
-        <v>228.9175719356252</v>
+        <v>189.55668307902016</v>
       </c>
     </row>
     <row r="49" spans="2:92" x14ac:dyDescent="0.2">
@@ -3300,23 +3300,23 @@
       </c>
       <c r="V49" s="2">
         <f t="shared" si="50"/>
-        <v>2884.1374072667704</v>
+        <v>2380.0700027516077</v>
       </c>
       <c r="W49" s="2">
         <f t="shared" ref="W49" si="51">W46+SUM(W47:W48)</f>
-        <v>3274.6421226488455</v>
+        <v>2702.2468992099257</v>
       </c>
       <c r="X49" s="2">
         <f t="shared" ref="X49" si="52">X46+SUM(X47:X48)</f>
-        <v>3712.0822851636153</v>
+        <v>3063.1457076530037</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" ref="Y49:Z49" si="53">Y46+SUM(Y47:Y48)</f>
-        <v>4201.9715178538645</v>
+        <v>3467.3151697807448</v>
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="53"/>
-        <v>4750.4649522978407</v>
+        <v>3919.8332718778447</v>
       </c>
     </row>
     <row r="50" spans="2:92" x14ac:dyDescent="0.2">
@@ -3385,23 +3385,23 @@
       </c>
       <c r="V50" s="2">
         <f>V49*0.2</f>
-        <v>576.82748145335415</v>
+        <v>476.01400055032155</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" ref="W50:Z50" si="55">W49*0.2</f>
-        <v>654.92842452976913</v>
+        <v>540.44937984198521</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="55"/>
-        <v>742.41645703272309</v>
+        <v>612.6291415306008</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="55"/>
-        <v>840.39430357077299</v>
+        <v>693.46303395614905</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="55"/>
-        <v>950.09299045956823</v>
+        <v>783.96665437556896</v>
       </c>
     </row>
     <row r="51" spans="2:92" x14ac:dyDescent="0.2">
@@ -3483,287 +3483,287 @@
       </c>
       <c r="V51" s="8">
         <f>V49-V50</f>
-        <v>2307.3099258134162</v>
+        <v>1904.0560022012862</v>
       </c>
       <c r="W51" s="8">
         <f t="shared" ref="W51:Z51" si="61">W49-W50</f>
-        <v>2619.7136981190765</v>
+        <v>2161.7975193679404</v>
       </c>
       <c r="X51" s="8">
         <f t="shared" si="61"/>
-        <v>2969.6658281308924</v>
+        <v>2450.5165661224028</v>
       </c>
       <c r="Y51" s="8">
         <f t="shared" si="61"/>
-        <v>3361.5772142830915</v>
+        <v>2773.8521358245957</v>
       </c>
       <c r="Z51" s="8">
         <f t="shared" si="61"/>
-        <v>3800.3719618382725</v>
+        <v>3135.8666175022759</v>
       </c>
       <c r="AA51" s="8">
         <f t="shared" ref="AA51:BF51" si="62">Z51*(1+$AC$55)</f>
-        <v>3838.375681456655</v>
+        <v>3167.2252836772986</v>
       </c>
       <c r="AB51" s="8">
         <f t="shared" si="62"/>
-        <v>3876.7594382712214</v>
+        <v>3198.8975365140718</v>
       </c>
       <c r="AC51" s="8">
         <f t="shared" si="62"/>
-        <v>3915.5270326539335</v>
+        <v>3230.8865118792128</v>
       </c>
       <c r="AD51" s="8">
         <f t="shared" si="62"/>
-        <v>3954.6823029804727</v>
+        <v>3263.195376998005</v>
       </c>
       <c r="AE51" s="8">
         <f t="shared" si="62"/>
-        <v>3994.2291260102775</v>
+        <v>3295.8273307679851</v>
       </c>
       <c r="AF51" s="8">
         <f t="shared" si="62"/>
-        <v>4034.1714172703801</v>
+        <v>3328.7856040756651</v>
       </c>
       <c r="AG51" s="8">
         <f t="shared" si="62"/>
-        <v>4074.5131314430837</v>
+        <v>3362.0734601164218</v>
       </c>
       <c r="AH51" s="8">
         <f t="shared" si="62"/>
-        <v>4115.2582627575148</v>
+        <v>3395.694194717586</v>
       </c>
       <c r="AI51" s="8">
         <f t="shared" si="62"/>
-        <v>4156.4108453850904</v>
+        <v>3429.6511366647619</v>
       </c>
       <c r="AJ51" s="8">
         <f t="shared" si="62"/>
-        <v>4197.9749538389415</v>
+        <v>3463.9476480314097</v>
       </c>
       <c r="AK51" s="8">
         <f t="shared" si="62"/>
-        <v>4239.9547033773306</v>
+        <v>3498.5871245117237</v>
       </c>
       <c r="AL51" s="8">
         <f t="shared" si="62"/>
-        <v>4282.3542504111037</v>
+        <v>3533.572995756841</v>
       </c>
       <c r="AM51" s="8">
         <f t="shared" si="62"/>
-        <v>4325.1777929152149</v>
+        <v>3568.9087257144092</v>
       </c>
       <c r="AN51" s="8">
         <f t="shared" si="62"/>
-        <v>4368.4295708443669</v>
+        <v>3604.5978129715531</v>
       </c>
       <c r="AO51" s="8">
         <f t="shared" si="62"/>
-        <v>4412.1138665528106</v>
+        <v>3640.6437911012686</v>
       </c>
       <c r="AP51" s="8">
         <f t="shared" si="62"/>
-        <v>4456.2350052183383</v>
+        <v>3677.0502290122813</v>
       </c>
       <c r="AQ51" s="8">
         <f t="shared" si="62"/>
-        <v>4500.7973552705216</v>
+        <v>3713.8207313024041</v>
       </c>
       <c r="AR51" s="8">
         <f t="shared" si="62"/>
-        <v>4545.8053288232268</v>
+        <v>3750.958938615428</v>
       </c>
       <c r="AS51" s="8">
         <f t="shared" si="62"/>
-        <v>4591.2633821114587</v>
+        <v>3788.4685280015824</v>
       </c>
       <c r="AT51" s="8">
         <f t="shared" si="62"/>
-        <v>4637.1760159325731</v>
+        <v>3826.3532132815981</v>
       </c>
       <c r="AU51" s="8">
         <f t="shared" si="62"/>
-        <v>4683.5477760918993</v>
+        <v>3864.6167454144143</v>
       </c>
       <c r="AV51" s="8">
         <f t="shared" si="62"/>
-        <v>4730.3832538528186</v>
+        <v>3903.2629128685585</v>
       </c>
       <c r="AW51" s="8">
         <f t="shared" si="62"/>
-        <v>4777.6870863913464</v>
+        <v>3942.2955419972441</v>
       </c>
       <c r="AX51" s="8">
         <f t="shared" si="62"/>
-        <v>4825.4639572552596</v>
+        <v>3981.7184974172164</v>
       </c>
       <c r="AY51" s="8">
         <f t="shared" si="62"/>
-        <v>4873.7185968278127</v>
+        <v>4021.5356823913885</v>
       </c>
       <c r="AZ51" s="8">
         <f t="shared" si="62"/>
-        <v>4922.4557827960907</v>
+        <v>4061.7510392153026</v>
       </c>
       <c r="BA51" s="8">
         <f t="shared" si="62"/>
-        <v>4971.6803406240515</v>
+        <v>4102.3685496074559</v>
       </c>
       <c r="BB51" s="8">
         <f t="shared" si="62"/>
-        <v>5021.3971440302921</v>
+        <v>4143.3922351035308</v>
       </c>
       <c r="BC51" s="8">
         <f t="shared" si="62"/>
-        <v>5071.611115470595</v>
+        <v>4184.8261574545659</v>
       </c>
       <c r="BD51" s="8">
         <f t="shared" si="62"/>
-        <v>5122.3272266253007</v>
+        <v>4226.674419029112</v>
       </c>
       <c r="BE51" s="8">
         <f t="shared" si="62"/>
-        <v>5173.5504988915536</v>
+        <v>4268.9411632194033</v>
       </c>
       <c r="BF51" s="8">
         <f t="shared" si="62"/>
-        <v>5225.2860038804693</v>
+        <v>4311.630574851597</v>
       </c>
       <c r="BG51" s="8">
         <f t="shared" ref="BG51:CN51" si="63">BF51*(1+$AC$55)</f>
-        <v>5277.5388639192743</v>
+        <v>4354.7468806001134</v>
       </c>
       <c r="BH51" s="8">
         <f t="shared" si="63"/>
-        <v>5330.3142525584672</v>
+        <v>4398.2943494061146</v>
       </c>
       <c r="BI51" s="8">
         <f t="shared" si="63"/>
-        <v>5383.6173950840521</v>
+        <v>4442.2772929001758</v>
       </c>
       <c r="BJ51" s="8">
         <f t="shared" si="63"/>
-        <v>5437.453569034893</v>
+        <v>4486.7000658291772</v>
       </c>
       <c r="BK51" s="8">
         <f t="shared" si="63"/>
-        <v>5491.8281047252422</v>
+        <v>4531.5670664874688</v>
       </c>
       <c r="BL51" s="8">
         <f t="shared" si="63"/>
-        <v>5546.7463857724942</v>
+        <v>4576.8827371523439</v>
       </c>
       <c r="BM51" s="8">
         <f t="shared" si="63"/>
-        <v>5602.2138496302196</v>
+        <v>4622.6515645238678</v>
       </c>
       <c r="BN51" s="8">
         <f t="shared" si="63"/>
-        <v>5658.235988126522</v>
+        <v>4668.8780801691064</v>
       </c>
       <c r="BO51" s="8">
         <f t="shared" si="63"/>
-        <v>5714.8183480077869</v>
+        <v>4715.5668609707973</v>
       </c>
       <c r="BP51" s="8">
         <f t="shared" si="63"/>
-        <v>5771.9665314878648</v>
+        <v>4762.7225295805056</v>
       </c>
       <c r="BQ51" s="8">
         <f t="shared" si="63"/>
-        <v>5829.6861968027433</v>
+        <v>4810.3497548763107</v>
       </c>
       <c r="BR51" s="8">
         <f t="shared" si="63"/>
-        <v>5887.9830587707711</v>
+        <v>4858.4532524250735</v>
       </c>
       <c r="BS51" s="8">
         <f t="shared" si="63"/>
-        <v>5946.8628893584792</v>
+        <v>4907.0377849493243</v>
       </c>
       <c r="BT51" s="8">
         <f t="shared" si="63"/>
-        <v>6006.3315182520637</v>
+        <v>4956.1081627988178</v>
       </c>
       <c r="BU51" s="8">
         <f t="shared" si="63"/>
-        <v>6066.3948334345841</v>
+        <v>5005.6692444268065</v>
       </c>
       <c r="BV51" s="8">
         <f t="shared" si="63"/>
-        <v>6127.0587817689302</v>
+        <v>5055.7259368710747</v>
       </c>
       <c r="BW51" s="8">
         <f t="shared" si="63"/>
-        <v>6188.3293695866196</v>
+        <v>5106.2831962397859</v>
       </c>
       <c r="BX51" s="8">
         <f t="shared" si="63"/>
-        <v>6250.2126632824857</v>
+        <v>5157.3460282021833</v>
       </c>
       <c r="BY51" s="8">
         <f t="shared" si="63"/>
-        <v>6312.7147899153106</v>
+        <v>5208.9194884842054</v>
       </c>
       <c r="BZ51" s="8">
         <f t="shared" si="63"/>
-        <v>6375.8419378144636</v>
+        <v>5261.0086833690475</v>
       </c>
       <c r="CA51" s="8">
         <f t="shared" si="63"/>
-        <v>6439.6003571926085</v>
+        <v>5313.6187702027382</v>
       </c>
       <c r="CB51" s="8">
         <f t="shared" si="63"/>
-        <v>6503.996360764535</v>
+        <v>5366.7549579047654</v>
       </c>
       <c r="CC51" s="8">
         <f t="shared" si="63"/>
-        <v>6569.0363243721804</v>
+        <v>5420.4225074838132</v>
       </c>
       <c r="CD51" s="8">
         <f t="shared" si="63"/>
-        <v>6634.7266876159019</v>
+        <v>5474.6267325586514</v>
       </c>
       <c r="CE51" s="8">
         <f t="shared" si="63"/>
-        <v>6701.0739544920607</v>
+        <v>5529.3729998842382</v>
       </c>
       <c r="CF51" s="8">
         <f t="shared" si="63"/>
-        <v>6768.0846940369811</v>
+        <v>5584.6667298830807</v>
       </c>
       <c r="CG51" s="8">
         <f t="shared" si="63"/>
-        <v>6835.7655409773506</v>
+        <v>5640.5133971819114</v>
       </c>
       <c r="CH51" s="8">
         <f t="shared" si="63"/>
-        <v>6904.1231963871242</v>
+        <v>5696.9185311537303</v>
       </c>
       <c r="CI51" s="8">
         <f t="shared" si="63"/>
-        <v>6973.1644283509959</v>
+        <v>5753.8877164652677</v>
       </c>
       <c r="CJ51" s="8">
         <f t="shared" si="63"/>
-        <v>7042.8960726345058</v>
+        <v>5811.4265936299207</v>
       </c>
       <c r="CK51" s="8">
         <f t="shared" si="63"/>
-        <v>7113.3250333608512</v>
+        <v>5869.5408595662202</v>
       </c>
       <c r="CL51" s="8">
         <f t="shared" si="63"/>
-        <v>7184.4582836944601</v>
+        <v>5928.2362681618824</v>
       </c>
       <c r="CM51" s="8">
         <f t="shared" si="63"/>
-        <v>7256.302866531405</v>
+        <v>5987.5186308435013</v>
       </c>
       <c r="CN51" s="8">
         <f t="shared" si="63"/>
-        <v>7328.8658951967191</v>
+        <v>6047.3938171519367</v>
       </c>
     </row>
     <row r="52" spans="2:92" x14ac:dyDescent="0.2">
@@ -3845,23 +3845,23 @@
       </c>
       <c r="V52" s="9">
         <f t="shared" si="65"/>
-        <v>3.6740603914226373</v>
+        <v>3.0319363092377167</v>
       </c>
       <c r="W52" s="9">
         <f t="shared" si="65"/>
-        <v>4.1715186275781475</v>
+        <v>3.4423527378470387</v>
       </c>
       <c r="X52" s="9">
         <f t="shared" si="65"/>
-        <v>4.7287672422466436</v>
+        <v>3.902096442870068</v>
       </c>
       <c r="Y52" s="9">
         <f t="shared" si="65"/>
-        <v>5.352829959049509</v>
+        <v>4.4169619997206935</v>
       </c>
       <c r="Z52" s="9">
         <f t="shared" si="65"/>
-        <v>6.0515477099335548</v>
+        <v>4.993418180736108</v>
       </c>
     </row>
     <row r="53" spans="2:92" x14ac:dyDescent="0.2">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="V55" s="10">
         <f t="shared" si="67"/>
-        <v>0.80058519018681062</v>
+        <v>0.48548278190411875</v>
       </c>
       <c r="W55" s="10">
         <f t="shared" ref="W55:Z55" si="68">W39/V39-1</f>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AC57" s="8">
         <f>NPV(AC56,V51:CN51)+Main!N6-Main!N7</f>
-        <v>39240.86505505674</v>
+        <v>32272.89491362813</v>
       </c>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="AC58" s="13">
         <f>AC57/Main!N4</f>
-        <v>65.749916314896851</v>
+        <v>54.074754387634677</v>
       </c>
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
@@ -4307,23 +4307,23 @@
       </c>
       <c r="V59" s="5">
         <f t="shared" si="73"/>
-        <v>7.5240768088773557E-2</v>
+        <v>7.5786989707113464E-2</v>
       </c>
       <c r="W59" s="5">
         <f t="shared" si="73"/>
-        <v>7.7096967627962601E-2</v>
+        <v>7.7641973645034279E-2</v>
       </c>
       <c r="X59" s="5">
         <f t="shared" si="73"/>
-        <v>7.8914751929613586E-2</v>
+        <v>7.9458635173150216E-2</v>
       </c>
       <c r="Y59" s="5">
         <f t="shared" si="73"/>
-        <v>8.0698087830047657E-2</v>
+        <v>8.1240934039119139E-2</v>
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="73"/>
-        <v>8.2450649576630397E-2</v>
+        <v>8.2992537942959549E-2</v>
       </c>
       <c r="AA59" s="5"/>
       <c r="AB59" s="2" t="s">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="AC59" s="5">
         <f>AC58/Main!N3-1</f>
-        <v>0.19545302390721542</v>
+        <v>0.12655738307572251</v>
       </c>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
@@ -4415,23 +4415,23 @@
       </c>
       <c r="V60" s="6">
         <f t="shared" si="75"/>
-        <v>5.5990370783548134E-2</v>
+        <v>5.599037078354812E-2</v>
       </c>
       <c r="W60" s="6">
         <f t="shared" si="75"/>
-        <v>5.5990370783548141E-2</v>
+        <v>5.5990370783548134E-2</v>
       </c>
       <c r="X60" s="6">
         <f t="shared" si="75"/>
-        <v>5.5990370783548127E-2</v>
+        <v>5.5990370783548148E-2</v>
       </c>
       <c r="Y60" s="6">
         <f t="shared" si="75"/>
-        <v>5.5990370783548127E-2</v>
+        <v>5.5990370783548141E-2</v>
       </c>
       <c r="Z60" s="6">
         <f t="shared" si="75"/>
-        <v>5.5990370783548127E-2</v>
+        <v>5.5990370783548155E-2</v>
       </c>
       <c r="AA60" s="6"/>
       <c r="AD60" s="6"/>
@@ -4510,23 +4510,23 @@
       </c>
       <c r="V62" s="2">
         <f>U62+V51</f>
-        <v>2494.9218562481988</v>
+        <v>2091.6679326360686</v>
       </c>
       <c r="W62" s="2">
         <f>V62+W51</f>
-        <v>5114.6355543672753</v>
+        <v>4253.4654520040094</v>
       </c>
       <c r="X62" s="2">
         <f>W62+X51</f>
-        <v>8084.3013824981681</v>
+        <v>6703.9820181264122</v>
       </c>
       <c r="Y62" s="2">
         <f>X62+Y51</f>
-        <v>11445.87859678126</v>
+        <v>9477.8341539510075</v>
       </c>
       <c r="Z62" s="2">
         <f>Y62+Z51</f>
-        <v>15246.250558619533</v>
+        <v>12613.700771453283</v>
       </c>
     </row>
     <row r="63" spans="2:92" x14ac:dyDescent="0.2">
@@ -5356,23 +5356,23 @@
       </c>
       <c r="V86" s="2">
         <f t="shared" si="107"/>
-        <v>2307.3099258134162</v>
+        <v>1904.0560022012862</v>
       </c>
       <c r="W86" s="2">
         <f t="shared" si="107"/>
-        <v>2619.7136981190765</v>
+        <v>2161.7975193679404</v>
       </c>
       <c r="X86" s="2">
         <f t="shared" si="107"/>
-        <v>2969.6658281308924</v>
+        <v>2450.5165661224028</v>
       </c>
       <c r="Y86" s="2">
         <f t="shared" si="107"/>
-        <v>3361.5772142830915</v>
+        <v>2773.8521358245957</v>
       </c>
       <c r="Z86" s="2">
         <f t="shared" si="107"/>
-        <v>3800.3719618382725</v>
+        <v>3135.8666175022759</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.2">
@@ -5434,23 +5434,23 @@
       </c>
       <c r="V88" s="2">
         <f>U88*(1+V55)</f>
-        <v>242.32745207409803</v>
+        <v>199.92014796113088</v>
       </c>
       <c r="W88" s="2">
         <f t="shared" ref="W88:W94" si="108">V88*1.1</f>
-        <v>266.56019728150784</v>
+        <v>219.91216275724398</v>
       </c>
       <c r="X88" s="2">
         <f t="shared" ref="X88:Z88" si="109">W88*1.1</f>
-        <v>293.21621700965864</v>
+        <v>241.90337903296839</v>
       </c>
       <c r="Y88" s="2">
         <f t="shared" si="109"/>
-        <v>322.5378387106245</v>
+        <v>266.09371693626525</v>
       </c>
       <c r="Z88" s="2">
         <f t="shared" si="109"/>
-        <v>354.79162258168697</v>
+        <v>292.70308862989179</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.2">
@@ -5485,23 +5485,23 @@
       </c>
       <c r="V89" s="2">
         <f>U89*(1+V55)</f>
-        <v>1335.9183473759406</v>
+        <v>1102.132636585151</v>
       </c>
       <c r="W89" s="2">
         <f t="shared" si="108"/>
-        <v>1469.5101821135347</v>
+        <v>1212.3459002436662</v>
       </c>
       <c r="X89" s="2">
         <f t="shared" ref="X89:Z89" si="111">W89*1.1</f>
-        <v>1616.4612003248883</v>
+        <v>1333.5804902680329</v>
       </c>
       <c r="Y89" s="2">
         <f t="shared" si="111"/>
-        <v>1778.1073203573774</v>
+        <v>1466.9385392948363</v>
       </c>
       <c r="Z89" s="2">
         <f t="shared" si="111"/>
-        <v>1955.9180523931152</v>
+        <v>1613.6323932243201</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.2">
@@ -5536,23 +5536,23 @@
       </c>
       <c r="V90" s="2">
         <f>U90*(1+V55)</f>
-        <v>-12.799812112849718</v>
+        <v>-10.559844993101018</v>
       </c>
       <c r="W90" s="2">
         <f t="shared" si="108"/>
-        <v>-14.079793324134691</v>
+        <v>-11.615829492411121</v>
       </c>
       <c r="X90" s="2">
         <f t="shared" ref="X90:Z90" si="112">W90*1.1</f>
-        <v>-15.487772656548161</v>
+        <v>-12.777412441652235</v>
       </c>
       <c r="Y90" s="2">
         <f t="shared" si="112"/>
-        <v>-17.03654992220298</v>
+        <v>-14.055153685817459</v>
       </c>
       <c r="Z90" s="2">
         <f t="shared" si="112"/>
-        <v>-18.740204914423281</v>
+        <v>-15.460669054399206</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.2">
@@ -5587,23 +5587,23 @@
       </c>
       <c r="V91" s="2">
         <f>U91*(1+V55)</f>
-        <v>12.463180968597404</v>
+        <v>10.282124299092859</v>
       </c>
       <c r="W91" s="2">
         <f t="shared" si="108"/>
-        <v>13.709499065457146</v>
+        <v>11.310336729002145</v>
       </c>
       <c r="X91" s="2">
         <f t="shared" ref="X91:Z91" si="113">W91*1.1</f>
-        <v>15.080448972002863</v>
+        <v>12.441370401902361</v>
       </c>
       <c r="Y91" s="2">
         <f t="shared" si="113"/>
-        <v>16.588493869203152</v>
+        <v>13.685507442092598</v>
       </c>
       <c r="Z91" s="2">
         <f t="shared" si="113"/>
-        <v>18.247343256123468</v>
+        <v>15.054058186301859</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.2">
@@ -5638,23 +5638,23 @@
       </c>
       <c r="V92" s="2">
         <f>U92*(1+V55)</f>
-        <v>-778.2207478300013</v>
+        <v>-642.03211695975108</v>
       </c>
       <c r="W92" s="2">
         <f t="shared" si="108"/>
-        <v>-856.04282261300148</v>
+        <v>-706.23532865572622</v>
       </c>
       <c r="X92" s="2">
         <f t="shared" ref="X92:Z92" si="114">W92*1.1</f>
-        <v>-941.6471048743017</v>
+        <v>-776.85886152129888</v>
       </c>
       <c r="Y92" s="2">
         <f t="shared" si="114"/>
-        <v>-1035.811815361732</v>
+        <v>-854.54474767342879</v>
       </c>
       <c r="Z92" s="2">
         <f t="shared" si="114"/>
-        <v>-1139.3929968979053</v>
+        <v>-939.99922244077175</v>
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.2">
@@ -5689,23 +5689,23 @@
       </c>
       <c r="V93" s="2">
         <f>U93*(1+V55)</f>
-        <v>10.091105696307821</v>
+        <v>8.3251621994539509</v>
       </c>
       <c r="W93" s="2">
         <f t="shared" si="108"/>
-        <v>11.100216265938604</v>
+        <v>9.1576784193993461</v>
       </c>
       <c r="X93" s="2">
         <f t="shared" ref="X93:Z93" si="115">W93*1.1</f>
-        <v>12.210237892532465</v>
+        <v>10.073446261339281</v>
       </c>
       <c r="Y93" s="2">
         <f t="shared" si="115"/>
-        <v>13.431261681785713</v>
+        <v>11.08079088747321</v>
       </c>
       <c r="Z93" s="2">
         <f t="shared" si="115"/>
-        <v>14.774387849964286</v>
+        <v>12.188869976220532</v>
       </c>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.2">
@@ -5940,23 +5940,23 @@
       </c>
       <c r="V98" s="2">
         <f>U98*(1+V55)</f>
-        <v>157.4416033036824</v>
+        <v>129.88932272553797</v>
       </c>
       <c r="W98" s="2">
         <f t="shared" si="117"/>
-        <v>173.18576363405066</v>
+        <v>142.87825499809176</v>
       </c>
       <c r="X98" s="2">
         <f t="shared" si="117"/>
-        <v>190.50433999745573</v>
+        <v>157.16608049790096</v>
       </c>
       <c r="Y98" s="2">
         <f t="shared" si="117"/>
-        <v>209.55477399720132</v>
+        <v>172.88268854769106</v>
       </c>
       <c r="Z98" s="2">
         <f t="shared" si="117"/>
-        <v>230.51025139692146</v>
+        <v>190.17095740246017</v>
       </c>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.2">
@@ -6091,23 +6091,23 @@
       </c>
       <c r="V101" s="2">
         <f>U101*(1+V55)</f>
-        <v>32.308761216960725</v>
+        <v>26.654728003992599</v>
       </c>
       <c r="W101" s="2">
         <f t="shared" si="117"/>
-        <v>35.539637338656803</v>
+        <v>29.32020080439186</v>
       </c>
       <c r="X101" s="2">
         <f t="shared" si="117"/>
-        <v>39.093601072522489</v>
+        <v>32.252220884831047</v>
       </c>
       <c r="Y101" s="2">
         <f t="shared" si="117"/>
-        <v>43.002961179774744</v>
+        <v>35.477442973314155</v>
       </c>
       <c r="Z101" s="2">
         <f t="shared" si="117"/>
-        <v>47.303257297752225</v>
+        <v>39.025187270645574</v>
       </c>
     </row>
     <row r="102" spans="1:122" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -6181,23 +6181,23 @@
       </c>
       <c r="V102" s="8">
         <f t="shared" ref="V102:Z102" si="120">SUM(V88:V101,V86)</f>
-        <v>3406.8398165061526</v>
+        <v>2828.6681620227932</v>
       </c>
       <c r="W102" s="8">
         <f t="shared" si="120"/>
-        <v>3829.1965778810859</v>
+        <v>3178.870895171598</v>
       </c>
       <c r="X102" s="8">
         <f t="shared" si="120"/>
-        <v>4300.096995869103</v>
+        <v>3569.297279506427</v>
       </c>
       <c r="Y102" s="8">
         <f t="shared" si="120"/>
-        <v>4825.0514987951237</v>
+        <v>4004.5109205470226</v>
       </c>
       <c r="Z102" s="8">
         <f t="shared" si="120"/>
-        <v>5410.1936748015078</v>
+        <v>4489.5912806969454</v>
       </c>
     </row>
     <row r="103" spans="1:122" x14ac:dyDescent="0.2">
@@ -6228,23 +6228,23 @@
       </c>
       <c r="V103" s="2">
         <f>U103*(1+V55)</f>
-        <v>-397.20909295521039</v>
+        <v>-327.69750168804859</v>
       </c>
       <c r="W103" s="2">
         <f>V103*(1+W55)</f>
-        <v>-436.93000225073149</v>
+        <v>-360.46725185685347</v>
       </c>
       <c r="X103" s="2">
         <f>W103*(1+X55)</f>
-        <v>-480.6230024758047</v>
+        <v>-396.51397704253884</v>
       </c>
       <c r="Y103" s="2">
         <f>X103*(1+Y55)</f>
-        <v>-528.68530272338523</v>
+        <v>-436.16537474679274</v>
       </c>
       <c r="Z103" s="2">
         <f>Y103*(1+Z55)</f>
-        <v>-581.55383299572384</v>
+        <v>-479.78191222147206</v>
       </c>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.2">
@@ -6357,23 +6357,23 @@
       </c>
       <c r="V106" s="8">
         <f t="shared" si="122"/>
-        <v>-397.20909295521039</v>
+        <v>-327.69750168804859</v>
       </c>
       <c r="W106" s="8">
         <f t="shared" si="122"/>
-        <v>-436.93000225073149</v>
+        <v>-360.46725185685347</v>
       </c>
       <c r="X106" s="8">
         <f t="shared" si="122"/>
-        <v>-480.6230024758047</v>
+        <v>-396.51397704253884</v>
       </c>
       <c r="Y106" s="8">
         <f t="shared" si="122"/>
-        <v>-528.68530272338523</v>
+        <v>-436.16537474679274</v>
       </c>
       <c r="Z106" s="8">
         <f t="shared" si="122"/>
-        <v>-581.55383299572384</v>
+        <v>-479.78191222147206</v>
       </c>
     </row>
     <row r="107" spans="1:122" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -6447,407 +6447,407 @@
       </c>
       <c r="V107" s="8">
         <f t="shared" ref="V107" si="126">V102+V106</f>
-        <v>3009.6307235509421</v>
+        <v>2500.9706603347445</v>
       </c>
       <c r="W107" s="8">
         <f t="shared" ref="W107" si="127">W102+W106</f>
-        <v>3392.2665756303545</v>
+        <v>2818.4036433147444</v>
       </c>
       <c r="X107" s="8">
         <f t="shared" ref="X107" si="128">X102+X106</f>
-        <v>3819.4739933932983</v>
+        <v>3172.783302463888</v>
       </c>
       <c r="Y107" s="8">
         <f t="shared" ref="Y107" si="129">Y102+Y106</f>
-        <v>4296.3661960717382</v>
+        <v>3568.34554580023</v>
       </c>
       <c r="Z107" s="8">
         <f t="shared" ref="Z107" si="130">Z102+Z106</f>
-        <v>4828.6398418057843</v>
+        <v>4009.8093684754735</v>
       </c>
       <c r="AA107" s="8">
         <f t="shared" ref="AA107:BF107" si="131">Z107*(1+$AC$55)</f>
-        <v>4876.9262402238419</v>
+        <v>4049.9074621602285</v>
       </c>
       <c r="AB107" s="8">
         <f t="shared" si="131"/>
-        <v>4925.6955026260803</v>
+        <v>4090.4065367818307</v>
       </c>
       <c r="AC107" s="8">
         <f t="shared" si="131"/>
-        <v>4974.9524576523409</v>
+        <v>4131.3106021496487</v>
       </c>
       <c r="AD107" s="8">
         <f t="shared" si="131"/>
-        <v>5024.7019822288639</v>
+        <v>4172.6237081711452</v>
       </c>
       <c r="AE107" s="8">
         <f t="shared" si="131"/>
-        <v>5074.949002051153</v>
+        <v>4214.3499452528567</v>
       </c>
       <c r="AF107" s="8">
         <f t="shared" si="131"/>
-        <v>5125.698492071665</v>
+        <v>4256.4934447053856</v>
       </c>
       <c r="AG107" s="8">
         <f t="shared" si="131"/>
-        <v>5176.9554769923816</v>
+        <v>4299.0583791524396</v>
       </c>
       <c r="AH107" s="8">
         <f t="shared" si="131"/>
-        <v>5228.7250317623057</v>
+        <v>4342.0489629439644</v>
       </c>
       <c r="AI107" s="8">
         <f t="shared" si="131"/>
-        <v>5281.0122820799288</v>
+        <v>4385.4694525734039</v>
       </c>
       <c r="AJ107" s="8">
         <f t="shared" si="131"/>
-        <v>5333.8224049007285</v>
+        <v>4429.3241470991379</v>
       </c>
       <c r="AK107" s="8">
         <f t="shared" si="131"/>
-        <v>5387.1606289497358</v>
+        <v>4473.6173885701292</v>
       </c>
       <c r="AL107" s="8">
         <f t="shared" si="131"/>
-        <v>5441.0322352392332</v>
+        <v>4518.3535624558308</v>
       </c>
       <c r="AM107" s="8">
         <f t="shared" si="131"/>
-        <v>5495.4425575916257</v>
+        <v>4563.5370980803891</v>
       </c>
       <c r="AN107" s="8">
         <f t="shared" si="131"/>
-        <v>5550.3969831675422</v>
+        <v>4609.1724690611927</v>
       </c>
       <c r="AO107" s="8">
         <f t="shared" si="131"/>
-        <v>5605.9009529992172</v>
+        <v>4655.2641937518047</v>
       </c>
       <c r="AP107" s="8">
         <f t="shared" si="131"/>
-        <v>5661.9599625292094</v>
+        <v>4701.8168356893229</v>
       </c>
       <c r="AQ107" s="8">
         <f t="shared" si="131"/>
-        <v>5718.5795621545012</v>
+        <v>4748.8350040462165</v>
       </c>
       <c r="AR107" s="8">
         <f t="shared" si="131"/>
-        <v>5775.7653577760466</v>
+        <v>4796.3233540866786</v>
       </c>
       <c r="AS107" s="8">
         <f t="shared" si="131"/>
-        <v>5833.5230113538073</v>
+        <v>4844.2865876275455</v>
       </c>
       <c r="AT107" s="8">
         <f t="shared" si="131"/>
-        <v>5891.8582414673456</v>
+        <v>4892.7294535038209</v>
       </c>
       <c r="AU107" s="8">
         <f t="shared" si="131"/>
-        <v>5950.776823882019</v>
+        <v>4941.6567480388594</v>
       </c>
       <c r="AV107" s="8">
         <f t="shared" si="131"/>
-        <v>6010.2845921208391</v>
+        <v>4991.0733155192484</v>
       </c>
       <c r="AW107" s="8">
         <f t="shared" si="131"/>
-        <v>6070.3874380420475</v>
+        <v>5040.9840486744406</v>
       </c>
       <c r="AX107" s="8">
         <f t="shared" si="131"/>
-        <v>6131.091312422468</v>
+        <v>5091.3938891611851</v>
       </c>
       <c r="AY107" s="8">
         <f t="shared" si="131"/>
-        <v>6192.4022255466925</v>
+        <v>5142.307828052797</v>
       </c>
       <c r="AZ107" s="8">
         <f t="shared" si="131"/>
-        <v>6254.3262478021597</v>
+        <v>5193.730906333325</v>
       </c>
       <c r="BA107" s="8">
         <f t="shared" si="131"/>
-        <v>6316.8695102801812</v>
+        <v>5245.6682153966585</v>
       </c>
       <c r="BB107" s="8">
         <f t="shared" si="131"/>
-        <v>6380.0382053829835</v>
+        <v>5298.1248975506251</v>
       </c>
       <c r="BC107" s="8">
         <f t="shared" si="131"/>
-        <v>6443.8385874368132</v>
+        <v>5351.1061465261309</v>
       </c>
       <c r="BD107" s="8">
         <f t="shared" si="131"/>
-        <v>6508.2769733111818</v>
+        <v>5404.6172079913922</v>
       </c>
       <c r="BE107" s="8">
         <f t="shared" si="131"/>
-        <v>6573.3597430442933</v>
+        <v>5458.6633800713062</v>
       </c>
       <c r="BF107" s="8">
         <f t="shared" si="131"/>
-        <v>6639.0933404747366</v>
+        <v>5513.2500138720188</v>
       </c>
       <c r="BG107" s="8">
         <f t="shared" ref="BG107:CL107" si="132">BF107*(1+$AC$55)</f>
-        <v>6705.4842738794841</v>
+        <v>5568.3825140107392</v>
       </c>
       <c r="BH107" s="8">
         <f t="shared" si="132"/>
-        <v>6772.539116618279</v>
+        <v>5624.0663391508469</v>
       </c>
       <c r="BI107" s="8">
         <f t="shared" si="132"/>
-        <v>6840.2645077844618</v>
+        <v>5680.3070025423558</v>
       </c>
       <c r="BJ107" s="8">
         <f t="shared" si="132"/>
-        <v>6908.6671528623065</v>
+        <v>5737.1100725677798</v>
       </c>
       <c r="BK107" s="8">
         <f t="shared" si="132"/>
-        <v>6977.7538243909294</v>
+        <v>5794.4811732934577</v>
       </c>
       <c r="BL107" s="8">
         <f t="shared" si="132"/>
-        <v>7047.5313626348388</v>
+        <v>5852.4259850263925</v>
       </c>
       <c r="BM107" s="8">
         <f t="shared" si="132"/>
-        <v>7118.0066762611868</v>
+        <v>5910.9502448766561</v>
       </c>
       <c r="BN107" s="8">
         <f t="shared" si="132"/>
-        <v>7189.186743023799</v>
+        <v>5970.0597473254229</v>
       </c>
       <c r="BO107" s="8">
         <f t="shared" si="132"/>
-        <v>7261.0786104540366</v>
+        <v>6029.7603447986776</v>
       </c>
       <c r="BP107" s="8">
         <f t="shared" si="132"/>
-        <v>7333.6893965585768</v>
+        <v>6090.0579482466646</v>
       </c>
       <c r="BQ107" s="8">
         <f t="shared" si="132"/>
-        <v>7407.0262905241625</v>
+        <v>6150.9585277291317</v>
       </c>
       <c r="BR107" s="8">
         <f t="shared" si="132"/>
-        <v>7481.0965534294046</v>
+        <v>6212.4681130064228</v>
       </c>
       <c r="BS107" s="8">
         <f t="shared" si="132"/>
-        <v>7555.9075189636987</v>
+        <v>6274.5927941364871</v>
       </c>
       <c r="BT107" s="8">
         <f t="shared" si="132"/>
-        <v>7631.4665941533358</v>
+        <v>6337.3387220778523</v>
       </c>
       <c r="BU107" s="8">
         <f t="shared" si="132"/>
-        <v>7707.7812600948691</v>
+        <v>6400.7121092986308</v>
       </c>
       <c r="BV107" s="8">
         <f t="shared" si="132"/>
-        <v>7784.8590726958182</v>
+        <v>6464.7192303916172</v>
       </c>
       <c r="BW107" s="8">
         <f t="shared" si="132"/>
-        <v>7862.707663422776</v>
+        <v>6529.3664226955334</v>
       </c>
       <c r="BX107" s="8">
         <f t="shared" si="132"/>
-        <v>7941.3347400570037</v>
+        <v>6594.6600869224885</v>
       </c>
       <c r="BY107" s="8">
         <f t="shared" si="132"/>
-        <v>8020.748087457574</v>
+        <v>6660.6066877917137</v>
       </c>
       <c r="BZ107" s="8">
         <f t="shared" si="132"/>
-        <v>8100.9555683321496</v>
+        <v>6727.2127546696311</v>
       </c>
       <c r="CA107" s="8">
         <f t="shared" si="132"/>
-        <v>8181.9651240154708</v>
+        <v>6794.4848822163276</v>
       </c>
       <c r="CB107" s="8">
         <f t="shared" si="132"/>
-        <v>8263.7847752556263</v>
+        <v>6862.4297310384909</v>
       </c>
       <c r="CC107" s="8">
         <f t="shared" si="132"/>
-        <v>8346.4226230081822</v>
+        <v>6931.0540283488763</v>
       </c>
       <c r="CD107" s="8">
         <f t="shared" si="132"/>
-        <v>8429.8868492382644</v>
+        <v>7000.3645686323653</v>
       </c>
       <c r="CE107" s="8">
         <f t="shared" si="132"/>
-        <v>8514.1857177306465</v>
+        <v>7070.3682143186888</v>
       </c>
       <c r="CF107" s="8">
         <f t="shared" si="132"/>
-        <v>8599.327574907953</v>
+        <v>7141.0718964618754</v>
       </c>
       <c r="CG107" s="8">
         <f t="shared" si="132"/>
-        <v>8685.3208506570318</v>
+        <v>7212.4826154264947</v>
       </c>
       <c r="CH107" s="8">
         <f t="shared" si="132"/>
-        <v>8772.1740591636026</v>
+        <v>7284.6074415807598</v>
       </c>
       <c r="CI107" s="8">
         <f t="shared" si="132"/>
-        <v>8859.8957997552388</v>
+        <v>7357.4535159965671</v>
       </c>
       <c r="CJ107" s="8">
         <f t="shared" si="132"/>
-        <v>8948.494757752791</v>
+        <v>7431.0280511565325</v>
       </c>
       <c r="CK107" s="8">
         <f t="shared" si="132"/>
-        <v>9037.9797053303191</v>
+        <v>7505.3383316680975</v>
       </c>
       <c r="CL107" s="8">
         <f t="shared" si="132"/>
-        <v>9128.3595023836224</v>
+        <v>7580.3917149847784</v>
       </c>
       <c r="CM107" s="8">
         <f t="shared" ref="CM107:DR107" si="133">CL107*(1+$AC$55)</f>
-        <v>9219.6430974074592</v>
+        <v>7656.1956321346261</v>
       </c>
       <c r="CN107" s="8">
         <f t="shared" si="133"/>
-        <v>9311.8395283815335</v>
+        <v>7732.7575884559728</v>
       </c>
       <c r="CO107" s="8">
         <f t="shared" si="133"/>
-        <v>9404.9579236653481</v>
+        <v>7810.0851643405331</v>
       </c>
       <c r="CP107" s="8">
         <f t="shared" si="133"/>
-        <v>9499.0075029020009</v>
+        <v>7888.1860159839389</v>
       </c>
       <c r="CQ107" s="8">
         <f t="shared" si="133"/>
-        <v>9593.9975779310207</v>
+        <v>7967.0678761437784</v>
       </c>
       <c r="CR107" s="8">
         <f t="shared" si="133"/>
-        <v>9689.9375537103315</v>
+        <v>8046.738554905216</v>
       </c>
       <c r="CS107" s="8">
         <f t="shared" si="133"/>
-        <v>9786.8369292474345</v>
+        <v>8127.2059404542679</v>
       </c>
       <c r="CT107" s="8">
         <f t="shared" si="133"/>
-        <v>9884.7052985399096</v>
+        <v>8208.477999858811</v>
       </c>
       <c r="CU107" s="8">
         <f t="shared" si="133"/>
-        <v>9983.552351525308</v>
+        <v>8290.5627798573987</v>
       </c>
       <c r="CV107" s="8">
         <f t="shared" si="133"/>
-        <v>10083.387875040562</v>
+        <v>8373.4684076559734</v>
       </c>
       <c r="CW107" s="8">
         <f t="shared" si="133"/>
-        <v>10184.221753790967</v>
+        <v>8457.2030917325337</v>
       </c>
       <c r="CX107" s="8">
         <f t="shared" si="133"/>
-        <v>10286.063971328877</v>
+        <v>8541.7751226498585</v>
       </c>
       <c r="CY107" s="8">
         <f t="shared" si="133"/>
-        <v>10388.924611042165</v>
+        <v>8627.1928738763563</v>
       </c>
       <c r="CZ107" s="8">
         <f t="shared" si="133"/>
-        <v>10492.813857152587</v>
+        <v>8713.4648026151208</v>
       </c>
       <c r="DA107" s="8">
         <f t="shared" si="133"/>
-        <v>10597.741995724113</v>
+        <v>8800.5994506412717</v>
       </c>
       <c r="DB107" s="8">
         <f t="shared" si="133"/>
-        <v>10703.719415681355</v>
+        <v>8888.6054451476848</v>
       </c>
       <c r="DC107" s="8">
         <f t="shared" si="133"/>
-        <v>10810.756609838169</v>
+        <v>8977.4914995991621</v>
       </c>
       <c r="DD107" s="8">
         <f t="shared" si="133"/>
-        <v>10918.864175936551</v>
+        <v>9067.266414595153</v>
       </c>
       <c r="DE107" s="8">
         <f t="shared" si="133"/>
-        <v>11028.052817695916</v>
+        <v>9157.9390787411048</v>
       </c>
       <c r="DF107" s="8">
         <f t="shared" si="133"/>
-        <v>11138.333345872876</v>
+        <v>9249.5184695285152</v>
       </c>
       <c r="DG107" s="8">
         <f t="shared" si="133"/>
-        <v>11249.716679331605</v>
+        <v>9342.0136542237997</v>
       </c>
       <c r="DH107" s="8">
         <f t="shared" si="133"/>
-        <v>11362.213846124921</v>
+        <v>9435.4337907660374</v>
       </c>
       <c r="DI107" s="8">
         <f t="shared" si="133"/>
-        <v>11475.835984586171</v>
+        <v>9529.7881286736974</v>
       </c>
       <c r="DJ107" s="8">
         <f t="shared" si="133"/>
-        <v>11590.594344432033</v>
+        <v>9625.0860099604342</v>
       </c>
       <c r="DK107" s="8">
         <f t="shared" si="133"/>
-        <v>11706.500287876353</v>
+        <v>9721.3368700600386</v>
       </c>
       <c r="DL107" s="8">
         <f t="shared" si="133"/>
-        <v>11823.565290755118</v>
+        <v>9818.5502387606393</v>
       </c>
       <c r="DM107" s="8">
         <f t="shared" si="133"/>
-        <v>11941.800943662669</v>
+        <v>9916.7357411482462</v>
       </c>
       <c r="DN107" s="8">
         <f t="shared" si="133"/>
-        <v>12061.218953099296</v>
+        <v>10015.903098559729</v>
       </c>
       <c r="DO107" s="8">
         <f t="shared" si="133"/>
-        <v>12181.83114263029</v>
+        <v>10116.062129545326</v>
       </c>
       <c r="DP107" s="8">
         <f t="shared" si="133"/>
-        <v>12303.649454056593</v>
+        <v>10217.22275084078</v>
       </c>
       <c r="DQ107" s="8">
         <f t="shared" si="133"/>
-        <v>12426.685948597158</v>
+        <v>10319.394978349188</v>
       </c>
       <c r="DR107" s="8">
         <f t="shared" si="133"/>
-        <v>12550.95280808313</v>
+        <v>10422.58892813268</v>
       </c>
     </row>
   </sheetData>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E61568-B9A7-439E-9F00-7DE0FE14332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745770EA-A767-4EB0-BE83-72C86A2403D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="330" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="1770" yWindow="210" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1444,10 +1444,10 @@
   <dimension ref="A1:DR103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB53" sqref="AB53"/>
+      <selection pane="bottomRight" activeCell="AA66" sqref="AA66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3943,7 +3943,7 @@
         <v>9</v>
       </c>
       <c r="AC53" s="6">
-        <v>8.5000000000000006E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AD53" s="10"/>
       <c r="AE53" s="10"/>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="AC54" s="8">
         <f>NPV(AC53,V49:CN49)+Main!N6-Main!N7</f>
-        <v>37925.926509958255</v>
+        <v>33918.611138370936</v>
       </c>
     </row>
     <row r="55" spans="2:92" x14ac:dyDescent="0.2">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="AC55" s="13">
         <f>AC54/Main!N4</f>
-        <v>63.54667489353281</v>
+        <v>56.832229379663772</v>
       </c>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
@@ -4135,7 +4135,7 @@
       <c r="AA56" s="12"/>
       <c r="AC56" s="5">
         <f>AC55/Main!N3-1</f>
-        <v>0.38144945420723508</v>
+        <v>0.23548324738399495</v>
       </c>
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745770EA-A767-4EB0-BE83-72C86A2403D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F29056-4392-4942-AE7B-6A223E7A3435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="210" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="4410" yWindow="270" windowWidth="20805" windowHeight="15015" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="N5" s="2">
         <f>N4*N3</f>
-        <v>27453.72</v>
+        <v>26856.9</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="N8" s="2">
         <f>N5+N7-N6</f>
-        <v>22816.720000000001</v>
+        <v>22219.9</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1444,10 +1444,10 @@
   <dimension ref="A1:DR103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA66" sqref="AA66"/>
+      <selection pane="bottomRight" activeCell="X51" sqref="X51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4135,7 +4135,7 @@
       <c r="AA56" s="12"/>
       <c r="AC56" s="5">
         <f>AC55/Main!N3-1</f>
-        <v>0.23548324738399495</v>
+        <v>0.26293843065919487</v>
       </c>
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>

--- a/SMCI.xlsx
+++ b/SMCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F29056-4392-4942-AE7B-6A223E7A3435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1F81DB-82EC-43B0-8130-AAD1FD8FF035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="270" windowWidth="20805" windowHeight="15015" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22200" windowHeight="14805" activeTab="1" xr2:uid="{DF0DB4ED-CAE9-4E97-ABC6-569A6BB0DC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1447,7 +1447,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="T32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X51" sqref="X51"/>
+      <selection pane="bottomRight" activeCell="AD53" sqref="AD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
